--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC34CDC4-0F79-457E-ACAD-7DC3CD569192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2147A548-E098-4034-BD55-4C3964A0A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="411">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1453,24 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BIRTH_DT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,9 +1472,6 @@
     <t>BANK</t>
   </si>
   <si>
-    <t>ACCOUNT</t>
-  </si>
-  <si>
     <t>SIGNUP_DT</t>
   </si>
   <si>
@@ -1520,9 +1499,6 @@
     <t>IP</t>
   </si>
   <si>
-    <t>ORDER</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -1538,9 +1514,6 @@
     <t>AUTH_YN</t>
   </si>
   <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
     <t>INFO</t>
   </si>
   <si>
@@ -1567,6 +1540,40 @@
   </si>
   <si>
     <t>PARAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PW</t>
+  </si>
+  <si>
+    <t>USER_PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1806,6 +1813,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1821,7 +1831,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1831,12 +1844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2173,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2193,16 +2200,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2242,15 +2249,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2299,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>117</v>
@@ -2319,11 +2326,11 @@
       </c>
       <c r="J6" t="str">
         <f>_xlfn.CONCAT(IF(B6=1,"",", "),C6," ",E6," ",G6,IF(H6="",""," DEFAULT "),H6, " COMMENT '",I6,"'")</f>
-        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K6" t="str">
         <f>_xlfn.CONCAT(IF(B6=1,"",", "),C6," ",E6," ",G6,IF(H6="",""," DEFAULT "),H6, " COMMENT '",I6,"'")</f>
-        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2331,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>118</v>
@@ -2349,11 +2356,11 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J30" si="0">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
-        <v>, PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
+        <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ref="K7:K30" si="1">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
-        <v>, PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
+        <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -2361,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>280</v>
@@ -2379,11 +2386,11 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>, NAME VARCHAR(30) NULL COMMENT '이름'</v>
+        <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>, NAME VARCHAR(30) NULL COMMENT '이름'</v>
+        <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -2391,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>281</v>
@@ -2421,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>282</v>
@@ -2451,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>283</v>
@@ -2481,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>284</v>
@@ -2511,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>285</v>
@@ -2541,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>286</v>
@@ -2571,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>287</v>
@@ -2589,11 +2596,11 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>, ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
+        <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>, ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
+        <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -2601,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>288</v>
@@ -2631,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>289</v>
@@ -2663,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>290</v>
@@ -2695,7 +2702,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>291</v>
@@ -2727,7 +2734,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>292</v>
@@ -2791,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>279</v>
@@ -3088,17 +3095,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3112,26 +3119,26 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="str">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="str">
         <f>C6</f>
-        <v>ID</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+        <v>USER_ID</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
-        <v>ID</v>
+        <v>USER_ID</v>
       </c>
       <c r="K33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
-        <v>ID</v>
+        <v>USER_ID</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
@@ -3145,16 +3152,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3194,15 +3201,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3313,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>294</v>
@@ -3482,17 +3489,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3506,19 +3513,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="23" t="str">
+      <c r="C48" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="str">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3539,16 +3546,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3588,15 +3595,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3741,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>227</v>
@@ -3771,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>124</v>
@@ -3940,17 +3947,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -3964,19 +3971,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="str">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -3990,19 +3997,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="str">
+      <c r="C66" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="str">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4023,16 +4030,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4072,15 +4079,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4193,10 +4200,10 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>47</v>
@@ -4213,11 +4220,11 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
-        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="7"/>
-        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.4">
@@ -4225,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>115</v>
@@ -4298,17 +4305,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4322,19 +4329,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23" t="str">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4355,16 +4362,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4404,15 +4411,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4525,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>114</v>
@@ -4545,11 +4552,11 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" si="8"/>
-        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="9"/>
-        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.4">
@@ -4557,7 +4564,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>115</v>
@@ -4589,7 +4596,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>247</v>
@@ -4621,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>248</v>
@@ -4694,17 +4701,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4718,19 +4725,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="23" t="str">
+      <c r="C94" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23" t="str">
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4751,16 +4758,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4800,15 +4807,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -4891,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>189</v>
@@ -4921,7 +4928,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>190</v>
@@ -4981,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>192</v>
@@ -5150,17 +5157,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5174,19 +5181,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="23" t="str">
+      <c r="C111" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23" t="str">
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5207,16 +5214,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5256,15 +5263,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5347,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>141</v>
@@ -5377,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>142</v>
@@ -5407,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>145</v>
@@ -5437,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>146</v>
@@ -5467,7 +5474,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>144</v>
@@ -5497,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>143</v>
@@ -5666,17 +5673,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22" t="s">
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5690,19 +5697,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="23" t="str">
+      <c r="C130" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23" t="str">
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5723,16 +5730,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5772,15 +5779,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6226,17 +6233,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22" t="s">
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6250,19 +6257,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="23" t="str">
+      <c r="C150" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23" t="str">
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6276,19 +6283,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="23" t="str">
+      <c r="C151" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23" t="str">
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6309,16 +6316,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6358,15 +6365,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6490,17 +6497,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22" t="s">
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6514,19 +6521,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="23" t="str">
+      <c r="C161" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23" t="str">
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6547,16 +6554,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6596,15 +6603,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6780,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>278</v>
@@ -6949,17 +6956,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22" t="s">
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6973,19 +6980,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="23" t="str">
+      <c r="C178" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23" t="str">
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7006,16 +7013,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7055,15 +7062,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7146,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>259</v>
@@ -7208,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>263</v>
@@ -7239,7 +7246,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>264</v>
@@ -7271,7 +7278,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>265</v>
@@ -7303,7 +7310,7 @@
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>267</v>
@@ -7335,7 +7342,7 @@
         <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>268</v>
@@ -7355,11 +7362,11 @@
       </c>
       <c r="J191" t="str">
         <f t="shared" si="24"/>
-        <v>, LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
+        <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
       <c r="K191" t="str">
         <f t="shared" si="25"/>
-        <v>, LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
+        <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.4">
@@ -7367,7 +7374,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>269</v>
@@ -7399,7 +7406,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>270</v>
@@ -7419,11 +7426,11 @@
       </c>
       <c r="J193" t="str">
         <f t="shared" ref="J193" si="26">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
-        <v>, ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
       <c r="K193" t="str">
         <f t="shared" ref="K193" si="27">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
-        <v>, ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.4">
@@ -7431,7 +7438,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>275</v>
@@ -7600,17 +7607,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22" t="s">
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7624,19 +7631,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="23" t="str">
+      <c r="C201" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="23" t="str">
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7657,16 +7664,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -7706,15 +7713,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -7829,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>336</v>
@@ -7847,11 +7854,11 @@
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
       <c r="K209" t="str">
         <f t="shared" ref="K209:K214" si="28">_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.4">
@@ -7859,7 +7866,7 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>337</v>
@@ -8027,17 +8034,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22" t="s">
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8051,19 +8058,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="23" t="str">
+      <c r="C217" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23" t="str">
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="23"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8084,16 +8091,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8133,15 +8140,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="21"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="22"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8190,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>117</v>
@@ -8210,11 +8217,11 @@
       </c>
       <c r="J223" t="str">
         <f>_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,IF(H223="",""," DEFAULT "),H223, " COMMENT '",I223,"'")</f>
-        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K223" t="str">
         <f>_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,IF(H223="",""," DEFAULT "),H223, " COMMENT '",I223,"'")</f>
-        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.4">
@@ -8329,17 +8336,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22" t="s">
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8353,45 +8360,45 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="23" t="str">
+      <c r="C229" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23" t="str">
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18" t="str">
         <f>C223</f>
-        <v>ID</v>
-      </c>
-      <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="23"/>
+        <v>USER_ID</v>
+      </c>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
-        <v>ID</v>
+        <v>USER_ID</v>
       </c>
       <c r="K229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
-        <v>ID</v>
+        <v>USER_ID</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="23" t="str">
+      <c r="C230" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="23"/>
-      <c r="E230" s="23"/>
-      <c r="F230" s="23" t="str">
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="23"/>
-      <c r="H230" s="23"/>
-      <c r="I230" s="23"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8412,16 +8419,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="21"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8461,15 +8468,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="22"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8785,17 +8792,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="22"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="22" t="s">
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="22"/>
-      <c r="H245" s="22"/>
-      <c r="I245" s="22"/>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8809,19 +8816,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="23" t="str">
+      <c r="C246" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23" t="str">
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
-      <c r="I246" s="23"/>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -8835,19 +8842,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="23" t="str">
+      <c r="C247" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="23"/>
-      <c r="E247" s="23"/>
-      <c r="F247" s="23" t="str">
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="23"/>
-      <c r="H247" s="23"/>
-      <c r="I247" s="23"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -8869,28 +8876,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -8907,60 +8946,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8971,8 +8978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA90"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8998,10 +9005,10 @@
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9174,15 +9181,15 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9201,7 +9208,7 @@
         <v>277</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>64</v>
@@ -9421,12 +9428,12 @@
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9578,15 +9585,15 @@
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -9602,10 +9609,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>64</v>
@@ -10240,22 +10247,22 @@
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>64</v>
@@ -10319,7 +10326,7 @@
       <c r="Z50" s="13"/>
       <c r="AA50" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C48, "(", _xlfn.TEXTJOIN(",",TRUE,C49:Z49),") VALUES")</f>
-        <v>INSERT INTO TB_USER(ID,PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.4">
@@ -10375,20 +10382,20 @@
       <c r="B54" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
@@ -10398,31 +10405,31 @@
         <v>299</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>260</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>295</v>
@@ -10495,7 +10502,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C54, "(", _xlfn.TEXTJOIN(",",TRUE,C55:Z55),") VALUES")</f>
-        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,LEVEL,INFO,ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.4">
@@ -11047,12 +11054,12 @@
       <c r="B70" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="10" t="s">
@@ -11065,7 +11072,7 @@
         <v>332</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>295</v>
@@ -11119,7 +11126,7 @@
       <c r="Z72" s="13"/>
       <c r="AA72" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C70, "(", _xlfn.TEXTJOIN(",",TRUE,C71:Z71),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ORDER,FST_REG_ID) VALUES</v>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.4">
@@ -11236,18 +11243,18 @@
       <c r="B79" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>331</v>
@@ -11301,7 +11308,7 @@
       <c r="Z81" s="13"/>
       <c r="AA81" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C79, "(", _xlfn.TEXTJOIN(",",TRUE,C80:Z80),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
+        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.4">
@@ -11349,14 +11356,14 @@
       <c r="B85" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B86" s="17" t="s">
@@ -11496,14 +11503,14 @@
       <c r="B90" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
       <c r="AA90" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
@@ -11511,16 +11518,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C54:N54"/>
     <mergeCell ref="C70:F70"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C85:H85"/>
     <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C54:N54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B57:N68">

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2147A548-E098-4034-BD55-4C3964A0A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E84B0-3717-421F-B084-09C425589444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="414">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1574,6 +1574,18 @@
   </si>
   <si>
     <t>MNU_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin/manageRole"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"권한그룹 관리"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자가 권한그룹을 조회 및 관리할 수 있는 메뉴입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1813,9 +1825,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,10 +1840,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1844,6 +1850,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2200,16 +2212,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2249,15 +2261,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3095,17 +3107,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3119,19 +3131,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="18" t="str">
+      <c r="C33" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="str">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3152,16 +3164,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3201,15 +3213,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3489,17 +3501,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3513,19 +3525,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="str">
+      <c r="C48" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="str">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3546,16 +3558,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3595,15 +3607,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3947,17 +3959,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -3971,19 +3983,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="18" t="str">
+      <c r="C65" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18" t="str">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -3997,19 +4009,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="18" t="str">
+      <c r="C66" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18" t="str">
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4030,16 +4042,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4079,15 +4091,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4305,17 +4317,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4329,19 +4341,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="18" t="str">
+      <c r="C79" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18" t="str">
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4362,16 +4374,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4411,15 +4423,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4701,17 +4713,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4725,19 +4737,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="18" t="str">
+      <c r="C94" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18" t="str">
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4758,16 +4770,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4807,15 +4819,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5157,17 +5169,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23" t="s">
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5181,19 +5193,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="18" t="str">
+      <c r="C111" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18" t="str">
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5214,16 +5226,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5263,15 +5275,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5673,17 +5685,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23" t="s">
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5697,19 +5709,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="18" t="str">
+      <c r="C130" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18" t="str">
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5730,16 +5742,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="21"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5779,15 +5791,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6233,17 +6245,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23" t="s">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6257,19 +6269,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="18" t="str">
+      <c r="C150" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18" t="str">
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6283,19 +6295,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="18" t="str">
+      <c r="C151" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18" t="str">
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6316,16 +6328,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="21"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="20"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6365,15 +6377,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6497,17 +6509,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23" t="s">
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6521,19 +6533,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="18" t="str">
+      <c r="C161" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="str">
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6554,16 +6566,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="21"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="20"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6603,15 +6615,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6956,17 +6968,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23" t="s">
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
-      <c r="I177" s="23"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6980,19 +6992,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="18" t="str">
+      <c r="C178" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="str">
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7013,16 +7025,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="21"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="20"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7062,15 +7074,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="22"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7607,17 +7619,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C200" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23" t="s">
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7631,19 +7643,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="18" t="str">
+      <c r="C201" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18" t="str">
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7664,16 +7676,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="21"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="20"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -7713,15 +7725,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="22"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8034,17 +8046,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="23" t="s">
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="23"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="23"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="22"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8058,19 +8070,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="18" t="str">
+      <c r="C217" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18" t="str">
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="18"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8091,16 +8103,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="21"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="20"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8140,15 +8152,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="22" t="s">
+      <c r="C221" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="22"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8336,17 +8348,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C228" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="23" t="s">
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="23"/>
-      <c r="H228" s="23"/>
-      <c r="I228" s="23"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="22"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8360,19 +8372,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="18" t="str">
+      <c r="C229" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18" t="str">
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="18"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8386,19 +8398,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="18" t="str">
+      <c r="C230" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18" t="str">
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="18"/>
-      <c r="H230" s="18"/>
-      <c r="I230" s="18"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8419,16 +8431,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-      <c r="I232" s="21"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+      <c r="I232" s="20"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8468,15 +8480,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="22" t="s">
+      <c r="C234" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="D234" s="22"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="22"/>
-      <c r="I234" s="22"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8792,17 +8804,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="23" t="s">
+      <c r="C245" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23" t="s">
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="22"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8816,19 +8828,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="18" t="str">
+      <c r="C246" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18" t="str">
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
-      <c r="I246" s="18"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -8842,19 +8854,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="18" t="str">
+      <c r="C247" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18" t="str">
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
-      <c r="I247" s="18"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -8876,60 +8888,28 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -8946,28 +8926,60 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8976,10 +8988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA90"/>
+  <dimension ref="B2:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="J46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8994,7 +9006,7 @@
     <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="26" width="12.5" hidden="1" customWidth="1"/>
@@ -9005,10 +9017,10 @@
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9181,15 +9193,15 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9428,12 +9440,12 @@
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9585,15 +9597,15 @@
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -10247,12 +10259,12 @@
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -10382,20 +10394,20 @@
       <c r="B54" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
@@ -10546,7 +10558,7 @@
         <v>204</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" ref="AA57:AA65" si="8">_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
+        <f t="shared" ref="AA57:AA66" si="8">_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10636,7 +10648,7 @@
         <v>204</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" ref="AA59" si="9">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+        <f t="shared" ref="AA59:AA61" si="9">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10693,16 +10705,16 @@
         <v>302</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>306</v>
+        <v>411</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>266</v>
@@ -10711,13 +10723,13 @@
         <v>266</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="L61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>204</v>
@@ -10726,8 +10738,8 @@
         <v>204</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹을 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.4">
@@ -10738,16 +10750,16 @@
         <v>302</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>266</v>
@@ -10759,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>204</v>
@@ -10772,7 +10784,7 @@
       </c>
       <c r="AA62" t="str">
         <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.4">
@@ -10783,16 +10795,16 @@
         <v>302</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>266</v>
@@ -10804,10 +10816,10 @@
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>204</v>
@@ -10817,7 +10829,7 @@
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.4">
@@ -10828,16 +10840,16 @@
         <v>302</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>266</v>
@@ -10849,10 +10861,10 @@
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L64" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>204</v>
@@ -10862,7 +10874,7 @@
       </c>
       <c r="AA64" t="str">
         <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.4">
@@ -10873,16 +10885,16 @@
         <v>302</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>266</v>
@@ -10894,10 +10906,10 @@
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L65" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>204</v>
@@ -10907,7 +10919,7 @@
       </c>
       <c r="AA65" t="str">
         <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.4">
@@ -10918,10 +10930,10 @@
         <v>302</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>329</v>
@@ -10933,16 +10945,16 @@
         <v>266</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="J66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="L66" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>204</v>
@@ -10951,8 +10963,8 @@
         <v>204</v>
       </c>
       <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA68" si="10">_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.4">
@@ -10963,31 +10975,31 @@
         <v>302</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J67" s="1">
+        <v>2</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L67" s="1">
         <v>1</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L67" s="1">
-        <v>7</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>204</v>
@@ -10996,8 +11008,8 @@
         <v>204</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" si="10"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA67:AA69" si="10">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
@@ -11008,10 +11020,10 @@
         <v>302</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>326</v>
@@ -11023,16 +11035,16 @@
         <v>228</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="J68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="L68" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>204</v>
@@ -11042,74 +11054,85 @@
       </c>
       <c r="AA68" t="str">
         <f t="shared" si="10"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <v>13</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="10"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA69" t="s">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA70" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C70,";")</f>
-        <v>TRUNCATE TB_ROLE;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B72" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -11124,51 +11147,64 @@
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
-      <c r="AA72" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C70, "(", _xlfn.TEXTJOIN(",",TRUE,C71:Z71),") VALUES")</f>
+      <c r="AA72" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C71,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B73" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C71, "(", _xlfn.TEXTJOIN(",",TRUE,C72:Z72),") VALUES")</f>
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B73" s="1">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA73" t="str">
-        <f t="shared" ref="AA73:AA77" si="11">_xlfn.CONCAT(IF(B73=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C73:Z73),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" ref="AA74" si="12">_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
+        <f t="shared" ref="AA74:AA78" si="11">_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.4">
@@ -11179,119 +11215,109 @@
         <v>342</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA75" t="str">
+        <f t="shared" ref="AA75" si="12">_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA76" t="str">
         <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B76" s="1">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
         <v>3</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E77" s="1">
         <v>4</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AA76" t="str">
+      <c r="AA77" t="str">
         <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"SYSTEM")</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B77" s="1">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
         <v>4</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E78" s="1">
         <v>5</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AA77" t="str">
+      <c r="AA78" t="str">
         <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"SYSTEM")</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA78" t="s">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA79" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B79" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="13"/>
-      <c r="AA80" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C79,";")</f>
-        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>117</v>
+        <v>402</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -11306,126 +11332,117 @@
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
-      <c r="AA81" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C79, "(", _xlfn.TEXTJOIN(",",TRUE,C80:Z80),") VALUES")</f>
+      <c r="AA81" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C80,";")</f>
+        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B82" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C80, "(", _xlfn.TEXTJOIN(",",TRUE,C81:Z81),") VALUES")</f>
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" s="8">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA82" t="str">
-        <f t="shared" ref="AA82" si="13">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
-        <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" ref="AA83" si="14">_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
+        <f t="shared" ref="AA83" si="13">_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
+        <v>("admin",3,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" ref="AA84" si="14">_xlfn.CONCAT(IF(B84=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C84:Z84),")")</f>
         <v>,("user",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA84" t="s">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA85" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B85" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B86" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
-      <c r="AA86" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C85,";")</f>
-        <v>TRUNCATE TB_AUTH;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -11440,53 +11457,66 @@
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
-      <c r="AA87" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C85, "(", _xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
+      <c r="AA87" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C86,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B88" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C86, "(", _xlfn.TEXTJOIN(",",TRUE,C87:Z87),")")</f>
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
-      </c>
-    </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D88" s="8">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1">
-        <v>2</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA88" t="str">
-        <f>_xlfn.CONCAT(IF(B88&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C88:Z88)," FROM ", $C$90)</f>
-        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D89" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>204</v>
@@ -11495,42 +11525,69 @@
         <v>204</v>
       </c>
       <c r="AA89" t="str">
-        <f>_xlfn.CONCAT(IF(B89&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C89:Z89)," FROM ", $C$90)</f>
+        <f>_xlfn.CONCAT(IF(B89&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C89:Z89)," FROM ", $C$91)</f>
+        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA90" t="str">
+        <f>_xlfn.CONCAT(IF(B90&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C90:Z90)," FROM ", $C$91)</f>
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B90" s="17" t="s">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B91" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C91" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="AA90" t="str">
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="AA91" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C91:H91"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C90:H90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B57:N68">
+  <conditionalFormatting sqref="B57:N69">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$J57 = 1</formula>
     </cfRule>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E84B0-3717-421F-B084-09C425589444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B1E967-834D-48D8-93D9-FB6883296E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="422">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1586,6 +1586,38 @@
   </si>
   <si>
     <t>"관리자가 권한그룹을 조회 및 관리할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시스템 사용자의 기본 권한"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"프로젝트 열람을 위한 권한"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시스템 관리자 권한"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사용자 중 시터로 활동하기 위한 권한"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"중고 장터 기업 권한"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"user1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사용자1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1770,7 +1802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1841,15 +1873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2192,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8990,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9001,7 +9024,7 @@
     <col min="3" max="3" width="38.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
@@ -10264,7 +10287,8 @@
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -10277,12 +10301,14 @@
         <v>404</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="13"/>
       <c r="K49" s="12"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -10315,12 +10341,14 @@
         <v>118</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
@@ -10338,7 +10366,7 @@
       <c r="Z50" s="13"/>
       <c r="AA50" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C48, "(", _xlfn.TEXTJOIN(",",TRUE,C49:Z49),") VALUES")</f>
-        <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.4">
@@ -10352,15 +10380,18 @@
         <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>204</v>
       </c>
       <c r="K51" s="11"/>
       <c r="AA51" t="str">
         <f>_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
-        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
+        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.4">
@@ -10368,21 +10399,24 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>204</v>
       </c>
       <c r="K52" s="11"/>
       <c r="AA52" t="str">
         <f>_xlfn.CONCAT(IF(B52=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C52:Z52),")")</f>
-        <v>,("user","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
+        <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
@@ -11132,6 +11166,9 @@
         <v>409</v>
       </c>
       <c r="F72" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>295</v>
       </c>
       <c r="K72" s="13"/>
@@ -11166,6 +11203,9 @@
         <v>336</v>
       </c>
       <c r="F73" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>297</v>
       </c>
       <c r="K73" s="13"/>
@@ -11183,7 +11223,7 @@
       <c r="Z73" s="13"/>
       <c r="AA73" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C71, "(", _xlfn.TEXTJOIN(",",TRUE,C72:Z72),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.4">
@@ -11200,11 +11240,14 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" ref="AA74:AA78" si="11">_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM")</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.4">
@@ -11221,11 +11264,14 @@
         <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" ref="AA75" si="12">_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM")</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.4">
@@ -11242,11 +11288,14 @@
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" si="11"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"SYSTEM")</v>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM")</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.4">
@@ -11263,11 +11312,14 @@
         <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" si="11"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"SYSTEM")</v>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM")</v>
       </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.4">
@@ -11284,11 +11336,14 @@
         <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA78" t="str">
         <f t="shared" si="11"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"SYSTEM")</v>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM")</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.4">
@@ -11391,7 +11446,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
@@ -11401,7 +11456,7 @@
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="14">_xlfn.CONCAT(IF(B84=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C84:Z84),")")</f>
-        <v>,("user",1,"SYSTEM")</v>
+        <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.4">
@@ -11413,14 +11468,14 @@
       <c r="B86" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="17" t="s">
@@ -11580,8 +11635,8 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C86:H86"/>
     <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C48:F48"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C54:N54"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B1E967-834D-48D8-93D9-FB6883296E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69865E-A721-4741-983D-E98E51E83E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="460">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1619,6 +1619,120 @@
   <si>
     <t>"사용자1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"user2"</t>
+  </si>
+  <si>
+    <t>"user3"</t>
+  </si>
+  <si>
+    <t>"user4"</t>
+  </si>
+  <si>
+    <t>"user5"</t>
+  </si>
+  <si>
+    <t>"user6"</t>
+  </si>
+  <si>
+    <t>"user7"</t>
+  </si>
+  <si>
+    <t>"user8"</t>
+  </si>
+  <si>
+    <t>"사용자2"</t>
+  </si>
+  <si>
+    <t>"사용자3"</t>
+  </si>
+  <si>
+    <t>"사용자4"</t>
+  </si>
+  <si>
+    <t>"사용자5"</t>
+  </si>
+  <si>
+    <t>"사용자6"</t>
+  </si>
+  <si>
+    <t>"사용자7"</t>
+  </si>
+  <si>
+    <t>"사용자8"</t>
+  </si>
+  <si>
+    <t>"user9"</t>
+  </si>
+  <si>
+    <t>"user10"</t>
+  </si>
+  <si>
+    <t>"user11"</t>
+  </si>
+  <si>
+    <t>"user12"</t>
+  </si>
+  <si>
+    <t>"user13"</t>
+  </si>
+  <si>
+    <t>"user14"</t>
+  </si>
+  <si>
+    <t>"user15"</t>
+  </si>
+  <si>
+    <t>"user16"</t>
+  </si>
+  <si>
+    <t>"user17"</t>
+  </si>
+  <si>
+    <t>"user18"</t>
+  </si>
+  <si>
+    <t>"user19"</t>
+  </si>
+  <si>
+    <t>"사용자9"</t>
+  </si>
+  <si>
+    <t>"사용자10"</t>
+  </si>
+  <si>
+    <t>"사용자11"</t>
+  </si>
+  <si>
+    <t>"사용자12"</t>
+  </si>
+  <si>
+    <t>"사용자13"</t>
+  </si>
+  <si>
+    <t>"사용자14"</t>
+  </si>
+  <si>
+    <t>"사용자15"</t>
+  </si>
+  <si>
+    <t>"사용자16"</t>
+  </si>
+  <si>
+    <t>"사용자17"</t>
+  </si>
+  <si>
+    <t>"사용자18"</t>
+  </si>
+  <si>
+    <t>"사용자19"</t>
+  </si>
+  <si>
+    <t>"user20"</t>
+  </si>
+  <si>
+    <t>"사용자20"</t>
   </si>
 </sst>
 </file>
@@ -1857,6 +1971,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,9 +1987,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2235,16 +2349,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2284,15 +2398,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3130,17 +3244,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3154,19 +3268,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="str">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3187,16 +3301,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3236,15 +3350,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3524,17 +3638,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3548,19 +3662,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="23" t="str">
+      <c r="C48" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="str">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3581,16 +3695,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3630,15 +3744,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3982,17 +4096,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4006,19 +4120,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="str">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4032,19 +4146,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="str">
+      <c r="C66" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="str">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4065,16 +4179,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4114,15 +4228,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4340,17 +4454,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4364,19 +4478,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23" t="str">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4397,16 +4511,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4446,15 +4560,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4736,17 +4850,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4760,19 +4874,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="23" t="str">
+      <c r="C94" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23" t="str">
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4793,16 +4907,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4842,15 +4956,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5192,17 +5306,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5216,19 +5330,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="23" t="str">
+      <c r="C111" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23" t="str">
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5249,16 +5363,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5298,15 +5412,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5708,17 +5822,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22" t="s">
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5732,19 +5846,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="23" t="str">
+      <c r="C130" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23" t="str">
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5765,16 +5879,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5814,15 +5928,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6268,17 +6382,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22" t="s">
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6292,19 +6406,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="23" t="str">
+      <c r="C150" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23" t="str">
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6318,19 +6432,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="23" t="str">
+      <c r="C151" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23" t="str">
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6351,16 +6465,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6400,15 +6514,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6532,17 +6646,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22" t="s">
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6556,19 +6670,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="23" t="str">
+      <c r="C161" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23" t="str">
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6589,16 +6703,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6638,15 +6752,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6991,17 +7105,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22" t="s">
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7015,19 +7129,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="23" t="str">
+      <c r="C178" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23" t="str">
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7048,16 +7162,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7097,15 +7211,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7642,17 +7756,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22" t="s">
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7666,19 +7780,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="23" t="str">
+      <c r="C201" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="23" t="str">
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7699,16 +7813,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -7748,15 +7862,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8069,17 +8183,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22" t="s">
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8093,19 +8207,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="23" t="str">
+      <c r="C217" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23" t="str">
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="23"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8126,16 +8240,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8175,15 +8289,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="21"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="22"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8371,17 +8485,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22" t="s">
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8395,19 +8509,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="23" t="str">
+      <c r="C229" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23" t="str">
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="23"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8421,19 +8535,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="23" t="str">
+      <c r="C230" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="23"/>
-      <c r="E230" s="23"/>
-      <c r="F230" s="23" t="str">
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="23"/>
-      <c r="H230" s="23"/>
-      <c r="I230" s="23"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8454,16 +8568,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="21"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8503,15 +8617,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="22"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8827,17 +8941,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="22"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="22" t="s">
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="22"/>
-      <c r="H245" s="22"/>
-      <c r="I245" s="22"/>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8851,19 +8965,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="23" t="str">
+      <c r="C246" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23" t="str">
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
-      <c r="I246" s="23"/>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -8877,19 +8991,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="23" t="str">
+      <c r="C247" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="23"/>
-      <c r="E247" s="23"/>
-      <c r="F247" s="23" t="str">
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="23"/>
-      <c r="H247" s="23"/>
-      <c r="I247" s="23"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -8911,28 +9025,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -8949,60 +9095,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9011,10 +9125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA91"/>
+  <dimension ref="B2:AA129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="L100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9040,10 +9154,10 @@
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9216,15 +9330,15 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9463,12 +9577,12 @@
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9620,15 +9734,15 @@
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -10420,1231 +10534,2048 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA53" t="s">
-        <v>209</v>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="AA53" t="str">
+        <f>_xlfn.CONCAT(IF(B53=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C53:Z53),")")</f>
+        <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B54" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="AA54" t="str">
+        <f>_xlfn.CONCAT(IF(B54=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C54:Z54),")")</f>
+        <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
+      </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B55" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C54,";")</f>
-        <v>TRUNCATE TB_MNU;</v>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="AA55" t="str">
+        <f>_xlfn.CONCAT(IF(B55=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C55:Z55),")")</f>
+        <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
+      <c r="B56" s="1">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="11"/>
       <c r="AA56" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C54, "(", _xlfn.TEXTJOIN(",",TRUE,C55:Z55),") VALUES")</f>
-        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <f>_xlfn.CONCAT(IF(B56=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C56:Z56),")")</f>
+        <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J57" s="1">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L57" s="1">
-        <v>1</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K57" s="11"/>
       <c r="AA57" t="str">
-        <f t="shared" ref="AA57:AA66" si="8">_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
-        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
+        <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="AA58" t="str">
+        <f>_xlfn.CONCAT(IF(B58=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C58:Z58),")")</f>
+        <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="AA59" t="str">
+        <f>_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+        <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B60" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="AA60" t="str">
+        <f>_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
+        <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B61" s="1">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="AA61" t="str">
+        <f>_xlfn.CONCAT(IF(B61=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C61:Z61),")")</f>
+        <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B62" s="1">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="AA62" t="str">
+        <f>_xlfn.CONCAT(IF(B62=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C62:Z62),")")</f>
+        <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B63" s="1">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="AA63" t="str">
+        <f>_xlfn.CONCAT(IF(B63=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C63:Z63),")")</f>
+        <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B64" s="1">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="AA64" t="str">
+        <f>_xlfn.CONCAT(IF(B64=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C64:Z64),")")</f>
+        <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B65" s="1">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="AA65" t="str">
+        <f>_xlfn.CONCAT(IF(B65=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C65:Z65),")")</f>
+        <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B66" s="1">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="AA66" t="str">
+        <f>_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
+        <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B67" s="1">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="AA67" t="str">
+        <f>_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
+        <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B68" s="1">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="AA68" t="str">
+        <f>_xlfn.CONCAT(IF(B68=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C68:Z68),")")</f>
+        <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="11"/>
+      <c r="AA69" t="str">
+        <f>_xlfn.CONCAT(IF(B69=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C69:Z69),")")</f>
+        <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
+        <v>20</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="AA70" t="str">
+        <f>_xlfn.CONCAT(IF(B70=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C70:Z70),")")</f>
+        <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
+        <v>20</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="AA71" t="str">
+        <f>_xlfn.CONCAT(IF(B71=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C71:Z71),")")</f>
+        <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B73" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B74" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C73,";")</f>
+        <v>TRUNCATE TB_MNU;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B75" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C73, "(", _xlfn.TEXTJOIN(",",TRUE,C74:Z74),") VALUES")</f>
+        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" ref="AA76:AA85" si="8">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
         <v>2</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F77" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G77" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J77" s="1">
         <v>2</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L77" s="1">
         <v>1</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA58" t="str">
+      <c r="M77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA77" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B59" s="1">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
         <v>3</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F78" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G78" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J78" s="1">
         <v>2</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L78" s="1">
         <v>2</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA59" t="str">
-        <f t="shared" ref="AA59:AA61" si="9">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+      <c r="M78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" ref="AA78:AA80" si="9">_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="1">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B79" s="1">
         <v>4</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F79" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G79" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J79" s="1">
         <v>2</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L79" s="1">
         <v>3</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA60" t="str">
-        <f>_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
+      <c r="M79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA79" t="str">
+        <f>_xlfn.CONCAT(IF(B79=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C79:Z79),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B61" s="1">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B80" s="1">
         <v>5</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F80" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G80" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J80" s="1">
         <v>2</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L80" s="1">
         <v>4</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA61" t="str">
+      <c r="M80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA80" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹을 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B62" s="1">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B81" s="1">
         <v>6</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F81" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J81" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L81" s="1">
         <v>2</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA62" t="str">
+      <c r="M81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA81" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B63" s="1">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B82" s="1">
         <v>7</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F82" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J82" s="1">
         <v>1</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L82" s="1">
         <v>3</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA63" t="str">
+      <c r="M82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA82" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B64" s="1">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
         <v>8</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F83" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G83" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J83" s="1">
         <v>1</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L83" s="1">
         <v>4</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA64" t="str">
+      <c r="M83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA83" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B65" s="1">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
         <v>9</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J84" s="1">
         <v>1</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L84" s="1">
         <v>5</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA65" t="str">
+      <c r="M84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA84" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B66" s="1">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
         <v>10</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J85" s="1">
         <v>1</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L85" s="1">
         <v>6</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA66" t="str">
+      <c r="M85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA85" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B67" s="1">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
         <v>11</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J86" s="1">
         <v>2</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L86" s="1">
         <v>1</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA69" si="10">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
+      <c r="M86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" ref="AA86:AA88" si="10">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="1">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B87" s="1">
         <v>12</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J87" s="1">
         <v>1</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L87" s="1">
         <v>7</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA68" t="str">
+      <c r="M87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA87" t="str">
         <f t="shared" si="10"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="1">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B88" s="1">
         <v>13</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G88" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J88" s="1">
         <v>2</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L88" s="1">
         <v>1</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA69" t="str">
+      <c r="M88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA88" t="str">
         <f t="shared" si="10"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA70" t="s">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA89" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="10" t="s">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B90" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C90" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="10" t="s">
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B91" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E91" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F91" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C71,";")</f>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C90,";")</f>
         <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B73" s="10" t="s">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B92" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D92" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E92" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F92" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C71, "(", _xlfn.TEXTJOIN(",",TRUE,C72:Z72),") VALUES")</f>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="13"/>
+      <c r="AA92" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C90, "(", _xlfn.TEXTJOIN(",",TRUE,C91:Z91),") VALUES")</f>
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID) VALUES</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B74" s="1">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA74" t="str">
-        <f t="shared" ref="AA74:AA78" si="11">_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
+      <c r="G93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" ref="AA93:AA97" si="11">_xlfn.CONCAT(IF(B93=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C93:Z93),")")</f>
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM")</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B75" s="1">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B94" s="1">
         <v>2</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E94" s="1">
         <v>2</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA75" t="str">
-        <f t="shared" ref="AA75" si="12">_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
+      <c r="G94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" ref="AA94" si="12">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM")</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B76" s="1">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B95" s="1">
         <v>2</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E95" s="1">
         <v>3</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA76" t="str">
+      <c r="G95" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA95" t="str">
         <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM")</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B77" s="1">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B96" s="1">
         <v>3</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E96" s="1">
         <v>4</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA77" t="str">
+      <c r="G96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA96" t="str">
         <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM")</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B78" s="1">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B97" s="1">
         <v>4</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E97" s="1">
         <v>5</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA78" t="str">
+      <c r="G97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA97" t="str">
         <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM")</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA79" t="s">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA98" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B80" s="10" t="s">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B99" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C99" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B81" s="10" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B100" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D100" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
-      <c r="AA81" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C80,";")</f>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
+      <c r="X100" s="13"/>
+      <c r="Y100" s="13"/>
+      <c r="Z100" s="13"/>
+      <c r="AA100" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C99,";")</f>
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B82" s="10" t="s">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B101" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D101" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E101" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
-      <c r="AA82" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C80, "(", _xlfn.TEXTJOIN(",",TRUE,C81:Z81),") VALUES")</f>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
+      <c r="Y101" s="13"/>
+      <c r="Z101" s="13"/>
+      <c r="AA101" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C99, "(", _xlfn.TEXTJOIN(",",TRUE,C100:Z100),") VALUES")</f>
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B83" s="1">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B102" s="1">
         <v>1</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D102" s="8">
         <v>3</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" ref="AA83" si="13">_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
+      <c r="E102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" ref="AA102:AA121" si="13">_xlfn.CONCAT(IF(B102=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C102:Z102),")")</f>
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B84" s="1">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B103" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D103" s="8">
         <v>1</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA84" t="str">
-        <f t="shared" ref="AA84" si="14">_xlfn.CONCAT(IF(B84=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C84:Z84),")")</f>
+      <c r="E103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="13"/>
         <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA85" t="s">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user2",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B105" s="1">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" s="8">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user3",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106" s="8">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user4",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B107" s="1">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user5",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B108" s="1">
+        <v>7</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" s="8">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user6",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B109" s="1">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D109" s="8">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user7",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B110" s="1">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D110" s="8">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA110" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user8",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B111" s="1">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D111" s="8">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA111" t="str">
+        <f t="shared" ref="AA111:AA118" si="14">_xlfn.CONCAT(IF(B111=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C111:Z111),")")</f>
+        <v>,("user9",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B112" s="1">
+        <v>11</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D112" s="8">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA112" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user10",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B113" s="1">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" s="8">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA113" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user11",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B114" s="1">
+        <v>13</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="8">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA114" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user12",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B115" s="1">
+        <v>14</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D115" s="8">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA115" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user13",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B116" s="1">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D116" s="8">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA116" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user14",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B117" s="1">
+        <v>16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D117" s="8">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA117" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user15",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B118" s="1">
+        <v>17</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" s="8">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA118" t="str">
+        <f t="shared" si="14"/>
+        <v>,("user16",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B119" s="1">
+        <v>18</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D119" s="8">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA119" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user17",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="120" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B120" s="1">
+        <v>19</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D120" s="8">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA120" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user18",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="121" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B121" s="1">
+        <v>20</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA121" t="str">
+        <f t="shared" si="13"/>
+        <v>,("user19",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="122" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B122" s="1">
+        <v>21</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D122" s="8">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA122" t="str">
+        <f t="shared" ref="AA122" si="15">_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
+        <v>,("user20",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA123" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B86" s="17" t="s">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B124" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C124" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-    </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B87" s="17" t="s">
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+    </row>
+    <row r="125" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B125" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C125" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D125" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E125" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F125" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G125" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H125" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="13"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-      <c r="Y87" s="13"/>
-      <c r="Z87" s="13"/>
-      <c r="AA87" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C86,";")</f>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="13"/>
+      <c r="U125" s="13"/>
+      <c r="V125" s="13"/>
+      <c r="W125" s="13"/>
+      <c r="X125" s="13"/>
+      <c r="Y125" s="13"/>
+      <c r="Z125" s="13"/>
+      <c r="AA125" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C124,";")</f>
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B88" s="17" t="s">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B126" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C126" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D126" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E126" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F126" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G126" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H126" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="13"/>
-      <c r="AA88" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C86, "(", _xlfn.TEXTJOIN(",",TRUE,C87:Z87),")")</f>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13"/>
+      <c r="T126" s="13"/>
+      <c r="U126" s="13"/>
+      <c r="V126" s="13"/>
+      <c r="W126" s="13"/>
+      <c r="X126" s="13"/>
+      <c r="Y126" s="13"/>
+      <c r="Z126" s="13"/>
+      <c r="AA126" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C124, "(", _xlfn.TEXTJOIN(",",TRUE,C125:Z125),")")</f>
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B89" s="1">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B127" s="1">
         <v>1</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D127" s="8">
         <v>3</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E127" s="1">
         <v>2</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA89" t="str">
-        <f>_xlfn.CONCAT(IF(B89&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C89:Z89)," FROM ", $C$91)</f>
+      <c r="G127" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA127" t="str">
+        <f>_xlfn.CONCAT(IF(B127&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C127:Z127)," FROM ", $C$129)</f>
         <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B90" s="1">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B128" s="1">
         <v>2</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D128" s="8">
         <v>1</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E128" s="1">
         <v>1</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA90" t="str">
-        <f>_xlfn.CONCAT(IF(B90&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C90:Z90)," FROM ", $C$91)</f>
+      <c r="G128" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA128" t="str">
+        <f>_xlfn.CONCAT(IF(B128&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C128:Z128)," FROM ", $C$129)</f>
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B91" s="17" t="s">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B129" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C129" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="AA91" t="str">
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="AA129" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C73:N73"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C48:G48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B57:N69">
+  <conditionalFormatting sqref="B76:N88">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$J57 = 1</formula>
+      <formula>$J76 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69865E-A721-4741-983D-E98E51E83E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925C068B-8A31-4E92-980D-045A4F6F3899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="463">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1585,10 +1585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"관리자가 권한그룹을 조회 및 관리할 수 있는 메뉴입니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RMRK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1733,6 +1729,22 @@
   </si>
   <si>
     <t>"사용자20"</t>
+  </si>
+  <si>
+    <t>"admin/manageMnu"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"메뉴 관리"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1971,9 +1983,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,6 +1998,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,7 +2011,40 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2349,16 +2394,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2398,15 +2443,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3244,17 +3289,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3268,19 +3313,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="18" t="str">
+      <c r="C33" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="str">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3301,16 +3346,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3350,15 +3395,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3638,17 +3683,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3662,19 +3707,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="str">
+      <c r="C48" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="str">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3695,16 +3740,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3744,15 +3789,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4096,17 +4141,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4120,19 +4165,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="18" t="str">
+      <c r="C65" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18" t="str">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4146,19 +4191,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="18" t="str">
+      <c r="C66" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18" t="str">
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4179,16 +4224,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4228,15 +4273,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4454,17 +4499,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4478,19 +4523,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="18" t="str">
+      <c r="C79" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18" t="str">
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4511,16 +4556,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4560,15 +4605,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4850,17 +4895,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4874,19 +4919,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="18" t="str">
+      <c r="C94" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18" t="str">
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4907,16 +4952,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4956,15 +5001,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5306,17 +5351,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23" t="s">
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5330,19 +5375,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="18" t="str">
+      <c r="C111" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18" t="str">
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5363,16 +5408,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5412,15 +5457,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5822,17 +5867,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23" t="s">
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5846,19 +5891,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="18" t="str">
+      <c r="C130" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18" t="str">
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5879,16 +5924,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="21"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5928,15 +5973,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6382,17 +6427,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23" t="s">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6406,19 +6451,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="18" t="str">
+      <c r="C150" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18" t="str">
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6432,19 +6477,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="18" t="str">
+      <c r="C151" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18" t="str">
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6465,16 +6510,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="21"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="20"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6514,15 +6559,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6646,17 +6691,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23" t="s">
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6670,19 +6715,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="18" t="str">
+      <c r="C161" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="str">
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6703,16 +6748,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="21"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="20"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6752,15 +6797,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -7105,17 +7150,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23" t="s">
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
-      <c r="I177" s="23"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7129,19 +7174,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="18" t="str">
+      <c r="C178" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="str">
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7162,16 +7207,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="21"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="20"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7211,15 +7256,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="22"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7756,17 +7801,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C200" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23" t="s">
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7780,19 +7825,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="18" t="str">
+      <c r="C201" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18" t="str">
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7813,16 +7858,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="21"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="20"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -7862,15 +7907,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="22"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8183,17 +8228,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="23" t="s">
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="23"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="23"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="22"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8207,19 +8252,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="18" t="str">
+      <c r="C217" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18" t="str">
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="18"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8240,16 +8285,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="21"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="20"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8289,15 +8334,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="22" t="s">
+      <c r="C221" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="22"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8485,17 +8530,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C228" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="23" t="s">
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="23"/>
-      <c r="H228" s="23"/>
-      <c r="I228" s="23"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="22"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8509,19 +8554,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="18" t="str">
+      <c r="C229" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18" t="str">
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="18"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8535,19 +8580,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="18" t="str">
+      <c r="C230" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18" t="str">
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="18"/>
-      <c r="H230" s="18"/>
-      <c r="I230" s="18"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8568,16 +8613,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-      <c r="I232" s="21"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+      <c r="I232" s="20"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8617,15 +8662,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="22" t="s">
+      <c r="C234" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="D234" s="22"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="22"/>
-      <c r="I234" s="22"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8941,17 +8986,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="23" t="s">
+      <c r="C245" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23" t="s">
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="22"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8965,19 +9010,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="18" t="str">
+      <c r="C246" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18" t="str">
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
-      <c r="I246" s="18"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -8991,19 +9036,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="18" t="str">
+      <c r="C247" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18" t="str">
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
-      <c r="I247" s="18"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -9025,60 +9070,28 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9095,28 +9108,60 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9125,10 +9170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA129"/>
+  <dimension ref="B2:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView tabSelected="1" topLeftCell="K109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA122" sqref="AA122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9154,10 +9199,10 @@
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9330,15 +9375,15 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9577,12 +9622,12 @@
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9734,15 +9779,15 @@
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -10396,13 +10441,13 @@
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -10504,7 +10549,7 @@
       </c>
       <c r="K51" s="11"/>
       <c r="AA51" t="str">
-        <f>_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
+        <f t="shared" ref="AA51:AA71" si="8">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10513,13 +10558,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>204</v>
@@ -10529,7 +10574,7 @@
       </c>
       <c r="K52" s="11"/>
       <c r="AA52" t="str">
-        <f>_xlfn.CONCAT(IF(B52=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C52:Z52),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10538,13 +10583,13 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>204</v>
@@ -10554,7 +10599,7 @@
       </c>
       <c r="K53" s="11"/>
       <c r="AA53" t="str">
-        <f>_xlfn.CONCAT(IF(B53=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C53:Z53),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10563,13 +10608,13 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>204</v>
@@ -10579,7 +10624,7 @@
       </c>
       <c r="K54" s="11"/>
       <c r="AA54" t="str">
-        <f>_xlfn.CONCAT(IF(B54=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C54:Z54),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10588,13 +10633,13 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>204</v>
@@ -10604,7 +10649,7 @@
       </c>
       <c r="K55" s="11"/>
       <c r="AA55" t="str">
-        <f>_xlfn.CONCAT(IF(B55=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C55:Z55),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10613,13 +10658,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>204</v>
@@ -10629,7 +10674,7 @@
       </c>
       <c r="K56" s="11"/>
       <c r="AA56" t="str">
-        <f>_xlfn.CONCAT(IF(B56=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C56:Z56),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10638,13 +10683,13 @@
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>204</v>
@@ -10654,7 +10699,7 @@
       </c>
       <c r="K57" s="11"/>
       <c r="AA57" t="str">
-        <f>_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10663,13 +10708,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>204</v>
@@ -10679,7 +10724,7 @@
       </c>
       <c r="K58" s="11"/>
       <c r="AA58" t="str">
-        <f>_xlfn.CONCAT(IF(B58=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C58:Z58),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10688,13 +10733,13 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>204</v>
@@ -10704,7 +10749,7 @@
       </c>
       <c r="K59" s="11"/>
       <c r="AA59" t="str">
-        <f>_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10713,13 +10758,13 @@
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>204</v>
@@ -10729,7 +10774,7 @@
       </c>
       <c r="K60" s="11"/>
       <c r="AA60" t="str">
-        <f>_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10738,13 +10783,13 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>204</v>
@@ -10754,7 +10799,7 @@
       </c>
       <c r="K61" s="11"/>
       <c r="AA61" t="str">
-        <f>_xlfn.CONCAT(IF(B61=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C61:Z61),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10763,13 +10808,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>204</v>
@@ -10779,7 +10824,7 @@
       </c>
       <c r="K62" s="11"/>
       <c r="AA62" t="str">
-        <f>_xlfn.CONCAT(IF(B62=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C62:Z62),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10788,13 +10833,13 @@
         <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>204</v>
@@ -10804,7 +10849,7 @@
       </c>
       <c r="K63" s="11"/>
       <c r="AA63" t="str">
-        <f>_xlfn.CONCAT(IF(B63=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C63:Z63),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10813,13 +10858,13 @@
         <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>204</v>
@@ -10829,7 +10874,7 @@
       </c>
       <c r="K64" s="11"/>
       <c r="AA64" t="str">
-        <f>_xlfn.CONCAT(IF(B64=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C64:Z64),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10838,13 +10883,13 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>204</v>
@@ -10854,7 +10899,7 @@
       </c>
       <c r="K65" s="11"/>
       <c r="AA65" t="str">
-        <f>_xlfn.CONCAT(IF(B65=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C65:Z65),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10863,13 +10908,13 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>204</v>
@@ -10879,7 +10924,7 @@
       </c>
       <c r="K66" s="11"/>
       <c r="AA66" t="str">
-        <f>_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10888,13 +10933,13 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>204</v>
@@ -10904,7 +10949,7 @@
       </c>
       <c r="K67" s="11"/>
       <c r="AA67" t="str">
-        <f>_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10913,13 +10958,13 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>204</v>
@@ -10929,7 +10974,7 @@
       </c>
       <c r="K68" s="11"/>
       <c r="AA68" t="str">
-        <f>_xlfn.CONCAT(IF(B68=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C68:Z68),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10938,13 +10983,13 @@
         <v>19</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>204</v>
@@ -10954,7 +10999,7 @@
       </c>
       <c r="K69" s="11"/>
       <c r="AA69" t="str">
-        <f>_xlfn.CONCAT(IF(B69=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C69:Z69),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10963,13 +11008,13 @@
         <v>20</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>204</v>
@@ -10979,7 +11024,7 @@
       </c>
       <c r="K70" s="11"/>
       <c r="AA70" t="str">
-        <f>_xlfn.CONCAT(IF(B70=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C70:Z70),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10988,13 +11033,13 @@
         <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>204</v>
@@ -11004,7 +11049,7 @@
       </c>
       <c r="K71" s="11"/>
       <c r="AA71" t="str">
-        <f>_xlfn.CONCAT(IF(B71=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C71:Z71),")")</f>
+        <f t="shared" si="8"/>
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -11017,20 +11062,20 @@
       <c r="B73" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="10" t="s">
@@ -11181,7 +11226,7 @@
         <v>204</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA85" si="8">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
+        <f t="shared" ref="AA76:AA86" si="9">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -11226,7 +11271,7 @@
         <v>204</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -11271,7 +11316,7 @@
         <v>204</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" ref="AA78:AA80" si="9">_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
+        <f t="shared" ref="AA78:AA80" si="10">_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -11349,7 +11394,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="L80" s="1">
         <v>4</v>
@@ -11361,8 +11406,8 @@
         <v>204</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹을 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="10"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
@@ -11373,16 +11418,16 @@
         <v>302</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>266</v>
@@ -11391,13 +11436,13 @@
         <v>266</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="L81" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>204</v>
@@ -11406,8 +11451,8 @@
         <v>204</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA81" si="11">_xlfn.CONCAT(IF(B81=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C81:Z81),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.4">
@@ -11418,16 +11463,16 @@
         <v>302</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>266</v>
@@ -11439,10 +11484,10 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L82" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>204</v>
@@ -11451,8 +11496,8 @@
         <v>204</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.4">
@@ -11463,16 +11508,16 @@
         <v>302</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>266</v>
@@ -11484,10 +11529,10 @@
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L83" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>204</v>
@@ -11496,8 +11541,8 @@
         <v>204</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.4">
@@ -11508,16 +11553,16 @@
         <v>302</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>266</v>
@@ -11529,10 +11574,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L84" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>204</v>
@@ -11541,8 +11586,8 @@
         <v>204</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.4">
@@ -11553,16 +11598,16 @@
         <v>302</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>266</v>
@@ -11574,10 +11619,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L85" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>204</v>
@@ -11586,8 +11631,8 @@
         <v>204</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.4">
@@ -11598,10 +11643,10 @@
         <v>302</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>329</v>
@@ -11613,16 +11658,16 @@
         <v>266</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="J86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="L86" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>204</v>
@@ -11631,8 +11676,8 @@
         <v>204</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" ref="AA86:AA88" si="10">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
@@ -11643,32 +11688,32 @@
         <v>302</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H87" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J87" s="1">
+        <v>2</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L87" s="1">
         <v>1</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L87" s="1">
-        <v>7</v>
-      </c>
       <c r="M87" s="1" t="s">
         <v>204</v>
       </c>
@@ -11676,8 +11721,8 @@
         <v>204</v>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" si="10"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA87:AA89" si="12">_xlfn.CONCAT(IF(B87=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C87:Z87),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.4">
@@ -11688,10 +11733,10 @@
         <v>302</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>326</v>
@@ -11703,99 +11748,112 @@
         <v>228</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L88" s="1">
+        <v>7</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J88" s="1">
+      <c r="I89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J89" s="1">
         <v>2</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="1">
         <v>1</v>
       </c>
-      <c r="M88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA88" t="str">
-        <f t="shared" si="10"/>
+      <c r="M89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="12"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA89" t="s">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA90" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B90" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B91" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C90,";")</f>
-        <v>TRUNCATE TB_ROLE;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>337</v>
+        <v>413</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
@@ -11810,57 +11868,76 @@
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
-      <c r="AA92" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C90, "(", _xlfn.TEXTJOIN(",",TRUE,C91:Z91),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID) VALUES</v>
+      <c r="AA92" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C91,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B93" s="1">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="B93" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="13"/>
       <c r="AA93" t="str">
-        <f t="shared" ref="AA93:AA97" si="11">_xlfn.CONCAT(IF(B93=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C93:Z93),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM")</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C91, "(", _xlfn.TEXTJOIN(",",TRUE,C92:Z92),") VALUES")</f>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H94" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA94" t="str">
-        <f t="shared" ref="AA94" si="12">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM")</v>
+        <f t="shared" ref="AA94:AA98" si="13">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.4">
@@ -11871,128 +11948,137 @@
         <v>342</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E95" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H95" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA95" t="str">
-        <f t="shared" si="11"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM")</v>
+        <f t="shared" ref="AA95" si="14">_xlfn.CONCAT(IF(B95=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C95:Z95),")")</f>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="E96" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H96" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA96" t="str">
-        <f t="shared" si="11"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM")</v>
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D97" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B98" s="1">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E98" s="1">
         <v>5</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA97" t="str">
-        <f t="shared" si="11"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA98" t="s">
+      <c r="F98" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA99" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B99" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="13"/>
-      <c r="Y100" s="13"/>
-      <c r="Z100" s="13"/>
-      <c r="AA100" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C99,";")</f>
-        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B101" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>117</v>
+        <v>402</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
@@ -12007,53 +12093,72 @@
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
-      <c r="AA101" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C99, "(", _xlfn.TEXTJOIN(",",TRUE,C100:Z100),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
+      <c r="AA101" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C100,";")</f>
+        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B102" s="1">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D102" s="8">
+      <c r="B102" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="C102" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
       <c r="AA102" t="str">
-        <f t="shared" ref="AA102:AA121" si="13">_xlfn.CONCAT(IF(B102=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C102:Z102),")")</f>
-        <v>("admin",3,"SYSTEM")</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C100, "(", _xlfn.TEXTJOIN(",",TRUE,C101:Z101),") VALUES")</f>
+        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>420</v>
+        <v>235</v>
       </c>
       <c r="D103" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F103" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA103" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user1",1,"SYSTEM")</v>
+        <f t="shared" ref="AA103:AA122" si="15">_xlfn.CONCAT(IF(B103=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C103:Z103),")")</f>
+        <v>("admin",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D104" s="8">
         <v>1</v>
@@ -12061,17 +12166,20 @@
       <c r="E104" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F104" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA104" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user2",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user1",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D105" s="8">
         <v>1</v>
@@ -12079,17 +12187,20 @@
       <c r="E105" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F105" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA105" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user3",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user2",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D106" s="8">
         <v>1</v>
@@ -12097,17 +12208,20 @@
       <c r="E106" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F106" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA106" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user4",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user3",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D107" s="8">
         <v>1</v>
@@ -12115,17 +12229,20 @@
       <c r="E107" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F107" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA107" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user5",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user4",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D108" s="8">
         <v>1</v>
@@ -12133,17 +12250,20 @@
       <c r="E108" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F108" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA108" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user6",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user5",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D109" s="8">
         <v>1</v>
@@ -12151,17 +12271,20 @@
       <c r="E109" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F109" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA109" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user7",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user6",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B110" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D110" s="8">
         <v>1</v>
@@ -12169,17 +12292,20 @@
       <c r="E110" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F110" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA110" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user8",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user7",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B111" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D111" s="8">
         <v>1</v>
@@ -12187,17 +12313,20 @@
       <c r="E111" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F111" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA111" t="str">
-        <f t="shared" ref="AA111:AA118" si="14">_xlfn.CONCAT(IF(B111=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C111:Z111),")")</f>
-        <v>,("user9",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user8",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B112" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D112" s="8">
         <v>1</v>
@@ -12205,17 +12334,20 @@
       <c r="E112" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F112" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA112" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user10",1,"SYSTEM")</v>
+        <f t="shared" ref="AA112:AA119" si="16">_xlfn.CONCAT(IF(B112=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C112:Z112),")")</f>
+        <v>,("user9",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B113" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D113" s="8">
         <v>1</v>
@@ -12223,17 +12355,20 @@
       <c r="E113" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F113" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA113" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user11",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user10",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D114" s="8">
         <v>1</v>
@@ -12241,17 +12376,20 @@
       <c r="E114" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F114" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA114" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user12",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user11",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D115" s="8">
         <v>1</v>
@@ -12259,17 +12397,20 @@
       <c r="E115" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F115" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA115" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user13",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user12",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D116" s="8">
         <v>1</v>
@@ -12277,17 +12418,20 @@
       <c r="E116" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F116" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA116" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user14",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user13",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D117" s="8">
         <v>1</v>
@@ -12295,17 +12439,20 @@
       <c r="E117" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F117" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA117" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user15",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user14",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D118" s="8">
         <v>1</v>
@@ -12313,17 +12460,20 @@
       <c r="E118" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F118" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA118" t="str">
-        <f t="shared" si="14"/>
-        <v>,("user16",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user15",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D119" s="8">
         <v>1</v>
@@ -12331,17 +12481,20 @@
       <c r="E119" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F119" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA119" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user17",1,"SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,("user16",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D120" s="8">
         <v>1</v>
@@ -12349,17 +12502,20 @@
       <c r="E120" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F120" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA120" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user18",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user17",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D121" s="8">
         <v>1</v>
@@ -12367,17 +12523,20 @@
       <c r="E121" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F121" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA121" t="str">
-        <f t="shared" si="13"/>
-        <v>,("user19",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user18",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D122" s="8">
         <v>1</v>
@@ -12385,90 +12544,74 @@
       <c r="E122" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F122" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA122" t="str">
-        <f t="shared" ref="AA122" si="15">_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
-        <v>,("user20",1,"SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,("user19",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA123" t="s">
+      <c r="B123" s="1">
+        <v>21</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D123" s="8">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA123" t="str">
+        <f t="shared" ref="AA123" si="17">_xlfn.CONCAT(IF(B123=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C123:Z123),")")</f>
+        <v>,("user20",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA124" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B124" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B125" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
-      <c r="R125" s="13"/>
-      <c r="S125" s="13"/>
-      <c r="T125" s="13"/>
-      <c r="U125" s="13"/>
-      <c r="V125" s="13"/>
-      <c r="W125" s="13"/>
-      <c r="X125" s="13"/>
-      <c r="Y125" s="13"/>
-      <c r="Z125" s="13"/>
-      <c r="AA125" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C124,";")</f>
-        <v>TRUNCATE TB_AUTH;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B126" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
@@ -12483,99 +12626,149 @@
       <c r="X126" s="13"/>
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
-      <c r="AA126" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C124, "(", _xlfn.TEXTJOIN(",",TRUE,C125:Z125),")")</f>
+      <c r="AA126" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C125,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
+      </c>
+    </row>
+    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B127" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="13"/>
+      <c r="T127" s="13"/>
+      <c r="U127" s="13"/>
+      <c r="V127" s="13"/>
+      <c r="W127" s="13"/>
+      <c r="X127" s="13"/>
+      <c r="Y127" s="13"/>
+      <c r="Z127" s="13"/>
+      <c r="AA127" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C125, "(", _xlfn.TEXTJOIN(",",TRUE,C126:Z126),")")</f>
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
-      </c>
-    </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B127" s="1">
-        <v>1</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D127" s="8">
-        <v>3</v>
-      </c>
-      <c r="E127" s="1">
-        <v>2</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA127" t="str">
-        <f>_xlfn.CONCAT(IF(B127&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C127:Z127)," FROM ", $C$129)</f>
-        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D128" s="8">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA128" t="str">
+        <f>_xlfn.CONCAT(IF(B128&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C128:Z128)," FROM ", $C$130)</f>
+        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B129" s="1">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D129" s="8">
         <v>1</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E129" s="1">
         <v>1</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA128" t="str">
-        <f>_xlfn.CONCAT(IF(B128&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C128:Z128)," FROM ", $C$129)</f>
+      <c r="G129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA129" t="str">
+        <f>_xlfn.CONCAT(IF(B129&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C129:Z129)," FROM ", $C$130)</f>
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B129" s="17" t="s">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B130" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C130" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="AA129" t="str">
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="AA130" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C91:H91"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C73:N73"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C48:G48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B76:N88">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="B76:N89">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$J76 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94:H98">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$J94 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:F123">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J103 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925C068B-8A31-4E92-980D-045A4F6F3899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75532BA-FA62-44AD-8E0D-20514C295D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="491">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1029,10 +1029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권한체크여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1744,6 +1740,122 @@
   </si>
   <si>
     <t>"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한검사여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board/QnA"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board/free"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board/village"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지역 주민들 끼리 교류할 수 있는 게시판입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"market/used"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 중고장터"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"market/company"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 기업장터"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"중고 물품을 사고 팔 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"active/play"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"놀이"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"active/cook"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"active/picnic"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"요리"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"소풍"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sitter/customer"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"돌봐주세요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"돌봄 서비스를 요청할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sitter/service"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"돌봐줄게요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"돌봄 서비스를 제공할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"#"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1751,7 +1863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,6 +1915,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1928,7 +2048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2007,22 +2127,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -2374,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2500,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>117</v>
@@ -2532,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>118</v>
@@ -2562,10 +2680,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>49</v>
@@ -2592,10 +2710,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>50</v>
@@ -2622,10 +2740,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>51</v>
@@ -2652,10 +2770,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>47</v>
@@ -2682,10 +2800,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>52</v>
@@ -2712,10 +2830,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>52</v>
@@ -2742,10 +2860,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>53</v>
@@ -2772,10 +2890,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>53</v>
@@ -2802,10 +2920,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>50</v>
@@ -2832,10 +2950,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>54</v>
@@ -2864,10 +2982,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>55</v>
@@ -2896,10 +3014,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>53</v>
@@ -2928,10 +3046,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>56</v>
@@ -2963,7 +3081,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>55</v>
@@ -2992,13 +3110,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
@@ -3008,7 +3126,7 @@
         <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -3514,13 +3632,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="1" t="s">
@@ -3530,7 +3648,7 @@
         <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
@@ -3942,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>227</v>
@@ -3972,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>124</v>
@@ -4394,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>117</v>
@@ -4426,7 +4544,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>115</v>
@@ -4726,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>114</v>
@@ -4758,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>115</v>
@@ -4790,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>247</v>
@@ -4822,7 +4940,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>248</v>
@@ -5092,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>189</v>
@@ -5122,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>190</v>
@@ -5182,7 +5300,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>192</v>
@@ -5548,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>141</v>
@@ -5578,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>142</v>
@@ -5608,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>145</v>
@@ -5638,7 +5756,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>146</v>
@@ -5668,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>144</v>
@@ -5698,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>143</v>
@@ -6949,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>262</v>
@@ -6981,13 +7099,13 @@
         <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="1" t="s">
@@ -6997,7 +7115,7 @@
         <v>91</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="19"/>
@@ -7313,10 +7431,10 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>104</v>
@@ -7331,7 +7449,7 @@
         <v>91</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J184" t="str">
         <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
@@ -7347,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>259</v>
@@ -7409,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>263</v>
@@ -7440,7 +7558,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>264</v>
@@ -7472,7 +7590,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>265</v>
@@ -7504,10 +7622,10 @@
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>267</v>
+        <v>462</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>23</v>
@@ -7520,15 +7638,15 @@
         <v>266</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>267</v>
+        <v>462</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" ref="J190:J192" si="24">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
-        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
+        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
       <c r="K190" t="str">
         <f t="shared" ref="K190:K192" si="25">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
-        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
+        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.4">
@@ -7536,13 +7654,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="1" t="s">
@@ -7552,7 +7670,7 @@
         <v>91</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="24"/>
@@ -7568,10 +7686,10 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>52</v>
@@ -7584,7 +7702,7 @@
         <v>91</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="24"/>
@@ -7600,10 +7718,10 @@
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>163</v>
@@ -7616,7 +7734,7 @@
         <v>91</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" ref="J193" si="26">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
@@ -7632,13 +7750,13 @@
         <v>11</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="1" t="s">
@@ -7648,7 +7766,7 @@
         <v>91</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J194" t="str">
         <f t="shared" si="21"/>
@@ -7874,13 +7992,13 @@
         <v>3</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>29</v>
@@ -7908,7 +8026,7 @@
         <v>31</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
@@ -7964,10 +8082,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>104</v>
@@ -7982,7 +8100,7 @@
         <v>91</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J207" t="str">
         <f>_xlfn.CONCAT(IF(B207=1,"",", "),C207," ",E207," ",G207,IF(H207="",""," DEFAULT "),H207, " COMMENT '",I207,"'")</f>
@@ -7998,10 +8116,10 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>99</v>
@@ -8014,7 +8132,7 @@
         <v>91</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J208" t="str">
         <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
@@ -8030,10 +8148,10 @@
         <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>163</v>
@@ -8044,7 +8162,7 @@
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
@@ -8060,13 +8178,13 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>43</v>
@@ -8075,7 +8193,7 @@
         <v>91</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
@@ -8301,13 +8419,13 @@
         <v>3</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>29</v>
@@ -8335,7 +8453,7 @@
         <v>31</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="21"/>
@@ -8391,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>117</v>
@@ -8423,10 +8541,10 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>104</v>
@@ -8441,7 +8559,7 @@
         <v>91</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J224" t="str">
         <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
@@ -8629,13 +8747,13 @@
         <v>3</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>29</v>
@@ -8663,7 +8781,7 @@
         <v>31</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="21"/>
@@ -8719,10 +8837,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>104</v>
@@ -8735,7 +8853,7 @@
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J236" t="str">
         <f>_xlfn.CONCAT(IF(B236=1,"",", "),C236," ",E236," ",G236,IF(H236="",""," DEFAULT "),H236, " COMMENT '",I236,"'")</f>
@@ -8751,10 +8869,10 @@
         <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>104</v>
@@ -8769,7 +8887,7 @@
         <v>91</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
@@ -8785,13 +8903,13 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E238" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="1" t="s">
@@ -8801,7 +8919,7 @@
         <v>91</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" ref="J238" si="32">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
@@ -8817,13 +8935,13 @@
         <v>4</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E239" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="1" t="s">
@@ -8833,7 +8951,7 @@
         <v>91</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J239" t="str">
         <f t="shared" ref="J239" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
@@ -8865,7 +8983,7 @@
         <v>91</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J240" t="str">
         <f t="shared" ref="J240:J243" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
@@ -9170,17 +9288,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA130"/>
+  <dimension ref="B2:AA140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA122" sqref="AA122"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
@@ -9339,7 +9457,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9355,7 +9473,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9399,10 +9517,10 @@
         <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>64</v>
@@ -9803,10 +9921,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>64</v>
@@ -10189,13 +10307,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>228</v>
@@ -10220,13 +10338,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>228</v>
@@ -10251,13 +10369,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>228</v>
@@ -10282,13 +10400,13 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>228</v>
@@ -10313,13 +10431,13 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>228</v>
@@ -10344,13 +10462,13 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>228</v>
@@ -10375,13 +10493,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>228</v>
@@ -10406,13 +10524,13 @@
         <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>228</v>
@@ -10454,13 +10572,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>64</v>
@@ -10500,7 +10618,7 @@
         <v>118</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>194</v>
@@ -10539,7 +10657,7 @@
         <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>204</v>
@@ -10558,13 +10676,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>204</v>
@@ -10583,13 +10701,13 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>204</v>
@@ -10608,13 +10726,13 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>204</v>
@@ -10633,13 +10751,13 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>204</v>
@@ -10658,13 +10776,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>204</v>
@@ -10683,13 +10801,13 @@
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>204</v>
@@ -10708,13 +10826,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>204</v>
@@ -10733,13 +10851,13 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>204</v>
@@ -10758,13 +10876,13 @@
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>204</v>
@@ -10783,13 +10901,13 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>204</v>
@@ -10808,13 +10926,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>204</v>
@@ -10833,13 +10951,13 @@
         <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>204</v>
@@ -10858,13 +10976,13 @@
         <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>204</v>
@@ -10883,13 +11001,13 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>204</v>
@@ -10908,13 +11026,13 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>204</v>
@@ -10933,13 +11051,13 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>204</v>
@@ -10958,13 +11076,13 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>204</v>
@@ -10983,13 +11101,13 @@
         <v>19</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>204</v>
@@ -11008,13 +11126,13 @@
         <v>20</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>204</v>
@@ -11033,13 +11151,13 @@
         <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>204</v>
@@ -11082,40 +11200,40 @@
         <v>1</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>260</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="J74" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="K74" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="J74" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="L74" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M74" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="N74" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
@@ -11136,7 +11254,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>259</v>
@@ -11154,22 +11272,22 @@
         <v>265</v>
       </c>
       <c r="I75" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="K75" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="L75" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="L75" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="M75" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="N75" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
@@ -11190,19 +11308,19 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>235</v>
+        <v>490</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>266</v>
@@ -11214,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L76" s="1">
         <v>1</v>
@@ -11226,8 +11344,8 @@
         <v>204</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA86" si="9">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
-        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA76:AA96" si="9">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.4">
@@ -11235,16 +11353,16 @@
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="F77" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>235</v>
@@ -11259,7 +11377,7 @@
         <v>2</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L77" s="1">
         <v>1</v>
@@ -11280,16 +11398,16 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="F78" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>235</v>
@@ -11304,7 +11422,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L78" s="1">
         <v>2</v>
@@ -11325,16 +11443,16 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F79" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>235</v>
@@ -11349,7 +11467,7 @@
         <v>2</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L79" s="1">
         <v>3</v>
@@ -11370,16 +11488,16 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="F80" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>235</v>
@@ -11394,7 +11512,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L80" s="1">
         <v>4</v>
@@ -11415,16 +11533,16 @@
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="F81" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>235</v>
@@ -11439,7 +11557,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L81" s="1">
         <v>5</v>
@@ -11460,19 +11578,19 @@
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>266</v>
@@ -11484,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L82" s="1">
         <v>2</v>
@@ -11497,142 +11615,142 @@
       </c>
       <c r="AA82" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/free","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>8</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>311</v>
+      <c r="C83" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H83" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H83" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="26">
+        <v>2</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="L83" s="26">
         <v>1</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L83" s="1">
-        <v>3</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA83" t="str">
+      <c r="M83" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA83" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/free","자유게시판","board/free","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>9</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>314</v>
+      <c r="C84" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H84" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H84" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="J84" s="1">
-        <v>1</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L84" s="1">
-        <v>4</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA84" t="str">
+      <c r="J84" s="26">
+        <v>2</v>
+      </c>
+      <c r="K84" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2</v>
+      </c>
+      <c r="M84" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="N84" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA84" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/QnA","질문게시판","board/free","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>10</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>313</v>
+      <c r="C85" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="H85" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H85" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="J85" s="1">
-        <v>1</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L85" s="1">
-        <v>5</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA85" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+      <c r="J85" s="26">
+        <v>2</v>
+      </c>
+      <c r="K85" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="L85" s="26">
+        <v>3</v>
+      </c>
+      <c r="M85" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="N85" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA85" s="28" t="str">
+        <f t="shared" ref="AA85:AA87" si="12">_xlfn.CONCAT(IF(B85=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C85:Z85),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/village","지역게시판","board/free","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.4">
@@ -11640,19 +11758,19 @@
         <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>303</v>
+        <v>490</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>266</v>
@@ -11664,10 +11782,10 @@
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L86" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>204</v>
@@ -11676,8 +11794,8 @@
         <v>204</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
@@ -11685,31 +11803,31 @@
         <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>266</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="J87" s="1">
         <v>2</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="L87" s="1">
         <v>1</v>
@@ -11721,8 +11839,8 @@
         <v>204</v>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" ref="AA87:AA89" si="12">_xlfn.CONCAT(IF(B87=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C87:Z87),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used"," 중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.4">
@@ -11730,34 +11848,34 @@
         <v>13</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>324</v>
+        <v>471</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>325</v>
+        <v>472</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>266</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>328</v>
+        <v>474</v>
       </c>
       <c r="L88" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>204</v>
@@ -11766,8 +11884,8 @@
         <v>204</v>
       </c>
       <c r="AA88" t="str">
-        <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company"," 기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.4">
@@ -11775,344 +11893,535 @@
         <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>324</v>
+        <v>490</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L89" s="1">
+        <v>4</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" ref="AA89:AA91" si="13">_xlfn.CONCAT(IF(B89=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C89:Z89),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B90" s="1">
+        <v>15</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J90" s="1">
         <v>2</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L89" s="1">
+      <c r="K90" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L90" s="1">
         <v>1</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA89" t="str">
-        <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA90" t="s">
-        <v>209</v>
+      <c r="M90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" ref="AA90" si="14">_xlfn.CONCAT(IF(B90=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C90:Z90),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B91" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="1">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L91" s="1">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+      </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="1">
+        <v>17</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J92" s="1">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="L92" s="1">
+        <v>3</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
+        <v>18</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="1">
         <v>1</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C91,";")</f>
-        <v>TRUNCATE TB_ROLE;</v>
-      </c>
-    </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B93" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="13"/>
+      <c r="K93" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L93" s="1">
+        <v>5</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA93" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C91, "(", _xlfn.TEXTJOIN(",",TRUE,C92:Z92),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <f t="shared" ref="AA93:AA94" si="15">_xlfn.CONCAT(IF(B93=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C93:Z93),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J94" s="1">
+        <v>2</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L94" s="1">
         <v>1</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="M94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N94" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" ref="AA94:AA98" si="13">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="15"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
+        <v>20</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J95" s="1">
         <v>2</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E95" s="1">
+      <c r="K95" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L95" s="1">
         <v>2</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H95" s="1" t="s">
+      <c r="M95" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N95" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" ref="AA95" si="14">_xlfn.CONCAT(IF(B95=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C95:Z95),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E96" s="1">
-        <v>3</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>204</v>
+        <v>302</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L96" s="1">
+        <v>6</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N96" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA96" t="str">
-        <f t="shared" si="13"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="9"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E97" s="1">
-        <v>4</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>204</v>
+        <v>328</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N97" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA97" t="str">
-        <f t="shared" si="13"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA97:AA99" si="16">_xlfn.CONCAT(IF(B97=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C97:Z97),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E98" s="1">
-        <v>5</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>204</v>
+        <v>323</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L98" s="1">
+        <v>7</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA98" t="str">
-        <f t="shared" si="13"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA99" t="s">
+      <c r="B99" s="1">
+        <v>24</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="16"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA100" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B100" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B101" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
-      <c r="Y101" s="13"/>
-      <c r="Z101" s="13"/>
-      <c r="AA101" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C100,";")</f>
-        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>117</v>
+        <v>330</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>298</v>
+        <v>408</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
@@ -12127,230 +12436,279 @@
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
-      <c r="AA102" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C100, "(", _xlfn.TEXTJOIN(",",TRUE,C101:Z101),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      <c r="AA102" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C101,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B103" s="1">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D103" s="8">
+      <c r="B103" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="C103" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="13"/>
+      <c r="X103" s="13"/>
+      <c r="Y103" s="13"/>
+      <c r="Z103" s="13"/>
       <c r="AA103" t="str">
-        <f t="shared" ref="AA103:AA122" si="15">_xlfn.CONCAT(IF(B103=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C103:Z103),")")</f>
-        <v>("admin",3,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C101, "(", _xlfn.TEXTJOIN(",",TRUE,C102:Z102),") VALUES")</f>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D104" s="8">
+        <v>341</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="F104" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA104" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user1",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA104:AA108" si="17">_xlfn.CONCAT(IF(B104=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C104:Z104),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D105" s="8">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>204</v>
+        <v>341</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA105" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user2",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA105" si="18">_xlfn.CONCAT(IF(B105=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C105:Z105),")")</f>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D106" s="8">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>204</v>
+        <v>341</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="1">
+        <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA106" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user3",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="17"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D107" s="8">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>204</v>
+        <v>341</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA107" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user4",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="17"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D108" s="8">
+        <v>341</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E108" s="1">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="17"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B110" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B111" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA108" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user5",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B109" s="1">
-        <v>7</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D109" s="8">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA109" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user6",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B110" s="1">
-        <v>8</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D110" s="8">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA110" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user7",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B111" s="1">
-        <v>9</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D111" s="8">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA111" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user8",1,"SYSTEM","SYSTEM")</v>
+      <c r="C111" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13"/>
+      <c r="U111" s="13"/>
+      <c r="V111" s="13"/>
+      <c r="W111" s="13"/>
+      <c r="X111" s="13"/>
+      <c r="Y111" s="13"/>
+      <c r="Z111" s="13"/>
+      <c r="AA111" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C110,";")</f>
+        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B112" s="1">
-        <v>10</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D112" s="8">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="B112" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13"/>
+      <c r="V112" s="13"/>
+      <c r="W112" s="13"/>
+      <c r="X112" s="13"/>
+      <c r="Y112" s="13"/>
+      <c r="Z112" s="13"/>
       <c r="AA112" t="str">
-        <f t="shared" ref="AA112:AA119" si="16">_xlfn.CONCAT(IF(B112=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C112:Z112),")")</f>
-        <v>,("user9",1,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C110, "(", _xlfn.TEXTJOIN(",",TRUE,C111:Z111),") VALUES")</f>
+        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B113" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>436</v>
+        <v>235</v>
       </c>
       <c r="D113" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>204</v>
@@ -12359,16 +12717,16 @@
         <v>204</v>
       </c>
       <c r="AA113" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user10",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA113:AA132" si="19">_xlfn.CONCAT(IF(B113=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C113:Z113),")")</f>
+        <v>("admin",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D114" s="8">
         <v>1</v>
@@ -12380,16 +12738,16 @@
         <v>204</v>
       </c>
       <c r="AA114" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user11",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user1",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D115" s="8">
         <v>1</v>
@@ -12401,16 +12759,16 @@
         <v>204</v>
       </c>
       <c r="AA115" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user12",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user2",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D116" s="8">
         <v>1</v>
@@ -12422,16 +12780,16 @@
         <v>204</v>
       </c>
       <c r="AA116" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user13",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user3",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D117" s="8">
         <v>1</v>
@@ -12443,16 +12801,16 @@
         <v>204</v>
       </c>
       <c r="AA117" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user14",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user4",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D118" s="8">
         <v>1</v>
@@ -12464,16 +12822,16 @@
         <v>204</v>
       </c>
       <c r="AA118" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user15",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user5",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D119" s="8">
         <v>1</v>
@@ -12485,16 +12843,16 @@
         <v>204</v>
       </c>
       <c r="AA119" t="str">
-        <f t="shared" si="16"/>
-        <v>,("user16",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user6",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D120" s="8">
         <v>1</v>
@@ -12506,16 +12864,16 @@
         <v>204</v>
       </c>
       <c r="AA120" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user17",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user7",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D121" s="8">
         <v>1</v>
@@ -12527,16 +12885,16 @@
         <v>204</v>
       </c>
       <c r="AA121" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user18",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,("user8",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D122" s="8">
         <v>1</v>
@@ -12548,16 +12906,16 @@
         <v>204</v>
       </c>
       <c r="AA122" t="str">
-        <f t="shared" si="15"/>
-        <v>,("user19",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA122:AA129" si="20">_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
+        <v>,("user9",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="D123" s="8">
         <v>1</v>
@@ -12569,209 +12927,420 @@
         <v>204</v>
       </c>
       <c r="AA123" t="str">
-        <f t="shared" ref="AA123" si="17">_xlfn.CONCAT(IF(B123=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C123:Z123),")")</f>
-        <v>,("user20",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user10",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA124" t="s">
-        <v>209</v>
+      <c r="B124" s="1">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D124" s="8">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA124" t="str">
+        <f t="shared" si="20"/>
+        <v>,("user11",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B125" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
+      <c r="B125" s="1">
+        <v>13</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D125" s="8">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA125" t="str">
+        <f t="shared" si="20"/>
+        <v>,("user12",1,"SYSTEM","SYSTEM")</v>
+      </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="1">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D126" s="8">
         <v>1</v>
       </c>
-      <c r="C126" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="13"/>
-      <c r="T126" s="13"/>
-      <c r="U126" s="13"/>
-      <c r="V126" s="13"/>
-      <c r="W126" s="13"/>
-      <c r="X126" s="13"/>
-      <c r="Y126" s="13"/>
-      <c r="Z126" s="13"/>
-      <c r="AA126" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C125,";")</f>
-        <v>TRUNCATE TB_AUTH;</v>
+      <c r="E126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA126" t="str">
+        <f t="shared" si="20"/>
+        <v>,("user13",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B127" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="E127" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-      <c r="R127" s="13"/>
-      <c r="S127" s="13"/>
-      <c r="T127" s="13"/>
-      <c r="U127" s="13"/>
-      <c r="V127" s="13"/>
-      <c r="W127" s="13"/>
-      <c r="X127" s="13"/>
-      <c r="Y127" s="13"/>
-      <c r="Z127" s="13"/>
+      <c r="B127" s="1">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D127" s="8">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="AA127" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C125, "(", _xlfn.TEXTJOIN(",",TRUE,C126:Z126),")")</f>
-        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
+        <f t="shared" si="20"/>
+        <v>,("user14",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" s="8">
         <v>1</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128" s="8">
-        <v>3</v>
-      </c>
-      <c r="E128" s="1">
-        <v>2</v>
+      <c r="E128" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H128" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA128" t="str">
-        <f>_xlfn.CONCAT(IF(B128&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C128:Z128)," FROM ", $C$130)</f>
-        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+        <f t="shared" si="20"/>
+        <v>,("user15",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>299</v>
+        <v>441</v>
       </c>
       <c r="D129" s="8">
         <v>1</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA129" t="str">
+        <f t="shared" si="20"/>
+        <v>,("user16",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B130" s="1">
+        <v>18</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D130" s="8">
         <v>1</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA130" t="str">
+        <f t="shared" si="19"/>
+        <v>,("user17",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B131" s="1">
+        <v>19</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D131" s="8">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA131" t="str">
+        <f t="shared" si="19"/>
+        <v>,("user18",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B132" s="1">
+        <v>20</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D132" s="8">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA132" t="str">
+        <f t="shared" si="19"/>
+        <v>,("user19",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="133" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B133" s="1">
+        <v>21</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133" s="8">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA133" t="str">
+        <f t="shared" ref="AA133" si="21">_xlfn.CONCAT(IF(B133=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C133:Z133),")")</f>
+        <v>,("user20",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B135" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+    </row>
+    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B136" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="R136" s="13"/>
+      <c r="S136" s="13"/>
+      <c r="T136" s="13"/>
+      <c r="U136" s="13"/>
+      <c r="V136" s="13"/>
+      <c r="W136" s="13"/>
+      <c r="X136" s="13"/>
+      <c r="Y136" s="13"/>
+      <c r="Z136" s="13"/>
+      <c r="AA136" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C135,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B137" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="R137" s="13"/>
+      <c r="S137" s="13"/>
+      <c r="T137" s="13"/>
+      <c r="U137" s="13"/>
+      <c r="V137" s="13"/>
+      <c r="W137" s="13"/>
+      <c r="X137" s="13"/>
+      <c r="Y137" s="13"/>
+      <c r="Z137" s="13"/>
+      <c r="AA137" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C135, "(", _xlfn.TEXTJOIN(",",TRUE,C136:Z136),")")</f>
+        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" s="8">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA129" t="str">
-        <f>_xlfn.CONCAT(IF(B129&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C129:Z129)," FROM ", $C$130)</f>
+      <c r="G138" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA138" t="str">
+        <f>_xlfn.CONCAT(IF(B138&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C138:Z138)," FROM ", $C$140)</f>
+        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="139" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" s="8">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA139" t="str">
+        <f>_xlfn.CONCAT(IF(B139&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C139:Z139)," FROM ", $C$140)</f>
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B130" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" s="23" t="s">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B140" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="AA130" t="str">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="AA140" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C140:H140"/>
     <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C101:H101"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C73:N73"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B76:N89">
-    <cfRule type="expression" dxfId="3" priority="7">
+  <conditionalFormatting sqref="B76:N99">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$J76 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94:H98">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$J94 = 1</formula>
+  <conditionalFormatting sqref="H104:H108">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$J104 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F123">
+  <conditionalFormatting sqref="F113:F133">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J103 = 1</formula>
+      <formula>$J113 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12947,16 +13516,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -12965,13 +13534,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75532BA-FA62-44AD-8E0D-20514C295D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9BB92D-6873-41C5-966E-1B520D989C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="494">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1856,6 +1856,18 @@
   </si>
   <si>
     <t>"#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin/manageAuth"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"권한 관리"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2103,6 +2115,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,23 +2142,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2512,16 +2524,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2561,15 +2573,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3407,17 +3419,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3431,19 +3443,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="str">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3464,16 +3476,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3513,15 +3525,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3801,17 +3813,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3825,19 +3837,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="23" t="str">
+      <c r="C48" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="str">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3858,16 +3870,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3907,15 +3919,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4259,17 +4271,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4283,19 +4295,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="str">
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4309,19 +4321,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="str">
+      <c r="C66" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="str">
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4342,16 +4354,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="20"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4391,15 +4403,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4617,17 +4629,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4641,19 +4653,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23" t="str">
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4674,16 +4686,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="20"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4723,15 +4735,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -5013,17 +5025,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5037,19 +5049,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="23" t="str">
+      <c r="C94" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23" t="str">
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5070,16 +5082,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -5119,15 +5131,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5469,17 +5481,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5493,19 +5505,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="23" t="str">
+      <c r="C111" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23" t="str">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5526,16 +5538,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5575,15 +5587,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5985,17 +5997,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22" t="s">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6009,19 +6021,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="23" t="str">
+      <c r="C130" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23" t="str">
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -6042,16 +6054,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="20"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="24"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -6091,15 +6103,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6545,17 +6557,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22" t="s">
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6569,19 +6581,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="23" t="str">
+      <c r="C150" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23" t="str">
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6595,19 +6607,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="23" t="str">
+      <c r="C151" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23" t="str">
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6628,16 +6640,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="20"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="24"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6677,15 +6689,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6809,17 +6821,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22" t="s">
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6833,19 +6845,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="23" t="str">
+      <c r="C161" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23" t="str">
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6866,16 +6878,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="20"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="24"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6915,15 +6927,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -7268,17 +7280,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22" t="s">
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7292,19 +7304,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="23" t="str">
+      <c r="C178" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23" t="str">
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7325,16 +7337,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="20"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="24"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7374,15 +7386,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7919,17 +7931,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22" t="s">
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
+      <c r="I200" s="26"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7943,19 +7955,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="23" t="str">
+      <c r="C201" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="23" t="str">
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7976,16 +7988,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="20"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="24"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -8025,15 +8037,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8346,17 +8358,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22" t="s">
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="26"/>
+      <c r="I216" s="26"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8370,19 +8382,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="23" t="str">
+      <c r="C217" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23" t="str">
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="23"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8403,16 +8415,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="20"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="24"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8452,15 +8464,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="21"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8648,17 +8660,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22" t="s">
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="26"/>
+      <c r="I228" s="26"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8672,19 +8684,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="23" t="str">
+      <c r="C229" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23" t="str">
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="23"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8698,19 +8710,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="23" t="str">
+      <c r="C230" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="23"/>
-      <c r="E230" s="23"/>
-      <c r="F230" s="23" t="str">
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="23"/>
-      <c r="H230" s="23"/>
-      <c r="I230" s="23"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8731,16 +8743,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="20"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="24"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8780,15 +8792,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="25"/>
+      <c r="G234" s="25"/>
+      <c r="H234" s="25"/>
+      <c r="I234" s="25"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -9104,17 +9116,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="22"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="22" t="s">
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="22"/>
-      <c r="H245" s="22"/>
-      <c r="I245" s="22"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="26"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -9128,19 +9140,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="23" t="str">
+      <c r="C246" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23" t="str">
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
-      <c r="I246" s="23"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -9154,19 +9166,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="23" t="str">
+      <c r="C247" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="23"/>
-      <c r="E247" s="23"/>
-      <c r="F247" s="23" t="str">
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="23"/>
-      <c r="H247" s="23"/>
-      <c r="I247" s="23"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -9188,28 +9200,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9226,60 +9270,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9288,10 +9300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA140"/>
+  <dimension ref="B2:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9317,10 +9329,10 @@
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9493,15 +9505,15 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9740,12 +9752,12 @@
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9897,15 +9909,15 @@
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -10559,13 +10571,13 @@
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -11180,20 +11192,20 @@
       <c r="B73" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="10" t="s">
@@ -11344,7 +11356,7 @@
         <v>204</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA96" si="9">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
+        <f t="shared" ref="AA76:AA97" si="9">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -11434,7 +11446,7 @@
         <v>204</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" ref="AA78:AA80" si="10">_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
+        <f t="shared" ref="AA78:AA81" si="10">_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -11524,22 +11536,22 @@
         <v>204</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AA80" si="11">_xlfn.CONCAT(IF(B80=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>319</v>
@@ -11557,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="L81" s="1">
         <v>5</v>
@@ -11569,28 +11581,28 @@
         <v>204</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" ref="AA81" si="11">_xlfn.CONCAT(IF(B81=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C81:Z81),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="10"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>305</v>
+        <v>458</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>490</v>
+        <v>235</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>266</v>
@@ -11599,223 +11611,223 @@
         <v>266</v>
       </c>
       <c r="J82" s="1">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L82" s="1">
+        <v>6</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" ref="AA82" si="12">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83" s="1">
         <v>1</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L83" s="1">
         <v>2</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA82" t="str">
+      <c r="M83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA83" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/free","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="83" spans="2:27" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="1">
+    <row r="84" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
         <v>8</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C84" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D84" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E84" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="G84" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H84" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="I83" s="26" t="s">
+      <c r="I84" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J83" s="26">
+      <c r="J84" s="18">
         <v>2</v>
       </c>
-      <c r="K83" s="26" t="s">
+      <c r="K84" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="L83" s="26">
+      <c r="L84" s="18">
         <v>1</v>
       </c>
-      <c r="M83" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="N83" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA83" s="28" t="str">
+      <c r="M84" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA84" s="20" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/free","자유게시판","board/free","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="84" spans="2:27" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="1">
+    <row r="85" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
         <v>9</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C85" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D85" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E85" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="G85" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="H85" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="I84" s="26" t="s">
+      <c r="I85" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J84" s="26">
+      <c r="J85" s="18">
         <v>2</v>
       </c>
-      <c r="K84" s="26" t="s">
+      <c r="K85" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="L84" s="26">
+      <c r="L85" s="18">
         <v>2</v>
       </c>
-      <c r="M84" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA84" s="28" t="str">
+      <c r="M85" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA85" s="20" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/QnA","질문게시판","board/free","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="85" spans="2:27" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="1">
+    <row r="86" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
         <v>10</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C86" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D86" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E86" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="G86" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H86" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="I85" s="26" t="s">
+      <c r="I86" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J85" s="26">
+      <c r="J86" s="18">
         <v>2</v>
       </c>
-      <c r="K85" s="26" t="s">
+      <c r="K86" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="L85" s="26">
+      <c r="L86" s="18">
         <v>3</v>
       </c>
-      <c r="M85" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="N85" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA85" s="28" t="str">
-        <f t="shared" ref="AA85:AA87" si="12">_xlfn.CONCAT(IF(B85=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C85:Z85),")")</f>
+      <c r="M86" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA86" s="20" t="str">
+        <f t="shared" ref="AA86:AA88" si="13">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/village","지역게시판","board/free","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B86" s="1">
-        <v>11</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="L86" s="1">
-        <v>3</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA86" t="str">
-        <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>469</v>
+        <v>306</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>469</v>
+        <v>306</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>266</v>
@@ -11824,13 +11836,13 @@
         <v>266</v>
       </c>
       <c r="J87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>473</v>
+        <v>315</v>
       </c>
       <c r="L87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>204</v>
@@ -11839,22 +11851,22 @@
         <v>204</v>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used"," 중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>469</v>
@@ -11872,85 +11884,85 @@
         <v>2</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used"," 중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="1">
         <v>2</v>
       </c>
-      <c r="M88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA88" t="str">
+      <c r="M89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA89" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company"," 기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B89" s="1">
-        <v>14</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J89" s="1">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L89" s="1">
-        <v>4</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA89" t="str">
-        <f t="shared" ref="AA89:AA91" si="13">_xlfn.CONCAT(IF(B89=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C89:Z89),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>475</v>
+        <v>307</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>476</v>
+        <v>313</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>475</v>
+        <v>307</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>266</v>
@@ -11959,13 +11971,13 @@
         <v>266</v>
       </c>
       <c r="J90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>477</v>
+        <v>316</v>
       </c>
       <c r="L90" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>204</v>
@@ -11974,22 +11986,22 @@
         <v>204</v>
       </c>
       <c r="AA90" t="str">
-        <f t="shared" ref="AA90" si="14">_xlfn.CONCAT(IF(B90=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C90:Z90),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA90:AA92" si="14">_xlfn.CONCAT(IF(B90=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C90:Z90),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>475</v>
@@ -12007,10 +12019,10 @@
         <v>2</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>204</v>
@@ -12019,22 +12031,22 @@
         <v>204</v>
       </c>
       <c r="AA91" t="str">
-        <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA91" si="15">_xlfn.CONCAT(IF(B91=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C91:Z91),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>475</v>
@@ -12052,85 +12064,85 @@
         <v>2</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L92" s="1">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="14"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
+        <v>17</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L92" s="1">
+      <c r="L93" s="1">
         <v>3</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA92" t="str">
+      <c r="M93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA93" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B93" s="1">
-        <v>18</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J93" s="1">
-        <v>1</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L93" s="1">
-        <v>5</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA93" t="str">
-        <f t="shared" ref="AA93:AA94" si="15">_xlfn.CONCAT(IF(B93=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C93:Z93),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>485</v>
+        <v>312</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>308</v>
+        <v>490</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>266</v>
@@ -12139,13 +12151,13 @@
         <v>266</v>
       </c>
       <c r="J94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>486</v>
+        <v>317</v>
       </c>
       <c r="L94" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>204</v>
@@ -12154,22 +12166,22 @@
         <v>204</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" si="15"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA94:AA95" si="16">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>484</v>
@@ -12187,146 +12199,146 @@
         <v>2</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="16"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B96" s="1">
+        <v>20</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L95" s="1">
+      <c r="L96" s="1">
         <v>2</v>
       </c>
-      <c r="M95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA95" t="str">
+      <c r="M96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA96" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B96" s="1">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B97" s="1">
         <v>21</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G97" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J97" s="1">
         <v>1</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="1">
         <v>6</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA96" t="str">
+      <c r="M97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA97" t="str">
         <f t="shared" si="9"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B97" s="1">
-        <v>22</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J97" s="1">
-        <v>2</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L97" s="1">
-        <v>1</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA97" t="str">
-        <f t="shared" ref="AA97:AA99" si="16">_xlfn.CONCAT(IF(B97=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C97:Z97),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>490</v>
+        <v>302</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J98" s="1">
+        <v>2</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L98" s="1">
         <v>1</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L98" s="1">
-        <v>7</v>
-      </c>
       <c r="M98" s="1" t="s">
         <v>204</v>
       </c>
@@ -12334,134 +12346,139 @@
         <v>204</v>
       </c>
       <c r="AA98" t="str">
-        <f t="shared" si="16"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA98:AA100" si="17">_xlfn.CONCAT(IF(B98=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C98:Z98),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>325</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>323</v>
+        <v>490</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>228</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L99" s="1">
+        <v>7</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="17"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B100" s="1">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J99" s="1">
+      <c r="I100" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J100" s="1">
         <v>2</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <v>1</v>
       </c>
-      <c r="M99" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA99" t="str">
-        <f t="shared" si="16"/>
+      <c r="M100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="17"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA100" t="s">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA101" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B101" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="13"/>
-      <c r="Y102" s="13"/>
-      <c r="Z102" s="13"/>
-      <c r="AA102" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C101,";")</f>
-        <v>TRUNCATE TB_ROLE;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
@@ -12476,53 +12493,66 @@
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
-      <c r="AA103" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C101, "(", _xlfn.TEXTJOIN(",",TRUE,C102:Z102),") VALUES")</f>
+      <c r="AA103" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C102,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B104" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="13"/>
+      <c r="X104" s="13"/>
+      <c r="Y104" s="13"/>
+      <c r="Z104" s="13"/>
+      <c r="AA104" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C102, "(", _xlfn.TEXTJOIN(",",TRUE,C103:Z103),") VALUES")</f>
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B104" s="1">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA104" t="str">
-        <f t="shared" ref="AA104:AA108" si="17">_xlfn.CONCAT(IF(B104=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C104:Z104),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="E105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>204</v>
@@ -12531,8 +12561,8 @@
         <v>204</v>
       </c>
       <c r="AA105" t="str">
-        <f t="shared" ref="AA105" si="18">_xlfn.CONCAT(IF(B105=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C105:Z105),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA105:AA109" si="18">_xlfn.CONCAT(IF(B105=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C105:Z105),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.4">
@@ -12543,13 +12573,13 @@
         <v>341</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="E106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>204</v>
@@ -12558,25 +12588,25 @@
         <v>204</v>
       </c>
       <c r="AA106" t="str">
-        <f t="shared" si="17"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA106" si="19">_xlfn.CONCAT(IF(B106=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C106:Z106),")")</f>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E107" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>204</v>
@@ -12585,102 +12615,95 @@
         <v>204</v>
       </c>
       <c r="AA107" t="str">
-        <f t="shared" si="17"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="18"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D108" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E108" s="1">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="18"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B109" s="1">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E109" s="1">
         <v>5</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA108" t="str">
-        <f t="shared" si="17"/>
+      <c r="G109" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" si="18"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA109" t="s">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA110" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B110" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B111" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
-      <c r="T111" s="13"/>
-      <c r="U111" s="13"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="13"/>
-      <c r="Z111" s="13"/>
-      <c r="AA111" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C110,";")</f>
-        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B112" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>117</v>
+        <v>401</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
@@ -12695,41 +12718,54 @@
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
-      <c r="AA112" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C110, "(", _xlfn.TEXTJOIN(",",TRUE,C111:Z111),") VALUES")</f>
+      <c r="AA112" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C111,";")</f>
+        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B113" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13"/>
+      <c r="U113" s="13"/>
+      <c r="V113" s="13"/>
+      <c r="W113" s="13"/>
+      <c r="X113" s="13"/>
+      <c r="Y113" s="13"/>
+      <c r="Z113" s="13"/>
+      <c r="AA113" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C111, "(", _xlfn.TEXTJOIN(",",TRUE,C112:Z112),") VALUES")</f>
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D113" s="8">
-        <v>3</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA113" t="str">
-        <f t="shared" ref="AA113:AA132" si="19">_xlfn.CONCAT(IF(B113=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C113:Z113),")")</f>
-        <v>("admin",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>418</v>
+        <v>235</v>
       </c>
       <c r="D114" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>204</v>
@@ -12738,16 +12774,16 @@
         <v>204</v>
       </c>
       <c r="AA114" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user1",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA114:AA133" si="20">_xlfn.CONCAT(IF(B114=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C114:Z114),")")</f>
+        <v>("admin",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D115" s="8">
         <v>1</v>
@@ -12759,16 +12795,16 @@
         <v>204</v>
       </c>
       <c r="AA115" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user2",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user1",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D116" s="8">
         <v>1</v>
@@ -12780,16 +12816,16 @@
         <v>204</v>
       </c>
       <c r="AA116" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user3",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user2",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D117" s="8">
         <v>1</v>
@@ -12801,16 +12837,16 @@
         <v>204</v>
       </c>
       <c r="AA117" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user4",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user3",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D118" s="8">
         <v>1</v>
@@ -12822,16 +12858,16 @@
         <v>204</v>
       </c>
       <c r="AA118" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user5",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user4",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D119" s="8">
         <v>1</v>
@@ -12843,16 +12879,16 @@
         <v>204</v>
       </c>
       <c r="AA119" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user6",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user5",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D120" s="8">
         <v>1</v>
@@ -12864,16 +12900,16 @@
         <v>204</v>
       </c>
       <c r="AA120" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user7",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user6",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D121" s="8">
         <v>1</v>
@@ -12885,16 +12921,16 @@
         <v>204</v>
       </c>
       <c r="AA121" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user8",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user7",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D122" s="8">
         <v>1</v>
@@ -12906,16 +12942,16 @@
         <v>204</v>
       </c>
       <c r="AA122" t="str">
-        <f t="shared" ref="AA122:AA129" si="20">_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
-        <v>,("user9",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user8",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D123" s="8">
         <v>1</v>
@@ -12927,16 +12963,16 @@
         <v>204</v>
       </c>
       <c r="AA123" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user10",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA123:AA130" si="21">_xlfn.CONCAT(IF(B123=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C123:Z123),")")</f>
+        <v>,("user9",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D124" s="8">
         <v>1</v>
@@ -12948,16 +12984,16 @@
         <v>204</v>
       </c>
       <c r="AA124" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user11",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user10",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D125" s="8">
         <v>1</v>
@@ -12969,16 +13005,16 @@
         <v>204</v>
       </c>
       <c r="AA125" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user12",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user11",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D126" s="8">
         <v>1</v>
@@ -12990,16 +13026,16 @@
         <v>204</v>
       </c>
       <c r="AA126" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user13",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user12",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D127" s="8">
         <v>1</v>
@@ -13011,16 +13047,16 @@
         <v>204</v>
       </c>
       <c r="AA127" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user14",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user13",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D128" s="8">
         <v>1</v>
@@ -13032,16 +13068,16 @@
         <v>204</v>
       </c>
       <c r="AA128" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user15",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user14",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D129" s="8">
         <v>1</v>
@@ -13053,16 +13089,16 @@
         <v>204</v>
       </c>
       <c r="AA129" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user16",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user15",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="130" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D130" s="8">
         <v>1</v>
@@ -13074,16 +13110,16 @@
         <v>204</v>
       </c>
       <c r="AA130" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user17",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="21"/>
+        <v>,("user16",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="131" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D131" s="8">
         <v>1</v>
@@ -13095,16 +13131,16 @@
         <v>204</v>
       </c>
       <c r="AA131" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user18",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user17",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="132" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D132" s="8">
         <v>1</v>
@@ -13116,16 +13152,16 @@
         <v>204</v>
       </c>
       <c r="AA132" t="str">
-        <f t="shared" si="19"/>
-        <v>,("user19",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="20"/>
+        <v>,("user18",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="133" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D133" s="8">
         <v>1</v>
@@ -13137,89 +13173,70 @@
         <v>204</v>
       </c>
       <c r="AA133" t="str">
-        <f t="shared" ref="AA133" si="21">_xlfn.CONCAT(IF(B133=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C133:Z133),")")</f>
+        <f t="shared" si="20"/>
+        <v>,("user19",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B134" s="1">
+        <v>21</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D134" s="8">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA134" t="str">
+        <f t="shared" ref="AA134" si="22">_xlfn.CONCAT(IF(B134=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C134:Z134),")")</f>
         <v>,("user20",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA134" t="s">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA135" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B135" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
     </row>
     <row r="136" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B136" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
-      <c r="R136" s="13"/>
-      <c r="S136" s="13"/>
-      <c r="T136" s="13"/>
-      <c r="U136" s="13"/>
-      <c r="V136" s="13"/>
-      <c r="W136" s="13"/>
-      <c r="X136" s="13"/>
-      <c r="Y136" s="13"/>
-      <c r="Z136" s="13"/>
-      <c r="AA136" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C135,";")</f>
-        <v>TRUNCATE TB_AUTH;</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
     </row>
     <row r="137" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B137" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
@@ -13234,109 +13251,149 @@
       <c r="X137" s="13"/>
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
-      <c r="AA137" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C135, "(", _xlfn.TEXTJOIN(",",TRUE,C136:Z136),")")</f>
+      <c r="AA137" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C136,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B138" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="R138" s="13"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="13"/>
+      <c r="U138" s="13"/>
+      <c r="V138" s="13"/>
+      <c r="W138" s="13"/>
+      <c r="X138" s="13"/>
+      <c r="Y138" s="13"/>
+      <c r="Z138" s="13"/>
+      <c r="AA138" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C136, "(", _xlfn.TEXTJOIN(",",TRUE,C137:Z137),")")</f>
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
-      </c>
-    </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B138" s="1">
-        <v>1</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D138" s="8">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1">
-        <v>2</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA138" t="str">
-        <f>_xlfn.CONCAT(IF(B138&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C138:Z138)," FROM ", $C$140)</f>
-        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B139" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>298</v>
       </c>
       <c r="D139" s="8">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1">
+        <v>2</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA139" t="str">
+        <f>_xlfn.CONCAT(IF(B139&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C139:Z139)," FROM ", $C$141)</f>
+        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D140" s="8">
         <v>1</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E140" s="1">
         <v>1</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA139" t="str">
-        <f>_xlfn.CONCAT(IF(B139&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C139:Z139)," FROM ", $C$140)</f>
+      <c r="G140" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA140" t="str">
+        <f>_xlfn.CONCAT(IF(B140&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C140:Z140)," FROM ", $C$141)</f>
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B140" s="17" t="s">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B141" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C141" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="AA140" t="str">
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="AA141" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C101:H101"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C73:N73"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C102:H102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B76:N99">
+  <conditionalFormatting sqref="B76:N100">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>$J76 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H108">
+  <conditionalFormatting sqref="H105:H109">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$J104 = 1</formula>
+      <formula>$J105 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F133">
+  <conditionalFormatting sqref="F114:F134">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J113 = 1</formula>
+      <formula>$J114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9BB92D-6873-41C5-966E-1B520D989C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA5B47-13D9-4FA8-BF55-F797F1239F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -1775,18 +1775,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>" 중고장터"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"market/company"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>" 기업장터"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"중고 물품을 사고 팔 수 있는 메뉴입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,6 +1860,14 @@
   </si>
   <si>
     <t>"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"중고장터"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기업장터"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,7 +1875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2124,9 +2124,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2140,6 +2137,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2508,7 +2508,7 @@
       <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
@@ -2523,19 +2523,19 @@
     <col min="11" max="11" width="120.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2569,19 +2569,19 @@
         <v>DROP TABLE IF EXISTS TB_USER;</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2591,7 +2591,7 @@
         <v>CREATE TABLE TB_USER</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11">
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11">
       <c r="B13" s="4">
         <v>8</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11">
       <c r="B15" s="4">
         <v>10</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11">
       <c r="B19" s="4">
         <v>14</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11">
       <c r="B21" s="4">
         <v>16</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11">
       <c r="B23" s="4">
         <v>18</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11">
       <c r="B24" s="4">
         <v>19</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11">
       <c r="B25" s="4">
         <v>20</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11">
       <c r="B27" s="4">
         <v>22</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11">
       <c r="B28" s="4">
         <v>23</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11">
       <c r="B29" s="4">
         <v>24</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11">
       <c r="B30" s="4">
         <v>25</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11">
       <c r="J31" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E3,"';")</f>
         <v>) COMMENT '사용자';</v>
@@ -3415,21 +3415,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3439,23 +3439,23 @@
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="str">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3465,7 +3465,7 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11">
       <c r="J34" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3475,19 +3475,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
@@ -3521,19 +3521,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11">
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3543,7 +3543,7 @@
         <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11">
       <c r="B40" s="4">
         <v>2</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11">
       <c r="B42" s="4">
         <v>4</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:11">
       <c r="B43" s="4">
         <v>5</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11">
       <c r="B44" s="4">
         <v>6</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:11">
       <c r="B45" s="4">
         <v>7</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:11">
       <c r="J46" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E36,"';")</f>
         <v>) COMMENT '코드그룹';</v>
@@ -3809,21 +3809,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:11">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3833,23 +3833,23 @@
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11">
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="21" t="str">
+      <c r="C48" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21" t="str">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3859,7 +3859,7 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11">
       <c r="J49" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3869,19 +3869,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:11">
+      <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
@@ -3915,19 +3915,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11">
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3937,7 +3937,7 @@
         <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11">
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11">
       <c r="B54" s="4">
         <v>1</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11">
       <c r="B56" s="4">
         <v>3</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11">
       <c r="B57" s="4">
         <v>4</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11">
       <c r="B58" s="4">
         <v>5</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11">
       <c r="B59" s="4">
         <v>6</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11">
       <c r="B60" s="4">
         <v>7</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11">
       <c r="B61" s="4">
         <v>8</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11">
       <c r="B62" s="4">
         <v>9</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11">
       <c r="J63" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E51,"';")</f>
         <v>) COMMENT '코드상세';</v>
@@ -4267,21 +4267,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11">
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26" t="s">
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4291,23 +4291,23 @@
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11">
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="21" t="str">
+      <c r="C65" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21" t="str">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4317,23 +4317,23 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11">
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="21" t="str">
+      <c r="C66" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21" t="str">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4343,7 +4343,7 @@
         <v>, CODE_DETAIL</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11">
       <c r="J67" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4353,19 +4353,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="22" t="s">
+    <row r="68" spans="2:11">
+      <c r="B68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:11">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
@@ -4399,19 +4399,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11">
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4421,7 +4421,7 @@
         <v>CREATE TABLE TB_LOG_LOGIN</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11">
       <c r="B71" s="6" t="s">
         <v>32</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11">
       <c r="B72" s="4">
         <v>1</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11">
       <c r="B73" s="4">
         <v>2</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11">
       <c r="B74" s="4">
         <v>3</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11">
       <c r="B75" s="4">
         <v>4</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11">
       <c r="B76" s="4">
         <v>5</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11">
       <c r="J77" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E69,"';")</f>
         <v>) COMMENT '로그인로그';</v>
@@ -4625,21 +4625,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11">
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4649,23 +4649,23 @@
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11">
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="21" t="str">
+      <c r="C79" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21" t="str">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4675,7 +4675,7 @@
         <v>LOGIN_SEQ</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:11">
       <c r="J80" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4685,19 +4685,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="22" t="s">
+    <row r="81" spans="2:11">
+      <c r="B81" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="2:11">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
@@ -4731,19 +4731,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:11">
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4753,7 +4753,7 @@
         <v>CREATE TABLE TB_LOG_REQ</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:11">
       <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11">
       <c r="B85" s="4">
         <v>1</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:11">
       <c r="B86" s="4">
         <v>2</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:11">
       <c r="B87" s="4">
         <v>3</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:11">
       <c r="B88" s="4">
         <v>4</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:11">
       <c r="B89" s="4">
         <v>5</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:11">
       <c r="B90" s="4">
         <v>6</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:11">
       <c r="B91" s="4">
         <v>7</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:11">
       <c r="J92" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E82,"';")</f>
         <v>) COMMENT '요청로그';</v>
@@ -5021,21 +5021,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:11">
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5045,23 +5045,23 @@
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:11">
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="21" t="str">
+      <c r="C94" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21" t="str">
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5071,7 +5071,7 @@
         <v>REQ_SEQ</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:11">
       <c r="J95" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5081,19 +5081,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="22" t="s">
+    <row r="96" spans="2:11">
+      <c r="B96" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="2:11">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
@@ -5127,19 +5127,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11">
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5149,7 +5149,7 @@
         <v>CREATE TABLE TB_BOARD_FREE</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:11">
       <c r="B99" s="6" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11">
       <c r="B100" s="4">
         <v>1</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11">
       <c r="B101" s="4">
         <v>2</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11">
       <c r="B102" s="4">
         <v>3</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11">
       <c r="B103" s="4">
         <v>4</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11">
       <c r="B104" s="4">
         <v>5</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11">
       <c r="B105" s="4">
         <v>6</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11">
       <c r="B106" s="4">
         <v>7</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11">
       <c r="B107" s="4">
         <v>8</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11">
       <c r="B108" s="4">
         <v>9</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:11">
       <c r="J109" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E97,"';")</f>
         <v>) COMMENT '자유게시판';</v>
@@ -5477,21 +5477,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:11">
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26" t="s">
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5501,23 +5501,23 @@
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:11">
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="21" t="str">
+      <c r="C111" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21" t="str">
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5527,7 +5527,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:11">
       <c r="J112" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5537,19 +5537,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="22" t="s">
+    <row r="113" spans="2:11">
+      <c r="B113" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="24"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="23"/>
+    </row>
+    <row r="114" spans="2:11">
       <c r="B114" s="6" t="s">
         <v>3</v>
       </c>
@@ -5583,19 +5583,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:11">
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5605,7 +5605,7 @@
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:11">
       <c r="B116" s="6" t="s">
         <v>32</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:11">
       <c r="B117" s="4">
         <v>1</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:11">
       <c r="B118" s="4">
         <v>2</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:11">
       <c r="B119" s="4">
         <v>3</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:11">
       <c r="B120" s="4">
         <v>4</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:11">
       <c r="B121" s="4">
         <v>5</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:11">
       <c r="B122" s="4">
         <v>6</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:11">
       <c r="B123" s="4">
         <v>7</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:11">
       <c r="B124" s="4">
         <v>8</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:11">
       <c r="B125" s="4">
         <v>9</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:11">
       <c r="B126" s="4">
         <v>10</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:11">
       <c r="B127" s="4">
         <v>11</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:11">
       <c r="J128" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E114,"';")</f>
         <v>) COMMENT '공지사항';</v>
@@ -5993,21 +5993,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:11">
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26" t="s">
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6017,23 +6017,23 @@
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:11">
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="21" t="str">
+      <c r="C130" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21" t="str">
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -6043,7 +6043,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:11">
       <c r="J131" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6053,19 +6053,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="22" t="s">
+    <row r="132" spans="2:11">
+      <c r="B132" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="24"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="23"/>
+    </row>
+    <row r="133" spans="2:11">
       <c r="B133" s="6" t="s">
         <v>3</v>
       </c>
@@ -6099,19 +6099,19 @@
         <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:11">
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6121,7 +6121,7 @@
         <v>CREATE TABLE TB_ATCFILE</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:11">
       <c r="B135" s="6" t="s">
         <v>32</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:11">
       <c r="B136" s="4">
         <v>1</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:11">
       <c r="B137" s="4">
         <v>2</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:11">
       <c r="B138" s="4">
         <v>3</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:11">
       <c r="B139" s="4">
         <v>4</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:11">
       <c r="B140" s="4">
         <v>5</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:11">
       <c r="B141" s="4">
         <v>6</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:11">
       <c r="B142" s="4">
         <v>7</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:11">
       <c r="B143" s="4">
         <v>8</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:11">
       <c r="B144" s="4">
         <v>9</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:11">
       <c r="B145" s="4">
         <v>10</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:11">
       <c r="B146" s="4">
         <v>11</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:11">
       <c r="B147" s="4">
         <v>12</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:11">
       <c r="J148" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E133,"';")</f>
         <v>) COMMENT '첨부파일';</v>
@@ -6553,21 +6553,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:11">
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26" t="s">
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6577,23 +6577,23 @@
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:11">
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="21" t="str">
+      <c r="C150" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21" t="str">
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6603,23 +6603,23 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:11">
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="21" t="str">
+      <c r="C151" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="str">
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6629,7 +6629,7 @@
         <v>, ATCFILE_NUM</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:11">
       <c r="J152" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6639,19 +6639,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="22" t="s">
+    <row r="153" spans="2:11">
+      <c r="B153" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="24"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="23"/>
+    </row>
+    <row r="154" spans="2:11">
       <c r="B154" s="6" t="s">
         <v>3</v>
       </c>
@@ -6685,19 +6685,19 @@
         <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:11">
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6707,7 +6707,7 @@
         <v>CREATE TABLE TB_SEQUENCE</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:11">
       <c r="B156" s="6" t="s">
         <v>32</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:11">
       <c r="B157" s="4">
         <v>1</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:11">
       <c r="B158" s="4">
         <v>2</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:11">
       <c r="J159" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E154,"';")</f>
         <v>) COMMENT '시퀀스';</v>
@@ -6817,21 +6817,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:11">
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26" t="s">
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6841,23 +6841,23 @@
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:11">
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="21" t="str">
+      <c r="C161" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21" t="str">
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6867,7 +6867,7 @@
         <v>SEQ_NM</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:11">
       <c r="J162" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6877,19 +6877,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="22" t="s">
+    <row r="163" spans="2:11">
+      <c r="B163" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="24"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="23"/>
+    </row>
+    <row r="164" spans="2:11">
       <c r="B164" s="6" t="s">
         <v>3</v>
       </c>
@@ -6923,19 +6923,19 @@
         <v>DROP TABLE IF EXISTS TB_POLI;</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:11">
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6945,7 +6945,7 @@
         <v>CREATE TABLE TB_POLI</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:11">
       <c r="B166" s="6" t="s">
         <v>32</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:11">
       <c r="B167" s="4">
         <v>1</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:11">
       <c r="B168" s="4">
         <v>2</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:11">
       <c r="B169" s="4">
         <v>3</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:11">
       <c r="B170" s="4">
         <v>4</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:11">
       <c r="B171" s="4">
         <v>5</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:11">
       <c r="B172" s="4">
         <v>9</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:11">
       <c r="B173" s="4">
         <v>10</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:11">
       <c r="B174" s="4">
         <v>11</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:11">
       <c r="B175" s="4">
         <v>12</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:11">
       <c r="J176" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E164,"';")</f>
         <v>) COMMENT '정책';</v>
@@ -7276,21 +7276,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:11">
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C177" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26" t="s">
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7300,23 +7300,23 @@
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:11">
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="21" t="str">
+      <c r="C178" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21" t="str">
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7326,7 +7326,7 @@
         <v>POLI_SEQ</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:11">
       <c r="J179" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7336,19 +7336,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="22" t="s">
+    <row r="180" spans="2:11">
+      <c r="B180" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="23"/>
-      <c r="H180" s="23"/>
-      <c r="I180" s="24"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="23"/>
+    </row>
+    <row r="181" spans="2:11">
       <c r="B181" s="6" t="s">
         <v>3</v>
       </c>
@@ -7382,19 +7382,19 @@
         <v>DROP TABLE IF EXISTS TB_MNU;</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:11">
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7404,7 +7404,7 @@
         <v>CREATE TABLE TB_MNU</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:11">
       <c r="B183" s="6" t="s">
         <v>32</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:11">
       <c r="B184" s="4">
         <v>1</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:11">
       <c r="B185" s="4">
         <v>2</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:11">
       <c r="B186" s="4">
         <v>3</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:11">
       <c r="B187" s="4">
         <v>4</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:11">
       <c r="B188" s="4">
         <v>5</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:11">
       <c r="B189" s="4">
         <v>6</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:11">
       <c r="B190" s="4">
         <v>7</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:11">
       <c r="B191" s="4">
         <v>8</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:11">
       <c r="B192" s="4">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:11">
       <c r="B193" s="4">
         <v>10</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:11">
       <c r="B194" s="4">
         <v>11</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:11">
       <c r="B195" s="4">
         <v>12</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:11">
       <c r="B196" s="4">
         <v>13</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:11">
       <c r="B197" s="4">
         <v>14</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:11">
       <c r="B198" s="4">
         <v>15</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:11">
       <c r="J199" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E181,"';")</f>
         <v>) COMMENT '메뉴';</v>
@@ -7927,21 +7927,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:11">
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="26" t="s">
+      <c r="C200" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26" t="s">
+      <c r="D200" s="25"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="26"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7951,23 +7951,23 @@
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:11">
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="21" t="str">
+      <c r="C201" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21" t="str">
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7977,7 +7977,7 @@
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:11">
       <c r="J202" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7987,19 +7987,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="22" t="s">
+    <row r="203" spans="2:11">
+      <c r="B203" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23"/>
-      <c r="I203" s="24"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="23"/>
+    </row>
+    <row r="204" spans="2:11">
       <c r="B204" s="6" t="s">
         <v>3</v>
       </c>
@@ -8033,19 +8033,19 @@
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:11">
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
-      <c r="I205" s="25"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8055,7 +8055,7 @@
         <v>CREATE TABLE TB_ROLE</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:11">
       <c r="B206" s="6" t="s">
         <v>32</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:11">
       <c r="B207" s="4">
         <v>1</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:11">
       <c r="B208" s="4">
         <v>2</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:11">
       <c r="B209" s="4">
         <v>3</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:11">
       <c r="B210" s="4">
         <v>4</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:11">
       <c r="B211" s="4">
         <v>5</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:11">
       <c r="B212" s="4">
         <v>6</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:11">
       <c r="B213" s="4">
         <v>7</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:11">
       <c r="B214" s="4">
         <v>8</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:11">
       <c r="J215" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E204,"';")</f>
         <v>) COMMENT '권한그룹';</v>
@@ -8354,21 +8354,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:11">
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C216" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26" t="s">
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="26"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="26"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="25"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8378,23 +8378,23 @@
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:11">
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="21" t="str">
+      <c r="C217" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21" t="str">
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="26" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="26"/>
+      <c r="I217" s="26"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8404,7 +8404,7 @@
         <v>ROLE_SEQ</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:11">
       <c r="J218" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8414,19 +8414,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="22" t="s">
+    <row r="219" spans="2:11">
+      <c r="B219" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="23"/>
-      <c r="F219" s="23"/>
-      <c r="G219" s="23"/>
-      <c r="H219" s="23"/>
-      <c r="I219" s="24"/>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="23"/>
+    </row>
+    <row r="220" spans="2:11">
       <c r="B220" s="6" t="s">
         <v>3</v>
       </c>
@@ -8460,19 +8460,19 @@
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:11">
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="25"/>
-      <c r="I221" s="25"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="24"/>
+      <c r="I221" s="24"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8482,7 +8482,7 @@
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:11">
       <c r="B222" s="6" t="s">
         <v>32</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:11">
       <c r="B223" s="4">
         <v>1</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:11">
       <c r="B224" s="4">
         <v>2</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:11">
       <c r="B225" s="4">
         <v>3</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:11">
       <c r="B226" s="4">
         <v>4</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:11">
       <c r="J227" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E220,"';")</f>
         <v>) COMMENT '사용자_권한그룹_매핑';</v>
@@ -8656,21 +8656,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:11">
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="26" t="s">
+      <c r="C228" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26" t="s">
+      <c r="D228" s="25"/>
+      <c r="E228" s="25"/>
+      <c r="F228" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
+      <c r="G228" s="25"/>
+      <c r="H228" s="25"/>
+      <c r="I228" s="25"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8680,23 +8680,23 @@
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:11">
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="21" t="str">
+      <c r="C229" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21" t="str">
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="21"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="26"/>
+      <c r="I229" s="26"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8706,23 +8706,23 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:11">
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="21" t="str">
+      <c r="C230" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21" t="str">
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="26"/>
+      <c r="I230" s="26"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8732,7 +8732,7 @@
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:11">
       <c r="J231" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8742,19 +8742,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="22" t="s">
+    <row r="232" spans="2:11">
+      <c r="B232" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="24"/>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="22"/>
+      <c r="I232" s="23"/>
+    </row>
+    <row r="233" spans="2:11">
       <c r="B233" s="6" t="s">
         <v>3</v>
       </c>
@@ -8788,19 +8788,19 @@
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:11">
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="25" t="s">
+      <c r="C234" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
-      <c r="F234" s="25"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="25"/>
-      <c r="I234" s="25"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="24"/>
+      <c r="I234" s="24"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8810,7 +8810,7 @@
         <v>CREATE TABLE TB_AUTH</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:11">
       <c r="B235" s="6" t="s">
         <v>32</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:11">
       <c r="B236" s="4">
         <v>1</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:11">
       <c r="B237" s="4">
         <v>2</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:11">
       <c r="B238" s="4">
         <v>3</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:11">
       <c r="B239" s="4">
         <v>4</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:11">
       <c r="B240" s="4">
         <v>5</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:11">
       <c r="B241" s="4">
         <v>6</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:11">
       <c r="B242" s="4">
         <v>7</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:11">
       <c r="B243" s="4">
         <v>8</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:11">
       <c r="J244" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E233,"';")</f>
         <v>) COMMENT '권한';</v>
@@ -9112,21 +9112,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:11">
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="26" t="s">
+      <c r="C245" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="26" t="s">
+      <c r="D245" s="25"/>
+      <c r="E245" s="25"/>
+      <c r="F245" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="26"/>
-      <c r="H245" s="26"/>
-      <c r="I245" s="26"/>
+      <c r="G245" s="25"/>
+      <c r="H245" s="25"/>
+      <c r="I245" s="25"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -9136,23 +9136,23 @@
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:11">
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="21" t="str">
+      <c r="C246" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21"/>
-      <c r="F246" s="21" t="str">
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="21"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="21"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="26"/>
+      <c r="I246" s="26"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -9162,23 +9162,23 @@
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:11">
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="21" t="str">
+      <c r="C247" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21" t="str">
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="26"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -9188,7 +9188,7 @@
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:11">
       <c r="J248" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -9200,60 +9200,28 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9270,28 +9238,60 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9303,10 +9303,10 @@
   <dimension ref="B2:AA141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
@@ -9325,16 +9325,16 @@
     <col min="27" max="27" width="145.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27">
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:27">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>TRUNCATE TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>("POLI_SEQ",0)</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>,("LOGIN_SEQ",0)</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>,("BOARD_SEQ",0)</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -9496,26 +9496,26 @@
         <v>,("ROLE_SEQ",0)</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27">
       <c r="AA11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27">
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>TRUNCATE TB_POLI;</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:27">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:27">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -9743,23 +9743,23 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27">
       <c r="AA18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27">
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>TRUNCATE TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>("LOGIN_CODE","로그인 유형","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -9900,26 +9900,26 @@
         <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:27">
       <c r="AA25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27">
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="2:27">
       <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>TRUNCATE TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27">
       <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:27">
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:27">
       <c r="B30" s="1">
         <v>2</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:27">
       <c r="B31" s="1">
         <v>3</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:27">
       <c r="B32" s="1">
         <v>4</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:27">
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27">
       <c r="B34" s="1">
         <v>6</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:27">
       <c r="B35" s="1">
         <v>7</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:27">
       <c r="B36" s="1">
         <v>8</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:27">
       <c r="B37" s="1">
         <v>9</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:27">
       <c r="B38" s="1">
         <v>10</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:27">
       <c r="B39" s="1">
         <v>11</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:27">
       <c r="B40" s="1">
         <v>12</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:27">
       <c r="B41" s="1">
         <v>13</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:27">
       <c r="B42" s="1">
         <v>14</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:27">
       <c r="B43" s="1">
         <v>15</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:27">
       <c r="B44" s="1">
         <v>16</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:27">
       <c r="B45" s="1">
         <v>17</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:27">
       <c r="B46" s="1">
         <v>18</v>
       </c>
@@ -10562,24 +10562,24 @@
         <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:27">
       <c r="AA47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:27">
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:27">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:27">
       <c r="B50" s="10" t="s">
         <v>3</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:27">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:27">
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:27">
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:27">
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:27">
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:27">
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:27">
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:27">
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:27">
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:27">
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:27">
       <c r="B61" s="1">
         <v>11</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:27">
       <c r="B62" s="1">
         <v>12</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:27">
       <c r="B63" s="1">
         <v>13</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:27">
       <c r="B64" s="1">
         <v>14</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:27">
       <c r="B65" s="1">
         <v>15</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:27">
       <c r="B66" s="1">
         <v>16</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:27">
       <c r="B67" s="1">
         <v>17</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:27">
       <c r="B68" s="1">
         <v>18</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:27">
       <c r="B69" s="1">
         <v>19</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:27">
       <c r="B70" s="1">
         <v>20</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:27">
       <c r="B71" s="1">
         <v>20</v>
       </c>
@@ -11183,31 +11183,31 @@
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:27">
       <c r="AA72" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:27">
       <c r="B73" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+    </row>
+    <row r="74" spans="2:27">
       <c r="B74" s="10" t="s">
         <v>1</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:27">
       <c r="B75" s="10" t="s">
         <v>3</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:27">
       <c r="B76" s="1">
         <v>1</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>319</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>266</v>
@@ -11360,7 +11360,7 @@
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:27">
       <c r="B77" s="1">
         <v>2</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:27">
       <c r="B78" s="1">
         <v>3</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:27">
       <c r="B79" s="1">
         <v>4</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:27">
       <c r="B80" s="1">
         <v>5</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:27">
       <c r="B81" s="1">
         <v>5</v>
       </c>
@@ -11548,10 +11548,10 @@
         <v>301</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>319</v>
@@ -11569,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L81" s="1">
         <v>5</v>
@@ -11585,7 +11585,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:27">
       <c r="B82" s="1">
         <v>6</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:27">
       <c r="B83" s="1">
         <v>7</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>464</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>266</v>
@@ -11675,7 +11675,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/free","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="84" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:27" s="20" customFormat="1">
       <c r="B84" s="1">
         <v>8</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/free","자유게시판","board/free","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="85" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:27" s="20" customFormat="1">
       <c r="B85" s="1">
         <v>9</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/QnA","질문게시판","board/free","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="86" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:27" s="20" customFormat="1">
       <c r="B86" s="1">
         <v>10</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/village","지역게시판","board/free","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:27">
       <c r="B87" s="1">
         <v>11</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>306</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>266</v>
@@ -11855,7 +11855,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:27">
       <c r="B88" s="1">
         <v>12</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>469</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>469</v>
@@ -11884,7 +11884,7 @@
         <v>2</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
@@ -11897,10 +11897,10 @@
       </c>
       <c r="AA88" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used"," 중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27">
       <c r="B89" s="1">
         <v>13</v>
       </c>
@@ -11908,10 +11908,10 @@
         <v>301</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>469</v>
@@ -11929,7 +11929,7 @@
         <v>2</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L89" s="1">
         <v>2</v>
@@ -11942,10 +11942,10 @@
       </c>
       <c r="AA89" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company"," 기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27">
       <c r="B90" s="1">
         <v>14</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>307</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>266</v>
@@ -11990,7 +11990,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:27">
       <c r="B91" s="1">
         <v>15</v>
       </c>
@@ -11998,13 +11998,13 @@
         <v>301</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>307</v>
@@ -12019,7 +12019,7 @@
         <v>2</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L91" s="1">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:27">
       <c r="B92" s="1">
         <v>16</v>
       </c>
@@ -12043,13 +12043,13 @@
         <v>301</v>
       </c>
       <c r="D92" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="F92" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>307</v>
@@ -12064,7 +12064,7 @@
         <v>2</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L92" s="1">
         <v>2</v>
@@ -12080,7 +12080,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:27">
       <c r="B93" s="1">
         <v>17</v>
       </c>
@@ -12088,13 +12088,13 @@
         <v>301</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F93" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>307</v>
@@ -12109,7 +12109,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L93" s="1">
         <v>3</v>
@@ -12125,7 +12125,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:27">
       <c r="B94" s="1">
         <v>18</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>308</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>266</v>
@@ -12170,7 +12170,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:27">
       <c r="B95" s="1">
         <v>19</v>
       </c>
@@ -12178,13 +12178,13 @@
         <v>301</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>308</v>
@@ -12199,7 +12199,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L95" s="1">
         <v>1</v>
@@ -12215,7 +12215,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:27">
       <c r="B96" s="1">
         <v>20</v>
       </c>
@@ -12223,13 +12223,13 @@
         <v>301</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>308</v>
@@ -12244,7 +12244,7 @@
         <v>2</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L96" s="1">
         <v>2</v>
@@ -12260,7 +12260,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:27">
       <c r="B97" s="1">
         <v>21</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>328</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>266</v>
@@ -12305,7 +12305,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:27">
       <c r="B98" s="1">
         <v>22</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:27">
       <c r="B99" s="1">
         <v>23</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>325</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>228</v>
@@ -12395,7 +12395,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:27">
       <c r="B100" s="1">
         <v>24</v>
       </c>
@@ -12440,25 +12440,25 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:27">
       <c r="AA101" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:27">
       <c r="B102" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+    </row>
+    <row r="103" spans="2:27">
       <c r="B103" s="10" t="s">
         <v>1</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:27">
       <c r="B104" s="10" t="s">
         <v>3</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:27">
       <c r="B105" s="1">
         <v>1</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:27">
       <c r="B106" s="1">
         <v>2</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:27">
       <c r="B107" s="1">
         <v>2</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:27">
       <c r="B108" s="1">
         <v>3</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:27">
       <c r="B109" s="1">
         <v>4</v>
       </c>
@@ -12673,23 +12673,23 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:27">
       <c r="AA110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:27">
       <c r="B111" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+    </row>
+    <row r="112" spans="2:27">
       <c r="B112" s="10" t="s">
         <v>1</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:27">
       <c r="B113" s="10" t="s">
         <v>3</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:27">
       <c r="B114" s="1">
         <v>1</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>("admin",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:27">
       <c r="B115" s="1">
         <v>2</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>,("user1",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:27">
       <c r="B116" s="1">
         <v>3</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>,("user2",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:27">
       <c r="B117" s="1">
         <v>4</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>,("user3",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:27">
       <c r="B118" s="1">
         <v>5</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>,("user4",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:27">
       <c r="B119" s="1">
         <v>6</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>,("user5",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:27">
       <c r="B120" s="1">
         <v>7</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>,("user6",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:27">
       <c r="B121" s="1">
         <v>8</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>,("user7",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:27">
       <c r="B122" s="1">
         <v>9</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>,("user8",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:27">
       <c r="B123" s="1">
         <v>10</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>,("user9",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:27">
       <c r="B124" s="1">
         <v>11</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>,("user10",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:27">
       <c r="B125" s="1">
         <v>12</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>,("user11",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:27">
       <c r="B126" s="1">
         <v>13</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>,("user12",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:27">
       <c r="B127" s="1">
         <v>14</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>,("user13",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:27">
       <c r="B128" s="1">
         <v>15</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>,("user14",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:27">
       <c r="B129" s="1">
         <v>16</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>,("user15",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:27">
       <c r="B130" s="1">
         <v>17</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>,("user16",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:27">
       <c r="B131" s="1">
         <v>18</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>,("user17",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:27">
       <c r="B132" s="1">
         <v>19</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>,("user18",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:27">
       <c r="B133" s="1">
         <v>20</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>,("user19",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:27">
       <c r="B134" s="1">
         <v>21</v>
       </c>
@@ -13198,12 +13198,12 @@
         <v>,("user20",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:27">
       <c r="AA135" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:27">
       <c r="B136" s="17" t="s">
         <v>199</v>
       </c>
@@ -13216,7 +13216,7 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:27">
       <c r="B137" s="17" t="s">
         <v>1</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:27">
       <c r="B138" s="17" t="s">
         <v>3</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:27">
       <c r="B139" s="1">
         <v>1</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:27">
       <c r="B140" s="1">
         <v>2</v>
       </c>
@@ -13350,18 +13350,18 @@
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:27">
       <c r="B141" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
       <c r="AA141" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
@@ -13369,16 +13369,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C102:H102"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C73:N73"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C102:H102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B76:N100">
@@ -13409,7 +13409,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
@@ -13420,7 +13420,7 @@
     <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13550,7 +13550,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA5B47-13D9-4FA8-BF55-F797F1239F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B8C88-AC9A-47F4-8551-E8BB1D9474F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="494">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1875,7 +1875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2060,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2124,6 +2124,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,14 +2142,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2504,11 +2513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+    <sheetView topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224:D224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
@@ -2523,19 +2532,19 @@
     <col min="11" max="11" width="120.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2569,19 +2578,19 @@
         <v>DROP TABLE IF EXISTS TB_USER;</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2591,7 +2600,7 @@
         <v>CREATE TABLE TB_USER</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2657,7 +2666,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -2717,7 +2726,7 @@
         <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -2777,7 +2786,7 @@
         <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>8</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>10</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -3021,7 +3030,7 @@
         <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>14</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>16</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -3149,7 +3158,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>18</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
         <v>19</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
         <v>20</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <v>22</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>23</v>
       </c>
@@ -3341,7 +3350,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>24</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>25</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J31" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E3,"';")</f>
         <v>) COMMENT '사용자';</v>
@@ -3415,21 +3424,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3439,23 +3448,23 @@
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="str">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3465,7 +3474,7 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J34" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3475,19 +3484,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="2:11">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
@@ -3521,19 +3530,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3543,7 +3552,7 @@
         <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <v>2</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
         <v>4</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>5</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
         <v>6</v>
       </c>
@@ -3767,7 +3776,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
         <v>7</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J46" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E36,"';")</f>
         <v>) COMMENT '코드그룹';</v>
@@ -3809,21 +3818,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3833,23 +3842,23 @@
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="C48" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26" t="str">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3859,7 +3868,7 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J49" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3869,19 +3878,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="21" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="2:11">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
@@ -3915,19 +3924,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3937,7 +3946,7 @@
         <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B54" s="4">
         <v>1</v>
       </c>
@@ -4003,7 +4012,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -4035,7 +4044,7 @@
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" s="4">
         <v>3</v>
       </c>
@@ -4067,7 +4076,7 @@
         <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" s="4">
         <v>4</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" s="4">
         <v>5</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B59" s="4">
         <v>6</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B60" s="4">
         <v>7</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B61" s="4">
         <v>8</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B62" s="4">
         <v>9</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J63" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E51,"';")</f>
         <v>) COMMENT '코드상세';</v>
@@ -4267,21 +4276,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4291,23 +4300,23 @@
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="26" t="str">
+      <c r="C65" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26" t="str">
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4317,23 +4326,23 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="26" t="str">
+      <c r="C66" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26" t="str">
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4343,7 +4352,7 @@
         <v>, CODE_DETAIL</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J67" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4353,19 +4362,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="21" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="2:11">
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
@@ -4399,19 +4408,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4421,7 +4430,7 @@
         <v>CREATE TABLE TB_LOG_LOGIN</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B71" s="6" t="s">
         <v>32</v>
       </c>
@@ -4455,7 +4464,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B72" s="4">
         <v>1</v>
       </c>
@@ -4487,7 +4496,7 @@
         <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B73" s="4">
         <v>2</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B74" s="4">
         <v>3</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B75" s="4">
         <v>4</v>
       </c>
@@ -4583,7 +4592,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B76" s="4">
         <v>5</v>
       </c>
@@ -4615,7 +4624,7 @@
         <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J77" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E69,"';")</f>
         <v>) COMMENT '로그인로그';</v>
@@ -4625,21 +4634,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4649,23 +4658,23 @@
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26" t="str">
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4675,7 +4684,7 @@
         <v>LOGIN_SEQ</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J80" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4685,19 +4694,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="21" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B81" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
-    </row>
-    <row r="82" spans="2:11">
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
@@ -4731,19 +4740,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4753,7 +4762,7 @@
         <v>CREATE TABLE TB_LOG_REQ</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B85" s="4">
         <v>1</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B86" s="4">
         <v>2</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B87" s="4">
         <v>3</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B88" s="4">
         <v>4</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B89" s="4">
         <v>5</v>
       </c>
@@ -4947,7 +4956,7 @@
         <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B90" s="4">
         <v>6</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B91" s="4">
         <v>7</v>
       </c>
@@ -5011,7 +5020,7 @@
         <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J92" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E82,"';")</f>
         <v>) COMMENT '요청로그';</v>
@@ -5021,21 +5030,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5045,23 +5054,23 @@
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="26" t="str">
+      <c r="C94" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26" t="str">
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5071,7 +5080,7 @@
         <v>REQ_SEQ</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J95" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5081,19 +5090,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="21" t="s">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
-    </row>
-    <row r="97" spans="2:11">
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
@@ -5127,19 +5136,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5149,7 +5158,7 @@
         <v>CREATE TABLE TB_BOARD_FREE</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B100" s="4">
         <v>1</v>
       </c>
@@ -5217,7 +5226,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B101" s="4">
         <v>2</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B102" s="4">
         <v>3</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B103" s="4">
         <v>4</v>
       </c>
@@ -5307,7 +5316,7 @@
         <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B104" s="4">
         <v>5</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B105" s="4">
         <v>6</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B106" s="4">
         <v>7</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B107" s="4">
         <v>8</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B108" s="4">
         <v>9</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J109" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E97,"';")</f>
         <v>) COMMENT '자유게시판';</v>
@@ -5477,21 +5486,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25" t="s">
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5501,23 +5510,23 @@
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="26" t="str">
+      <c r="C111" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26" t="str">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5527,7 +5536,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J112" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5537,19 +5546,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="21" t="s">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B113" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="23"/>
-    </row>
-    <row r="114" spans="2:11">
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
         <v>3</v>
       </c>
@@ -5583,19 +5592,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
       </c>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5605,7 +5614,7 @@
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B116" s="6" t="s">
         <v>32</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B117" s="4">
         <v>1</v>
       </c>
@@ -5673,7 +5682,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B118" s="4">
         <v>2</v>
       </c>
@@ -5703,7 +5712,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B119" s="4">
         <v>3</v>
       </c>
@@ -5733,7 +5742,7 @@
         <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B120" s="4">
         <v>4</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B121" s="4">
         <v>5</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B122" s="4">
         <v>6</v>
       </c>
@@ -5823,7 +5832,7 @@
         <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B123" s="4">
         <v>7</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B124" s="4">
         <v>8</v>
       </c>
@@ -5887,7 +5896,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B125" s="4">
         <v>9</v>
       </c>
@@ -5919,7 +5928,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B126" s="4">
         <v>10</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B127" s="4">
         <v>11</v>
       </c>
@@ -5983,7 +5992,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J128" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E114,"';")</f>
         <v>) COMMENT '공지사항';</v>
@@ -5993,21 +6002,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25" t="s">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6017,23 +6026,23 @@
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="26" t="str">
+      <c r="C130" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26" t="str">
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -6043,7 +6052,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J131" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6053,19 +6062,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="21" t="s">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B132" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="23"/>
-    </row>
-    <row r="133" spans="2:11">
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="24"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
         <v>3</v>
       </c>
@@ -6099,19 +6108,19 @@
         <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6121,7 +6130,7 @@
         <v>CREATE TABLE TB_ATCFILE</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B135" s="6" t="s">
         <v>32</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B136" s="4">
         <v>1</v>
       </c>
@@ -6189,7 +6198,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B137" s="4">
         <v>2</v>
       </c>
@@ -6223,7 +6232,7 @@
         <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B138" s="4">
         <v>3</v>
       </c>
@@ -6255,7 +6264,7 @@
         <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B139" s="4">
         <v>4</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B140" s="4">
         <v>5</v>
       </c>
@@ -6319,7 +6328,7 @@
         <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B141" s="4">
         <v>6</v>
       </c>
@@ -6351,7 +6360,7 @@
         <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B142" s="4">
         <v>7</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B143" s="4">
         <v>8</v>
       </c>
@@ -6415,7 +6424,7 @@
         <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B144" s="4">
         <v>9</v>
       </c>
@@ -6447,7 +6456,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B145" s="4">
         <v>10</v>
       </c>
@@ -6479,7 +6488,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B146" s="4">
         <v>11</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B147" s="4">
         <v>12</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J148" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E133,"';")</f>
         <v>) COMMENT '첨부파일';</v>
@@ -6553,21 +6562,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25" t="s">
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6577,23 +6586,23 @@
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="26" t="str">
+      <c r="C150" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26" t="str">
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6603,23 +6612,23 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="26" t="str">
+      <c r="C151" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26" t="str">
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6629,7 +6638,7 @@
         <v>, ATCFILE_NUM</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J152" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6639,19 +6648,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="21" t="s">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B153" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="23"/>
-    </row>
-    <row r="154" spans="2:11">
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="24"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
         <v>3</v>
       </c>
@@ -6685,19 +6694,19 @@
         <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="24" t="s">
+      <c r="C155" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6707,7 +6716,7 @@
         <v>CREATE TABLE TB_SEQUENCE</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B156" s="6" t="s">
         <v>32</v>
       </c>
@@ -6741,7 +6750,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B157" s="4">
         <v>1</v>
       </c>
@@ -6775,7 +6784,7 @@
         <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B158" s="4">
         <v>2</v>
       </c>
@@ -6807,7 +6816,7 @@
         <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J159" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E154,"';")</f>
         <v>) COMMENT '시퀀스';</v>
@@ -6817,21 +6826,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25" t="s">
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6841,23 +6850,23 @@
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="26" t="str">
+      <c r="C161" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26" t="str">
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6867,7 +6876,7 @@
         <v>SEQ_NM</v>
       </c>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J162" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6877,19 +6886,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="21" t="s">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B163" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="22"/>
-      <c r="I163" s="23"/>
-    </row>
-    <row r="164" spans="2:11">
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="24"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
         <v>3</v>
       </c>
@@ -6923,19 +6932,19 @@
         <v>DROP TABLE IF EXISTS TB_POLI;</v>
       </c>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C165" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6945,7 +6954,7 @@
         <v>CREATE TABLE TB_POLI</v>
       </c>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B166" s="6" t="s">
         <v>32</v>
       </c>
@@ -6979,7 +6988,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B167" s="4">
         <v>1</v>
       </c>
@@ -7013,7 +7022,7 @@
         <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B168" s="4">
         <v>2</v>
       </c>
@@ -7043,7 +7052,7 @@
         <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B169" s="4">
         <v>3</v>
       </c>
@@ -7074,7 +7083,7 @@
         <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B170" s="4">
         <v>4</v>
       </c>
@@ -7106,7 +7115,7 @@
         <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B171" s="4">
         <v>5</v>
       </c>
@@ -7138,7 +7147,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B172" s="4">
         <v>9</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B173" s="4">
         <v>10</v>
       </c>
@@ -7202,7 +7211,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B174" s="4">
         <v>11</v>
       </c>
@@ -7234,7 +7243,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B175" s="4">
         <v>12</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="176" spans="2:11">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J176" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E164,"';")</f>
         <v>) COMMENT '정책';</v>
@@ -7276,21 +7285,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25" t="s">
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7300,23 +7309,23 @@
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="26" t="str">
+      <c r="C178" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26" t="str">
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7326,7 +7335,7 @@
         <v>POLI_SEQ</v>
       </c>
     </row>
-    <row r="179" spans="2:11">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J179" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7336,19 +7345,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="180" spans="2:11">
-      <c r="B180" s="21" t="s">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B180" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="22"/>
-      <c r="G180" s="22"/>
-      <c r="H180" s="22"/>
-      <c r="I180" s="23"/>
-    </row>
-    <row r="181" spans="2:11">
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="24"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
         <v>3</v>
       </c>
@@ -7382,19 +7391,19 @@
         <v>DROP TABLE IF EXISTS TB_MNU;</v>
       </c>
     </row>
-    <row r="182" spans="2:11">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="24"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7404,7 +7413,7 @@
         <v>CREATE TABLE TB_MNU</v>
       </c>
     </row>
-    <row r="183" spans="2:11">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B183" s="6" t="s">
         <v>32</v>
       </c>
@@ -7438,7 +7447,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="184" spans="2:11">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B184" s="4">
         <v>1</v>
       </c>
@@ -7472,7 +7481,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="185" spans="2:11">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B185" s="4">
         <v>2</v>
       </c>
@@ -7504,7 +7513,7 @@
         <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
     </row>
-    <row r="186" spans="2:11">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B186" s="4">
         <v>3</v>
       </c>
@@ -7534,7 +7543,7 @@
         <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
     </row>
-    <row r="187" spans="2:11">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B187" s="4">
         <v>4</v>
       </c>
@@ -7565,7 +7574,7 @@
         <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
       </c>
     </row>
-    <row r="188" spans="2:11">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B188" s="4">
         <v>5</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
     </row>
-    <row r="189" spans="2:11">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B189" s="4">
         <v>6</v>
       </c>
@@ -7629,7 +7638,7 @@
         <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
     </row>
-    <row r="190" spans="2:11">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B190" s="4">
         <v>7</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
     </row>
-    <row r="191" spans="2:11">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B191" s="4">
         <v>8</v>
       </c>
@@ -7693,7 +7702,7 @@
         <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
-    <row r="192" spans="2:11">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B192" s="4">
         <v>9</v>
       </c>
@@ -7725,7 +7734,7 @@
         <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
     </row>
-    <row r="193" spans="2:11">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B193" s="4">
         <v>10</v>
       </c>
@@ -7757,7 +7766,7 @@
         <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
     </row>
-    <row r="194" spans="2:11">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B194" s="4">
         <v>11</v>
       </c>
@@ -7789,7 +7798,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
     </row>
-    <row r="195" spans="2:11">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B195" s="4">
         <v>12</v>
       </c>
@@ -7821,7 +7830,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="196" spans="2:11">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B196" s="4">
         <v>13</v>
       </c>
@@ -7853,7 +7862,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="197" spans="2:11">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B197" s="4">
         <v>14</v>
       </c>
@@ -7885,7 +7894,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="198" spans="2:11">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B198" s="4">
         <v>15</v>
       </c>
@@ -7917,7 +7926,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="199" spans="2:11">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J199" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E181,"';")</f>
         <v>) COMMENT '메뉴';</v>
@@ -7927,21 +7936,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="200" spans="2:11">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
-      <c r="F200" s="25" t="s">
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="25"/>
-      <c r="H200" s="25"/>
-      <c r="I200" s="25"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
+      <c r="I200" s="26"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7951,23 +7960,23 @@
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="201" spans="2:11">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="26" t="str">
+      <c r="C201" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26" t="str">
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="26"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7977,7 +7986,7 @@
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="202" spans="2:11">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J202" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7987,19 +7996,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="203" spans="2:11">
-      <c r="B203" s="21" t="s">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="22"/>
-      <c r="I203" s="23"/>
-    </row>
-    <row r="204" spans="2:11">
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="24"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
         <v>3</v>
       </c>
@@ -8033,19 +8042,19 @@
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
     </row>
-    <row r="205" spans="2:11">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="24" t="s">
+      <c r="C205" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="24"/>
-      <c r="H205" s="24"/>
-      <c r="I205" s="24"/>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8055,7 +8064,7 @@
         <v>CREATE TABLE TB_ROLE</v>
       </c>
     </row>
-    <row r="206" spans="2:11">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B206" s="6" t="s">
         <v>32</v>
       </c>
@@ -8089,7 +8098,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="207" spans="2:11">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B207" s="4">
         <v>1</v>
       </c>
@@ -8123,7 +8132,7 @@
         <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="208" spans="2:11">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B208" s="4">
         <v>2</v>
       </c>
@@ -8155,7 +8164,7 @@
         <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
       </c>
     </row>
-    <row r="209" spans="2:11">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B209" s="4">
         <v>3</v>
       </c>
@@ -8185,7 +8194,7 @@
         <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
     </row>
-    <row r="210" spans="2:11">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B210" s="4">
         <v>4</v>
       </c>
@@ -8216,7 +8225,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
       </c>
     </row>
-    <row r="211" spans="2:11">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B211" s="4">
         <v>5</v>
       </c>
@@ -8248,7 +8257,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="212" spans="2:11">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B212" s="4">
         <v>6</v>
       </c>
@@ -8280,7 +8289,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="213" spans="2:11">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B213" s="4">
         <v>7</v>
       </c>
@@ -8312,7 +8321,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="214" spans="2:11">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B214" s="4">
         <v>8</v>
       </c>
@@ -8344,7 +8353,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="215" spans="2:11">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J215" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E204,"';")</f>
         <v>) COMMENT '권한그룹';</v>
@@ -8354,21 +8363,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="216" spans="2:11">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
-      <c r="F216" s="25" t="s">
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="25"/>
-      <c r="H216" s="25"/>
-      <c r="I216" s="25"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="26"/>
+      <c r="I216" s="26"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8378,23 +8387,23 @@
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="217" spans="2:11">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="26" t="str">
+      <c r="C217" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26" t="str">
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="26"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8404,7 +8413,7 @@
         <v>ROLE_SEQ</v>
       </c>
     </row>
-    <row r="218" spans="2:11">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J218" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8414,19 +8423,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="219" spans="2:11">
-      <c r="B219" s="21" t="s">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B219" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="22"/>
-      <c r="I219" s="23"/>
-    </row>
-    <row r="220" spans="2:11">
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="24"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
         <v>3</v>
       </c>
@@ -8460,19 +8469,19 @@
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="221" spans="2:11">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="24" t="s">
+      <c r="C221" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D221" s="24"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="24"/>
-      <c r="I221" s="24"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8482,7 +8491,7 @@
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
     </row>
-    <row r="222" spans="2:11">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B222" s="6" t="s">
         <v>32</v>
       </c>
@@ -8516,7 +8525,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="223" spans="2:11">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B223" s="4">
         <v>1</v>
       </c>
@@ -8548,7 +8557,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="224" spans="2:11">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B224" s="4">
         <v>2</v>
       </c>
@@ -8582,7 +8591,7 @@
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="225" spans="2:11">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B225" s="4">
         <v>3</v>
       </c>
@@ -8614,7 +8623,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="226" spans="2:11">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B226" s="4">
         <v>4</v>
       </c>
@@ -8646,7 +8655,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="227" spans="2:11">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J227" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E220,"';")</f>
         <v>) COMMENT '사용자_권한그룹_매핑';</v>
@@ -8656,21 +8665,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="25"/>
-      <c r="E228" s="25"/>
-      <c r="F228" s="25" t="s">
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="25"/>
-      <c r="H228" s="25"/>
-      <c r="I228" s="25"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="26"/>
+      <c r="I228" s="26"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8680,23 +8689,23 @@
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="229" spans="2:11">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="26" t="str">
+      <c r="C229" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26" t="str">
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="26"/>
-      <c r="H229" s="26"/>
-      <c r="I229" s="26"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8706,23 +8715,23 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="230" spans="2:11">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="26" t="str">
+      <c r="C230" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="26" t="str">
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="26"/>
-      <c r="H230" s="26"/>
-      <c r="I230" s="26"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8732,7 +8741,7 @@
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="231" spans="2:11">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J231" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8742,19 +8751,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="232" spans="2:11">
-      <c r="B232" s="21" t="s">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B232" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="22"/>
-      <c r="G232" s="22"/>
-      <c r="H232" s="22"/>
-      <c r="I232" s="23"/>
-    </row>
-    <row r="233" spans="2:11">
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="24"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
         <v>3</v>
       </c>
@@ -8788,19 +8797,19 @@
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
     </row>
-    <row r="234" spans="2:11">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="24" t="s">
+      <c r="C234" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="D234" s="24"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="24"/>
-      <c r="G234" s="24"/>
-      <c r="H234" s="24"/>
-      <c r="I234" s="24"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="25"/>
+      <c r="G234" s="25"/>
+      <c r="H234" s="25"/>
+      <c r="I234" s="25"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8810,7 +8819,7 @@
         <v>CREATE TABLE TB_AUTH</v>
       </c>
     </row>
-    <row r="235" spans="2:11">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B235" s="6" t="s">
         <v>32</v>
       </c>
@@ -8844,7 +8853,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="236" spans="2:11">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B236" s="4">
         <v>1</v>
       </c>
@@ -8876,7 +8885,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="237" spans="2:11">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B237" s="4">
         <v>2</v>
       </c>
@@ -8910,7 +8919,7 @@
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="238" spans="2:11">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B238" s="4">
         <v>3</v>
       </c>
@@ -8942,7 +8951,7 @@
         <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
-    <row r="239" spans="2:11">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B239" s="4">
         <v>4</v>
       </c>
@@ -8974,7 +8983,7 @@
         <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
-    <row r="240" spans="2:11">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B240" s="4">
         <v>5</v>
       </c>
@@ -9006,7 +9015,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="241" spans="2:11">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B241" s="4">
         <v>6</v>
       </c>
@@ -9038,7 +9047,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="242" spans="2:11">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B242" s="4">
         <v>7</v>
       </c>
@@ -9070,7 +9079,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="243" spans="2:11">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B243" s="4">
         <v>8</v>
       </c>
@@ -9102,7 +9111,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="244" spans="2:11">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J244" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E233,"';")</f>
         <v>) COMMENT '권한';</v>
@@ -9112,21 +9121,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="245" spans="2:11">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="25" t="s">
+      <c r="C245" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
-      <c r="F245" s="25" t="s">
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="25"/>
-      <c r="H245" s="25"/>
-      <c r="I245" s="25"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="26"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -9136,23 +9145,23 @@
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="246" spans="2:11">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="26" t="str">
+      <c r="C246" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-      <c r="F246" s="26" t="str">
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="26"/>
-      <c r="H246" s="26"/>
-      <c r="I246" s="26"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -9162,23 +9171,23 @@
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="247" spans="2:11">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="26" t="str">
+      <c r="C247" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26" t="str">
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="26"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -9188,7 +9197,7 @@
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="248" spans="2:11">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J248" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -9200,28 +9209,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9238,60 +9279,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9302,11 +9311,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="J122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
@@ -9325,16 +9334,16 @@
     <col min="27" max="27" width="145.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="2:27">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -9368,7 +9377,7 @@
         <v>TRUNCATE TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -9400,7 +9409,7 @@
         <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9416,7 +9425,7 @@
         <v>("POLI_SEQ",0)</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -9432,7 +9441,7 @@
         <v>,("LOGIN_SEQ",0)</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -9448,7 +9457,7 @@
         <v>,("BOARD_SEQ",0)</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -9480,7 +9489,7 @@
         <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -9496,26 +9505,26 @@
         <v>,("ROLE_SEQ",0)</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="2:27">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -9562,7 +9571,7 @@
         <v>TRUNCATE TB_POLI;</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -9602,7 +9611,7 @@
         <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -9649,7 +9658,7 @@
         <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -9696,7 +9705,7 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -9743,23 +9752,23 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -9795,7 +9804,7 @@
         <v>TRUNCATE TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +9843,7 @@
         <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -9856,7 +9865,7 @@
         <v>("LOGIN_CODE","로그인 유형","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -9878,7 +9887,7 @@
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -9900,26 +9909,26 @@
         <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="2:27">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
@@ -9958,7 +9967,7 @@
         <v>TRUNCATE TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
@@ -10004,7 +10013,7 @@
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -10035,7 +10044,7 @@
         <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>2</v>
       </c>
@@ -10066,7 +10075,7 @@
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>3</v>
       </c>
@@ -10097,7 +10106,7 @@
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>4</v>
       </c>
@@ -10128,7 +10137,7 @@
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="33" spans="2:27">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -10159,7 +10168,7 @@
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="34" spans="2:27">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>6</v>
       </c>
@@ -10190,7 +10199,7 @@
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="35" spans="2:27">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>7</v>
       </c>
@@ -10221,7 +10230,7 @@
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="36" spans="2:27">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>8</v>
       </c>
@@ -10252,7 +10261,7 @@
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="37" spans="2:27">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>9</v>
       </c>
@@ -10283,7 +10292,7 @@
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="38" spans="2:27">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>10</v>
       </c>
@@ -10314,7 +10323,7 @@
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="39" spans="2:27">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>11</v>
       </c>
@@ -10345,7 +10354,7 @@
         <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="40" spans="2:27">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>12</v>
       </c>
@@ -10376,7 +10385,7 @@
         <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="41" spans="2:27">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>13</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="42" spans="2:27">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>14</v>
       </c>
@@ -10438,7 +10447,7 @@
         <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="43" spans="2:27">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>15</v>
       </c>
@@ -10469,7 +10478,7 @@
         <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="44" spans="2:27">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>16</v>
       </c>
@@ -10500,7 +10509,7 @@
         <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>17</v>
       </c>
@@ -10531,7 +10540,7 @@
         <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="46" spans="2:27">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>18</v>
       </c>
@@ -10562,24 +10571,24 @@
         <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="47" spans="2:27">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="2:27">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -10619,7 +10628,7 @@
         <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B50" s="10" t="s">
         <v>3</v>
       </c>
@@ -10658,7 +10667,7 @@
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="51" spans="2:27">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -10683,7 +10692,7 @@
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="52" spans="2:27">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -10708,7 +10717,7 @@
         <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="53" spans="2:27">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -10733,7 +10742,7 @@
         <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="54" spans="2:27">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -10758,7 +10767,7 @@
         <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="55" spans="2:27">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -10783,7 +10792,7 @@
         <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="56" spans="2:27">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -10808,7 +10817,7 @@
         <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="57" spans="2:27">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -10833,7 +10842,7 @@
         <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="58" spans="2:27">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -10858,7 +10867,7 @@
         <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="59" spans="2:27">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -10883,7 +10892,7 @@
         <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="60" spans="2:27">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -10908,7 +10917,7 @@
         <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="61" spans="2:27">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>11</v>
       </c>
@@ -10933,7 +10942,7 @@
         <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>12</v>
       </c>
@@ -10958,7 +10967,7 @@
         <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="63" spans="2:27">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>13</v>
       </c>
@@ -10983,7 +10992,7 @@
         <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="64" spans="2:27">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>14</v>
       </c>
@@ -11008,7 +11017,7 @@
         <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="65" spans="2:27">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>15</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="66" spans="2:27">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>16</v>
       </c>
@@ -11058,7 +11067,7 @@
         <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="67" spans="2:27">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>17</v>
       </c>
@@ -11083,7 +11092,7 @@
         <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="68" spans="2:27">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>18</v>
       </c>
@@ -11108,7 +11117,7 @@
         <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>19</v>
       </c>
@@ -11133,7 +11142,7 @@
         <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>20</v>
       </c>
@@ -11158,7 +11167,7 @@
         <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="71" spans="2:27">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>20</v>
       </c>
@@ -11183,31 +11192,31 @@
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="72" spans="2:27">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA72" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="2:27">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B73" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-    </row>
-    <row r="74" spans="2:27">
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="10" t="s">
         <v>1</v>
       </c>
@@ -11261,7 +11270,7 @@
         <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
-    <row r="75" spans="2:27">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B75" s="10" t="s">
         <v>3</v>
       </c>
@@ -11315,7 +11324,7 @@
         <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="76" spans="2:27">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>1</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="77" spans="2:27">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>2</v>
       </c>
@@ -11405,7 +11414,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="78" spans="2:27">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>3</v>
       </c>
@@ -11450,7 +11459,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="79" spans="2:27">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>4</v>
       </c>
@@ -11495,7 +11504,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="80" spans="2:27">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>5</v>
       </c>
@@ -11540,7 +11549,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="81" spans="2:27">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>5</v>
       </c>
@@ -11585,7 +11594,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="82" spans="2:27">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>6</v>
       </c>
@@ -11630,7 +11639,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="83" spans="2:27">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>7</v>
       </c>
@@ -11675,7 +11684,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/free","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="84" spans="2:27" s="20" customFormat="1">
+    <row r="84" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>8</v>
       </c>
@@ -11720,7 +11729,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/free","자유게시판","board/free","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="85" spans="2:27" s="20" customFormat="1">
+    <row r="85" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>9</v>
       </c>
@@ -11765,7 +11774,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/QnA","질문게시판","board/free","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="86" spans="2:27" s="20" customFormat="1">
+    <row r="86" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>10</v>
       </c>
@@ -11810,7 +11819,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/village","지역게시판","board/free","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="87" spans="2:27">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>11</v>
       </c>
@@ -11855,7 +11864,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="88" spans="2:27">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>12</v>
       </c>
@@ -11900,7 +11909,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="89" spans="2:27">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>13</v>
       </c>
@@ -11945,7 +11954,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="90" spans="2:27">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>14</v>
       </c>
@@ -11990,7 +11999,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="91" spans="2:27">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>15</v>
       </c>
@@ -12035,7 +12044,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="92" spans="2:27">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>16</v>
       </c>
@@ -12080,7 +12089,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="93" spans="2:27">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>17</v>
       </c>
@@ -12125,7 +12134,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="94" spans="2:27">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
         <v>18</v>
       </c>
@@ -12170,7 +12179,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="95" spans="2:27">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
         <v>19</v>
       </c>
@@ -12215,7 +12224,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="96" spans="2:27">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
         <v>20</v>
       </c>
@@ -12260,7 +12269,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="97" spans="2:27">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
         <v>21</v>
       </c>
@@ -12305,7 +12314,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="98" spans="2:27">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <v>22</v>
       </c>
@@ -12350,7 +12359,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="99" spans="2:27">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <v>23</v>
       </c>
@@ -12395,7 +12404,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="100" spans="2:27">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
         <v>24</v>
       </c>
@@ -12440,25 +12449,25 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="101" spans="2:27">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA101" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="2:27">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-    </row>
-    <row r="103" spans="2:27">
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>1</v>
       </c>
@@ -12498,7 +12507,7 @@
         <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
-    <row r="104" spans="2:27">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B104" s="10" t="s">
         <v>3</v>
       </c>
@@ -12538,7 +12547,7 @@
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="105" spans="2:27">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
         <v>1</v>
       </c>
@@ -12565,7 +12574,7 @@
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="106" spans="2:27">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
         <v>2</v>
       </c>
@@ -12592,7 +12601,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="107" spans="2:27">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
         <v>2</v>
       </c>
@@ -12619,7 +12628,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="108" spans="2:27">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
         <v>3</v>
       </c>
@@ -12646,7 +12655,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="109" spans="2:27">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
         <v>4</v>
       </c>
@@ -12673,23 +12682,23 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="110" spans="2:27">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="2:27">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B111" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-    </row>
-    <row r="112" spans="2:27">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="31"/>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B112" s="10" t="s">
         <v>1</v>
       </c>
@@ -12702,9 +12711,7 @@
       <c r="E112" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>295</v>
-      </c>
+      <c r="F112" s="29"/>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
@@ -12723,7 +12730,7 @@
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="113" spans="2:27">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B113" s="10" t="s">
         <v>3</v>
       </c>
@@ -12736,9 +12743,7 @@
       <c r="E113" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>297</v>
-      </c>
+      <c r="F113" s="29"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
@@ -12754,10 +12759,10 @@
       <c r="Z113" s="13"/>
       <c r="AA113" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C111, "(", _xlfn.TEXTJOIN(",",TRUE,C112:Z112),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="114" spans="2:27">
+        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
         <v>1</v>
       </c>
@@ -12770,15 +12775,13 @@
       <c r="E114" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F114" s="30"/>
       <c r="AA114" t="str">
-        <f t="shared" ref="AA114:AA133" si="20">_xlfn.CONCAT(IF(B114=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C114:Z114),")")</f>
-        <v>("admin",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="115" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B114=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C114:Z114),")")</f>
+        <v>("admin",3,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
         <v>2</v>
       </c>
@@ -12791,15 +12794,13 @@
       <c r="E115" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F115" s="30"/>
       <c r="AA115" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user1",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="116" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B115=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C115:Z115),")")</f>
+        <v>,("user1",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
         <v>3</v>
       </c>
@@ -12812,15 +12813,13 @@
       <c r="E116" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F116" s="30"/>
       <c r="AA116" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user2",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="117" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B116=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C116:Z116),")")</f>
+        <v>,("user2",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
         <v>4</v>
       </c>
@@ -12833,15 +12832,13 @@
       <c r="E117" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F117" s="30"/>
       <c r="AA117" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user3",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="118" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B117=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C117:Z117),")")</f>
+        <v>,("user3",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
         <v>5</v>
       </c>
@@ -12854,15 +12851,13 @@
       <c r="E118" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F118" s="30"/>
       <c r="AA118" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user4",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="119" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B118=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C118:Z118),")")</f>
+        <v>,("user4",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
         <v>6</v>
       </c>
@@ -12875,15 +12870,13 @@
       <c r="E119" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F119" s="30"/>
       <c r="AA119" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user5",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="120" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B119=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C119:Z119),")")</f>
+        <v>,("user5",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
         <v>7</v>
       </c>
@@ -12896,15 +12889,13 @@
       <c r="E120" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F120" s="30"/>
       <c r="AA120" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user6",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="121" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B120=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C120:Z120),")")</f>
+        <v>,("user6",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
         <v>8</v>
       </c>
@@ -12917,15 +12908,13 @@
       <c r="E121" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F121" s="30"/>
       <c r="AA121" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user7",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="122" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B121=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C121:Z121),")")</f>
+        <v>,("user7",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
         <v>9</v>
       </c>
@@ -12938,15 +12927,13 @@
       <c r="E122" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F122" s="30"/>
       <c r="AA122" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user8",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="123" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
+        <v>,("user8",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
         <v>10</v>
       </c>
@@ -12959,15 +12946,13 @@
       <c r="E123" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F123" s="30"/>
       <c r="AA123" t="str">
-        <f t="shared" ref="AA123:AA130" si="21">_xlfn.CONCAT(IF(B123=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C123:Z123),")")</f>
-        <v>,("user9",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="124" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B123=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C123:Z123),")")</f>
+        <v>,("user9",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
         <v>11</v>
       </c>
@@ -12980,15 +12965,13 @@
       <c r="E124" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F124" s="30"/>
       <c r="AA124" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user10",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="125" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B124=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C124:Z124),")")</f>
+        <v>,("user10",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="125" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
         <v>12</v>
       </c>
@@ -13001,15 +12984,13 @@
       <c r="E125" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F125" s="30"/>
       <c r="AA125" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user11",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="126" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B125=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C125:Z125),")")</f>
+        <v>,("user11",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
         <v>13</v>
       </c>
@@ -13022,15 +13003,13 @@
       <c r="E126" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F126" s="30"/>
       <c r="AA126" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user12",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="127" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B126=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C126:Z126),")")</f>
+        <v>,("user12",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
         <v>14</v>
       </c>
@@ -13043,15 +13022,13 @@
       <c r="E127" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F127" s="30"/>
       <c r="AA127" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user13",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="128" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B127=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C127:Z127),")")</f>
+        <v>,("user13",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
         <v>15</v>
       </c>
@@ -13064,15 +13041,13 @@
       <c r="E128" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F128" s="30"/>
       <c r="AA128" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user14",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="129" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B128=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C128:Z128),")")</f>
+        <v>,("user14",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
         <v>16</v>
       </c>
@@ -13085,15 +13060,13 @@
       <c r="E129" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F129" s="30"/>
       <c r="AA129" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user15",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="130" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B129=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C129:Z129),")")</f>
+        <v>,("user15",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
         <v>17</v>
       </c>
@@ -13106,15 +13079,13 @@
       <c r="E130" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F130" s="30"/>
       <c r="AA130" t="str">
-        <f t="shared" si="21"/>
-        <v>,("user16",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="131" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B130=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C130:Z130),")")</f>
+        <v>,("user16",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
         <v>18</v>
       </c>
@@ -13127,15 +13098,13 @@
       <c r="E131" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F131" s="30"/>
       <c r="AA131" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user17",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="132" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B131=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C131:Z131),")")</f>
+        <v>,("user17",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
         <v>19</v>
       </c>
@@ -13148,15 +13117,13 @@
       <c r="E132" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F132" s="30"/>
       <c r="AA132" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user18",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="133" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B132=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C132:Z132),")")</f>
+        <v>,("user18",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="133" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
         <v>20</v>
       </c>
@@ -13169,15 +13136,13 @@
       <c r="E133" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F133" s="30"/>
       <c r="AA133" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user19",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="134" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B133=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C133:Z133),")")</f>
+        <v>,("user19",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B134" s="1">
         <v>21</v>
       </c>
@@ -13190,20 +13155,18 @@
       <c r="E134" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="F134" s="30"/>
       <c r="AA134" t="str">
-        <f t="shared" ref="AA134" si="22">_xlfn.CONCAT(IF(B134=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C134:Z134),")")</f>
-        <v>,("user20",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="135" spans="2:27">
+        <f>_xlfn.CONCAT(IF(B134=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C134:Z134),")")</f>
+        <v>,("user20",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA135" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="2:27">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B136" s="17" t="s">
         <v>199</v>
       </c>
@@ -13216,7 +13179,7 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
     </row>
-    <row r="137" spans="2:27">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B137" s="17" t="s">
         <v>1</v>
       </c>
@@ -13256,7 +13219,7 @@
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="138" spans="2:27">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B138" s="17" t="s">
         <v>3</v>
       </c>
@@ -13296,7 +13259,7 @@
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
       </c>
     </row>
-    <row r="139" spans="2:27">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B139" s="1">
         <v>1</v>
       </c>
@@ -13323,7 +13286,7 @@
         <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="140" spans="2:27">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B140" s="1">
         <v>2</v>
       </c>
@@ -13350,18 +13313,18 @@
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="141" spans="2:27">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B141" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
       <c r="AA141" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
@@ -13369,16 +13332,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C102:H102"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C73:N73"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B76:N100">
@@ -13386,14 +13349,14 @@
       <formula>$J76 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H109">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$J105 = 1</formula>
+  <conditionalFormatting sqref="F114:F134">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F134">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J114 = 1</formula>
+  <conditionalFormatting sqref="H105:H109">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$J105 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13409,7 +13372,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
@@ -13420,7 +13383,7 @@
     <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -13440,7 +13403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -13458,7 +13421,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -13478,7 +13441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -13496,7 +13459,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -13514,7 +13477,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -13532,7 +13495,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13550,7 +13513,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -13568,7 +13531,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -13586,7 +13549,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B8C88-AC9A-47F4-8551-E8BB1D9474F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847B70F-6CA1-4E3D-8213-11D63B987BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -1747,18 +1747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"board/QnA"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"board/free"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"board/village"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,6 +1856,18 @@
   </si>
   <si>
     <t>"기업장터"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board/freeBoard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board/qnaBoard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board/villageBoard"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2124,9 +2124,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,20 +2139,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2513,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224:D224"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2533,16 +2524,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2582,15 +2573,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3428,17 +3419,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3452,19 +3443,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="str">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3485,16 +3476,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3534,15 +3525,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3822,17 +3813,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3846,19 +3837,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="21" t="str">
+      <c r="C48" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21" t="str">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3879,16 +3870,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3928,15 +3919,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4280,17 +4271,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26" t="s">
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4304,19 +4295,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="21" t="str">
+      <c r="C65" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21" t="str">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4330,19 +4321,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="21" t="str">
+      <c r="C66" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21" t="str">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4363,16 +4354,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="24"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4412,15 +4403,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4638,17 +4629,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4662,19 +4653,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="21" t="str">
+      <c r="C79" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21" t="str">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4695,16 +4686,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4744,15 +4735,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -5034,17 +5025,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5058,19 +5049,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="21" t="str">
+      <c r="C94" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21" t="str">
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5091,16 +5082,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -5140,15 +5131,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5490,17 +5481,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26" t="s">
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5514,19 +5505,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="21" t="str">
+      <c r="C111" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21" t="str">
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5547,16 +5538,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="24"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="23"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5596,15 +5587,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -6006,17 +5997,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26" t="s">
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6030,19 +6021,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="21" t="str">
+      <c r="C130" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21" t="str">
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -6063,16 +6054,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="24"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="23"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -6112,15 +6103,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6566,17 +6557,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26" t="s">
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6590,19 +6581,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="21" t="str">
+      <c r="C150" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21" t="str">
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6616,19 +6607,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="21" t="str">
+      <c r="C151" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="str">
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6649,16 +6640,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="24"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="23"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6698,15 +6689,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6830,17 +6821,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26" t="s">
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6854,19 +6845,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="21" t="str">
+      <c r="C161" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21" t="str">
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6887,16 +6878,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="24"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="23"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6936,15 +6927,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -7289,17 +7280,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C177" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26" t="s">
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7313,19 +7304,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="21" t="str">
+      <c r="C178" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21" t="str">
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7346,16 +7337,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="23"/>
-      <c r="H180" s="23"/>
-      <c r="I180" s="24"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="23"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7395,15 +7386,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7940,17 +7931,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="26" t="s">
+      <c r="C200" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26" t="s">
+      <c r="D200" s="25"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="26"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7964,19 +7955,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="21" t="str">
+      <c r="C201" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21" t="str">
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7997,16 +7988,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23"/>
-      <c r="I203" s="24"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="23"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -8046,15 +8037,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
-      <c r="I205" s="25"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8367,17 +8358,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C216" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26" t="s">
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="26"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="26"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="25"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8391,19 +8382,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="21" t="str">
+      <c r="C217" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21" t="str">
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="26" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="26"/>
+      <c r="I217" s="26"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8424,16 +8415,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="22" t="s">
+      <c r="B219" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="23"/>
-      <c r="F219" s="23"/>
-      <c r="G219" s="23"/>
-      <c r="H219" s="23"/>
-      <c r="I219" s="24"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="23"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8473,15 +8464,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="25"/>
-      <c r="I221" s="25"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="24"/>
+      <c r="I221" s="24"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8669,17 +8660,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="26" t="s">
+      <c r="C228" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26" t="s">
+      <c r="D228" s="25"/>
+      <c r="E228" s="25"/>
+      <c r="F228" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
+      <c r="G228" s="25"/>
+      <c r="H228" s="25"/>
+      <c r="I228" s="25"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8693,19 +8684,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="21" t="str">
+      <c r="C229" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21" t="str">
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="21"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="26"/>
+      <c r="I229" s="26"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8719,19 +8710,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="21" t="str">
+      <c r="C230" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21" t="str">
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="26"/>
+      <c r="I230" s="26"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8752,16 +8743,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="22" t="s">
+      <c r="B232" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="24"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="22"/>
+      <c r="I232" s="23"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8801,15 +8792,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="25" t="s">
+      <c r="C234" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
-      <c r="F234" s="25"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="25"/>
-      <c r="I234" s="25"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="24"/>
+      <c r="I234" s="24"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -9125,17 +9116,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="26" t="s">
+      <c r="C245" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="26" t="s">
+      <c r="D245" s="25"/>
+      <c r="E245" s="25"/>
+      <c r="F245" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="26"/>
-      <c r="H245" s="26"/>
-      <c r="I245" s="26"/>
+      <c r="G245" s="25"/>
+      <c r="H245" s="25"/>
+      <c r="I245" s="25"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -9149,19 +9140,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="21" t="str">
+      <c r="C246" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21"/>
-      <c r="F246" s="21" t="str">
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="21"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="21"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="26"/>
+      <c r="I246" s="26"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -9175,19 +9166,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="21" t="str">
+      <c r="C247" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21" t="str">
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="26"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -9209,60 +9200,28 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9279,28 +9238,60 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9311,8 +9302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N136" sqref="N136"/>
+    <sheetView topLeftCell="H106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA141" sqref="AA137:AA141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9338,10 +9329,10 @@
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9514,15 +9505,15 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9761,12 +9752,12 @@
       <c r="B19" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9918,15 +9909,15 @@
       <c r="B26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -10580,13 +10571,13 @@
       <c r="B48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -11201,20 +11192,20 @@
       <c r="B73" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="10" t="s">
@@ -11341,7 +11332,7 @@
         <v>319</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>266</v>
@@ -11557,10 +11548,10 @@
         <v>301</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>319</v>
@@ -11578,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L81" s="1">
         <v>5</v>
@@ -11653,10 +11644,10 @@
         <v>309</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>266</v>
@@ -11681,7 +11672,7 @@
       </c>
       <c r="AA83" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/free","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="84" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
@@ -11692,13 +11683,13 @@
         <v>301</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>231</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>305</v>
@@ -11713,7 +11704,7 @@
         <v>2</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L84" s="18">
         <v>1</v>
@@ -11726,7 +11717,7 @@
       </c>
       <c r="AA84" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/free","자유게시판","board/free","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="85" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
@@ -11737,13 +11728,13 @@
         <v>301</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>232</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>305</v>
@@ -11758,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L85" s="18">
         <v>2</v>
@@ -11771,7 +11762,7 @@
       </c>
       <c r="AA85" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/QnA","질문게시판","board/free","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="86" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
@@ -11782,13 +11773,13 @@
         <v>301</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>233</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="G86" s="19" t="s">
         <v>305</v>
@@ -11803,7 +11794,7 @@
         <v>2</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L86" s="18">
         <v>3</v>
@@ -11816,7 +11807,7 @@
       </c>
       <c r="AA86" s="20" t="str">
         <f t="shared" ref="AA86:AA88" si="13">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/village","지역게시판","board/free","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
@@ -11836,7 +11827,7 @@
         <v>306</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>266</v>
@@ -11872,13 +11863,13 @@
         <v>301</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>306</v>
@@ -11893,7 +11884,7 @@
         <v>2</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
@@ -11917,13 +11908,13 @@
         <v>301</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>306</v>
@@ -11938,7 +11929,7 @@
         <v>2</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L89" s="1">
         <v>2</v>
@@ -11971,7 +11962,7 @@
         <v>307</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>266</v>
@@ -12007,13 +11998,13 @@
         <v>301</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>307</v>
@@ -12028,7 +12019,7 @@
         <v>2</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L91" s="1">
         <v>1</v>
@@ -12052,13 +12043,13 @@
         <v>301</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>307</v>
@@ -12073,7 +12064,7 @@
         <v>2</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L92" s="1">
         <v>2</v>
@@ -12097,13 +12088,13 @@
         <v>301</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>307</v>
@@ -12118,7 +12109,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L93" s="1">
         <v>3</v>
@@ -12151,7 +12142,7 @@
         <v>308</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>266</v>
@@ -12187,13 +12178,13 @@
         <v>301</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>308</v>
@@ -12208,7 +12199,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L95" s="1">
         <v>1</v>
@@ -12232,13 +12223,13 @@
         <v>301</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>308</v>
@@ -12253,7 +12244,7 @@
         <v>2</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L96" s="1">
         <v>2</v>
@@ -12286,7 +12277,7 @@
         <v>328</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>266</v>
@@ -12376,7 +12367,7 @@
         <v>325</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>228</v>
@@ -12458,14 +12449,14 @@
       <c r="B102" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
@@ -12691,12 +12682,11 @@
       <c r="B111" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="31"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B112" s="10" t="s">
@@ -12711,7 +12701,7 @@
       <c r="E112" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F112" s="29"/>
+      <c r="F112" s="13"/>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
@@ -12743,7 +12733,7 @@
       <c r="E113" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F113" s="29"/>
+      <c r="F113" s="13"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
@@ -12775,9 +12765,8 @@
       <c r="E114" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="30"/>
       <c r="AA114" t="str">
-        <f>_xlfn.CONCAT(IF(B114=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C114:Z114),")")</f>
+        <f t="shared" ref="AA114:AA134" si="20">_xlfn.CONCAT(IF(B114=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C114:Z114),")")</f>
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
@@ -12794,9 +12783,8 @@
       <c r="E115" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F115" s="30"/>
       <c r="AA115" t="str">
-        <f>_xlfn.CONCAT(IF(B115=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C115:Z115),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12813,9 +12801,8 @@
       <c r="E116" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F116" s="30"/>
       <c r="AA116" t="str">
-        <f>_xlfn.CONCAT(IF(B116=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C116:Z116),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user2",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12832,9 +12819,8 @@
       <c r="E117" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F117" s="30"/>
       <c r="AA117" t="str">
-        <f>_xlfn.CONCAT(IF(B117=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C117:Z117),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user3",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12851,9 +12837,8 @@
       <c r="E118" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F118" s="30"/>
       <c r="AA118" t="str">
-        <f>_xlfn.CONCAT(IF(B118=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C118:Z118),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user4",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12870,9 +12855,8 @@
       <c r="E119" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F119" s="30"/>
       <c r="AA119" t="str">
-        <f>_xlfn.CONCAT(IF(B119=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C119:Z119),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user5",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12889,9 +12873,8 @@
       <c r="E120" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F120" s="30"/>
       <c r="AA120" t="str">
-        <f>_xlfn.CONCAT(IF(B120=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C120:Z120),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user6",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12908,9 +12891,8 @@
       <c r="E121" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F121" s="30"/>
       <c r="AA121" t="str">
-        <f>_xlfn.CONCAT(IF(B121=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C121:Z121),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user7",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12927,9 +12909,8 @@
       <c r="E122" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F122" s="30"/>
       <c r="AA122" t="str">
-        <f>_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user8",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12946,9 +12927,8 @@
       <c r="E123" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F123" s="30"/>
       <c r="AA123" t="str">
-        <f>_xlfn.CONCAT(IF(B123=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C123:Z123),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user9",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12965,9 +12945,8 @@
       <c r="E124" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F124" s="30"/>
       <c r="AA124" t="str">
-        <f>_xlfn.CONCAT(IF(B124=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C124:Z124),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user10",1,"SYSTEM")</v>
       </c>
     </row>
@@ -12984,9 +12963,8 @@
       <c r="E125" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F125" s="30"/>
       <c r="AA125" t="str">
-        <f>_xlfn.CONCAT(IF(B125=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C125:Z125),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user11",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13003,9 +12981,8 @@
       <c r="E126" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F126" s="30"/>
       <c r="AA126" t="str">
-        <f>_xlfn.CONCAT(IF(B126=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C126:Z126),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user12",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13022,9 +12999,8 @@
       <c r="E127" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F127" s="30"/>
       <c r="AA127" t="str">
-        <f>_xlfn.CONCAT(IF(B127=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C127:Z127),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user13",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13041,9 +13017,8 @@
       <c r="E128" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F128" s="30"/>
       <c r="AA128" t="str">
-        <f>_xlfn.CONCAT(IF(B128=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C128:Z128),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user14",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13060,9 +13035,8 @@
       <c r="E129" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F129" s="30"/>
       <c r="AA129" t="str">
-        <f>_xlfn.CONCAT(IF(B129=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C129:Z129),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user15",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13079,9 +13053,8 @@
       <c r="E130" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F130" s="30"/>
       <c r="AA130" t="str">
-        <f>_xlfn.CONCAT(IF(B130=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C130:Z130),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user16",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13098,9 +13071,8 @@
       <c r="E131" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F131" s="30"/>
       <c r="AA131" t="str">
-        <f>_xlfn.CONCAT(IF(B131=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C131:Z131),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user17",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13117,9 +13089,8 @@
       <c r="E132" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F132" s="30"/>
       <c r="AA132" t="str">
-        <f>_xlfn.CONCAT(IF(B132=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C132:Z132),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user18",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13136,9 +13107,8 @@
       <c r="E133" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F133" s="30"/>
       <c r="AA133" t="str">
-        <f>_xlfn.CONCAT(IF(B133=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C133:Z133),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user19",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13155,9 +13125,8 @@
       <c r="E134" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F134" s="30"/>
       <c r="AA134" t="str">
-        <f>_xlfn.CONCAT(IF(B134=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C134:Z134),")")</f>
+        <f t="shared" si="20"/>
         <v>,("user20",1,"SYSTEM")</v>
       </c>
     </row>
@@ -13317,14 +13286,14 @@
       <c r="B141" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
       <c r="AA141" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
@@ -13332,16 +13301,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C111:E111"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C73:N73"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B76:N100">

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847B70F-6CA1-4E3D-8213-11D63B987BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC686EA-66CD-4516-AD61-95EAAE8B5683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="499">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,10 +605,6 @@
     <t>파일명</t>
   </si>
   <si>
-    <t>FREE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOARD_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,6 +1864,30 @@
   </si>
   <si>
     <t>"board/villageBoard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_FREE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BOARD_FREE_CODE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"잡담"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"질문"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자유게시판 분류 코드"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2124,6 +2144,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,9 +2160,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2504,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2524,16 +2544,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2573,15 +2593,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2630,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>117</v>
@@ -2662,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>118</v>
@@ -2692,10 +2712,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>49</v>
@@ -2722,10 +2742,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>50</v>
@@ -2752,10 +2772,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>51</v>
@@ -2782,10 +2802,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>47</v>
@@ -2812,10 +2832,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>52</v>
@@ -2842,10 +2862,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>52</v>
@@ -2872,10 +2892,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>53</v>
@@ -2902,10 +2922,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>53</v>
@@ -2932,10 +2952,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>50</v>
@@ -2962,10 +2982,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>54</v>
@@ -2994,10 +3014,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>55</v>
@@ -3026,10 +3046,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>53</v>
@@ -3058,10 +3078,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>56</v>
@@ -3093,7 +3113,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>55</v>
@@ -3122,13 +3142,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
@@ -3138,7 +3158,7 @@
         <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -3285,7 +3305,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>47</v>
@@ -3298,7 +3318,7 @@
         <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -3349,7 +3369,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>47</v>
@@ -3362,7 +3382,7 @@
         <v>91</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -3419,17 +3439,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3443,19 +3463,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="str">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3476,16 +3496,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3525,15 +3545,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3644,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="1" t="s">
@@ -3660,7 +3680,7 @@
         <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
@@ -3679,7 +3699,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>47</v>
@@ -3692,7 +3712,7 @@
         <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="2"/>
@@ -3743,7 +3763,7 @@
         <v>66</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>47</v>
@@ -3756,7 +3776,7 @@
         <v>91</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="2"/>
@@ -3813,17 +3833,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3837,19 +3857,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="C48" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26" t="str">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3870,16 +3890,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3892,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>29</v>
@@ -3919,15 +3939,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4011,7 +4031,7 @@
         <v>105</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
@@ -4024,7 +4044,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" ref="J55:J62" si="4">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
@@ -4040,10 +4060,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>100</v>
@@ -4056,7 +4076,7 @@
         <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="4"/>
@@ -4072,10 +4092,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>23</v>
@@ -4086,7 +4106,7 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="4"/>
@@ -4102,13 +4122,13 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="1" t="s">
@@ -4137,7 +4157,7 @@
         <v>64</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>47</v>
@@ -4150,7 +4170,7 @@
         <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="4"/>
@@ -4201,7 +4221,7 @@
         <v>66</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>47</v>
@@ -4214,7 +4234,7 @@
         <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="4"/>
@@ -4271,17 +4291,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4295,19 +4315,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="26" t="str">
+      <c r="C65" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26" t="str">
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4321,19 +4341,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="26" t="str">
+      <c r="C66" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26" t="str">
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4354,16 +4374,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4376,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>29</v>
@@ -4403,15 +4423,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4460,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>125</v>
@@ -4524,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>117</v>
@@ -4556,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>115</v>
@@ -4629,17 +4649,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4653,19 +4673,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26" t="str">
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4686,29 +4706,29 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>29</v>
@@ -4735,15 +4755,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
+      <c r="C83" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4792,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>104</v>
@@ -4808,7 +4828,7 @@
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J85" t="str">
         <f>_xlfn.CONCAT(IF(B85=1,"",", "),C85," ",E85," ",G85,IF(H85="",""," DEFAULT "),H85, " COMMENT '",I85,"'")</f>
@@ -4824,10 +4844,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>57</v>
@@ -4840,7 +4860,7 @@
         <v>93</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" ref="J86:J91" si="8">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,IF(H86="",""," DEFAULT "),H86, " COMMENT '",I86,"'")</f>
@@ -4856,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>114</v>
@@ -4888,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>115</v>
@@ -4920,13 +4940,13 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="1" t="s">
@@ -4936,7 +4956,7 @@
         <v>91</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" ref="J89:J90" si="10">_xlfn.CONCAT(IF(B89=1,"",", "),C89," ",E89," ",G89,IF(H89="",""," DEFAULT "),H89, " COMMENT '",I89,"'")</f>
@@ -4952,13 +4972,13 @@
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="1" t="s">
@@ -4968,7 +4988,7 @@
         <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="10"/>
@@ -4984,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>24</v>
@@ -5000,7 +5020,7 @@
         <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="8"/>
@@ -5025,17 +5045,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5049,19 +5069,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="26" t="str">
+      <c r="C94" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26" t="str">
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5082,16 +5102,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -5131,15 +5151,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5222,10 +5242,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>52</v>
@@ -5236,7 +5256,7 @@
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" ref="J101:J108" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
@@ -5252,10 +5272,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>126</v>
@@ -5266,7 +5286,7 @@
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="12"/>
@@ -5282,10 +5302,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>159</v>
+        <v>494</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>104</v>
@@ -5296,15 +5316,15 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="12"/>
-        <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
+        <v>, BOARD_FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="13"/>
-        <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
+        <v>, BOARD_FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.4">
@@ -5312,10 +5332,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>127</v>
@@ -5328,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="12"/>
@@ -5347,7 +5367,7 @@
         <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>47</v>
@@ -5360,7 +5380,7 @@
         <v>91</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="12"/>
@@ -5411,7 +5431,7 @@
         <v>66</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>47</v>
@@ -5424,7 +5444,7 @@
         <v>91</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="12"/>
@@ -5481,17 +5501,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25" t="s">
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5505,19 +5525,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="26" t="str">
+      <c r="C111" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26" t="str">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5538,16 +5558,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5587,15 +5607,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5678,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>141</v>
@@ -5708,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>142</v>
@@ -5738,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>145</v>
@@ -5768,7 +5788,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>146</v>
@@ -5798,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>144</v>
@@ -5828,7 +5848,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>143</v>
@@ -5863,7 +5883,7 @@
         <v>64</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>47</v>
@@ -5876,7 +5896,7 @@
         <v>91</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="14"/>
@@ -5927,7 +5947,7 @@
         <v>66</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>47</v>
@@ -5940,7 +5960,7 @@
         <v>91</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="14"/>
@@ -5997,17 +6017,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25" t="s">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6021,19 +6041,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="26" t="str">
+      <c r="C130" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26" t="str">
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -6054,16 +6074,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="24"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -6103,15 +6123,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6194,10 +6214,10 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>104</v>
@@ -6212,7 +6232,7 @@
         <v>91</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J137" t="str">
         <f>_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
@@ -6228,10 +6248,10 @@
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>104</v>
@@ -6244,7 +6264,7 @@
         <v>91</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J138" t="str">
         <f>_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,IF(H138="",""," DEFAULT "),H138, " COMMENT '",I138,"'")</f>
@@ -6295,7 +6315,7 @@
         <v>154</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>150</v>
@@ -6308,7 +6328,7 @@
         <v>91</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="17"/>
@@ -6327,7 +6347,7 @@
         <v>155</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>151</v>
@@ -6340,7 +6360,7 @@
         <v>91</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J141" t="str">
         <f t="shared" si="17"/>
@@ -6359,7 +6379,7 @@
         <v>156</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>152</v>
@@ -6372,7 +6392,7 @@
         <v>91</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="17"/>
@@ -6391,7 +6411,7 @@
         <v>157</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>24</v>
@@ -6404,7 +6424,7 @@
         <v>91</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="17"/>
@@ -6423,7 +6443,7 @@
         <v>64</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>48</v>
@@ -6436,7 +6456,7 @@
         <v>91</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="17"/>
@@ -6487,7 +6507,7 @@
         <v>66</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>48</v>
@@ -6500,7 +6520,7 @@
         <v>91</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="17"/>
@@ -6557,17 +6577,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25" t="s">
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6581,19 +6601,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="26" t="str">
+      <c r="C150" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26" t="str">
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6607,19 +6627,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="26" t="str">
+      <c r="C151" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26" t="str">
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6640,29 +6660,29 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="24"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>29</v>
@@ -6689,15 +6709,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
+      <c r="C155" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6746,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>25</v>
@@ -6764,7 +6784,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J157" t="str">
         <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
@@ -6780,10 +6800,10 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>152</v>
@@ -6796,7 +6816,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J158" t="str">
         <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
@@ -6821,17 +6841,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25" t="s">
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6845,19 +6865,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="26" t="str">
+      <c r="C161" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26" t="str">
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6878,29 +6898,29 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="21" t="s">
+      <c r="B163" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="22"/>
-      <c r="I163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="24"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>29</v>
@@ -6927,15 +6947,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
+      <c r="C165" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6984,10 +7004,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>104</v>
@@ -7002,7 +7022,7 @@
         <v>91</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J167" t="str">
         <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
@@ -7018,10 +7038,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>24</v>
@@ -7032,7 +7052,7 @@
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J168" t="str">
         <f>_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
@@ -7048,10 +7068,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>99</v>
@@ -7063,7 +7083,7 @@
         <v>91</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT(IF(B169=1,"",", "),C169," ",E169," ",G169,IF(H169="",""," DEFAULT "),H169, " COMMENT '",I169,"'")</f>
@@ -7079,13 +7099,13 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="1" t="s">
@@ -7095,7 +7115,7 @@
         <v>91</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J170" t="str">
         <f t="shared" ref="J170:J175" si="19">_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
@@ -7111,13 +7131,13 @@
         <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="1" t="s">
@@ -7127,7 +7147,7 @@
         <v>91</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="19"/>
@@ -7146,7 +7166,7 @@
         <v>64</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>48</v>
@@ -7159,7 +7179,7 @@
         <v>91</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J172" t="str">
         <f t="shared" si="19"/>
@@ -7210,7 +7230,7 @@
         <v>66</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>48</v>
@@ -7223,7 +7243,7 @@
         <v>91</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J174" t="str">
         <f t="shared" si="19"/>
@@ -7280,17 +7300,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25" t="s">
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7304,19 +7324,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="26" t="str">
+      <c r="C178" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26" t="str">
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7337,29 +7357,29 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="21" t="s">
+      <c r="B180" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="22"/>
-      <c r="G180" s="22"/>
-      <c r="H180" s="22"/>
-      <c r="I180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="24"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>29</v>
@@ -7386,15 +7406,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="24"/>
+      <c r="C182" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7443,10 +7463,10 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>104</v>
@@ -7461,7 +7481,7 @@
         <v>91</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J184" t="str">
         <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
@@ -7477,13 +7497,13 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="1" t="s">
@@ -7493,7 +7513,7 @@
         <v>91</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J185" t="str">
         <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
@@ -7509,10 +7529,10 @@
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>99</v>
@@ -7523,7 +7543,7 @@
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J186" t="str">
         <f>_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
@@ -7539,13 +7559,13 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>43</v>
@@ -7554,7 +7574,7 @@
         <v>91</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J187" t="str">
         <f>_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
@@ -7570,13 +7590,13 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="1" t="s">
@@ -7586,7 +7606,7 @@
         <v>91</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J188" t="str">
         <f t="shared" ref="J188:J198" si="21">_xlfn.CONCAT(IF(B188=1,"",", "),C188," ",E188," ",G188,IF(H188="",""," DEFAULT "),H188, " COMMENT '",I188,"'")</f>
@@ -7602,10 +7622,10 @@
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>23</v>
@@ -7615,10 +7635,10 @@
         <v>43</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" ref="J189" si="22">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
@@ -7634,10 +7654,10 @@
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>23</v>
@@ -7647,10 +7667,10 @@
         <v>43</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" ref="J190:J192" si="24">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
@@ -7666,13 +7686,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="1" t="s">
@@ -7682,7 +7702,7 @@
         <v>91</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="24"/>
@@ -7698,10 +7718,10 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>52</v>
@@ -7714,7 +7734,7 @@
         <v>91</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="24"/>
@@ -7730,13 +7750,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="1" t="s">
@@ -7746,7 +7766,7 @@
         <v>91</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" ref="J193" si="26">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
@@ -7762,13 +7782,13 @@
         <v>11</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="1" t="s">
@@ -7778,7 +7798,7 @@
         <v>91</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J194" t="str">
         <f t="shared" si="21"/>
@@ -7797,7 +7817,7 @@
         <v>64</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>48</v>
@@ -7810,7 +7830,7 @@
         <v>91</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J195" t="str">
         <f t="shared" si="21"/>
@@ -7861,7 +7881,7 @@
         <v>66</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>48</v>
@@ -7874,7 +7894,7 @@
         <v>91</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J197" t="str">
         <f t="shared" si="21"/>
@@ -7931,17 +7951,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
-      <c r="F200" s="25" t="s">
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="25"/>
-      <c r="H200" s="25"/>
-      <c r="I200" s="25"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
+      <c r="I200" s="26"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7955,19 +7975,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="26" t="str">
+      <c r="C201" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26" t="str">
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="26"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7988,29 +8008,29 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="21" t="s">
+      <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="22"/>
-      <c r="I203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="24"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>29</v>
@@ -8037,15 +8057,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="24"/>
-      <c r="H205" s="24"/>
-      <c r="I205" s="24"/>
+      <c r="C205" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8094,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>104</v>
@@ -8112,7 +8132,7 @@
         <v>91</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J207" t="str">
         <f>_xlfn.CONCAT(IF(B207=1,"",", "),C207," ",E207," ",G207,IF(H207="",""," DEFAULT "),H207, " COMMENT '",I207,"'")</f>
@@ -8128,10 +8148,10 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>99</v>
@@ -8144,7 +8164,7 @@
         <v>91</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J208" t="str">
         <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
@@ -8160,13 +8180,13 @@
         <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="1" t="s">
@@ -8174,7 +8194,7 @@
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
@@ -8190,13 +8210,13 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>43</v>
@@ -8205,7 +8225,7 @@
         <v>91</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
@@ -8224,7 +8244,7 @@
         <v>64</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>48</v>
@@ -8237,7 +8257,7 @@
         <v>91</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J211" t="str">
         <f t="shared" ref="J211:J214" si="29">_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,IF(H211="",""," DEFAULT "),H211, " COMMENT '",I211,"'")</f>
@@ -8288,7 +8308,7 @@
         <v>66</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>48</v>
@@ -8301,7 +8321,7 @@
         <v>91</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J213" t="str">
         <f t="shared" si="29"/>
@@ -8358,17 +8378,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
-      <c r="F216" s="25" t="s">
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="25"/>
-      <c r="H216" s="25"/>
-      <c r="I216" s="25"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="26"/>
+      <c r="I216" s="26"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8382,19 +8402,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="26" t="str">
+      <c r="C217" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26" t="str">
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="26"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8415,29 +8435,29 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="21" t="s">
+      <c r="B219" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="22"/>
-      <c r="I219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="24"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>29</v>
@@ -8464,15 +8484,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D221" s="24"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="24"/>
-      <c r="I221" s="24"/>
+      <c r="C221" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8521,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>117</v>
@@ -8553,10 +8573,10 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>104</v>
@@ -8571,7 +8591,7 @@
         <v>91</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J224" t="str">
         <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
@@ -8590,7 +8610,7 @@
         <v>64</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>48</v>
@@ -8603,7 +8623,7 @@
         <v>91</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J225" t="str">
         <f t="shared" ref="J225:J226" si="30">_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
@@ -8660,17 +8680,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="25"/>
-      <c r="E228" s="25"/>
-      <c r="F228" s="25" t="s">
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="25"/>
-      <c r="H228" s="25"/>
-      <c r="I228" s="25"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="26"/>
+      <c r="I228" s="26"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8684,19 +8704,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="26" t="str">
+      <c r="C229" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26" t="str">
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="26"/>
-      <c r="H229" s="26"/>
-      <c r="I229" s="26"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8710,19 +8730,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="26" t="str">
+      <c r="C230" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="26" t="str">
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="26"/>
-      <c r="H230" s="26"/>
-      <c r="I230" s="26"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8743,29 +8763,29 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="22"/>
-      <c r="G232" s="22"/>
-      <c r="H232" s="22"/>
-      <c r="I232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="24"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>29</v>
@@ -8792,15 +8812,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D234" s="24"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="24"/>
-      <c r="G234" s="24"/>
-      <c r="H234" s="24"/>
-      <c r="I234" s="24"/>
+      <c r="C234" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="25"/>
+      <c r="G234" s="25"/>
+      <c r="H234" s="25"/>
+      <c r="I234" s="25"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8849,10 +8869,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>104</v>
@@ -8865,7 +8885,7 @@
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J236" t="str">
         <f>_xlfn.CONCAT(IF(B236=1,"",", "),C236," ",E236," ",G236,IF(H236="",""," DEFAULT "),H236, " COMMENT '",I236,"'")</f>
@@ -8881,10 +8901,10 @@
         <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>104</v>
@@ -8899,7 +8919,7 @@
         <v>91</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
@@ -8915,13 +8935,13 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E238" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="1" t="s">
@@ -8931,7 +8951,7 @@
         <v>91</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" ref="J238" si="32">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
@@ -8947,13 +8967,13 @@
         <v>4</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E239" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="1" t="s">
@@ -8963,7 +8983,7 @@
         <v>91</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J239" t="str">
         <f t="shared" ref="J239" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
@@ -8982,7 +9002,7 @@
         <v>64</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>48</v>
@@ -8995,7 +9015,7 @@
         <v>91</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J240" t="str">
         <f t="shared" ref="J240:J243" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
@@ -9046,7 +9066,7 @@
         <v>66</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>48</v>
@@ -9059,7 +9079,7 @@
         <v>91</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J242" t="str">
         <f t="shared" ref="J242" si="38">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
@@ -9116,17 +9136,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="25" t="s">
+      <c r="C245" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
-      <c r="F245" s="25" t="s">
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="25"/>
-      <c r="H245" s="25"/>
-      <c r="I245" s="25"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="26"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -9140,19 +9160,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="26" t="str">
+      <c r="C246" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-      <c r="F246" s="26" t="str">
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="26"/>
-      <c r="H246" s="26"/>
-      <c r="I246" s="26"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -9166,19 +9186,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="26" t="str">
+      <c r="C247" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26" t="str">
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="26"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -9200,28 +9220,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9238,60 +9290,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9300,10 +9320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA141"/>
+  <dimension ref="B2:AA145"/>
   <sheetViews>
-    <sheetView topLeftCell="H106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA141" sqref="AA137:AA141"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9311,7 +9331,7 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
@@ -9327,22 +9347,22 @@
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="26"/>
+        <v>198</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -9373,10 +9393,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="13"/>
       <c r="K4" s="12"/>
@@ -9405,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9421,7 +9441,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9437,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -9453,7 +9473,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -9469,7 +9489,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9485,7 +9505,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9498,41 +9518,41 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+        <v>198</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>64</v>
@@ -9567,25 +9587,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>82</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="J14" s="11"/>
       <c r="R14" s="12"/>
@@ -9607,25 +9627,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -9654,25 +9674,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1">
         <v>7200</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -9701,25 +9721,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" s="1">
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -9745,19 +9765,19 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9806,10 +9826,10 @@
         <v>121</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="9"/>
@@ -9839,16 +9859,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="11"/>
       <c r="AA22" t="str">
@@ -9861,20 +9881,20 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" s="11"/>
       <c r="AA23" t="str">
-        <f t="shared" ref="AA23:AA24" si="2">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:Z23),")")</f>
+        <f t="shared" ref="AA23:AA25" si="2">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:Z23),")")</f>
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9883,113 +9903,89 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I24" s="11"/>
       <c r="AA24" t="str">
+        <f t="shared" ref="AA24" si="3">_xlfn.CONCAT(IF(B24=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C24:Z24),")")</f>
+        <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="AA25" t="str">
         <f t="shared" si="2"/>
-        <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA25" t="s">
-        <v>209</v>
+        <v>,("BOARD_FREE_CODE","자유게시판 분류 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B26" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="AA26" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C26,";")</f>
-        <v>TRUNCATE TB_CODE_DETAIL;</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>226</v>
+        <v>383</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>124</v>
+        <v>384</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+        <v>66</v>
+      </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -9999,3333 +9995,3471 @@
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
-      <c r="AA28" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C26, "(", _xlfn.TEXTJOIN(",",TRUE,C27:Z27),") VALUES")</f>
+      <c r="AA28" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C27,";")</f>
+        <v>TRUNCATE TB_CODE_DETAIL;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C27, "(", _xlfn.TEXTJOIN(",",TRUE,C28:Z28),") VALUES")</f>
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="AA29" t="str">
-        <f>_xlfn.CONCAT(IF(B29=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C29:Z29),")")</f>
-        <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K30" s="11"/>
       <c r="AA30" t="str">
-        <f t="shared" ref="AA30:AA46" si="3">_xlfn.CONCAT(IF(B30=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C30:Z30),")")</f>
-        <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT(IF(B30=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C30:Z30),")")</f>
+        <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K31" s="11"/>
       <c r="AA31" t="str">
-        <f t="shared" si="3"/>
-        <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA31:AA49" si="4">_xlfn.CONCAT(IF(B31=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C31:Z31),")")</f>
+        <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K32" s="11"/>
       <c r="AA32" t="str">
-        <f t="shared" si="3"/>
-        <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K33" s="11"/>
       <c r="AA33" t="str">
-        <f t="shared" si="3"/>
-        <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K34" s="11"/>
       <c r="AA34" t="str">
-        <f t="shared" si="3"/>
-        <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K35" s="11"/>
       <c r="AA35" t="str">
-        <f t="shared" si="3"/>
-        <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K36" s="11"/>
       <c r="AA36" t="str">
-        <f t="shared" si="3"/>
-        <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K37" s="11"/>
       <c r="AA37" t="str">
-        <f t="shared" si="3"/>
-        <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K38" s="11"/>
       <c r="AA38" t="str">
-        <f t="shared" si="3"/>
-        <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K39" s="11"/>
       <c r="AA39" t="str">
-        <f t="shared" ref="AA39" si="4">_xlfn.CONCAT(IF(B39=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C39:Z39),")")</f>
-        <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="4"/>
+        <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K40" s="11"/>
       <c r="AA40" t="str">
-        <f t="shared" ref="AA40:AA45" si="5">_xlfn.CONCAT(IF(B40=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C40:Z40),")")</f>
-        <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA40" si="5">_xlfn.CONCAT(IF(B40=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C40:Z40),")")</f>
+        <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K41" s="11"/>
       <c r="AA41" t="str">
-        <f t="shared" ref="AA41" si="6">_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
-        <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA41:AA46" si="6">_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
+        <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G42" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K42" s="11"/>
       <c r="AA42" t="str">
-        <f t="shared" si="5"/>
-        <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA42" si="7">_xlfn.CONCAT(IF(B42=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C42:Z42),")")</f>
+        <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K43" s="11"/>
       <c r="AA43" t="str">
-        <f t="shared" ref="AA43" si="7">_xlfn.CONCAT(IF(B43=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C43:Z43),")")</f>
-        <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="6"/>
+        <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G44" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K44" s="11"/>
       <c r="AA44" t="str">
-        <f t="shared" si="5"/>
-        <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA44" si="8">_xlfn.CONCAT(IF(B44=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C44:Z44),")")</f>
+        <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>312</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G45" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K45" s="11"/>
       <c r="AA45" t="str">
-        <f t="shared" si="5"/>
-        <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="6"/>
+        <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G46" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K46" s="11"/>
       <c r="AA46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="AA47" t="str">
+        <f t="shared" si="4"/>
         <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA47" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B48" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="1">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="AA48" t="str">
+        <f t="shared" ref="AA48" si="9">_xlfn.CONCAT(IF(B48=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C48:Z48),")")</f>
+        <v>,("BOARD_FREE_CODE","01","잡담","N",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="AA49" t="str">
+        <f t="shared" si="4"/>
+        <v>,("BOARD_FREE_CODE","02","정보","N",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>18</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="AA50" t="str">
+        <f t="shared" ref="AA50" si="10">_xlfn.CONCAT(IF(B50=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C50:Z50),")")</f>
+        <v>,("BOARD_FREE_CODE","03","질문","N",3,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B52" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B49" s="10" t="s">
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C48,";")</f>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C52,";")</f>
         <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B50" s="10" t="s">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B54" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C48, "(", _xlfn.TEXTJOIN(",",TRUE,C49:Z49),") VALUES")</f>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C52, "(", _xlfn.TEXTJOIN(",",TRUE,C53:Z53),") VALUES")</f>
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K51" s="11"/>
-      <c r="AA51" t="str">
-        <f t="shared" ref="AA51:AA71" si="8">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
-        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K52" s="11"/>
-      <c r="AA52" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="11"/>
-      <c r="AA53" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K54" s="11"/>
-      <c r="AA54" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>422</v>
+        <v>234</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>429</v>
+        <v>310</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K55" s="11"/>
       <c r="AA55" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA55:AA75" si="11">_xlfn.CONCAT(IF(B55=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C55:Z55),")")</f>
+        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K56" s="11"/>
       <c r="AA56" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K57" s="11"/>
       <c r="AA57" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K58" s="11"/>
       <c r="AA58" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K59" s="11"/>
       <c r="AA59" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K60" s="11"/>
       <c r="AA60" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K61" s="11"/>
       <c r="AA61" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K62" s="11"/>
       <c r="AA62" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K63" s="11"/>
       <c r="AA63" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K64" s="11"/>
       <c r="AA64" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K65" s="11"/>
       <c r="AA65" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" s="11"/>
       <c r="AA66" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K67" s="11"/>
       <c r="AA67" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K68" s="11"/>
       <c r="AA68" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K69" s="11"/>
       <c r="AA69" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K70" s="11"/>
       <c r="AA70" t="str">
-        <f t="shared" si="8"/>
-        <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K71" s="11"/>
       <c r="AA71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B72" s="1">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="AA72" t="str">
+        <f t="shared" si="11"/>
+        <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="AA73" t="str">
+        <f t="shared" si="11"/>
+        <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
+        <v>20</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="AA74" t="str">
+        <f t="shared" si="11"/>
+        <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K75" s="11"/>
+      <c r="AA75" t="str">
+        <f t="shared" si="11"/>
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B73" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B74" s="10" t="s">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B77" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B78" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C78" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C77,";")</f>
+        <v>TRUNCATE TB_MNU;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B79" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="D79" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="N74" s="5" t="s">
+      <c r="F79" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M79" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C73,";")</f>
-        <v>TRUNCATE TB_MNU;</v>
-      </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B75" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="N79" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="N75" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C73, "(", _xlfn.TEXTJOIN(",",TRUE,C74:Z74),") VALUES")</f>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C77, "(", _xlfn.TEXTJOIN(",",TRUE,C78:Z78),") VALUES")</f>
         <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L76" s="1">
-        <v>1</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA97" si="9">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
-        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B77" s="1">
-        <v>2</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J77" s="1">
-        <v>2</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L77" s="1">
-        <v>1</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA77" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B78" s="1">
-        <v>3</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J78" s="1">
-        <v>2</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="L78" s="1">
-        <v>2</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA78" t="str">
-        <f t="shared" ref="AA78:AA81" si="10">_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B79" s="1">
-        <v>4</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J79" s="1">
-        <v>2</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L79" s="1">
-        <v>3</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA79" t="str">
-        <f>_xlfn.CONCAT(IF(B79=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C79:Z79),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>410</v>
+        <v>234</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>235</v>
+        <v>484</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>460</v>
+        <v>317</v>
       </c>
       <c r="L80" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" ref="AA80" si="11">_xlfn.CONCAT(IF(B80=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA80:AA101" si="12">_xlfn.CONCAT(IF(B80=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>486</v>
+        <v>318</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>487</v>
+        <v>319</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J81" s="1">
         <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>488</v>
+        <v>351</v>
       </c>
       <c r="L81" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="10"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J82" s="1">
         <v>2</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="L82" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" ref="AA82" si="12">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA82:AA85" si="13">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>491</v>
+        <v>318</v>
       </c>
       <c r="G83" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L83" s="1">
+        <v>3</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA83" t="str">
+        <f>_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" ref="AA84" si="14">_xlfn.CONCAT(IF(B84=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C84:Z84),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J83" s="1">
-        <v>1</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L83" s="1">
+      <c r="E85" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J85" s="1">
         <v>2</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="1">
-        <v>8</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J84" s="18">
+      <c r="K85" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L85" s="1">
+        <v>5</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="13"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J86" s="1">
         <v>2</v>
       </c>
-      <c r="K84" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="L84" s="18">
-        <v>1</v>
-      </c>
-      <c r="M84" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="N84" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA84" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="85" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="1">
-        <v>9</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J85" s="18">
-        <v>2</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="L85" s="18">
-        <v>2</v>
-      </c>
-      <c r="M85" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="N85" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA85" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="1">
-        <v>10</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J86" s="18">
-        <v>2</v>
-      </c>
-      <c r="K86" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="L86" s="18">
-        <v>3</v>
-      </c>
-      <c r="M86" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="N86" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA86" s="20" t="str">
-        <f t="shared" ref="AA86:AA88" si="13">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
+      <c r="K86" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L86" s="1">
+        <v>6</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" ref="AA86" si="15">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L87" s="1">
+        <v>2</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="1">
+        <v>8</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J88" s="18">
+        <v>2</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="L88" s="18">
+        <v>1</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA88" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <v>9</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J89" s="18">
+        <v>2</v>
+      </c>
+      <c r="K89" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="L89" s="18">
+        <v>2</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="N89" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA89" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="1">
+        <v>10</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J90" s="18">
+        <v>2</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="L90" s="18">
         <v>3</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA87" t="str">
-        <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B88" s="1">
-        <v>12</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J88" s="1">
-        <v>2</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA88" t="str">
-        <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B89" s="1">
-        <v>13</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J89" s="1">
-        <v>2</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="L89" s="1">
-        <v>2</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA89" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B90" s="1">
-        <v>14</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J90" s="1">
-        <v>1</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L90" s="1">
-        <v>4</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA90" t="str">
-        <f t="shared" ref="AA90:AA92" si="14">_xlfn.CONCAT(IF(B90=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C90:Z90),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+      <c r="M90" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA90" s="20" t="str">
+        <f t="shared" ref="AA90:AA92" si="16">_xlfn.CONCAT(IF(B90=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C90:Z90),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>471</v>
+        <v>309</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>472</v>
+        <v>314</v>
       </c>
       <c r="L91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA91" t="str">
-        <f t="shared" ref="AA91" si="15">_xlfn.CONCAT(IF(B91=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C91:Z91),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J92" s="1">
         <v>2</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" si="14"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="16"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J93" s="1">
         <v>2</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="L93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA93" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>312</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L94" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" ref="AA94:AA95" si="16">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA94:AA96" si="17">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J95" s="1">
         <v>2</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="L95" s="1">
         <v>1</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" si="16"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA95" si="18">_xlfn.CONCAT(IF(B95=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C95:Z95),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J96" s="1">
         <v>2</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L96" s="1">
         <v>2</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA96" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="17"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>303</v>
+        <v>475</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>485</v>
+        <v>306</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>304</v>
+        <v>477</v>
       </c>
       <c r="L97" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA97" t="str">
-        <f t="shared" si="9"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>302</v>
+        <v>484</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="J98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="L98" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA98" t="str">
-        <f t="shared" ref="AA98:AA100" si="17">_xlfn.CONCAT(IF(B98=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C98:Z98),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA98:AA99" si="19">_xlfn.CONCAT(IF(B98=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C98:Z98),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>325</v>
+        <v>478</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>485</v>
+        <v>307</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L99" s="1">
         <v>1</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L99" s="1">
-        <v>7</v>
-      </c>
       <c r="M99" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA99" t="str">
-        <f t="shared" si="17"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="19"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>326</v>
+        <v>482</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>325</v>
+        <v>478</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="J100" s="1">
         <v>2</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>355</v>
+        <v>483</v>
       </c>
       <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B101" s="1">
+        <v>21</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J101" s="1">
         <v>1</v>
       </c>
-      <c r="M100" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA100" t="str">
-        <f t="shared" si="17"/>
+      <c r="K101" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L101" s="1">
+        <v>6</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="12"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B102" s="1">
+        <v>22</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J102" s="1">
+        <v>2</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" ref="AA102:AA104" si="20">_xlfn.CONCAT(IF(B102=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C102:Z102),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B103" s="1">
+        <v>23</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L103" s="1">
+        <v>7</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="20"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B104" s="1">
+        <v>24</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="20"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA101" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B102" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="26" t="s">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B106" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B107" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B103" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="D107" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="E107" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C106,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B108" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H103" s="5" t="s">
+      <c r="D108" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="13"/>
-      <c r="Y103" s="13"/>
-      <c r="Z103" s="13"/>
-      <c r="AA103" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C102,";")</f>
-        <v>TRUNCATE TB_ROLE;</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B104" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G104" s="10" t="s">
+      <c r="H108" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H104" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="13"/>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="13"/>
-      <c r="AA104" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C102, "(", _xlfn.TEXTJOIN(",",TRUE,C103:Z103),") VALUES")</f>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="13"/>
+      <c r="X108" s="13"/>
+      <c r="Y108" s="13"/>
+      <c r="Z108" s="13"/>
+      <c r="AA108" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C106, "(", _xlfn.TEXTJOIN(",",TRUE,C107:Z107),") VALUES")</f>
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B105" s="1">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA105" t="str">
-        <f t="shared" ref="AA105:AA109" si="18">_xlfn.CONCAT(IF(B105=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C105:Z105),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B106" s="1">
-        <v>2</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA106" t="str">
-        <f t="shared" ref="AA106" si="19">_xlfn.CONCAT(IF(B106=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C106:Z106),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B107" s="1">
-        <v>2</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E107" s="1">
-        <v>3</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA107" t="str">
-        <f t="shared" si="18"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B108" s="1">
-        <v>3</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E108" s="1">
-        <v>4</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA108" t="str">
-        <f t="shared" si="18"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" ref="AA109:AA113" si="21">_xlfn.CONCAT(IF(B109=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C109:Z109),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA110" t="str">
+        <f t="shared" ref="AA110" si="22">_xlfn.CONCAT(IF(B110=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C110:Z110),")")</f>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="1">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA111" t="str">
+        <f t="shared" si="21"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112" s="1">
         <v>4</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E109" s="1">
+      <c r="F112" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA112" t="str">
+        <f t="shared" si="21"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E113" s="1">
         <v>5</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA109" t="str">
-        <f t="shared" si="18"/>
+      <c r="F113" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA113" t="str">
+        <f t="shared" si="21"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA110" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B111" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B112" s="10" t="s">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B115" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B116" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="13"/>
-      <c r="U112" s="13"/>
-      <c r="V112" s="13"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="13"/>
-      <c r="Y112" s="13"/>
-      <c r="Z112" s="13"/>
-      <c r="AA112" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C111,";")</f>
+      <c r="C116" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+      <c r="Z116" s="13"/>
+      <c r="AA116" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C115,";")</f>
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B113" s="10" t="s">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B117" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="13"/>
-      <c r="T113" s="13"/>
-      <c r="U113" s="13"/>
-      <c r="V113" s="13"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="13"/>
-      <c r="Y113" s="13"/>
-      <c r="Z113" s="13"/>
-      <c r="AA113" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C111, "(", _xlfn.TEXTJOIN(",",TRUE,C112:Z112),") VALUES")</f>
+      <c r="D117" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13"/>
+      <c r="U117" s="13"/>
+      <c r="V117" s="13"/>
+      <c r="W117" s="13"/>
+      <c r="X117" s="13"/>
+      <c r="Y117" s="13"/>
+      <c r="Z117" s="13"/>
+      <c r="AA117" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C115, "(", _xlfn.TEXTJOIN(",",TRUE,C116:Z116),") VALUES")</f>
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B114" s="1">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" s="8">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA114" t="str">
-        <f t="shared" ref="AA114:AA134" si="20">_xlfn.CONCAT(IF(B114=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C114:Z114),")")</f>
-        <v>("admin",3,"SYSTEM")</v>
-      </c>
-    </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B115" s="1">
-        <v>2</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D115" s="8">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA115" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user1",1,"SYSTEM")</v>
-      </c>
-    </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B116" s="1">
-        <v>3</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D116" s="8">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA116" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user2",1,"SYSTEM")</v>
-      </c>
-    </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B117" s="1">
-        <v>4</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D117" s="8">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA117" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user3",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>422</v>
+        <v>234</v>
       </c>
       <c r="D118" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA118" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user4",1,"SYSTEM")</v>
+        <f t="shared" ref="AA118:AA138" si="23">_xlfn.CONCAT(IF(B118=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C118:Z118),")")</f>
+        <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D119" s="8">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA119" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user5",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D120" s="8">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA120" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user6",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user2",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D121" s="8">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA121" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user7",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user3",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D122" s="8">
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA122" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user8",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user4",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D123" s="8">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA123" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user9",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user5",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D124" s="8">
         <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA124" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user10",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user6",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D125" s="8">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA125" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user11",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user7",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D126" s="8">
         <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA126" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user12",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user8",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D127" s="8">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA127" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user13",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user9",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D128" s="8">
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA128" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user14",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user10",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D129" s="8">
         <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA129" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user15",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user11",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="130" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D130" s="8">
         <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA130" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user16",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user12",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="131" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D131" s="8">
         <v>1</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA131" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user17",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user13",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="132" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D132" s="8">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA132" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user18",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user14",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="133" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D133" s="8">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA133" t="str">
-        <f t="shared" si="20"/>
-        <v>,("user19",1,"SYSTEM")</v>
+        <f t="shared" si="23"/>
+        <v>,("user15",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="134" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B134" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D134" s="8">
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA134" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
+        <v>,("user16",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B135" s="1">
+        <v>18</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="8">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA135" t="str">
+        <f t="shared" si="23"/>
+        <v>,("user17",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B136" s="1">
+        <v>19</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D136" s="8">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA136" t="str">
+        <f t="shared" si="23"/>
+        <v>,("user18",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B137" s="1">
+        <v>20</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" s="8">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA137" t="str">
+        <f t="shared" si="23"/>
+        <v>,("user19",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B138" s="1">
+        <v>21</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D138" s="8">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA138" t="str">
+        <f t="shared" si="23"/>
         <v>,("user20",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA135" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B136" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-    </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B137" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H137" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-      <c r="R137" s="13"/>
-      <c r="S137" s="13"/>
-      <c r="T137" s="13"/>
-      <c r="U137" s="13"/>
-      <c r="V137" s="13"/>
-      <c r="W137" s="13"/>
-      <c r="X137" s="13"/>
-      <c r="Y137" s="13"/>
-      <c r="Z137" s="13"/>
-      <c r="AA137" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C136,";")</f>
-        <v>TRUNCATE TB_AUTH;</v>
-      </c>
-    </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B138" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-      <c r="R138" s="13"/>
-      <c r="S138" s="13"/>
-      <c r="T138" s="13"/>
-      <c r="U138" s="13"/>
-      <c r="V138" s="13"/>
-      <c r="W138" s="13"/>
-      <c r="X138" s="13"/>
-      <c r="Y138" s="13"/>
-      <c r="Z138" s="13"/>
-      <c r="AA138" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C136, "(", _xlfn.TEXTJOIN(",",TRUE,C137:Z137),")")</f>
-        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
-      </c>
-    </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B139" s="1">
-        <v>1</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D139" s="8">
-        <v>3</v>
-      </c>
-      <c r="E139" s="1">
-        <v>2</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA139" t="str">
-        <f>_xlfn.CONCAT(IF(B139&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C139:Z139)," FROM ", $C$141)</f>
-        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      <c r="AA139" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B140" s="1">
-        <v>2</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D140" s="8">
-        <v>1</v>
-      </c>
-      <c r="E140" s="1">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA140" t="str">
-        <f>_xlfn.CONCAT(IF(B140&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C140:Z140)," FROM ", $C$141)</f>
-        <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
-      </c>
+      <c r="B140" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B141" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="AA141" t="str">
-        <f>_xlfn.CONCAT(";")</f>
-        <v>;</v>
+        <v>1</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="R141" s="13"/>
+      <c r="S141" s="13"/>
+      <c r="T141" s="13"/>
+      <c r="U141" s="13"/>
+      <c r="V141" s="13"/>
+      <c r="W141" s="13"/>
+      <c r="X141" s="13"/>
+      <c r="Y141" s="13"/>
+      <c r="Z141" s="13"/>
+      <c r="AA141" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C140,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
+      </c>
+    </row>
+    <row r="142" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B142" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="R142" s="13"/>
+      <c r="S142" s="13"/>
+      <c r="T142" s="13"/>
+      <c r="U142" s="13"/>
+      <c r="V142" s="13"/>
+      <c r="W142" s="13"/>
+      <c r="X142" s="13"/>
+      <c r="Y142" s="13"/>
+      <c r="Z142" s="13"/>
+      <c r="AA142" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C140, "(", _xlfn.TEXTJOIN(",",TRUE,C141:Z141),")")</f>
+        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
+      </c>
+    </row>
+    <row r="143" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" s="8">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA143" t="str">
+        <f>_xlfn.CONCAT(IF(B143&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C143:Z143)," FROM ", $C$145)</f>
+        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="144" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D144" s="8">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA144" t="str">
+        <f>_xlfn.CONCAT(IF(B144&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C144:Z144)," FROM ", $C$145)</f>
+        <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B145" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="AA145" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C111:E111"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C73:N73"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C77:N77"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C115:E115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B76:N100">
+  <conditionalFormatting sqref="B80:N104">
     <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$J76 = 1</formula>
+      <formula>$J80 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F134">
+  <conditionalFormatting sqref="F118:F138">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$J114 = 1</formula>
+      <formula>$J118 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H109">
+  <conditionalFormatting sqref="H109:H113">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$J105 = 1</formula>
+      <formula>$J109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13496,7 +13630,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -13505,16 +13639,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -13523,13 +13657,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC686EA-66CD-4516-AD61-95EAAE8B5683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276040C-8015-4CF9-B628-B40F368E5DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="502">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1888,6 +1888,18 @@
   </si>
   <si>
     <t>"자유게시판 분류 코드"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1895,7 +1907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2144,9 +2156,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,6 +2169,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2522,13 +2534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
-  <dimension ref="B2:K248"/>
+  <dimension ref="B2:K249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
@@ -2543,19 +2555,19 @@
     <col min="11" max="11" width="120.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2589,19 +2601,19 @@
         <v>DROP TABLE IF EXISTS TB_USER;</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2611,7 +2623,7 @@
         <v>CREATE TABLE TB_USER</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11">
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -2767,7 +2779,7 @@
         <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11">
       <c r="B13" s="4">
         <v>8</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11">
       <c r="B15" s="4">
         <v>10</v>
       </c>
@@ -2947,7 +2959,7 @@
         <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11">
       <c r="B19" s="4">
         <v>14</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11">
       <c r="B21" s="4">
         <v>16</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11">
       <c r="B23" s="4">
         <v>18</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11">
       <c r="B24" s="4">
         <v>19</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11">
       <c r="B25" s="4">
         <v>20</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11">
       <c r="B27" s="4">
         <v>22</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11">
       <c r="B28" s="4">
         <v>23</v>
       </c>
@@ -3361,7 +3373,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11">
       <c r="B29" s="4">
         <v>24</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11">
       <c r="B30" s="4">
         <v>25</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11">
       <c r="J31" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E3,"';")</f>
         <v>) COMMENT '사용자';</v>
@@ -3435,21 +3447,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3459,23 +3471,23 @@
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="str">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3485,7 +3497,7 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11">
       <c r="J34" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3495,19 +3507,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
@@ -3541,19 +3553,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11">
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3563,7 +3575,7 @@
         <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -3629,7 +3641,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11">
       <c r="B40" s="4">
         <v>2</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11">
       <c r="B42" s="4">
         <v>4</v>
       </c>
@@ -3723,7 +3735,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:11">
       <c r="B43" s="4">
         <v>5</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11">
       <c r="B44" s="4">
         <v>6</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:11">
       <c r="B45" s="4">
         <v>7</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:11">
       <c r="J46" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E36,"';")</f>
         <v>) COMMENT '코드그룹';</v>
@@ -3829,21 +3841,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:11">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3853,23 +3865,23 @@
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11">
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="21" t="str">
+      <c r="C48" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21" t="str">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3879,7 +3891,7 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11">
       <c r="J49" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3889,19 +3901,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:11">
+      <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
@@ -3935,19 +3947,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11">
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3957,7 +3969,7 @@
         <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11">
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
@@ -3991,7 +4003,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11">
       <c r="B54" s="4">
         <v>1</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -4055,7 +4067,7 @@
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11">
       <c r="B56" s="4">
         <v>3</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11">
       <c r="B57" s="4">
         <v>4</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11">
       <c r="B58" s="4">
         <v>5</v>
       </c>
@@ -4149,7 +4161,7 @@
         <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11">
       <c r="B59" s="4">
         <v>6</v>
       </c>
@@ -4181,7 +4193,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11">
       <c r="B60" s="4">
         <v>7</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11">
       <c r="B61" s="4">
         <v>8</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11">
       <c r="B62" s="4">
         <v>9</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11">
       <c r="J63" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E51,"';")</f>
         <v>) COMMENT '코드상세';</v>
@@ -4287,21 +4299,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11">
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26" t="s">
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4311,23 +4323,23 @@
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11">
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="21" t="str">
+      <c r="C65" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21" t="str">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4337,23 +4349,23 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11">
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="21" t="str">
+      <c r="C66" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21" t="str">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4363,7 +4375,7 @@
         <v>, CODE_DETAIL</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11">
       <c r="J67" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4373,19 +4385,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="22" t="s">
+    <row r="68" spans="2:11">
+      <c r="B68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:11">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
@@ -4419,19 +4431,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11">
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4441,7 +4453,7 @@
         <v>CREATE TABLE TB_LOG_LOGIN</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11">
       <c r="B71" s="6" t="s">
         <v>32</v>
       </c>
@@ -4475,7 +4487,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11">
       <c r="B72" s="4">
         <v>1</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11">
       <c r="B73" s="4">
         <v>2</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11">
       <c r="B74" s="4">
         <v>3</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11">
       <c r="B75" s="4">
         <v>4</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11">
       <c r="B76" s="4">
         <v>5</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11">
       <c r="J77" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E69,"';")</f>
         <v>) COMMENT '로그인로그';</v>
@@ -4645,21 +4657,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11">
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4669,23 +4681,23 @@
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11">
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="21" t="str">
+      <c r="C79" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21" t="str">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4695,7 +4707,7 @@
         <v>LOGIN_SEQ</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:11">
       <c r="J80" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4705,19 +4717,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="22" t="s">
+    <row r="81" spans="2:11">
+      <c r="B81" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="2:11">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
@@ -4751,19 +4763,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:11">
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4773,7 +4785,7 @@
         <v>CREATE TABLE TB_LOG_REQ</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:11">
       <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11">
       <c r="B85" s="4">
         <v>1</v>
       </c>
@@ -4839,7 +4851,7 @@
         <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:11">
       <c r="B86" s="4">
         <v>2</v>
       </c>
@@ -4871,7 +4883,7 @@
         <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:11">
       <c r="B87" s="4">
         <v>3</v>
       </c>
@@ -4903,7 +4915,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:11">
       <c r="B88" s="4">
         <v>4</v>
       </c>
@@ -4935,7 +4947,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:11">
       <c r="B89" s="4">
         <v>5</v>
       </c>
@@ -4967,7 +4979,7 @@
         <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:11">
       <c r="B90" s="4">
         <v>6</v>
       </c>
@@ -4999,7 +5011,7 @@
         <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:11">
       <c r="B91" s="4">
         <v>7</v>
       </c>
@@ -5031,7 +5043,7 @@
         <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:11">
       <c r="J92" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E82,"';")</f>
         <v>) COMMENT '요청로그';</v>
@@ -5041,21 +5053,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:11">
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5065,23 +5077,23 @@
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:11">
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="21" t="str">
+      <c r="C94" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21" t="str">
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5091,7 +5103,7 @@
         <v>REQ_SEQ</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:11">
       <c r="J95" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5101,19 +5113,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="22" t="s">
+    <row r="96" spans="2:11">
+      <c r="B96" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="2:11">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
@@ -5147,19 +5159,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11">
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5169,7 +5181,7 @@
         <v>CREATE TABLE TB_BOARD_FREE</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:11">
       <c r="B99" s="6" t="s">
         <v>32</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11">
       <c r="B100" s="4">
         <v>1</v>
       </c>
@@ -5237,12 +5249,12 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11">
       <c r="B101" s="4">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>392</v>
+        <v>501</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>188</v>
@@ -5259,15 +5271,15 @@
         <v>188</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" ref="J101:J108" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
+        <f t="shared" ref="J101:J109" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
         <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" ref="K101:K108" si="13">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
+        <f t="shared" ref="K101:K109" si="13">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
         <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11">
       <c r="B102" s="4">
         <v>3</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11">
       <c r="B103" s="4">
         <v>4</v>
       </c>
@@ -5327,414 +5339,416 @@
         <v>, BOARD_FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11">
       <c r="B104" s="4">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>397</v>
+        <v>499</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>191</v>
+        <v>500</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" ref="J104" si="14">_xlfn.CONCAT(IF(B104=1,"",", "),C104," ",E104," ",G104,IF(H104="",""," DEFAULT "),H104, " COMMENT '",I104,"'")</f>
+        <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '자유게시판사용여부'</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" ref="K104" si="15">_xlfn.CONCAT(IF(B104=1,"",", "),C104," ",E104," ",G104,IF(H104="",""," DEFAULT "),H104, " COMMENT '",I104,"'")</f>
+        <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '자유게시판사용여부'</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="4">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105" s="1">
         <v>0</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J104" t="str">
+      <c r="J105" t="str">
         <f t="shared" si="12"/>
         <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
-      <c r="K104" t="str">
+      <c r="K105" t="str">
         <f t="shared" si="13"/>
         <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B105" s="4">
-        <v>6</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" si="12"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K105" t="str">
-        <f t="shared" si="13"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11">
       <c r="B106" s="4">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="12"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="13"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
       <c r="B107" s="4">
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="12"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="13"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
       <c r="B108" s="4">
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="J108" t="str">
         <f t="shared" si="12"/>
-        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="13"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="4">
+        <v>10</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="12"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J109" t="str">
+      <c r="K109" t="str">
+        <f t="shared" si="13"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="J110" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E97,"';")</f>
         <v>) COMMENT '자유게시판';</v>
       </c>
-      <c r="K109" t="str">
+      <c r="K110" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B110" s="6" t="s">
+    <row r="111" spans="2:11">
+      <c r="B111" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C111" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26" t="s">
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C112," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
-      <c r="K110" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
+      <c r="K111" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C112," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B111" s="4">
+    <row r="112" spans="2:11">
+      <c r="B112" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="21" t="str">
+      <c r="C112" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21" t="str">
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-      <c r="J111" t="str">
-        <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" t="str">
+        <f>_xlfn.CONCAT(IF(B112=1,"",", "),F112)</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="K111" t="str">
-        <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
+      <c r="K112" t="str">
+        <f>_xlfn.CONCAT(IF(B112=1,"",", "),F112)</f>
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J112" t="str">
+    <row r="113" spans="2:11">
+      <c r="J113" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K112" t="str">
+      <c r="K113" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="22" t="s">
+    <row r="114" spans="2:11">
+      <c r="B114" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="24"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="23"/>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E115" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F115" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G115" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H114" s="6" t="s">
+      <c r="H115" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I115" s="7">
         <v>44942</v>
       </c>
-      <c r="J114" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C114,";")</f>
+      <c r="J115" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C115,";")</f>
         <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
       </c>
-      <c r="K114" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C114,";")</f>
+      <c r="K115" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C115,";")</f>
         <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B115" s="6" t="s">
+    <row r="116" spans="2:11">
+      <c r="B116" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C116" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C115)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
       </c>
-      <c r="K115" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
+      <c r="K116" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C115)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B116" s="6" t="s">
+    <row r="117" spans="2:11">
+      <c r="B117" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D117" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F117" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G117" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H116" s="6" t="s">
+      <c r="H117" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I116" s="6" t="s">
+      <c r="I117" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J116" t="str">
+      <c r="J117" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K116" t="str">
+      <c r="K117" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B117" s="4">
+    <row r="118" spans="2:11">
+      <c r="B118" s="4">
         <v>1</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F118" s="4">
         <v>1</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I118" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J117" t="str">
-        <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
+      <c r="J118" t="str">
+        <f>_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
-      <c r="K117" t="str">
-        <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
+      <c r="K118" t="str">
+        <f>_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B118" s="4">
+    <row r="119" spans="2:11">
+      <c r="B119" s="4">
         <v>2</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F118" s="4"/>
-      <c r="G118" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J118" t="str">
-        <f t="shared" ref="J118:J127" si="14">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
-        <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
-      </c>
-      <c r="K118" t="str">
-        <f t="shared" ref="K118:K127" si="15">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
-        <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B119" s="4">
-        <v>3</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="1" t="s">
@@ -5742,29 +5756,29 @@
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" ref="J119:J128" si="16">_xlfn.CONCAT(IF(B119=1,"",", "),C119," ",E119," ",G119,IF(H119="",""," DEFAULT "),H119, " COMMENT '",I119,"'")</f>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" ref="K119:K128" si="17">_xlfn.CONCAT(IF(B119=1,"",", "),C119," ",E119," ",G119,IF(H119="",""," DEFAULT "),H119, " COMMENT '",I119,"'")</f>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="4">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J119" t="str">
-        <f t="shared" si="14"/>
-        <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
-      </c>
-      <c r="K119" t="str">
-        <f t="shared" si="15"/>
-        <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B120" s="4">
-        <v>4</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E120" s="4" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="1" t="s">
@@ -5772,26 +5786,26 @@
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="16"/>
+        <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="17"/>
+        <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="4">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J120" t="str">
-        <f t="shared" si="14"/>
-        <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
-      </c>
-      <c r="K120" t="str">
-        <f t="shared" si="15"/>
-        <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B121" s="4">
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>20</v>
@@ -5802,29 +5816,29 @@
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="16"/>
+        <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="17"/>
+        <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="4">
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J121" t="str">
-        <f t="shared" si="14"/>
-        <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
-      </c>
-      <c r="K121" t="str">
-        <f t="shared" si="15"/>
-        <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B122" s="4">
-        <v>6</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E122" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="1" t="s">
@@ -5832,398 +5846,394 @@
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="16"/>
+        <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="17"/>
+        <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="4">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J122" t="str">
-        <f t="shared" si="14"/>
-        <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
-      </c>
-      <c r="K122" t="str">
-        <f t="shared" si="15"/>
-        <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B123" s="4">
-        <v>7</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E123" s="4" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H123" s="1">
-        <v>0</v>
-      </c>
+      <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="16"/>
+        <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="17"/>
+        <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="4">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J123" t="str">
-        <f t="shared" si="14"/>
-        <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
-      </c>
-      <c r="K123" t="str">
-        <f t="shared" si="15"/>
-        <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B124" s="4">
-        <v>8</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E124" s="4" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="16"/>
+        <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="17"/>
+        <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="4">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J124" t="str">
-        <f t="shared" si="14"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K124" t="str">
-        <f t="shared" si="15"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B125" s="4">
-        <v>9</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E125" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="16"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="17"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="4">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J125" t="str">
-        <f t="shared" si="14"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K125" t="str">
-        <f t="shared" si="15"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B126" s="4">
-        <v>10</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E126" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="16"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="17"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="4">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J126" t="str">
-        <f t="shared" si="14"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K126" t="str">
-        <f t="shared" si="15"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B127" s="4">
-        <v>11</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E127" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="16"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="17"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="4">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J127" t="str">
-        <f t="shared" si="14"/>
+      <c r="J128" t="str">
+        <f t="shared" si="16"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K127" t="str">
-        <f t="shared" si="15"/>
+      <c r="K128" t="str">
+        <f t="shared" si="17"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J128" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E114,"';")</f>
+    <row r="129" spans="2:11">
+      <c r="J129" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E115,"';")</f>
         <v>) COMMENT '공지사항';</v>
       </c>
-      <c r="K128" t="str">
+      <c r="K129" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B129" s="6" t="s">
+    <row r="130" spans="2:11">
+      <c r="B130" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C130" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26" t="s">
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C115," ADD CONSTRAINT ",C131," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
       </c>
-      <c r="K129" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
+      <c r="K130" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C115," ADD CONSTRAINT ",C131," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B130" s="4">
+    <row r="131" spans="2:11">
+      <c r="B131" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C114)</f>
+      <c r="C131" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C115)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21" t="str">
-        <f>C117</f>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26" t="str">
+        <f>C118</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-      <c r="J130" t="str">
-        <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" t="str">
+        <f>_xlfn.CONCAT(IF(B131=1,"",", "),F131)</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="K130" t="str">
-        <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
+      <c r="K131" t="str">
+        <f>_xlfn.CONCAT(IF(B131=1,"",", "),F131)</f>
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J131" t="str">
+    <row r="132" spans="2:11">
+      <c r="J132" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K131" t="str">
+      <c r="K132" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="22" t="s">
+    <row r="133" spans="2:11">
+      <c r="B133" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="24"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B133" s="6" t="s">
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="23"/>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F134" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G134" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H133" s="6" t="s">
+      <c r="H134" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I134" s="7">
         <v>44942</v>
       </c>
-      <c r="J133" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C133,";")</f>
+      <c r="J134" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C134,";")</f>
         <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
       </c>
-      <c r="K133" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C133,";")</f>
+      <c r="K134" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C134,";")</f>
         <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B134" s="6" t="s">
+    <row r="135" spans="2:11">
+      <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C135" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C134)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
       </c>
-      <c r="K134" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
+      <c r="K135" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C134)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B135" s="6" t="s">
+    <row r="136" spans="2:11">
+      <c r="B136" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F136" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G136" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H135" s="6" t="s">
+      <c r="H136" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="I136" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J135" t="str">
+      <c r="J136" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K135" t="str">
+      <c r="K136" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B136" s="4">
+    <row r="137" spans="2:11">
+      <c r="B137" s="4">
         <v>1</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F136" s="4">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J136" t="str">
-        <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
-        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
-      </c>
-      <c r="K136" t="str">
-        <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
-        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B137" s="4">
-        <v>2</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F137" s="3">
-        <v>2</v>
+      <c r="F137" s="4">
+        <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>41</v>
@@ -6232,31 +6242,33 @@
         <v>91</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="J137" t="str">
         <f>_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
-        <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" ref="K137:K147" si="16">_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
-        <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
+        <f>_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
       <c r="B138" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="3">
+        <v>2</v>
+      </c>
       <c r="G138" s="1" t="s">
         <v>41</v>
       </c>
@@ -6264,61 +6276,61 @@
         <v>91</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="J138" t="str">
         <f>_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,IF(H138="",""," DEFAULT "),H138, " COMMENT '",I138,"'")</f>
-        <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
+        <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="16"/>
-        <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
+        <f t="shared" ref="K138:K148" si="18">_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,IF(H138="",""," DEFAULT "),H138, " COMMENT '",I138,"'")</f>
+        <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
       <c r="B139" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I139" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J139" t="str">
+        <f>_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,IF(H139="",""," DEFAULT "),H139, " COMMENT '",I139,"'")</f>
+        <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="18"/>
+        <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="4">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J139" t="str">
-        <f t="shared" ref="J139:J147" si="17">_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,IF(H139="",""," DEFAULT "),H139, " COMMENT '",I139,"'")</f>
-        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
-      </c>
-      <c r="K139" t="str">
-        <f t="shared" si="16"/>
-        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B140" s="4">
-        <v>5</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E140" s="4" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="1" t="s">
@@ -6328,29 +6340,29 @@
         <v>91</v>
       </c>
       <c r="I140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" ref="J140:J148" si="19">_xlfn.CONCAT(IF(B140=1,"",", "),C140," ",E140," ",G140,IF(H140="",""," DEFAULT "),H140, " COMMENT '",I140,"'")</f>
+        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="18"/>
+        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="4">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J140" t="str">
-        <f t="shared" si="17"/>
-        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
-      </c>
-      <c r="K140" t="str">
-        <f t="shared" si="16"/>
-        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B141" s="4">
-        <v>6</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="E141" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="1" t="s">
@@ -6360,29 +6372,29 @@
         <v>91</v>
       </c>
       <c r="I141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="19"/>
+        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="18"/>
+        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="4">
+        <v>6</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J141" t="str">
-        <f t="shared" si="17"/>
-        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
-      </c>
-      <c r="K141" t="str">
-        <f t="shared" si="16"/>
-        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B142" s="4">
-        <v>7</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E142" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="1" t="s">
@@ -6392,29 +6404,29 @@
         <v>91</v>
       </c>
       <c r="I142" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="19"/>
+        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="18"/>
+        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="4">
+        <v>7</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J142" t="str">
-        <f t="shared" si="17"/>
-        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
-      </c>
-      <c r="K142" t="str">
-        <f t="shared" si="16"/>
-        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B143" s="4">
-        <v>8</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E143" s="4" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="1" t="s">
@@ -6424,690 +6436,690 @@
         <v>91</v>
       </c>
       <c r="I143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="19"/>
+        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="18"/>
+        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="4">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J143" t="str">
-        <f t="shared" si="17"/>
-        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
-      </c>
-      <c r="K143" t="str">
-        <f t="shared" si="16"/>
-        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B144" s="4">
-        <v>9</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E144" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="19"/>
+        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="18"/>
+        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="4">
+        <v>9</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J144" t="str">
-        <f t="shared" si="17"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K144" t="str">
-        <f t="shared" si="16"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B145" s="4">
-        <v>10</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E145" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I145" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="19"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="18"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="4">
+        <v>10</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J145" t="str">
-        <f t="shared" si="17"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K145" t="str">
-        <f t="shared" si="16"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B146" s="4">
-        <v>11</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E146" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="19"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="18"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="4">
+        <v>11</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J146" t="str">
-        <f t="shared" si="17"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K146" t="str">
-        <f t="shared" si="16"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B147" s="4">
-        <v>12</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E147" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H147" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="19"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="18"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="4">
+        <v>12</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I148" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J147" t="str">
-        <f t="shared" si="17"/>
+      <c r="J148" t="str">
+        <f t="shared" si="19"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K147" t="str">
-        <f t="shared" si="16"/>
+      <c r="K148" t="str">
+        <f t="shared" si="18"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J148" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E133,"';")</f>
+    <row r="149" spans="2:11">
+      <c r="J149" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E134,"';")</f>
         <v>) COMMENT '첨부파일';</v>
       </c>
-      <c r="K148" t="str">
+      <c r="K149" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B149" s="6" t="s">
+    <row r="150" spans="2:11">
+      <c r="B150" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C150" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26" t="s">
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C134," ADD CONSTRAINT ",C151," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
       </c>
-      <c r="K149" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
+      <c r="K150" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C134," ADD CONSTRAINT ",C151," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B150" s="4">
+    <row r="151" spans="2:11">
+      <c r="B151" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C133)</f>
+      <c r="C151" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C134)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21" t="str">
-        <f>C136</f>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26" t="str">
+        <f>C137</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
-      <c r="J150" t="str">
-        <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
-        <v>BOARD_SEQ</v>
-      </c>
-      <c r="K150" t="str">
-        <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
-        <v>BOARD_SEQ</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B151" s="4">
-        <v>2</v>
-      </c>
-      <c r="C151" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C133)</f>
-        <v>PK_TB_ATCFILE</v>
-      </c>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="str">
-        <f>C137</f>
-        <v>ATCFILE_NUM</v>
-      </c>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
-        <v>, ATCFILE_NUM</v>
+        <v>BOARD_SEQ</v>
       </c>
       <c r="K151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
+        <v>BOARD_SEQ</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="4">
+        <v>2</v>
+      </c>
+      <c r="C152" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C134)</f>
+        <v>PK_TB_ATCFILE</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26" t="str">
+        <f>C138</f>
+        <v>ATCFILE_NUM</v>
+      </c>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" t="str">
+        <f>_xlfn.CONCAT(IF(B152=1,"",", "),F152)</f>
         <v>, ATCFILE_NUM</v>
       </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J152" t="str">
+      <c r="K152" t="str">
+        <f>_xlfn.CONCAT(IF(B152=1,"",", "),F152)</f>
+        <v>, ATCFILE_NUM</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="J153" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K152" t="str">
+      <c r="K153" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="22" t="s">
+    <row r="154" spans="2:11">
+      <c r="B154" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="24"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="23"/>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D155" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E155" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F155" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G154" s="4" t="s">
+      <c r="G155" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H154" s="6" t="s">
+      <c r="H155" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I155" s="7">
         <v>44942</v>
       </c>
-      <c r="J154" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C154,";")</f>
+      <c r="J155" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C155,";")</f>
         <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
       </c>
-      <c r="K154" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C154,";")</f>
+      <c r="K155" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C155,";")</f>
         <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B155" s="6" t="s">
+    <row r="156" spans="2:11">
+      <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C156" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C155)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
       </c>
-      <c r="K155" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
+      <c r="K156" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C155)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B156" s="6" t="s">
+    <row r="157" spans="2:11">
+      <c r="B157" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F157" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G156" s="6" t="s">
+      <c r="G157" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="H157" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="I157" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J156" t="str">
+      <c r="J157" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K156" t="str">
+      <c r="K157" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B157" s="4">
+    <row r="158" spans="2:11">
+      <c r="B158" s="4">
         <v>1</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E158" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F158" s="4">
         <v>1</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J157" t="str">
-        <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
-        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
-      </c>
-      <c r="K157" t="str">
-        <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
-        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B158" s="4">
-        <v>2</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F158" s="4"/>
-      <c r="G158" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J158" t="str">
         <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
-        <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
+        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
       </c>
       <c r="K158" t="str">
         <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
+        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="4">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J159" t="str">
+        <f>_xlfn.CONCAT(IF(B159=1,"",", "),C159," ",E159," ",G159,IF(H159="",""," DEFAULT "),H159, " COMMENT '",I159,"'")</f>
         <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
       </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J159" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E154,"';")</f>
+      <c r="K159" t="str">
+        <f>_xlfn.CONCAT(IF(B159=1,"",", "),C159," ",E159," ",G159,IF(H159="",""," DEFAULT "),H159, " COMMENT '",I159,"'")</f>
+        <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="J160" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E155,"';")</f>
         <v>) COMMENT '시퀀스';</v>
       </c>
-      <c r="K159" t="str">
+      <c r="K160" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B160" s="6" t="s">
+    <row r="161" spans="2:11">
+      <c r="B161" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C161" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26" t="s">
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
-      <c r="J160" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C155," ADD CONSTRAINT ",C162," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
       </c>
-      <c r="K160" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
+      <c r="K161" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C155," ADD CONSTRAINT ",C162," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B161" s="4">
+    <row r="162" spans="2:11">
+      <c r="B162" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C154)</f>
+      <c r="C162" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C155)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21" t="str">
-        <f>C157</f>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26" t="str">
+        <f>C158</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" t="str">
-        <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" t="str">
+        <f>_xlfn.CONCAT(IF(B162=1,"",", "),F162)</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="K161" t="str">
-        <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
+      <c r="K162" t="str">
+        <f>_xlfn.CONCAT(IF(B162=1,"",", "),F162)</f>
         <v>SEQ_NM</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J162" t="str">
+    <row r="163" spans="2:11">
+      <c r="J163" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K162" t="str">
+      <c r="K163" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="22" t="s">
+    <row r="164" spans="2:11">
+      <c r="B164" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="24"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="23"/>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D165" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F165" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G164" s="4" t="s">
+      <c r="G165" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H164" s="6" t="s">
+      <c r="H165" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I165" s="7">
         <v>44942</v>
       </c>
-      <c r="J164" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C164,";")</f>
+      <c r="J165" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C165,";")</f>
         <v>DROP TABLE IF EXISTS TB_POLI;</v>
       </c>
-      <c r="K164" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C164,";")</f>
+      <c r="K165" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C165,";")</f>
         <v>DROP TABLE IF EXISTS TB_POLI;</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B165" s="6" t="s">
+    <row r="166" spans="2:11">
+      <c r="B166" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C166" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-      <c r="J165" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C165)</f>
         <v>CREATE TABLE TB_POLI</v>
       </c>
-      <c r="K165" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
+      <c r="K166" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C165)</f>
         <v>CREATE TABLE TB_POLI</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B166" s="6" t="s">
+    <row r="167" spans="2:11">
+      <c r="B167" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D167" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F167" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G166" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H166" s="6" t="s">
+      <c r="H167" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="I167" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J166" t="str">
+      <c r="J167" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K166" t="str">
+      <c r="K167" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B167" s="4">
+    <row r="168" spans="2:11">
+      <c r="B168" s="4">
         <v>1</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E168" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F168" s="4">
         <v>1</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="I168" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="J167" t="str">
-        <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
-        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
-      </c>
-      <c r="K167" t="str">
-        <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
-        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B168" s="4">
-        <v>2</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F168" s="4"/>
-      <c r="G168" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="J168" t="str">
         <f>_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
-        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
+        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" ref="K168:K175" si="18">_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
-        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
+        <f>_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
+        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
       <c r="B169" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F169" s="4"/>
       <c r="G169" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT(IF(B169=1,"",", "),C169," ",E169," ",G169,IF(H169="",""," DEFAULT "),H169, " COMMENT '",I169,"'")</f>
-        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
+        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="18"/>
-        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
+        <f t="shared" ref="K169:K176" si="20">_xlfn.CONCAT(IF(B169=1,"",", "),C169," ",E169," ",G169,IF(H169="",""," DEFAULT "),H169, " COMMENT '",I169,"'")</f>
+        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
       <c r="B170" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F170" s="4"/>
+        <v>99</v>
+      </c>
       <c r="G170" s="1" t="s">
         <v>43</v>
       </c>
@@ -7115,29 +7127,29 @@
         <v>91</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J170" t="str">
-        <f t="shared" ref="J170:J175" si="19">_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
-        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
+        <f>_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
+        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="18"/>
-        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="20"/>
+        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
       <c r="B171" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>382</v>
+        <v>275</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="1" t="s">
@@ -7147,365 +7159,365 @@
         <v>91</v>
       </c>
       <c r="I171" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" ref="J171:J176" si="21">_xlfn.CONCAT(IF(B171=1,"",", "),C171," ",E171," ",G171,IF(H171="",""," DEFAULT "),H171, " COMMENT '",I171,"'")</f>
+        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="20"/>
+        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="4">
+        <v>5</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J171" t="str">
-        <f t="shared" si="19"/>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
-      </c>
-      <c r="K171" t="str">
-        <f t="shared" si="18"/>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B172" s="4">
-        <v>9</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E172" s="4" t="s">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I172" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="21"/>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="20"/>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="4">
+        <v>9</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J172" t="str">
-        <f t="shared" si="19"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K172" t="str">
-        <f t="shared" si="18"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B173" s="4">
-        <v>10</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E173" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I173" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="21"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="20"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="4">
+        <v>10</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J173" t="str">
-        <f t="shared" si="19"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K173" t="str">
-        <f t="shared" si="18"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B174" s="4">
-        <v>11</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E174" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I174" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="21"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="20"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="4">
+        <v>11</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J174" t="str">
-        <f t="shared" si="19"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K174" t="str">
-        <f t="shared" si="18"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B175" s="4">
-        <v>12</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E175" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H175" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="21"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="20"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" s="4">
+        <v>12</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F176" s="4"/>
+      <c r="G176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="I176" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J175" t="str">
-        <f t="shared" si="19"/>
+      <c r="J176" t="str">
+        <f t="shared" si="21"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K175" t="str">
-        <f t="shared" si="18"/>
+      <c r="K176" t="str">
+        <f t="shared" si="20"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J176" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E164,"';")</f>
+    <row r="177" spans="2:11">
+      <c r="J177" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E165,"';")</f>
         <v>) COMMENT '정책';</v>
       </c>
-      <c r="K176" t="str">
+      <c r="K177" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B177" s="6" t="s">
+    <row r="178" spans="2:11">
+      <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C178" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26" t="s">
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C165," ADD CONSTRAINT ",C179," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
       </c>
-      <c r="K177" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
+      <c r="K178" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C165," ADD CONSTRAINT ",C179," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B178" s="4">
+    <row r="179" spans="2:11">
+      <c r="B179" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C164)</f>
+      <c r="C179" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C165)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21" t="str">
-        <f>C167</f>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26" t="str">
+        <f>C168</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
-      <c r="J178" t="str">
-        <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
+      <c r="J179" t="str">
+        <f>_xlfn.CONCAT(IF(B179=1,"",", "),F179)</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="K178" t="str">
-        <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
+      <c r="K179" t="str">
+        <f>_xlfn.CONCAT(IF(B179=1,"",", "),F179)</f>
         <v>POLI_SEQ</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J179" t="str">
+    <row r="180" spans="2:11">
+      <c r="J180" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K179" t="str">
+      <c r="K180" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="22" t="s">
+    <row r="181" spans="2:11">
+      <c r="B181" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="23"/>
-      <c r="H180" s="23"/>
-      <c r="I180" s="24"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B181" s="6" t="s">
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="23"/>
+    </row>
+    <row r="182" spans="2:11">
+      <c r="B182" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="F182" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G182" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H181" s="6" t="s">
+      <c r="H182" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I181" s="7">
+      <c r="I182" s="7">
         <v>44944</v>
       </c>
-      <c r="J181" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C181,";")</f>
+      <c r="J182" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C182,";")</f>
         <v>DROP TABLE IF EXISTS TB_MNU;</v>
       </c>
-      <c r="K181" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C181,";")</f>
+      <c r="K182" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C182,";")</f>
         <v>DROP TABLE IF EXISTS TB_MNU;</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B182" s="6" t="s">
+    <row r="183" spans="2:11">
+      <c r="B183" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C183" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
-      <c r="J182" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C182)</f>
         <v>CREATE TABLE TB_MNU</v>
       </c>
-      <c r="K182" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
+      <c r="K183" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C182)</f>
         <v>CREATE TABLE TB_MNU</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B183" s="6" t="s">
+    <row r="184" spans="2:11">
+      <c r="B184" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D184" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E184" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F184" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="G184" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H183" s="6" t="s">
+      <c r="H184" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I183" s="6" t="s">
+      <c r="I184" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J183" t="str">
+      <c r="J184" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K183" t="str">
+      <c r="K184" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B184" s="4">
+    <row r="185" spans="2:11">
+      <c r="B185" s="4">
         <v>1</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F184" s="4">
+      <c r="F185" s="4">
         <v>1</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J184" t="str">
-        <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
-        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
-      </c>
-      <c r="K184" t="str">
-        <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
-        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B185" s="4">
-        <v>2</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F185" s="4"/>
       <c r="G185" s="1" t="s">
         <v>41</v>
       </c>
@@ -7513,92 +7525,92 @@
         <v>91</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="J185" t="str">
         <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
-        <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
       <c r="K185" t="str">
         <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
-        <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11">
       <c r="B186" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H186" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I186" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J186" t="str">
         <f>_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
-        <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
+        <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
       <c r="K186" t="str">
-        <f t="shared" ref="K186:K198" si="20">_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
-        <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
+        <f>_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
+        <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11">
       <c r="B187" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>248</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F187" s="4"/>
       <c r="G187" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H187" s="1"/>
       <c r="I187" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J187" t="str">
         <f>_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
-        <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+        <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
       <c r="K187" t="str">
-        <f t="shared" si="20"/>
-        <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
+        <f t="shared" ref="K187:K199" si="22">_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
+        <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11">
       <c r="B188" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F188" s="4"/>
       <c r="G188" s="1" t="s">
         <v>43</v>
       </c>
@@ -7606,58 +7618,58 @@
         <v>91</v>
       </c>
       <c r="I188" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J188" t="str">
+        <f>_xlfn.CONCAT(IF(B188=1,"",", "),C188," ",E188," ",G188,IF(H188="",""," DEFAULT "),H188, " COMMENT '",I188,"'")</f>
+        <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="22"/>
+        <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="B189" s="4">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J188" t="str">
-        <f t="shared" ref="J188:J198" si="21">_xlfn.CONCAT(IF(B188=1,"",", "),C188," ",E188," ",G188,IF(H188="",""," DEFAULT "),H188, " COMMENT '",I188,"'")</f>
-        <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
-      </c>
-      <c r="K188" t="str">
-        <f t="shared" si="20"/>
-        <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B189" s="4">
-        <v>6</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E189" s="4" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="I189" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" ref="J189:J199" si="23">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
+        <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="22"/>
+        <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11">
+      <c r="B190" s="4">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="J189" t="str">
-        <f t="shared" ref="J189" si="22">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
-        <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
-      </c>
-      <c r="K189" t="str">
-        <f t="shared" ref="K189" si="23">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
-        <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B190" s="4">
-        <v>7</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>23</v>
@@ -7670,61 +7682,61 @@
         <v>265</v>
       </c>
       <c r="I190" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" ref="J190" si="24">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
+        <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" ref="K190" si="25">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
+        <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11">
+      <c r="B191" s="4">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J190" t="str">
-        <f t="shared" ref="J190:J192" si="24">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
-        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
-      </c>
-      <c r="K190" t="str">
-        <f t="shared" ref="K190:K192" si="25">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
-        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B191" s="4">
-        <v>8</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E191" s="4" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="I191" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" ref="J191:J193" si="26">_xlfn.CONCAT(IF(B191=1,"",", "),C191," ",E191," ",G191,IF(H191="",""," DEFAULT "),H191, " COMMENT '",I191,"'")</f>
+        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" ref="K191:K193" si="27">_xlfn.CONCAT(IF(B191=1,"",", "),C191," ",E191," ",G191,IF(H191="",""," DEFAULT "),H191, " COMMENT '",I191,"'")</f>
+        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11">
+      <c r="B192" s="4">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J191" t="str">
-        <f t="shared" si="24"/>
-        <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
-      </c>
-      <c r="K191" t="str">
-        <f t="shared" si="25"/>
-        <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B192" s="4">
-        <v>9</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E192" s="4" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="1" t="s">
@@ -7734,29 +7746,29 @@
         <v>91</v>
       </c>
       <c r="I192" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="26"/>
+        <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="27"/>
+        <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11">
+      <c r="B193" s="4">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J192" t="str">
-        <f t="shared" si="24"/>
-        <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
-      </c>
-      <c r="K192" t="str">
-        <f t="shared" si="25"/>
-        <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B193" s="4">
-        <v>10</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E193" s="4" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="1" t="s">
@@ -7766,29 +7778,29 @@
         <v>91</v>
       </c>
       <c r="I193" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" si="26"/>
+        <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" si="27"/>
+        <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11">
+      <c r="B194" s="4">
+        <v>10</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J193" t="str">
-        <f t="shared" ref="J193" si="26">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
-        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
-      </c>
-      <c r="K193" t="str">
-        <f t="shared" ref="K193" si="27">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
-        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B194" s="4">
-        <v>11</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E194" s="4" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="1" t="s">
@@ -7798,824 +7810,824 @@
         <v>91</v>
       </c>
       <c r="I194" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" ref="J194" si="28">_xlfn.CONCAT(IF(B194=1,"",", "),C194," ",E194," ",G194,IF(H194="",""," DEFAULT "),H194, " COMMENT '",I194,"'")</f>
+        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" ref="K194" si="29">_xlfn.CONCAT(IF(B194=1,"",", "),C194," ",E194," ",G194,IF(H194="",""," DEFAULT "),H194, " COMMENT '",I194,"'")</f>
+        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11">
+      <c r="B195" s="4">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J194" t="str">
-        <f t="shared" si="21"/>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
-      </c>
-      <c r="K194" t="str">
-        <f t="shared" si="20"/>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B195" s="4">
-        <v>12</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E195" s="4" t="s">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I195" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J195" t="str">
+        <f t="shared" si="23"/>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
+      </c>
+      <c r="K195" t="str">
+        <f t="shared" si="22"/>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11">
+      <c r="B196" s="4">
+        <v>12</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J195" t="str">
-        <f t="shared" si="21"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K195" t="str">
-        <f t="shared" si="20"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B196" s="4">
-        <v>13</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E196" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I196" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J196" t="str">
+        <f t="shared" si="23"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K196" t="str">
+        <f t="shared" si="22"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11">
+      <c r="B197" s="4">
+        <v>13</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J196" t="str">
-        <f t="shared" si="21"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K196" t="str">
-        <f t="shared" si="20"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B197" s="4">
-        <v>14</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E197" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I197" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J197" t="str">
+        <f t="shared" si="23"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K197" t="str">
+        <f t="shared" si="22"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11">
+      <c r="B198" s="4">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J197" t="str">
-        <f t="shared" si="21"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K197" t="str">
-        <f t="shared" si="20"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B198" s="4">
-        <v>15</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E198" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H198" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J198" t="str">
+        <f t="shared" si="23"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K198" t="str">
+        <f t="shared" si="22"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11">
+      <c r="B199" s="4">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F199" s="4"/>
+      <c r="G199" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H199" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="I199" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J198" t="str">
-        <f t="shared" si="21"/>
+      <c r="J199" t="str">
+        <f t="shared" si="23"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K198" t="str">
-        <f t="shared" si="20"/>
+      <c r="K199" t="str">
+        <f t="shared" si="22"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J199" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E181,"';")</f>
+    <row r="200" spans="2:11">
+      <c r="J200" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E182,"';")</f>
         <v>) COMMENT '메뉴';</v>
       </c>
-      <c r="K199" t="str">
+      <c r="K200" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B200" s="6" t="s">
+    <row r="201" spans="2:11">
+      <c r="B201" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="26" t="s">
+      <c r="C201" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26" t="s">
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G200" s="26"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
-      <c r="J200" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
+      <c r="G201" s="25"/>
+      <c r="H201" s="25"/>
+      <c r="I201" s="25"/>
+      <c r="J201" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C202," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
-      <c r="K200" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
+      <c r="K201" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C202," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B201" s="4">
+    <row r="202" spans="2:11">
+      <c r="B202" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C181)</f>
+      <c r="C202" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C182)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21" t="str">
-        <f>C184</f>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="26" t="str">
+        <f>C185</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
-      <c r="J201" t="str">
-        <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
+      <c r="G202" s="26"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="26"/>
+      <c r="J202" t="str">
+        <f>_xlfn.CONCAT(IF(B202=1,"",", "),F202)</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="K201" t="str">
-        <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
+      <c r="K202" t="str">
+        <f>_xlfn.CONCAT(IF(B202=1,"",", "),F202)</f>
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J202" t="str">
+    <row r="203" spans="2:11">
+      <c r="J203" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K202" t="str">
+      <c r="K203" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="22" t="s">
+    <row r="204" spans="2:11">
+      <c r="B204" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23"/>
-      <c r="I203" s="24"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B204" s="6" t="s">
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
+      <c r="I204" s="23"/>
+    </row>
+    <row r="205" spans="2:11">
+      <c r="B205" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C205" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D205" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E204" s="4" t="s">
+      <c r="E205" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F205" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G204" s="4" t="s">
+      <c r="G205" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H204" s="6" t="s">
+      <c r="H205" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I204" s="7">
+      <c r="I205" s="7">
         <v>44945</v>
       </c>
-      <c r="J204" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C204,";")</f>
+      <c r="J205" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C205,";")</f>
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
-      <c r="K204" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C204,";")</f>
+      <c r="K205" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C205,";")</f>
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B205" s="6" t="s">
+    <row r="206" spans="2:11">
+      <c r="B206" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C206" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
-      <c r="I205" s="25"/>
-      <c r="J205" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="24"/>
+      <c r="I206" s="24"/>
+      <c r="J206" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C205)</f>
         <v>CREATE TABLE TB_ROLE</v>
       </c>
-      <c r="K205" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
+      <c r="K206" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C205)</f>
         <v>CREATE TABLE TB_ROLE</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B206" s="6" t="s">
+    <row r="207" spans="2:11">
+      <c r="B207" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D207" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E207" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="F207" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G206" s="6" t="s">
+      <c r="G207" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H206" s="6" t="s">
+      <c r="H207" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I206" s="6" t="s">
+      <c r="I207" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J206" t="str">
+      <c r="J207" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K206" t="str">
+      <c r="K207" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B207" s="4">
+    <row r="208" spans="2:11">
+      <c r="B208" s="4">
         <v>1</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F207" s="4">
+      <c r="F208" s="4">
         <v>1</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J207" t="str">
-        <f>_xlfn.CONCAT(IF(B207=1,"",", "),C207," ",E207," ",G207,IF(H207="",""," DEFAULT "),H207, " COMMENT '",I207,"'")</f>
-        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-      <c r="K207" t="str">
-        <f>_xlfn.CONCAT(IF(B207=1,"",", "),C207," ",E207," ",G207,IF(H207="",""," DEFAULT "),H207, " COMMENT '",I207,"'")</f>
-        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B208" s="4">
-        <v>2</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F208" s="4"/>
-      <c r="G208" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J208" t="str">
         <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
-        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
+        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
       <c r="K208" t="str">
         <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
-        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
+        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11">
       <c r="B209" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H209" s="1"/>
+      <c r="H209" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I209" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
       </c>
       <c r="K209" t="str">
-        <f t="shared" ref="K209:K214" si="28">_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
-      </c>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.4">
+        <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
+        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11">
       <c r="B210" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F210" s="4"/>
       <c r="G210" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H210" s="1"/>
       <c r="I210" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
       <c r="K210" t="str">
-        <f t="shared" si="28"/>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
-      </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.4">
+        <f t="shared" ref="K210:K215" si="30">_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
+        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11">
       <c r="B211" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F211" s="4"/>
+        <v>272</v>
+      </c>
       <c r="G211" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J211" t="str">
+        <f>_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,IF(H211="",""," DEFAULT "),H211, " COMMENT '",I211,"'")</f>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+      </c>
+      <c r="K211" t="str">
+        <f t="shared" si="30"/>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11">
+      <c r="B212" s="4">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J211" t="str">
-        <f t="shared" ref="J211:J214" si="29">_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,IF(H211="",""," DEFAULT "),H211, " COMMENT '",I211,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K211" t="str">
-        <f t="shared" si="28"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B212" s="4">
-        <v>6</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E212" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I212" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J212" t="str">
+        <f t="shared" ref="J212:J215" si="31">_xlfn.CONCAT(IF(B212=1,"",", "),C212," ",E212," ",G212,IF(H212="",""," DEFAULT "),H212, " COMMENT '",I212,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K212" t="str">
+        <f t="shared" si="30"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11">
+      <c r="B213" s="4">
+        <v>6</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J212" t="str">
-        <f t="shared" si="29"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K212" t="str">
-        <f t="shared" si="28"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B213" s="4">
-        <v>7</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E213" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I213" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J213" t="str">
+        <f t="shared" si="31"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K213" t="str">
+        <f t="shared" si="30"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11">
+      <c r="B214" s="4">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J213" t="str">
-        <f t="shared" si="29"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K213" t="str">
-        <f t="shared" si="28"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B214" s="4">
-        <v>8</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E214" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H214" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J214" t="str">
+        <f t="shared" si="31"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K214" t="str">
+        <f t="shared" si="30"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11">
+      <c r="B215" s="4">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F215" s="4"/>
+      <c r="G215" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H215" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I215" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J214" t="str">
-        <f t="shared" si="29"/>
+      <c r="J215" t="str">
+        <f t="shared" si="31"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K214" t="str">
-        <f t="shared" si="28"/>
+      <c r="K215" t="str">
+        <f t="shared" si="30"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J215" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E204,"';")</f>
+    <row r="216" spans="2:11">
+      <c r="J216" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E205,"';")</f>
         <v>) COMMENT '권한그룹';</v>
       </c>
-      <c r="K215" t="str">
+      <c r="K216" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B216" s="6" t="s">
+    <row r="217" spans="2:11">
+      <c r="B217" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C217" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26" t="s">
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G216" s="26"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="26"/>
-      <c r="J216" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
+      <c r="G217" s="25"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
+      <c r="J217" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C205," ADD CONSTRAINT ",C218," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
-      <c r="K216" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
+      <c r="K217" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C205," ADD CONSTRAINT ",C218," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B217" s="4">
+    <row r="218" spans="2:11">
+      <c r="B218" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C204)</f>
+      <c r="C218" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C205)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21" t="str">
-        <f>C207</f>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="26" t="str">
+        <f>C208</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
-      <c r="J217" t="str">
-        <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
+      <c r="G218" s="26"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="26"/>
+      <c r="J218" t="str">
+        <f>_xlfn.CONCAT(IF(B218=1,"",", "),F218)</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="K217" t="str">
-        <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
+      <c r="K218" t="str">
+        <f>_xlfn.CONCAT(IF(B218=1,"",", "),F218)</f>
         <v>ROLE_SEQ</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J218" t="str">
+    <row r="219" spans="2:11">
+      <c r="J219" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K218" t="str">
+      <c r="K219" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="22" t="s">
+    <row r="220" spans="2:11">
+      <c r="B220" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="23"/>
-      <c r="F219" s="23"/>
-      <c r="G219" s="23"/>
-      <c r="H219" s="23"/>
-      <c r="I219" s="24"/>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B220" s="6" t="s">
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22"/>
+      <c r="I220" s="23"/>
+    </row>
+    <row r="221" spans="2:11">
+      <c r="B221" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D221" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="E221" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F220" s="6" t="s">
+      <c r="F221" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G220" s="4" t="s">
+      <c r="G221" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H220" s="6" t="s">
+      <c r="H221" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I221" s="7">
         <v>44945</v>
       </c>
-      <c r="J220" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C220,";")</f>
+      <c r="J221" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C221,";")</f>
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
-      <c r="K220" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C220,";")</f>
+      <c r="K221" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C221,";")</f>
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B221" s="6" t="s">
+    <row r="222" spans="2:11">
+      <c r="B222" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C222" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="25"/>
-      <c r="I221" s="25"/>
-      <c r="J221" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
+      <c r="F222" s="24"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="24"/>
+      <c r="I222" s="24"/>
+      <c r="J222" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C221)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
-      <c r="K221" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
+      <c r="K222" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C221)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B222" s="6" t="s">
+    <row r="223" spans="2:11">
+      <c r="B223" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C223" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D223" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E223" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="F223" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G222" s="6" t="s">
+      <c r="G223" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H222" s="6" t="s">
+      <c r="H223" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I222" s="6" t="s">
+      <c r="I223" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J222" t="str">
+      <c r="J223" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K222" t="str">
+      <c r="K223" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B223" s="4">
+    <row r="224" spans="2:11">
+      <c r="B224" s="4">
         <v>1</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="E224" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F223" s="4">
+      <c r="F224" s="4">
         <v>1</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1" t="s">
+      <c r="H224" s="1"/>
+      <c r="I224" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="J223" t="str">
-        <f>_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,IF(H223="",""," DEFAULT "),H223, " COMMENT '",I223,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
-      </c>
-      <c r="K223" t="str">
-        <f>_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,IF(H223="",""," DEFAULT "),H223, " COMMENT '",I223,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
-      </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B224" s="4">
-        <v>2</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F224" s="4">
-        <v>2</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J224" t="str">
         <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K224" t="str">
         <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11">
       <c r="B225" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F225" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="F225" s="4">
+        <v>2</v>
+      </c>
       <c r="G225" s="1" t="s">
         <v>41</v>
       </c>
@@ -8623,357 +8635,357 @@
         <v>91</v>
       </c>
       <c r="I225" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J225" t="str">
+        <f>_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+      <c r="K225" t="str">
+        <f>_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11">
+      <c r="B226" s="4">
+        <v>3</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J225" t="str">
-        <f t="shared" ref="J225:J226" si="30">_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K225" t="str">
-        <f t="shared" ref="K225:K226" si="31">_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B226" s="4">
-        <v>4</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E226" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H226" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J226" t="str">
+        <f t="shared" ref="J226:J227" si="32">_xlfn.CONCAT(IF(B226=1,"",", "),C226," ",E226," ",G226,IF(H226="",""," DEFAULT "),H226, " COMMENT '",I226,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K226" t="str">
+        <f t="shared" ref="K226:K227" si="33">_xlfn.CONCAT(IF(B226=1,"",", "),C226," ",E226," ",G226,IF(H226="",""," DEFAULT "),H226, " COMMENT '",I226,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11">
+      <c r="B227" s="4">
+        <v>4</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F227" s="4"/>
+      <c r="G227" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H227" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="I227" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J226" t="str">
-        <f t="shared" si="30"/>
+      <c r="J227" t="str">
+        <f t="shared" si="32"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
-      <c r="K226" t="str">
-        <f t="shared" si="31"/>
+      <c r="K227" t="str">
+        <f t="shared" si="33"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J227" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E220,"';")</f>
+    <row r="228" spans="2:11">
+      <c r="J228" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E221,"';")</f>
         <v>) COMMENT '사용자_권한그룹_매핑';</v>
       </c>
-      <c r="K227" t="str">
+      <c r="K228" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B228" s="6" t="s">
+    <row r="229" spans="2:11">
+      <c r="B229" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="26" t="s">
+      <c r="C229" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26" t="s">
+      <c r="D229" s="25"/>
+      <c r="E229" s="25"/>
+      <c r="F229" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
-      <c r="J228" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
+      <c r="G229" s="25"/>
+      <c r="H229" s="25"/>
+      <c r="I229" s="25"/>
+      <c r="J229" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C221," ADD CONSTRAINT ",C231," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
-      <c r="K228" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
+      <c r="K229" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C221," ADD CONSTRAINT ",C231," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B229" s="4">
+    <row r="230" spans="2:11">
+      <c r="B230" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C220)</f>
+      <c r="C230" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C221)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21" t="str">
-        <f>C223</f>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26" t="str">
+        <f>C224</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="21"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
-      <c r="J229" t="str">
-        <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
-        <v>USER_ID</v>
-      </c>
-      <c r="K229" t="str">
-        <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
-        <v>USER_ID</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B230" s="4">
-        <v>2</v>
-      </c>
-      <c r="C230" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C220)</f>
-        <v>PK_TB_USER_ROLE_MAP</v>
-      </c>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21" t="str">
-        <f>C224</f>
-        <v>ROLE_SEQ</v>
-      </c>
-      <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="26"/>
+      <c r="I230" s="26"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
-        <v>, ROLE_SEQ</v>
+        <v>USER_ID</v>
       </c>
       <c r="K230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
+        <v>USER_ID</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11">
+      <c r="B231" s="4">
+        <v>2</v>
+      </c>
+      <c r="C231" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C221)</f>
+        <v>PK_TB_USER_ROLE_MAP</v>
+      </c>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26" t="str">
+        <f>C225</f>
+        <v>ROLE_SEQ</v>
+      </c>
+      <c r="G231" s="26"/>
+      <c r="H231" s="26"/>
+      <c r="I231" s="26"/>
+      <c r="J231" t="str">
+        <f>_xlfn.CONCAT(IF(B231=1,"",", "),F231)</f>
         <v>, ROLE_SEQ</v>
       </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J231" t="str">
+      <c r="K231" t="str">
+        <f>_xlfn.CONCAT(IF(B231=1,"",", "),F231)</f>
+        <v>, ROLE_SEQ</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11">
+      <c r="J232" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K231" t="str">
+      <c r="K232" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="22" t="s">
+    <row r="233" spans="2:11">
+      <c r="B233" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="24"/>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B233" s="6" t="s">
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="22"/>
+      <c r="I233" s="23"/>
+    </row>
+    <row r="234" spans="2:11">
+      <c r="B234" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C234" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D233" s="6" t="s">
+      <c r="D234" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E233" s="4" t="s">
+      <c r="E234" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F233" s="6" t="s">
+      <c r="F234" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G233" s="4" t="s">
+      <c r="G234" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H233" s="6" t="s">
+      <c r="H234" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I233" s="7">
+      <c r="I234" s="7">
         <v>44945</v>
       </c>
-      <c r="J233" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C233,";")</f>
+      <c r="J234" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C234,";")</f>
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
-      <c r="K233" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C233,";")</f>
+      <c r="K234" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C234,";")</f>
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B234" s="6" t="s">
+    <row r="235" spans="2:11">
+      <c r="B235" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="25" t="s">
+      <c r="C235" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
-      <c r="F234" s="25"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="25"/>
-      <c r="I234" s="25"/>
-      <c r="J234" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="24"/>
+      <c r="I235" s="24"/>
+      <c r="J235" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C234)</f>
         <v>CREATE TABLE TB_AUTH</v>
       </c>
-      <c r="K234" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
+      <c r="K235" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C234)</f>
         <v>CREATE TABLE TB_AUTH</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B235" s="6" t="s">
+    <row r="236" spans="2:11">
+      <c r="B236" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C236" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D236" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E236" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F235" s="6" t="s">
+      <c r="F236" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G235" s="6" t="s">
+      <c r="G236" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H235" s="6" t="s">
+      <c r="H236" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I235" s="6" t="s">
+      <c r="I236" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J235" t="str">
+      <c r="J236" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K235" t="str">
+      <c r="K236" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B236" s="4">
+    <row r="237" spans="2:11">
+      <c r="B237" s="4">
         <v>1</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F236" s="4">
-        <v>1</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J236" t="str">
-        <f>_xlfn.CONCAT(IF(B236=1,"",", "),C236," ",E236," ",G236,IF(H236="",""," DEFAULT "),H236, " COMMENT '",I236,"'")</f>
-        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
-      </c>
-      <c r="K236" t="str">
-        <f>_xlfn.CONCAT(IF(B236=1,"",", "),C236," ",E236," ",G236,IF(H236="",""," DEFAULT "),H236, " COMMENT '",I236,"'")</f>
-        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B237" s="4">
-        <v>2</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>104</v>
       </c>
       <c r="F237" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H237" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H237" s="1"/>
       <c r="I237" s="1" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
       <c r="K237" t="str">
         <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11">
       <c r="B238" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F238" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="F238" s="4">
+        <v>2</v>
+      </c>
       <c r="G238" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="J238" t="str">
-        <f t="shared" ref="J238" si="32">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
-        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+        <f>_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
       <c r="K238" t="str">
-        <f t="shared" ref="K238" si="33">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
-        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
+        <f>_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11">
       <c r="B239" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="1" t="s">
@@ -8983,335 +8995,367 @@
         <v>91</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J239" t="str">
         <f t="shared" ref="J239" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
-        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
       <c r="K239" t="str">
         <f t="shared" ref="K239" si="35">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
-        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
+        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11">
       <c r="B240" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="J240" t="str">
-        <f t="shared" ref="J240:J243" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f t="shared" ref="J240" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
+        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
       <c r="K240" t="str">
-        <f t="shared" ref="K240:K243" si="37">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
+        <f t="shared" ref="K240" si="37">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
+        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11">
       <c r="B241" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I241" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J241" t="str">
+        <f t="shared" ref="J241:J244" si="38">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K241" t="str">
+        <f t="shared" ref="K241:K244" si="39">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11">
+      <c r="B242" s="4">
+        <v>6</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J241" t="str">
-        <f t="shared" si="36"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K241" t="str">
-        <f t="shared" si="37"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B242" s="4">
-        <v>7</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E242" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I242" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J242" t="str">
+        <f t="shared" si="38"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K242" t="str">
+        <f t="shared" si="39"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11">
+      <c r="B243" s="4">
+        <v>7</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J242" t="str">
-        <f t="shared" ref="J242" si="38">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K242" t="str">
-        <f t="shared" ref="K242" si="39">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B243" s="4">
-        <v>8</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E243" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H243" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J243" t="str">
+        <f t="shared" ref="J243" si="40">_xlfn.CONCAT(IF(B243=1,"",", "),C243," ",E243," ",G243,IF(H243="",""," DEFAULT "),H243, " COMMENT '",I243,"'")</f>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K243" t="str">
+        <f t="shared" ref="K243" si="41">_xlfn.CONCAT(IF(B243=1,"",", "),C243," ",E243," ",G243,IF(H243="",""," DEFAULT "),H243, " COMMENT '",I243,"'")</f>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11">
+      <c r="B244" s="4">
+        <v>8</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F244" s="4"/>
+      <c r="G244" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H244" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="I244" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J243" t="str">
-        <f t="shared" si="36"/>
+      <c r="J244" t="str">
+        <f t="shared" si="38"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K243" t="str">
-        <f t="shared" si="37"/>
+      <c r="K244" t="str">
+        <f t="shared" si="39"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J244" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E233,"';")</f>
+    <row r="245" spans="2:11">
+      <c r="J245" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E234,"';")</f>
         <v>) COMMENT '권한';</v>
       </c>
-      <c r="K244" t="str">
+      <c r="K245" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B245" s="6" t="s">
+    <row r="246" spans="2:11">
+      <c r="B246" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="26" t="s">
+      <c r="C246" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="26" t="s">
+      <c r="D246" s="25"/>
+      <c r="E246" s="25"/>
+      <c r="F246" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G245" s="26"/>
-      <c r="H245" s="26"/>
-      <c r="I245" s="26"/>
-      <c r="J245" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
+      <c r="G246" s="25"/>
+      <c r="H246" s="25"/>
+      <c r="I246" s="25"/>
+      <c r="J246" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C234," ADD CONSTRAINT ",C248," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
-      <c r="K245" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
+      <c r="K246" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C234," ADD CONSTRAINT ",C248," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B246" s="4">
+    <row r="247" spans="2:11">
+      <c r="B247" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C233)</f>
+      <c r="C247" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C234)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21"/>
-      <c r="F246" s="21" t="str">
-        <f>C236</f>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26" t="str">
+        <f>C237</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="21"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="21"/>
-      <c r="J246" t="str">
-        <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
-        <v>MNU_SEQ</v>
-      </c>
-      <c r="K246" t="str">
-        <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
-        <v>MNU_SEQ</v>
-      </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B247" s="4">
-        <v>2</v>
-      </c>
-      <c r="C247" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C233)</f>
-        <v>PK_TB_AUTH</v>
-      </c>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21" t="str">
-        <f>C237</f>
-        <v>ROLE_SEQ</v>
-      </c>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="26"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
-        <v>, ROLE_SEQ</v>
+        <v>MNU_SEQ</v>
       </c>
       <c r="K247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
+        <v>MNU_SEQ</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11">
+      <c r="B248" s="4">
+        <v>2</v>
+      </c>
+      <c r="C248" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C234)</f>
+        <v>PK_TB_AUTH</v>
+      </c>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="26" t="str">
+        <f>C238</f>
+        <v>ROLE_SEQ</v>
+      </c>
+      <c r="G248" s="26"/>
+      <c r="H248" s="26"/>
+      <c r="I248" s="26"/>
+      <c r="J248" t="str">
+        <f>_xlfn.CONCAT(IF(B248=1,"",", "),F248)</f>
         <v>, ROLE_SEQ</v>
       </c>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J248" t="str">
+      <c r="K248" t="str">
+        <f>_xlfn.CONCAT(IF(B248=1,"",", "),F248)</f>
+        <v>, ROLE_SEQ</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11">
+      <c r="J249" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K248" t="str">
+      <c r="K249" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="C248:E248"/>
+    <mergeCell ref="F248:I248"/>
+    <mergeCell ref="B233:I233"/>
+    <mergeCell ref="C235:I235"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B220:I220"/>
+    <mergeCell ref="C222:I222"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="F231:I231"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="C206:I206"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="C218:E218"/>
+    <mergeCell ref="F218:I218"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="F161:I161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="F162:I162"/>
+    <mergeCell ref="B164:I164"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="B133:I133"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="F161:I161"/>
-    <mergeCell ref="B163:I163"/>
-    <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="C183:I183"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="F202:I202"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9326,7 +9370,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
@@ -9345,16 +9389,16 @@
     <col min="27" max="27" width="145.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27">
       <c r="B2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:27">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -9388,7 +9432,7 @@
         <v>TRUNCATE TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -9420,7 +9464,7 @@
         <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9436,7 +9480,7 @@
         <v>("POLI_SEQ",0)</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -9452,7 +9496,7 @@
         <v>,("LOGIN_SEQ",0)</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -9468,7 +9512,7 @@
         <v>,("BOARD_SEQ",0)</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -9484,7 +9528,7 @@
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -9500,7 +9544,7 @@
         <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -9516,26 +9560,26 @@
         <v>,("ROLE_SEQ",0)</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27">
       <c r="AA11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27">
       <c r="B12" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -9582,7 +9626,7 @@
         <v>TRUNCATE TB_POLI;</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -9622,7 +9666,7 @@
         <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:27">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -9669,7 +9713,7 @@
         <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:27">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -9716,7 +9760,7 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -9763,23 +9807,23 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27">
       <c r="AA18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27">
       <c r="B19" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -9815,7 +9859,7 @@
         <v>TRUNCATE TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -9854,7 +9898,7 @@
         <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -9876,7 +9920,7 @@
         <v>("LOGIN_CODE","로그인 유형","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -9898,7 +9942,7 @@
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -9920,7 +9964,7 @@
         <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:27">
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -9942,26 +9986,26 @@
         <v>,("BOARD_FREE_CODE","자유게시판 분류 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27">
       <c r="AA26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27">
       <c r="B27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="2:27">
       <c r="B28" s="10" t="s">
         <v>1</v>
       </c>
@@ -10000,7 +10044,7 @@
         <v>TRUNCATE TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:27">
       <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
@@ -10046,7 +10090,7 @@
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:27">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -10077,7 +10121,7 @@
         <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:27">
       <c r="B31" s="1">
         <v>2</v>
       </c>
@@ -10108,7 +10152,7 @@
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:27">
       <c r="B32" s="1">
         <v>3</v>
       </c>
@@ -10139,7 +10183,7 @@
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:27">
       <c r="B33" s="1">
         <v>4</v>
       </c>
@@ -10170,7 +10214,7 @@
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27">
       <c r="B34" s="1">
         <v>5</v>
       </c>
@@ -10201,7 +10245,7 @@
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:27">
       <c r="B35" s="1">
         <v>6</v>
       </c>
@@ -10232,7 +10276,7 @@
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:27">
       <c r="B36" s="1">
         <v>7</v>
       </c>
@@ -10263,7 +10307,7 @@
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:27">
       <c r="B37" s="1">
         <v>8</v>
       </c>
@@ -10294,7 +10338,7 @@
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:27">
       <c r="B38" s="1">
         <v>9</v>
       </c>
@@ -10325,7 +10369,7 @@
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:27">
       <c r="B39" s="1">
         <v>10</v>
       </c>
@@ -10356,7 +10400,7 @@
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:27">
       <c r="B40" s="1">
         <v>11</v>
       </c>
@@ -10387,7 +10431,7 @@
         <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:27">
       <c r="B41" s="1">
         <v>12</v>
       </c>
@@ -10418,7 +10462,7 @@
         <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:27">
       <c r="B42" s="1">
         <v>13</v>
       </c>
@@ -10449,7 +10493,7 @@
         <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:27">
       <c r="B43" s="1">
         <v>14</v>
       </c>
@@ -10480,7 +10524,7 @@
         <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:27">
       <c r="B44" s="1">
         <v>15</v>
       </c>
@@ -10511,7 +10555,7 @@
         <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:27">
       <c r="B45" s="1">
         <v>16</v>
       </c>
@@ -10542,7 +10586,7 @@
         <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:27">
       <c r="B46" s="1">
         <v>17</v>
       </c>
@@ -10573,7 +10617,7 @@
         <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:27">
       <c r="B47" s="1">
         <v>18</v>
       </c>
@@ -10604,7 +10648,7 @@
         <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:27">
       <c r="B48" s="1">
         <v>18</v>
       </c>
@@ -10635,7 +10679,7 @@
         <v>,("BOARD_FREE_CODE","01","잡담","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:27">
       <c r="B49" s="1">
         <v>18</v>
       </c>
@@ -10666,7 +10710,7 @@
         <v>,("BOARD_FREE_CODE","02","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:27">
       <c r="B50" s="1">
         <v>18</v>
       </c>
@@ -10697,24 +10741,24 @@
         <v>,("BOARD_FREE_CODE","03","질문","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:27">
       <c r="AA51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:27">
       <c r="B52" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="2:27">
       <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
@@ -10754,7 +10798,7 @@
         <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:27">
       <c r="B54" s="10" t="s">
         <v>3</v>
       </c>
@@ -10793,7 +10837,7 @@
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:27">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -10818,7 +10862,7 @@
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:27">
       <c r="B56" s="1">
         <v>2</v>
       </c>
@@ -10843,7 +10887,7 @@
         <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:27">
       <c r="B57" s="1">
         <v>3</v>
       </c>
@@ -10868,7 +10912,7 @@
         <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:27">
       <c r="B58" s="1">
         <v>4</v>
       </c>
@@ -10893,7 +10937,7 @@
         <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:27">
       <c r="B59" s="1">
         <v>5</v>
       </c>
@@ -10918,7 +10962,7 @@
         <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:27">
       <c r="B60" s="1">
         <v>6</v>
       </c>
@@ -10943,7 +10987,7 @@
         <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:27">
       <c r="B61" s="1">
         <v>7</v>
       </c>
@@ -10968,7 +11012,7 @@
         <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:27">
       <c r="B62" s="1">
         <v>8</v>
       </c>
@@ -10993,7 +11037,7 @@
         <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:27">
       <c r="B63" s="1">
         <v>9</v>
       </c>
@@ -11018,7 +11062,7 @@
         <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:27">
       <c r="B64" s="1">
         <v>10</v>
       </c>
@@ -11043,7 +11087,7 @@
         <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:27">
       <c r="B65" s="1">
         <v>11</v>
       </c>
@@ -11068,7 +11112,7 @@
         <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:27">
       <c r="B66" s="1">
         <v>12</v>
       </c>
@@ -11093,7 +11137,7 @@
         <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:27">
       <c r="B67" s="1">
         <v>13</v>
       </c>
@@ -11118,7 +11162,7 @@
         <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:27">
       <c r="B68" s="1">
         <v>14</v>
       </c>
@@ -11143,7 +11187,7 @@
         <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:27">
       <c r="B69" s="1">
         <v>15</v>
       </c>
@@ -11168,7 +11212,7 @@
         <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:27">
       <c r="B70" s="1">
         <v>16</v>
       </c>
@@ -11193,7 +11237,7 @@
         <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:27">
       <c r="B71" s="1">
         <v>17</v>
       </c>
@@ -11218,7 +11262,7 @@
         <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:27">
       <c r="B72" s="1">
         <v>18</v>
       </c>
@@ -11243,7 +11287,7 @@
         <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:27">
       <c r="B73" s="1">
         <v>19</v>
       </c>
@@ -11268,7 +11312,7 @@
         <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:27">
       <c r="B74" s="1">
         <v>20</v>
       </c>
@@ -11293,7 +11337,7 @@
         <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:27">
       <c r="B75" s="1">
         <v>20</v>
       </c>
@@ -11318,31 +11362,31 @@
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:27">
       <c r="AA76" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:27">
       <c r="B77" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+    </row>
+    <row r="78" spans="2:27">
       <c r="B78" s="10" t="s">
         <v>1</v>
       </c>
@@ -11396,7 +11440,7 @@
         <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:27">
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -11450,7 +11494,7 @@
         <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:27">
       <c r="B80" s="1">
         <v>1</v>
       </c>
@@ -11495,7 +11539,7 @@
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:27">
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -11540,7 +11584,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:27">
       <c r="B82" s="1">
         <v>3</v>
       </c>
@@ -11585,7 +11629,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:27">
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -11630,7 +11674,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:27">
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -11675,7 +11719,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:27">
       <c r="B85" s="1">
         <v>5</v>
       </c>
@@ -11720,7 +11764,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:27">
       <c r="B86" s="1">
         <v>6</v>
       </c>
@@ -11765,7 +11809,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:27">
       <c r="B87" s="1">
         <v>7</v>
       </c>
@@ -11810,7 +11854,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="88" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:27" s="20" customFormat="1">
       <c r="B88" s="1">
         <v>8</v>
       </c>
@@ -11855,7 +11899,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="89" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:27" s="20" customFormat="1">
       <c r="B89" s="1">
         <v>9</v>
       </c>
@@ -11900,7 +11944,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="90" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:27" s="20" customFormat="1">
       <c r="B90" s="1">
         <v>10</v>
       </c>
@@ -11945,7 +11989,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:27">
       <c r="B91" s="1">
         <v>11</v>
       </c>
@@ -11990,7 +12034,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:27">
       <c r="B92" s="1">
         <v>12</v>
       </c>
@@ -12035,7 +12079,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:27">
       <c r="B93" s="1">
         <v>13</v>
       </c>
@@ -12080,7 +12124,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:27">
       <c r="B94" s="1">
         <v>14</v>
       </c>
@@ -12125,7 +12169,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:27">
       <c r="B95" s="1">
         <v>15</v>
       </c>
@@ -12170,7 +12214,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:27">
       <c r="B96" s="1">
         <v>16</v>
       </c>
@@ -12215,7 +12259,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:27">
       <c r="B97" s="1">
         <v>17</v>
       </c>
@@ -12260,7 +12304,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:27">
       <c r="B98" s="1">
         <v>18</v>
       </c>
@@ -12305,7 +12349,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:27">
       <c r="B99" s="1">
         <v>19</v>
       </c>
@@ -12350,7 +12394,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:27">
       <c r="B100" s="1">
         <v>20</v>
       </c>
@@ -12395,7 +12439,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:27">
       <c r="B101" s="1">
         <v>21</v>
       </c>
@@ -12440,7 +12484,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:27">
       <c r="B102" s="1">
         <v>22</v>
       </c>
@@ -12485,7 +12529,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:27">
       <c r="B103" s="1">
         <v>23</v>
       </c>
@@ -12530,7 +12574,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:27">
       <c r="B104" s="1">
         <v>24</v>
       </c>
@@ -12575,25 +12619,25 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:27">
       <c r="AA105" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:27">
       <c r="B106" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+    </row>
+    <row r="107" spans="2:27">
       <c r="B107" s="10" t="s">
         <v>1</v>
       </c>
@@ -12633,7 +12677,7 @@
         <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:27">
       <c r="B108" s="10" t="s">
         <v>3</v>
       </c>
@@ -12673,7 +12717,7 @@
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:27">
       <c r="B109" s="1">
         <v>1</v>
       </c>
@@ -12700,7 +12744,7 @@
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:27">
       <c r="B110" s="1">
         <v>2</v>
       </c>
@@ -12727,7 +12771,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:27">
       <c r="B111" s="1">
         <v>2</v>
       </c>
@@ -12754,7 +12798,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:27">
       <c r="B112" s="1">
         <v>3</v>
       </c>
@@ -12781,7 +12825,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:27">
       <c r="B113" s="1">
         <v>4</v>
       </c>
@@ -12808,22 +12852,22 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:27">
       <c r="AA114" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:27">
       <c r="B115" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-    </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="2:27">
       <c r="B116" s="10" t="s">
         <v>1</v>
       </c>
@@ -12855,7 +12899,7 @@
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:27">
       <c r="B117" s="10" t="s">
         <v>3</v>
       </c>
@@ -12887,7 +12931,7 @@
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:27">
       <c r="B118" s="1">
         <v>1</v>
       </c>
@@ -12905,7 +12949,7 @@
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:27">
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -12923,7 +12967,7 @@
         <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:27">
       <c r="B120" s="1">
         <v>3</v>
       </c>
@@ -12941,7 +12985,7 @@
         <v>,("user2",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:27">
       <c r="B121" s="1">
         <v>4</v>
       </c>
@@ -12959,7 +13003,7 @@
         <v>,("user3",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:27">
       <c r="B122" s="1">
         <v>5</v>
       </c>
@@ -12977,7 +13021,7 @@
         <v>,("user4",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:27">
       <c r="B123" s="1">
         <v>6</v>
       </c>
@@ -12995,7 +13039,7 @@
         <v>,("user5",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:27">
       <c r="B124" s="1">
         <v>7</v>
       </c>
@@ -13013,7 +13057,7 @@
         <v>,("user6",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:27">
       <c r="B125" s="1">
         <v>8</v>
       </c>
@@ -13031,7 +13075,7 @@
         <v>,("user7",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:27">
       <c r="B126" s="1">
         <v>9</v>
       </c>
@@ -13049,7 +13093,7 @@
         <v>,("user8",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:27">
       <c r="B127" s="1">
         <v>10</v>
       </c>
@@ -13067,7 +13111,7 @@
         <v>,("user9",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:27">
       <c r="B128" s="1">
         <v>11</v>
       </c>
@@ -13085,7 +13129,7 @@
         <v>,("user10",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:27">
       <c r="B129" s="1">
         <v>12</v>
       </c>
@@ -13103,7 +13147,7 @@
         <v>,("user11",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:27">
       <c r="B130" s="1">
         <v>13</v>
       </c>
@@ -13121,7 +13165,7 @@
         <v>,("user12",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:27">
       <c r="B131" s="1">
         <v>14</v>
       </c>
@@ -13139,7 +13183,7 @@
         <v>,("user13",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:27">
       <c r="B132" s="1">
         <v>15</v>
       </c>
@@ -13157,7 +13201,7 @@
         <v>,("user14",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:27">
       <c r="B133" s="1">
         <v>16</v>
       </c>
@@ -13175,7 +13219,7 @@
         <v>,("user15",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:27">
       <c r="B134" s="1">
         <v>17</v>
       </c>
@@ -13193,7 +13237,7 @@
         <v>,("user16",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:27">
       <c r="B135" s="1">
         <v>18</v>
       </c>
@@ -13211,7 +13255,7 @@
         <v>,("user17",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:27">
       <c r="B136" s="1">
         <v>19</v>
       </c>
@@ -13229,7 +13273,7 @@
         <v>,("user18",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:27">
       <c r="B137" s="1">
         <v>20</v>
       </c>
@@ -13247,7 +13291,7 @@
         <v>,("user19",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:27">
       <c r="B138" s="1">
         <v>21</v>
       </c>
@@ -13265,12 +13309,12 @@
         <v>,("user20",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:27">
       <c r="AA139" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:27">
       <c r="B140" s="17" t="s">
         <v>198</v>
       </c>
@@ -13283,7 +13327,7 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:27">
       <c r="B141" s="17" t="s">
         <v>1</v>
       </c>
@@ -13323,7 +13367,7 @@
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:27">
       <c r="B142" s="17" t="s">
         <v>3</v>
       </c>
@@ -13363,7 +13407,7 @@
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:27">
       <c r="B143" s="1">
         <v>1</v>
       </c>
@@ -13390,7 +13434,7 @@
         <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:27">
       <c r="B144" s="1">
         <v>2</v>
       </c>
@@ -13417,34 +13461,34 @@
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:27">
       <c r="B145" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
       <c r="AA145" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C115:E115"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C77:N77"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C115:E115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B80:N104">
@@ -13475,7 +13519,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
@@ -13486,7 +13530,7 @@
     <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -13506,7 +13550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -13524,7 +13568,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -13544,7 +13588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -13562,7 +13606,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -13580,7 +13624,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -13598,7 +13642,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13616,7 +13660,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -13634,7 +13678,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -13652,7 +13696,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276040C-8015-4CF9-B628-B40F368E5DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC3B8F-E362-4588-A810-F5A64971DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="515">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1900,6 +1900,58 @@
   </si>
   <si>
     <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PLAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이 활동 관련 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAY_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Y'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2156,6 +2208,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2169,9 +2224,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2534,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
-  <dimension ref="B2:K249"/>
+  <dimension ref="B2:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2556,16 +2608,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="6" t="s">
@@ -2605,15 +2657,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3451,17 +3503,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3475,19 +3527,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="str">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3508,16 +3560,16 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="6" t="s">
@@ -3557,15 +3609,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3845,17 +3897,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3869,19 +3921,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="C48" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26" t="str">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3902,16 +3954,16 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="6" t="s">
@@ -3951,15 +4003,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4303,17 +4355,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4327,19 +4379,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="26" t="str">
+      <c r="C65" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26" t="str">
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4353,19 +4405,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="26" t="str">
+      <c r="C66" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26" t="str">
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4386,16 +4438,16 @@
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="6" t="s">
@@ -4435,15 +4487,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4661,17 +4713,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4685,19 +4737,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26" t="str">
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4718,16 +4770,16 @@
       </c>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="6" t="s">
@@ -4767,15 +4819,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -5057,17 +5109,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5081,19 +5133,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="26" t="str">
+      <c r="C94" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26" t="str">
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5114,16 +5166,16 @@
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="6" t="s">
@@ -5163,15 +5215,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5545,17 +5597,17 @@
       <c r="B111" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25" t="s">
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C112," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5569,19 +5621,19 @@
       <c r="B112" s="4">
         <v>1</v>
       </c>
-      <c r="C112" s="26" t="str">
+      <c r="C112" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26" t="str">
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
       <c r="J112" t="str">
         <f>_xlfn.CONCAT(IF(B112=1,"",", "),F112)</f>
         <v>BOARD_SEQ</v>
@@ -5602,16 +5654,16 @@
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="24"/>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="6" t="s">
@@ -5651,15 +5703,15 @@
       <c r="B116" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
       <c r="J116" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C115)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -6061,17 +6113,17 @@
       <c r="B130" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25" t="s">
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C115," ADD CONSTRAINT ",C131," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6085,19 +6137,19 @@
       <c r="B131" s="4">
         <v>1</v>
       </c>
-      <c r="C131" s="26" t="str">
+      <c r="C131" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C115)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26" t="str">
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21" t="str">
         <f>C118</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
       <c r="J131" t="str">
         <f>_xlfn.CONCAT(IF(B131=1,"",", "),F131)</f>
         <v>BOARD_SEQ</v>
@@ -6118,16 +6170,16 @@
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="24"/>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="6" t="s">
@@ -6167,15 +6219,15 @@
       <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
       <c r="J135" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C134)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6621,17 +6673,17 @@
       <c r="B150" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25" t="s">
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C134," ADD CONSTRAINT ",C151," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6645,19 +6697,19 @@
       <c r="B151" s="4">
         <v>1</v>
       </c>
-      <c r="C151" s="26" t="str">
+      <c r="C151" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C134)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26" t="str">
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21" t="str">
         <f>C137</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>BOARD_SEQ</v>
@@ -6671,19 +6723,19 @@
       <c r="B152" s="4">
         <v>2</v>
       </c>
-      <c r="C152" s="26" t="str">
+      <c r="C152" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C134)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26" t="str">
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21" t="str">
         <f>C138</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
       <c r="J152" t="str">
         <f>_xlfn.CONCAT(IF(B152=1,"",", "),F152)</f>
         <v>, ATCFILE_NUM</v>
@@ -6704,16 +6756,16 @@
       </c>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="24"/>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" s="6" t="s">
@@ -6753,15 +6805,15 @@
       <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
       <c r="J156" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C155)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6885,17 +6937,17 @@
       <c r="B161" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25" t="s">
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C155," ADD CONSTRAINT ",C162," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6909,19 +6961,19 @@
       <c r="B162" s="4">
         <v>1</v>
       </c>
-      <c r="C162" s="26" t="str">
+      <c r="C162" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C155)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="26" t="str">
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21" t="str">
         <f>C158</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G162" s="26"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="26"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
       <c r="J162" t="str">
         <f>_xlfn.CONCAT(IF(B162=1,"",", "),F162)</f>
         <v>SEQ_NM</v>
@@ -6942,16 +6994,16 @@
       </c>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="22"/>
-      <c r="I164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="24"/>
     </row>
     <row r="165" spans="2:11">
       <c r="B165" s="6" t="s">
@@ -6991,15 +7043,15 @@
       <c r="B166" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="C166" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="24"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
       <c r="J166" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C165)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -7344,17 +7396,17 @@
       <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25" t="s">
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C165," ADD CONSTRAINT ",C179," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7368,19 +7420,19 @@
       <c r="B179" s="4">
         <v>1</v>
       </c>
-      <c r="C179" s="26" t="str">
+      <c r="C179" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C165)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26" t="str">
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21" t="str">
         <f>C168</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G179" s="26"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="26"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
       <c r="J179" t="str">
         <f>_xlfn.CONCAT(IF(B179=1,"",", "),F179)</f>
         <v>POLI_SEQ</v>
@@ -7401,16 +7453,16 @@
       </c>
     </row>
     <row r="181" spans="2:11">
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="22"/>
-      <c r="I181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="24"/>
     </row>
     <row r="182" spans="2:11">
       <c r="B182" s="6" t="s">
@@ -7450,15 +7502,15 @@
       <c r="B183" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="24"/>
-      <c r="H183" s="24"/>
-      <c r="I183" s="24"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
       <c r="J183" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C182)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7995,17 +8047,17 @@
       <c r="B201" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
-      <c r="F201" s="25" t="s">
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G201" s="25"/>
-      <c r="H201" s="25"/>
-      <c r="I201" s="25"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C202," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -8019,19 +8071,19 @@
       <c r="B202" s="4">
         <v>1</v>
       </c>
-      <c r="C202" s="26" t="str">
+      <c r="C202" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C182)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="26" t="str">
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21" t="str">
         <f>C185</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G202" s="26"/>
-      <c r="H202" s="26"/>
-      <c r="I202" s="26"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
       <c r="J202" t="str">
         <f>_xlfn.CONCAT(IF(B202=1,"",", "),F202)</f>
         <v>MNU_SEQ</v>
@@ -8052,16 +8104,16 @@
       </c>
     </row>
     <row r="204" spans="2:11">
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="22"/>
-      <c r="H204" s="22"/>
-      <c r="I204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23"/>
+      <c r="I204" s="24"/>
     </row>
     <row r="205" spans="2:11">
       <c r="B205" s="6" t="s">
@@ -8101,15 +8153,15 @@
       <c r="B206" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="C206" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="24"/>
-      <c r="H206" s="24"/>
-      <c r="I206" s="24"/>
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="25"/>
+      <c r="I206" s="25"/>
       <c r="J206" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C205)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8422,17 +8474,17 @@
       <c r="B217" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="25" t="s">
+      <c r="C217" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
-      <c r="F217" s="25" t="s">
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G217" s="25"/>
-      <c r="H217" s="25"/>
-      <c r="I217" s="25"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="26"/>
+      <c r="I217" s="26"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C205," ADD CONSTRAINT ",C218," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8446,19 +8498,19 @@
       <c r="B218" s="4">
         <v>1</v>
       </c>
-      <c r="C218" s="26" t="str">
+      <c r="C218" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C205)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26" t="str">
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21" t="str">
         <f>C208</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G218" s="26"/>
-      <c r="H218" s="26"/>
-      <c r="I218" s="26"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
       <c r="J218" t="str">
         <f>_xlfn.CONCAT(IF(B218=1,"",", "),F218)</f>
         <v>ROLE_SEQ</v>
@@ -8479,16 +8531,16 @@
       </c>
     </row>
     <row r="220" spans="2:11">
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="22"/>
-      <c r="I220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="24"/>
     </row>
     <row r="221" spans="2:11">
       <c r="B221" s="6" t="s">
@@ -8528,15 +8580,15 @@
       <c r="B222" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C222" s="24" t="s">
+      <c r="C222" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="D222" s="24"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="24"/>
-      <c r="G222" s="24"/>
-      <c r="H222" s="24"/>
-      <c r="I222" s="24"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
+      <c r="F222" s="25"/>
+      <c r="G222" s="25"/>
+      <c r="H222" s="25"/>
+      <c r="I222" s="25"/>
       <c r="J222" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C221)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8724,17 +8776,17 @@
       <c r="B229" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="25"/>
-      <c r="E229" s="25"/>
-      <c r="F229" s="25" t="s">
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G229" s="25"/>
-      <c r="H229" s="25"/>
-      <c r="I229" s="25"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="26"/>
+      <c r="I229" s="26"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C221," ADD CONSTRAINT ",C231," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8748,19 +8800,19 @@
       <c r="B230" s="4">
         <v>1</v>
       </c>
-      <c r="C230" s="26" t="str">
+      <c r="C230" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C221)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="26" t="str">
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21" t="str">
         <f>C224</f>
         <v>USER_ID</v>
       </c>
-      <c r="G230" s="26"/>
-      <c r="H230" s="26"/>
-      <c r="I230" s="26"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>USER_ID</v>
@@ -8774,19 +8826,19 @@
       <c r="B231" s="4">
         <v>2</v>
       </c>
-      <c r="C231" s="26" t="str">
+      <c r="C231" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C221)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-      <c r="F231" s="26" t="str">
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21" t="str">
         <f>C225</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G231" s="26"/>
-      <c r="H231" s="26"/>
-      <c r="I231" s="26"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="21"/>
       <c r="J231" t="str">
         <f>_xlfn.CONCAT(IF(B231=1,"",", "),F231)</f>
         <v>, ROLE_SEQ</v>
@@ -8807,16 +8859,16 @@
       </c>
     </row>
     <row r="233" spans="2:11">
-      <c r="B233" s="21" t="s">
+      <c r="B233" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
-      <c r="E233" s="22"/>
-      <c r="F233" s="22"/>
-      <c r="G233" s="22"/>
-      <c r="H233" s="22"/>
-      <c r="I233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="24"/>
     </row>
     <row r="234" spans="2:11">
       <c r="B234" s="6" t="s">
@@ -8856,15 +8908,15 @@
       <c r="B235" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C235" s="24" t="s">
+      <c r="C235" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="D235" s="24"/>
-      <c r="E235" s="24"/>
-      <c r="F235" s="24"/>
-      <c r="G235" s="24"/>
-      <c r="H235" s="24"/>
-      <c r="I235" s="24"/>
+      <c r="D235" s="25"/>
+      <c r="E235" s="25"/>
+      <c r="F235" s="25"/>
+      <c r="G235" s="25"/>
+      <c r="H235" s="25"/>
+      <c r="I235" s="25"/>
       <c r="J235" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C234)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -9180,17 +9232,17 @@
       <c r="B246" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C246" s="25" t="s">
+      <c r="C246" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
-      <c r="F246" s="25" t="s">
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G246" s="25"/>
-      <c r="H246" s="25"/>
-      <c r="I246" s="25"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="26"/>
+      <c r="I246" s="26"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C234," ADD CONSTRAINT ",C248," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -9204,19 +9256,19 @@
       <c r="B247" s="4">
         <v>1</v>
       </c>
-      <c r="C247" s="26" t="str">
+      <c r="C247" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C234)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26" t="str">
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21" t="str">
         <f>C237</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G247" s="26"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>MNU_SEQ</v>
@@ -9230,19 +9282,19 @@
       <c r="B248" s="4">
         <v>2</v>
       </c>
-      <c r="C248" s="26" t="str">
+      <c r="C248" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C234)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="26" t="str">
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21" t="str">
         <f>C238</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G248" s="26"/>
-      <c r="H248" s="26"/>
-      <c r="I248" s="26"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
       <c r="J248" t="str">
         <f>_xlfn.CONCAT(IF(B248=1,"",", "),F248)</f>
         <v>, ROLE_SEQ</v>
@@ -9262,30 +9314,458 @@
         <v>);</v>
       </c>
     </row>
+    <row r="250" spans="2:11">
+      <c r="B250" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="23"/>
+      <c r="G250" s="23"/>
+      <c r="H250" s="23"/>
+      <c r="I250" s="24"/>
+    </row>
+    <row r="251" spans="2:11">
+      <c r="B251" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I251" s="7">
+        <v>45259</v>
+      </c>
+      <c r="J251" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C251,";")</f>
+        <v>DROP TABLE IF EXISTS TB_PLAY;</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11">
+      <c r="B252" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D252" s="25"/>
+      <c r="E252" s="25"/>
+      <c r="F252" s="25"/>
+      <c r="G252" s="25"/>
+      <c r="H252" s="25"/>
+      <c r="I252" s="25"/>
+      <c r="J252" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C251)</f>
+        <v>CREATE TABLE TB_PLAY</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11">
+      <c r="B253" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J253" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11">
+      <c r="B254" s="4">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F254" s="4">
+        <v>1</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J254" t="str">
+        <f>_xlfn.CONCAT(IF(B254=1,"",", "),C254," ",E254," ",G254,IF(H254="",""," DEFAULT "),H254, " COMMENT '",I254,"'")</f>
+        <v>PLAY_SEQ VARCHAR(10) NOT NULL COMMENT '놀이일련번호'</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11">
+      <c r="B255" s="4">
+        <v>2</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F255" s="4"/>
+      <c r="G255" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J255" t="str">
+        <f t="shared" ref="J255" si="42">_xlfn.CONCAT(IF(B255=1,"",", "),C255," ",E255," ",G255,IF(H255="",""," DEFAULT "),H255, " COMMENT '",I255,"'")</f>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '제목'</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11">
+      <c r="B256" s="4">
+        <v>3</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F256" s="4"/>
+      <c r="G256" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J256" t="str">
+        <f t="shared" ref="J256:J262" si="43">_xlfn.CONCAT(IF(B256=1,"",", "),C256," ",E256," ",G256,IF(H256="",""," DEFAULT "),H256, " COMMENT '",I256,"'")</f>
+        <v>, INTRO VARCHAR(300) NULL COMMENT '소개'</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10">
+      <c r="B257" s="4">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F257" s="4"/>
+      <c r="G257" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J257" t="str">
+        <f t="shared" si="43"/>
+        <v>, CN LONGTEXT NULL COMMENT '상세내용'</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10">
+      <c r="B258" s="4">
+        <v>6</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" s="4"/>
+      <c r="G258" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H258" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J258" t="str">
+        <f>_xlfn.CONCAT(IF(B258=1,"",", "),C258," ",E258," ",G258,IF(H258="",""," DEFAULT "),H258, " COMMENT '",I258,"'")</f>
+        <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10">
+      <c r="B259" s="4">
+        <v>7</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F259" s="4"/>
+      <c r="G259" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J259" t="str">
+        <f t="shared" si="43"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="B260" s="4">
+        <v>8</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F260" s="4"/>
+      <c r="G260" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J260" t="str">
+        <f t="shared" si="43"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10">
+      <c r="B261" s="4">
+        <v>9</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F261" s="4"/>
+      <c r="G261" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J261" t="str">
+        <f t="shared" si="43"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10">
+      <c r="B262" s="4">
+        <v>10</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F262" s="4"/>
+      <c r="G262" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J262" t="str">
+        <f t="shared" si="43"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10">
+      <c r="J263" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E251,"';")</f>
+        <v>) COMMENT '놀이';</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10">
+      <c r="B264" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G264" s="26"/>
+      <c r="H264" s="26"/>
+      <c r="I264" s="26"/>
+      <c r="J264" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C251," ADD CONSTRAINT ",C265," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_PLAY ADD CONSTRAINT PK_PLAY_SEQ PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10">
+      <c r="B265" s="4">
+        <v>1</v>
+      </c>
+      <c r="C265" s="21" t="str">
+        <f>_xlfn.CONCAT("PK_",C254)</f>
+        <v>PK_PLAY_SEQ</v>
+      </c>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21" t="str">
+        <f>C254</f>
+        <v>PLAY_SEQ</v>
+      </c>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21"/>
+      <c r="I265" s="21"/>
+      <c r="J265" t="str">
+        <f>_xlfn.CONCAT(IF(B265=1,"",", "),F265)</f>
+        <v>PLAY_SEQ</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10">
+      <c r="J266" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="C248:E248"/>
-    <mergeCell ref="F248:I248"/>
-    <mergeCell ref="B233:I233"/>
-    <mergeCell ref="C235:I235"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B220:I220"/>
-    <mergeCell ref="C222:I222"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="F231:I231"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="C206:I206"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="C218:E218"/>
-    <mergeCell ref="F218:I218"/>
+  <mergeCells count="98">
+    <mergeCell ref="B250:I250"/>
+    <mergeCell ref="C252:I252"/>
+    <mergeCell ref="C264:E264"/>
+    <mergeCell ref="F264:I264"/>
+    <mergeCell ref="C265:E265"/>
+    <mergeCell ref="F265:I265"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="C183:I183"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="B133:I133"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="B154:I154"/>
     <mergeCell ref="C178:E178"/>
     <mergeCell ref="F178:I178"/>
     <mergeCell ref="C179:E179"/>
@@ -9302,60 +9782,28 @@
     <mergeCell ref="F162:I162"/>
     <mergeCell ref="B164:I164"/>
     <mergeCell ref="C166:I166"/>
-    <mergeCell ref="C156:I156"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="B133:I133"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="C183:I183"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="C206:I206"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="C218:E218"/>
+    <mergeCell ref="F218:I218"/>
+    <mergeCell ref="B220:I220"/>
+    <mergeCell ref="C222:I222"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="F231:I231"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C248:E248"/>
+    <mergeCell ref="F248:I248"/>
+    <mergeCell ref="B233:I233"/>
+    <mergeCell ref="C235:I235"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9393,10 +9841,10 @@
       <c r="B2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="10" t="s">
@@ -9569,15 +10017,15 @@
       <c r="B12" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:27">
       <c r="B13" s="10" t="s">
@@ -9816,12 +10264,12 @@
       <c r="B19" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:27">
       <c r="B20" s="10" t="s">
@@ -9995,15 +10443,15 @@
       <c r="B27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="2:27">
       <c r="B28" s="10" t="s">
@@ -10750,13 +11198,13 @@
       <c r="B52" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="2:27">
       <c r="B53" s="10" t="s">
@@ -11371,20 +11819,20 @@
       <c r="B77" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
     </row>
     <row r="78" spans="2:27">
       <c r="B78" s="10" t="s">
@@ -12628,14 +13076,14 @@
       <c r="B106" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:27">
       <c r="B107" s="10" t="s">
@@ -12861,11 +13309,11 @@
       <c r="B115" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
     </row>
     <row r="116" spans="2:27">
       <c r="B116" s="10" t="s">
@@ -13465,30 +13913,30 @@
       <c r="B145" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
       <c r="AA145" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C77:N77"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="C145:H145"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C106:H106"/>
     <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C77:N77"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B80:N104">

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC3B8F-E362-4588-A810-F5A64971DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5067B-2F64-45A0-8E9F-FCA900B0DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="524">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1867,10 +1867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOARD_FREE_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1952,6 +1948,46 @@
   </si>
   <si>
     <t>'Y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPPER_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fa-gear"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fa-comment"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fa-store"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fa-ice-cream"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fa-baby-carriage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fa-circle-info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,7 +1995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2208,9 +2244,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2226,6 +2259,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2236,7 +2272,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2586,13 +2644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
-  <dimension ref="B2:K266"/>
+  <dimension ref="B2:K267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H267" sqref="H267"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
@@ -2607,19 +2665,19 @@
     <col min="11" max="11" width="120.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2653,19 +2711,19 @@
         <v>DROP TABLE IF EXISTS TB_USER;</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2675,7 +2733,7 @@
         <v>CREATE TABLE TB_USER</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2709,7 +2767,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2741,7 +2799,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2771,7 +2829,7 @@
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -2801,7 +2859,7 @@
         <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -2831,7 +2889,7 @@
         <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -2861,7 +2919,7 @@
         <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -2891,7 +2949,7 @@
         <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -2921,7 +2979,7 @@
         <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>8</v>
       </c>
@@ -2951,7 +3009,7 @@
         <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -2981,7 +3039,7 @@
         <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>10</v>
       </c>
@@ -3011,7 +3069,7 @@
         <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -3041,7 +3099,7 @@
         <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -3073,7 +3131,7 @@
         <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -3105,7 +3163,7 @@
         <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>14</v>
       </c>
@@ -3137,7 +3195,7 @@
         <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -3169,7 +3227,7 @@
         <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>16</v>
       </c>
@@ -3201,7 +3259,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -3233,7 +3291,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>18</v>
       </c>
@@ -3265,7 +3323,7 @@
         <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
         <v>19</v>
       </c>
@@ -3297,7 +3355,7 @@
         <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
         <v>20</v>
       </c>
@@ -3329,7 +3387,7 @@
         <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -3361,7 +3419,7 @@
         <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <v>22</v>
       </c>
@@ -3393,7 +3451,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>23</v>
       </c>
@@ -3425,7 +3483,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>24</v>
       </c>
@@ -3457,7 +3515,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>25</v>
       </c>
@@ -3489,7 +3547,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J31" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E3,"';")</f>
         <v>) COMMENT '사용자';</v>
@@ -3499,21 +3557,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3523,23 +3581,23 @@
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="str">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3549,7 +3607,7 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J34" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3559,19 +3617,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="2:11">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
@@ -3605,19 +3663,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3627,7 +3685,7 @@
         <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -3661,7 +3719,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -3693,7 +3751,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <v>2</v>
       </c>
@@ -3723,7 +3781,7 @@
         <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -3755,7 +3813,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
         <v>4</v>
       </c>
@@ -3787,7 +3845,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>5</v>
       </c>
@@ -3819,7 +3877,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
         <v>6</v>
       </c>
@@ -3851,7 +3909,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
         <v>7</v>
       </c>
@@ -3883,7 +3941,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J46" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E36,"';")</f>
         <v>) COMMENT '코드그룹';</v>
@@ -3893,21 +3951,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3917,23 +3975,23 @@
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="21" t="str">
+      <c r="C48" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21" t="str">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3943,7 +4001,7 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J49" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3953,19 +4011,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="2:11">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
@@ -3999,19 +4057,19 @@
         <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4021,7 +4079,7 @@
         <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
@@ -4055,7 +4113,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B54" s="4">
         <v>1</v>
       </c>
@@ -4087,7 +4145,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -4119,7 +4177,7 @@
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" s="4">
         <v>3</v>
       </c>
@@ -4151,7 +4209,7 @@
         <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" s="4">
         <v>4</v>
       </c>
@@ -4181,7 +4239,7 @@
         <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" s="4">
         <v>5</v>
       </c>
@@ -4213,7 +4271,7 @@
         <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B59" s="4">
         <v>6</v>
       </c>
@@ -4245,7 +4303,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B60" s="4">
         <v>7</v>
       </c>
@@ -4277,7 +4335,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B61" s="4">
         <v>8</v>
       </c>
@@ -4309,7 +4367,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B62" s="4">
         <v>9</v>
       </c>
@@ -4341,7 +4399,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J63" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E51,"';")</f>
         <v>) COMMENT '코드상세';</v>
@@ -4351,21 +4409,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26" t="s">
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4375,23 +4433,23 @@
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="21" t="str">
+      <c r="C65" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21" t="str">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4401,23 +4459,23 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="21" t="str">
+      <c r="C66" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21" t="str">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4427,7 +4485,7 @@
         <v>, CODE_DETAIL</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J67" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4437,19 +4495,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="22" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="2:11">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
@@ -4483,19 +4541,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4505,7 +4563,7 @@
         <v>CREATE TABLE TB_LOG_LOGIN</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B71" s="6" t="s">
         <v>32</v>
       </c>
@@ -4539,7 +4597,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B72" s="4">
         <v>1</v>
       </c>
@@ -4571,7 +4629,7 @@
         <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B73" s="4">
         <v>2</v>
       </c>
@@ -4603,7 +4661,7 @@
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B74" s="4">
         <v>3</v>
       </c>
@@ -4635,7 +4693,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B75" s="4">
         <v>4</v>
       </c>
@@ -4667,7 +4725,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B76" s="4">
         <v>5</v>
       </c>
@@ -4699,7 +4757,7 @@
         <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J77" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E69,"';")</f>
         <v>) COMMENT '로그인로그';</v>
@@ -4709,21 +4767,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4733,23 +4791,23 @@
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="21" t="str">
+      <c r="C79" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21" t="str">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4759,7 +4817,7 @@
         <v>LOGIN_SEQ</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J80" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4769,19 +4827,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="22" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B81" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="2:11">
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
@@ -4815,19 +4873,19 @@
         <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4837,7 +4895,7 @@
         <v>CREATE TABLE TB_LOG_REQ</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
@@ -4871,7 +4929,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B85" s="4">
         <v>1</v>
       </c>
@@ -4903,7 +4961,7 @@
         <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B86" s="4">
         <v>2</v>
       </c>
@@ -4935,7 +4993,7 @@
         <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B87" s="4">
         <v>3</v>
       </c>
@@ -4967,7 +5025,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B88" s="4">
         <v>4</v>
       </c>
@@ -4999,7 +5057,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B89" s="4">
         <v>5</v>
       </c>
@@ -5031,7 +5089,7 @@
         <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B90" s="4">
         <v>6</v>
       </c>
@@ -5063,7 +5121,7 @@
         <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B91" s="4">
         <v>7</v>
       </c>
@@ -5095,7 +5153,7 @@
         <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J92" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E82,"';")</f>
         <v>) COMMENT '요청로그';</v>
@@ -5105,21 +5163,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5129,23 +5187,23 @@
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="21" t="str">
+      <c r="C94" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21" t="str">
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -5155,7 +5213,7 @@
         <v>REQ_SEQ</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J95" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5165,19 +5223,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="22" t="s">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-    </row>
-    <row r="97" spans="2:11">
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
@@ -5211,19 +5269,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5233,7 +5291,7 @@
         <v>CREATE TABLE TB_BOARD_FREE</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
         <v>32</v>
       </c>
@@ -5267,7 +5325,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B100" s="4">
         <v>1</v>
       </c>
@@ -5301,12 +5359,12 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B101" s="4">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>188</v>
@@ -5331,7 +5389,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B102" s="4">
         <v>3</v>
       </c>
@@ -5361,12 +5419,12 @@
         <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B103" s="4">
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>190</v>
@@ -5391,15 +5449,15 @@
         <v>, BOARD_FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B104" s="4">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>55</v>
@@ -5412,7 +5470,7 @@
         <v>92</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" ref="J104" si="14">_xlfn.CONCAT(IF(B104=1,"",", "),C104," ",E104," ",G104,IF(H104="",""," DEFAULT "),H104, " COMMENT '",I104,"'")</f>
@@ -5423,7 +5481,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '자유게시판사용여부'</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B105" s="4">
         <v>6</v>
       </c>
@@ -5455,7 +5513,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B106" s="4">
         <v>7</v>
       </c>
@@ -5487,7 +5545,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B107" s="4">
         <v>8</v>
       </c>
@@ -5519,7 +5577,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B108" s="4">
         <v>9</v>
       </c>
@@ -5551,7 +5609,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B109" s="4">
         <v>10</v>
       </c>
@@ -5583,7 +5641,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J110" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E97,"';")</f>
         <v>) COMMENT '자유게시판';</v>
@@ -5593,21 +5651,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B111" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26" t="s">
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C112," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5617,23 +5675,23 @@
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B112" s="4">
         <v>1</v>
       </c>
-      <c r="C112" s="21" t="str">
+      <c r="C112" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21" t="str">
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="21"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
       <c r="J112" t="str">
         <f>_xlfn.CONCAT(IF(B112=1,"",", "),F112)</f>
         <v>BOARD_SEQ</v>
@@ -5643,7 +5701,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J113" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5653,19 +5711,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="22" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B114" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="24"/>
-    </row>
-    <row r="115" spans="2:11">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="23"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B115" s="6" t="s">
         <v>3</v>
       </c>
@@ -5699,19 +5757,19 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B116" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
       <c r="J116" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C115)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5721,7 +5779,7 @@
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B117" s="6" t="s">
         <v>32</v>
       </c>
@@ -5755,7 +5813,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B118" s="4">
         <v>1</v>
       </c>
@@ -5789,7 +5847,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B119" s="4">
         <v>2</v>
       </c>
@@ -5819,7 +5877,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B120" s="4">
         <v>3</v>
       </c>
@@ -5849,7 +5907,7 @@
         <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B121" s="4">
         <v>4</v>
       </c>
@@ -5879,7 +5937,7 @@
         <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B122" s="4">
         <v>5</v>
       </c>
@@ -5909,7 +5967,7 @@
         <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B123" s="4">
         <v>6</v>
       </c>
@@ -5939,7 +5997,7 @@
         <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B124" s="4">
         <v>7</v>
       </c>
@@ -5971,7 +6029,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B125" s="4">
         <v>8</v>
       </c>
@@ -6003,7 +6061,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B126" s="4">
         <v>9</v>
       </c>
@@ -6035,7 +6093,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B127" s="4">
         <v>10</v>
       </c>
@@ -6067,7 +6125,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B128" s="4">
         <v>11</v>
       </c>
@@ -6099,7 +6157,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J129" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E115,"';")</f>
         <v>) COMMENT '공지사항';</v>
@@ -6109,21 +6167,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B130" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26" t="s">
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C115," ADD CONSTRAINT ",C131," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -6133,23 +6191,23 @@
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B131" s="4">
         <v>1</v>
       </c>
-      <c r="C131" s="21" t="str">
+      <c r="C131" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C115)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21" t="str">
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26" t="str">
         <f>C118</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
       <c r="J131" t="str">
         <f>_xlfn.CONCAT(IF(B131=1,"",", "),F131)</f>
         <v>BOARD_SEQ</v>
@@ -6159,7 +6217,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J132" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6169,19 +6227,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="22" t="s">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B133" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="24"/>
-    </row>
-    <row r="134" spans="2:11">
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="23"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
@@ -6215,19 +6273,19 @@
         <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
       <c r="J135" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C134)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6237,7 +6295,7 @@
         <v>CREATE TABLE TB_ATCFILE</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B136" s="6" t="s">
         <v>32</v>
       </c>
@@ -6271,7 +6329,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B137" s="4">
         <v>1</v>
       </c>
@@ -6305,7 +6363,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B138" s="4">
         <v>2</v>
       </c>
@@ -6339,7 +6397,7 @@
         <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B139" s="4">
         <v>3</v>
       </c>
@@ -6371,7 +6429,7 @@
         <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B140" s="4">
         <v>4</v>
       </c>
@@ -6403,7 +6461,7 @@
         <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B141" s="4">
         <v>5</v>
       </c>
@@ -6435,7 +6493,7 @@
         <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B142" s="4">
         <v>6</v>
       </c>
@@ -6467,7 +6525,7 @@
         <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B143" s="4">
         <v>7</v>
       </c>
@@ -6499,7 +6557,7 @@
         <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B144" s="4">
         <v>8</v>
       </c>
@@ -6531,7 +6589,7 @@
         <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B145" s="4">
         <v>9</v>
       </c>
@@ -6563,7 +6621,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B146" s="4">
         <v>10</v>
       </c>
@@ -6595,7 +6653,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B147" s="4">
         <v>11</v>
       </c>
@@ -6627,7 +6685,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B148" s="4">
         <v>12</v>
       </c>
@@ -6659,7 +6717,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J149" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E134,"';")</f>
         <v>) COMMENT '첨부파일';</v>
@@ -6669,21 +6727,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B150" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26" t="s">
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C134," ADD CONSTRAINT ",C151," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6693,23 +6751,23 @@
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B151" s="4">
         <v>1</v>
       </c>
-      <c r="C151" s="21" t="str">
+      <c r="C151" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C134)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="str">
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26" t="str">
         <f>C137</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>BOARD_SEQ</v>
@@ -6719,23 +6777,23 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B152" s="4">
         <v>2</v>
       </c>
-      <c r="C152" s="21" t="str">
+      <c r="C152" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C134)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21" t="str">
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26" t="str">
         <f>C138</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
       <c r="J152" t="str">
         <f>_xlfn.CONCAT(IF(B152=1,"",", "),F152)</f>
         <v>, ATCFILE_NUM</v>
@@ -6745,7 +6803,7 @@
         <v>, ATCFILE_NUM</v>
       </c>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J153" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6755,19 +6813,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="22" t="s">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B154" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="24"/>
-    </row>
-    <row r="155" spans="2:11">
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="23"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B155" s="6" t="s">
         <v>3</v>
       </c>
@@ -6801,19 +6859,19 @@
         <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
       <c r="J156" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C155)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6823,7 +6881,7 @@
         <v>CREATE TABLE TB_SEQUENCE</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B157" s="6" t="s">
         <v>32</v>
       </c>
@@ -6857,7 +6915,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B158" s="4">
         <v>1</v>
       </c>
@@ -6891,7 +6949,7 @@
         <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B159" s="4">
         <v>2</v>
       </c>
@@ -6923,7 +6981,7 @@
         <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J160" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E155,"';")</f>
         <v>) COMMENT '시퀀스';</v>
@@ -6933,21 +6991,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B161" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26" t="s">
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C155," ADD CONSTRAINT ",C162," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6957,23 +7015,23 @@
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B162" s="4">
         <v>1</v>
       </c>
-      <c r="C162" s="21" t="str">
+      <c r="C162" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C155)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="str">
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26" t="str">
         <f>C158</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
       <c r="J162" t="str">
         <f>_xlfn.CONCAT(IF(B162=1,"",", "),F162)</f>
         <v>SEQ_NM</v>
@@ -6983,7 +7041,7 @@
         <v>SEQ_NM</v>
       </c>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J163" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6993,19 +7051,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="164" spans="2:11">
-      <c r="B164" s="22" t="s">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B164" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="23"/>
-      <c r="I164" s="24"/>
-    </row>
-    <row r="165" spans="2:11">
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="23"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B165" s="6" t="s">
         <v>3</v>
       </c>
@@ -7039,19 +7097,19 @@
         <v>DROP TABLE IF EXISTS TB_POLI;</v>
       </c>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B166" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="25"/>
-      <c r="I166" s="25"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
       <c r="J166" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C165)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -7061,7 +7119,7 @@
         <v>CREATE TABLE TB_POLI</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B167" s="6" t="s">
         <v>32</v>
       </c>
@@ -7095,7 +7153,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B168" s="4">
         <v>1</v>
       </c>
@@ -7129,7 +7187,7 @@
         <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B169" s="4">
         <v>2</v>
       </c>
@@ -7159,7 +7217,7 @@
         <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B170" s="4">
         <v>3</v>
       </c>
@@ -7190,7 +7248,7 @@
         <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B171" s="4">
         <v>4</v>
       </c>
@@ -7222,7 +7280,7 @@
         <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B172" s="4">
         <v>5</v>
       </c>
@@ -7254,7 +7312,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B173" s="4">
         <v>9</v>
       </c>
@@ -7286,7 +7344,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B174" s="4">
         <v>10</v>
       </c>
@@ -7318,7 +7376,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B175" s="4">
         <v>11</v>
       </c>
@@ -7350,7 +7408,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="176" spans="2:11">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B176" s="4">
         <v>12</v>
       </c>
@@ -7382,7 +7440,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J177" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E165,"';")</f>
         <v>) COMMENT '정책';</v>
@@ -7392,21 +7450,21 @@
         <v>);</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C178" s="26" t="s">
+      <c r="C178" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26" t="s">
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C165," ADD CONSTRAINT ",C179," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7416,23 +7474,23 @@
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="179" spans="2:11">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B179" s="4">
         <v>1</v>
       </c>
-      <c r="C179" s="21" t="str">
+      <c r="C179" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C165)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21" t="str">
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26" t="str">
         <f>C168</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G179" s="21"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="21"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
       <c r="J179" t="str">
         <f>_xlfn.CONCAT(IF(B179=1,"",", "),F179)</f>
         <v>POLI_SEQ</v>
@@ -7442,7 +7500,7 @@
         <v>POLI_SEQ</v>
       </c>
     </row>
-    <row r="180" spans="2:11">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J180" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7452,19 +7510,19 @@
         <v>);</v>
       </c>
     </row>
-    <row r="181" spans="2:11">
-      <c r="B181" s="22" t="s">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B181" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C181" s="23"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="23"/>
-      <c r="H181" s="23"/>
-      <c r="I181" s="24"/>
-    </row>
-    <row r="182" spans="2:11">
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="23"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B182" s="6" t="s">
         <v>3</v>
       </c>
@@ -7498,19 +7556,19 @@
         <v>DROP TABLE IF EXISTS TB_MNU;</v>
       </c>
     </row>
-    <row r="183" spans="2:11">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B183" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C183" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
       <c r="J183" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C182)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7520,7 +7578,7 @@
         <v>CREATE TABLE TB_MNU</v>
       </c>
     </row>
-    <row r="184" spans="2:11">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B184" s="6" t="s">
         <v>32</v>
       </c>
@@ -7554,7 +7612,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="185" spans="2:11">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B185" s="4">
         <v>1</v>
       </c>
@@ -7588,7 +7646,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="186" spans="2:11">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B186" s="4">
         <v>2</v>
       </c>
@@ -7620,7 +7678,7 @@
         <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
     </row>
-    <row r="187" spans="2:11">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B187" s="4">
         <v>3</v>
       </c>
@@ -7646,11 +7704,11 @@
         <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
       <c r="K187" t="str">
-        <f t="shared" ref="K187:K199" si="22">_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
+        <f t="shared" ref="K187:K200" si="22">_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
         <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
     </row>
-    <row r="188" spans="2:11">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B188" s="4">
         <v>4</v>
       </c>
@@ -7681,12 +7739,12 @@
         <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
       </c>
     </row>
-    <row r="189" spans="2:11">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B189" s="4">
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>263</v>
@@ -7705,7 +7763,7 @@
         <v>263</v>
       </c>
       <c r="J189" t="str">
-        <f t="shared" ref="J189:J199" si="23">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
+        <f t="shared" ref="J189:J200" si="23">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
         <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
       <c r="K189" t="str">
@@ -7713,7 +7771,7 @@
         <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
     </row>
-    <row r="190" spans="2:11">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B190" s="4">
         <v>6</v>
       </c>
@@ -7745,7 +7803,7 @@
         <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
     </row>
-    <row r="191" spans="2:11">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B191" s="4">
         <v>7</v>
       </c>
@@ -7777,7 +7835,7 @@
         <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
     </row>
-    <row r="192" spans="2:11">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B192" s="4">
         <v>8</v>
       </c>
@@ -7809,7 +7867,7 @@
         <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
-    <row r="193" spans="2:11">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B193" s="4">
         <v>9</v>
       </c>
@@ -7841,7 +7899,7 @@
         <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
     </row>
-    <row r="194" spans="2:11">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B194" s="4">
         <v>10</v>
       </c>
@@ -7873,7 +7931,7 @@
         <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
     </row>
-    <row r="195" spans="2:11">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B195" s="4">
         <v>11</v>
       </c>
@@ -7905,813 +7963,813 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
     </row>
-    <row r="196" spans="2:11">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B196" s="4">
         <v>12</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>64</v>
+        <v>515</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>193</v>
+        <v>516</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>193</v>
+        <v>516</v>
       </c>
       <c r="J196" t="str">
-        <f t="shared" si="23"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f t="shared" ref="J196" si="30">_xlfn.CONCAT(IF(B196=1,"",", "),C196," ",E196," ",G196,IF(H196="",""," DEFAULT "),H196, " COMMENT '",I196,"'")</f>
+        <v>, MNU_ICON VARCHAR(50) NULL COMMENT '메뉴아이콘'</v>
       </c>
       <c r="K196" t="str">
-        <f t="shared" si="22"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11">
+        <f t="shared" ref="K196" si="31">_xlfn.CONCAT(IF(B196=1,"",", "),C196," ",E196," ",G196,IF(H196="",""," DEFAULT "),H196, " COMMENT '",I196,"'")</f>
+        <v>, MNU_ICON VARCHAR(50) NULL COMMENT '메뉴아이콘'</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B197" s="4">
         <v>13</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="J197" t="str">
         <f t="shared" si="23"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
       <c r="K197" t="str">
         <f t="shared" si="22"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11">
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B198" s="4">
         <v>14</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="J198" t="str">
         <f t="shared" si="23"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
       <c r="K198" t="str">
         <f t="shared" si="22"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11">
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B199" s="4">
         <v>15</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="J199" t="str">
         <f t="shared" si="23"/>
-        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
       <c r="K199" t="str">
         <f t="shared" si="22"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B200" s="4">
+        <v>16</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F200" s="4"/>
+      <c r="G200" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J200" t="str">
+        <f t="shared" si="23"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-    </row>
-    <row r="200" spans="2:11">
-      <c r="J200" t="str">
+      <c r="K200" t="str">
+        <f t="shared" si="22"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J201" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E182,"';")</f>
         <v>) COMMENT '메뉴';</v>
       </c>
-      <c r="K200" t="str">
+      <c r="K201" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="201" spans="2:11">
-      <c r="B201" s="6" t="s">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B202" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C202" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26" t="s">
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G201" s="26"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
-      <c r="J201" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C202," PRIMARY KEY (")</f>
+      <c r="G202" s="25"/>
+      <c r="H202" s="25"/>
+      <c r="I202" s="25"/>
+      <c r="J202" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C203," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
-      <c r="K201" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C202," PRIMARY KEY (")</f>
+      <c r="K202" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C182," ADD CONSTRAINT ",C203," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="202" spans="2:11">
-      <c r="B202" s="4">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B203" s="4">
         <v>1</v>
       </c>
-      <c r="C202" s="21" t="str">
+      <c r="C203" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C182)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21" t="str">
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+      <c r="F203" s="26" t="str">
         <f>C185</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
-      <c r="I202" s="21"/>
-      <c r="J202" t="str">
-        <f>_xlfn.CONCAT(IF(B202=1,"",", "),F202)</f>
+      <c r="G203" s="26"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="26"/>
+      <c r="J203" t="str">
+        <f>_xlfn.CONCAT(IF(B203=1,"",", "),F203)</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="K202" t="str">
-        <f>_xlfn.CONCAT(IF(B202=1,"",", "),F202)</f>
+      <c r="K203" t="str">
+        <f>_xlfn.CONCAT(IF(B203=1,"",", "),F203)</f>
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="203" spans="2:11">
-      <c r="J203" t="str">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J204" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K203" t="str">
+      <c r="K204" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="204" spans="2:11">
-      <c r="B204" s="22" t="s">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B205" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C204" s="23"/>
-      <c r="D204" s="23"/>
-      <c r="E204" s="23"/>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23"/>
-      <c r="H204" s="23"/>
-      <c r="I204" s="24"/>
-    </row>
-    <row r="205" spans="2:11">
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="23"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B206" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C206" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D206" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="E206" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="F206" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G205" s="4" t="s">
+      <c r="G206" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H205" s="6" t="s">
+      <c r="H206" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I205" s="7">
+      <c r="I206" s="7">
         <v>44945</v>
       </c>
-      <c r="J205" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C205,";")</f>
+      <c r="J206" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C206,";")</f>
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
-      <c r="K205" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C205,";")</f>
+      <c r="K206" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C206,";")</f>
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
     </row>
-    <row r="206" spans="2:11">
-      <c r="B206" s="6" t="s">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B207" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C207" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
-      <c r="F206" s="25"/>
-      <c r="G206" s="25"/>
-      <c r="H206" s="25"/>
-      <c r="I206" s="25"/>
-      <c r="J206" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C205)</f>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="24"/>
+      <c r="I207" s="24"/>
+      <c r="J207" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C206)</f>
         <v>CREATE TABLE TB_ROLE</v>
       </c>
-      <c r="K206" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C205)</f>
+      <c r="K207" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C206)</f>
         <v>CREATE TABLE TB_ROLE</v>
       </c>
     </row>
-    <row r="207" spans="2:11">
-      <c r="B207" s="6" t="s">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B208" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C208" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D208" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F208" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G207" s="6" t="s">
+      <c r="G208" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H207" s="6" t="s">
+      <c r="H208" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I207" s="6" t="s">
+      <c r="I208" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J207" t="str">
+      <c r="J208" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K207" t="str">
+      <c r="K208" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="208" spans="2:11">
-      <c r="B208" s="4">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B209" s="4">
         <v>1</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F208" s="4">
+      <c r="F209" s="4">
         <v>1</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J208" t="str">
-        <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
-        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-      <c r="K208" t="str">
-        <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
-        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11">
-      <c r="B209" s="4">
-        <v>2</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F209" s="4"/>
-      <c r="G209" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
+        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
       <c r="K209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
-      </c>
-    </row>
-    <row r="210" spans="2:11">
+        <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B210" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H210" s="1"/>
+      <c r="H210" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I210" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
-        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
       </c>
       <c r="K210" t="str">
-        <f t="shared" ref="K210:K215" si="30">_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
-        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
-      </c>
-    </row>
-    <row r="211" spans="2:11">
+        <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
+        <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B211" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F211" s="4"/>
       <c r="G211" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H211" s="1"/>
       <c r="I211" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J211" t="str">
         <f>_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,IF(H211="",""," DEFAULT "),H211, " COMMENT '",I211,"'")</f>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
       <c r="K211" t="str">
-        <f t="shared" si="30"/>
-        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11">
+        <f t="shared" ref="K211:K216" si="32">_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,IF(H211="",""," DEFAULT "),H211, " COMMENT '",I211,"'")</f>
+        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B212" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F212" s="4"/>
+        <v>272</v>
+      </c>
       <c r="G212" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I212" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J212" t="str">
+        <f>_xlfn.CONCAT(IF(B212=1,"",", "),C212," ",E212," ",G212,IF(H212="",""," DEFAULT "),H212, " COMMENT '",I212,"'")</f>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+      </c>
+      <c r="K212" t="str">
+        <f t="shared" si="32"/>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B213" s="4">
+        <v>5</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J212" t="str">
-        <f t="shared" ref="J212:J215" si="31">_xlfn.CONCAT(IF(B212=1,"",", "),C212," ",E212," ",G212,IF(H212="",""," DEFAULT "),H212, " COMMENT '",I212,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K212" t="str">
-        <f t="shared" si="30"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11">
-      <c r="B213" s="4">
-        <v>6</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E213" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I213" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J213" t="str">
+        <f t="shared" ref="J213:J216" si="33">_xlfn.CONCAT(IF(B213=1,"",", "),C213," ",E213," ",G213,IF(H213="",""," DEFAULT "),H213, " COMMENT '",I213,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K213" t="str">
+        <f t="shared" si="32"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B214" s="4">
+        <v>6</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J213" t="str">
-        <f t="shared" si="31"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K213" t="str">
-        <f t="shared" si="30"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="214" spans="2:11">
-      <c r="B214" s="4">
-        <v>7</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E214" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I214" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J214" t="str">
+        <f t="shared" si="33"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K214" t="str">
+        <f t="shared" si="32"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B215" s="4">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J214" t="str">
-        <f t="shared" si="31"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K214" t="str">
-        <f t="shared" si="30"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="215" spans="2:11">
-      <c r="B215" s="4">
-        <v>8</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E215" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H215" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J215" t="str">
+        <f t="shared" si="33"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K215" t="str">
+        <f t="shared" si="32"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B216" s="4">
+        <v>8</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F216" s="4"/>
+      <c r="G216" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H216" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="I216" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J215" t="str">
-        <f t="shared" si="31"/>
+      <c r="J216" t="str">
+        <f t="shared" si="33"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K215" t="str">
-        <f t="shared" si="30"/>
+      <c r="K216" t="str">
+        <f t="shared" si="32"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="216" spans="2:11">
-      <c r="J216" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E205,"';")</f>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J217" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E206,"';")</f>
         <v>) COMMENT '권한그룹';</v>
       </c>
-      <c r="K216" t="str">
+      <c r="K217" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="217" spans="2:11">
-      <c r="B217" s="6" t="s">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B218" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="26" t="s">
+      <c r="C218" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26" t="s">
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G217" s="26"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
-      <c r="J217" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C205," ADD CONSTRAINT ",C218," PRIMARY KEY (")</f>
+      <c r="G218" s="25"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C206," ADD CONSTRAINT ",C219," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
-      <c r="K217" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C205," ADD CONSTRAINT ",C218," PRIMARY KEY (")</f>
+      <c r="K218" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C206," ADD CONSTRAINT ",C219," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="218" spans="2:11">
-      <c r="B218" s="4">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B219" s="4">
         <v>1</v>
       </c>
-      <c r="C218" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C205)</f>
+      <c r="C219" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C206)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D218" s="21"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="21" t="str">
-        <f>C208</f>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26" t="str">
+        <f>C209</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
-      <c r="I218" s="21"/>
-      <c r="J218" t="str">
-        <f>_xlfn.CONCAT(IF(B218=1,"",", "),F218)</f>
+      <c r="G219" s="26"/>
+      <c r="H219" s="26"/>
+      <c r="I219" s="26"/>
+      <c r="J219" t="str">
+        <f>_xlfn.CONCAT(IF(B219=1,"",", "),F219)</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="K218" t="str">
-        <f>_xlfn.CONCAT(IF(B218=1,"",", "),F218)</f>
+      <c r="K219" t="str">
+        <f>_xlfn.CONCAT(IF(B219=1,"",", "),F219)</f>
         <v>ROLE_SEQ</v>
       </c>
     </row>
-    <row r="219" spans="2:11">
-      <c r="J219" t="str">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J220" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K219" t="str">
+      <c r="K220" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="220" spans="2:11">
-      <c r="B220" s="22" t="s">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B221" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="23"/>
-      <c r="F220" s="23"/>
-      <c r="G220" s="23"/>
-      <c r="H220" s="23"/>
-      <c r="I220" s="24"/>
-    </row>
-    <row r="221" spans="2:11">
-      <c r="B221" s="6" t="s">
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="23"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B222" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D222" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E221" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="F222" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G221" s="4" t="s">
+      <c r="G222" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H221" s="6" t="s">
+      <c r="H222" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I221" s="7">
+      <c r="I222" s="7">
         <v>44945</v>
       </c>
-      <c r="J221" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C221,";")</f>
+      <c r="J222" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C222,";")</f>
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
-      <c r="K221" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C221,";")</f>
+      <c r="K222" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C222,";")</f>
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="222" spans="2:11">
-      <c r="B222" s="6" t="s">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B223" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C222" s="25" t="s">
+      <c r="C223" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
-      <c r="F222" s="25"/>
-      <c r="G222" s="25"/>
-      <c r="H222" s="25"/>
-      <c r="I222" s="25"/>
-      <c r="J222" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C221)</f>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="24"/>
+      <c r="I223" s="24"/>
+      <c r="J223" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C222)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
-      <c r="K222" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C221)</f>
+      <c r="K223" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C222)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
     </row>
-    <row r="223" spans="2:11">
-      <c r="B223" s="6" t="s">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B224" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C224" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D224" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E224" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F223" s="6" t="s">
+      <c r="F224" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G223" s="6" t="s">
+      <c r="G224" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H223" s="6" t="s">
+      <c r="H224" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I223" s="6" t="s">
+      <c r="I224" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J223" t="str">
+      <c r="J224" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K223" t="str">
+      <c r="K224" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="224" spans="2:11">
-      <c r="B224" s="4">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B225" s="4">
         <v>1</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E224" s="4" t="s">
+      <c r="E225" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F224" s="4">
+      <c r="F225" s="4">
         <v>1</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1" t="s">
+      <c r="H225" s="1"/>
+      <c r="I225" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="J224" t="str">
-        <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
-      </c>
-      <c r="K224" t="str">
-        <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11">
-      <c r="B225" s="4">
-        <v>2</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F225" s="4">
-        <v>2</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J225" t="str">
         <f>_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K225" t="str">
         <f>_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11">
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B226" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F226" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="F226" s="4">
+        <v>2</v>
+      </c>
       <c r="G226" s="1" t="s">
         <v>41</v>
       </c>
@@ -8719,357 +8777,357 @@
         <v>91</v>
       </c>
       <c r="I226" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J226" t="str">
+        <f>_xlfn.CONCAT(IF(B226=1,"",", "),C226," ",E226," ",G226,IF(H226="",""," DEFAULT "),H226, " COMMENT '",I226,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+      <c r="K226" t="str">
+        <f>_xlfn.CONCAT(IF(B226=1,"",", "),C226," ",E226," ",G226,IF(H226="",""," DEFAULT "),H226, " COMMENT '",I226,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B227" s="4">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J226" t="str">
-        <f t="shared" ref="J226:J227" si="32">_xlfn.CONCAT(IF(B226=1,"",", "),C226," ",E226," ",G226,IF(H226="",""," DEFAULT "),H226, " COMMENT '",I226,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-      <c r="K226" t="str">
-        <f t="shared" ref="K226:K227" si="33">_xlfn.CONCAT(IF(B226=1,"",", "),C226," ",E226," ",G226,IF(H226="",""," DEFAULT "),H226, " COMMENT '",I226,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="227" spans="2:11">
-      <c r="B227" s="4">
-        <v>4</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E227" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H227" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J227" t="str">
+        <f t="shared" ref="J227:J228" si="34">_xlfn.CONCAT(IF(B227=1,"",", "),C227," ",E227," ",G227,IF(H227="",""," DEFAULT "),H227, " COMMENT '",I227,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K227" t="str">
+        <f t="shared" ref="K227:K228" si="35">_xlfn.CONCAT(IF(B227=1,"",", "),C227," ",E227," ",G227,IF(H227="",""," DEFAULT "),H227, " COMMENT '",I227,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B228" s="4">
+        <v>4</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F228" s="4"/>
+      <c r="G228" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H228" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="I228" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J227" t="str">
-        <f t="shared" si="32"/>
+      <c r="J228" t="str">
+        <f t="shared" si="34"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
-      <c r="K227" t="str">
-        <f t="shared" si="33"/>
+      <c r="K228" t="str">
+        <f t="shared" si="35"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
-      <c r="J228" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E221,"';")</f>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J229" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E222,"';")</f>
         <v>) COMMENT '사용자_권한그룹_매핑';</v>
       </c>
-      <c r="K228" t="str">
+      <c r="K229" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="229" spans="2:11">
-      <c r="B229" s="6" t="s">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B230" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C229" s="26" t="s">
+      <c r="C230" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26" t="s">
+      <c r="D230" s="25"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G229" s="26"/>
-      <c r="H229" s="26"/>
-      <c r="I229" s="26"/>
-      <c r="J229" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C221," ADD CONSTRAINT ",C231," PRIMARY KEY (")</f>
+      <c r="G230" s="25"/>
+      <c r="H230" s="25"/>
+      <c r="I230" s="25"/>
+      <c r="J230" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C222," ADD CONSTRAINT ",C232," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
-      <c r="K229" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C221," ADD CONSTRAINT ",C231," PRIMARY KEY (")</f>
+      <c r="K230" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C222," ADD CONSTRAINT ",C232," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="230" spans="2:11">
-      <c r="B230" s="4">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B231" s="4">
         <v>1</v>
       </c>
-      <c r="C230" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C221)</f>
+      <c r="C231" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C222)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21" t="str">
-        <f>C224</f>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26" t="str">
+        <f>C225</f>
         <v>USER_ID</v>
       </c>
-      <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
-      <c r="J230" t="str">
-        <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
-        <v>USER_ID</v>
-      </c>
-      <c r="K230" t="str">
-        <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
-        <v>USER_ID</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11">
-      <c r="B231" s="4">
-        <v>2</v>
-      </c>
-      <c r="C231" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C221)</f>
-        <v>PK_TB_USER_ROLE_MAP</v>
-      </c>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
-      <c r="F231" s="21" t="str">
-        <f>C225</f>
-        <v>ROLE_SEQ</v>
-      </c>
-      <c r="G231" s="21"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="21"/>
+      <c r="G231" s="26"/>
+      <c r="H231" s="26"/>
+      <c r="I231" s="26"/>
       <c r="J231" t="str">
         <f>_xlfn.CONCAT(IF(B231=1,"",", "),F231)</f>
-        <v>, ROLE_SEQ</v>
+        <v>USER_ID</v>
       </c>
       <c r="K231" t="str">
         <f>_xlfn.CONCAT(IF(B231=1,"",", "),F231)</f>
+        <v>USER_ID</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B232" s="4">
+        <v>2</v>
+      </c>
+      <c r="C232" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C222)</f>
+        <v>PK_TB_USER_ROLE_MAP</v>
+      </c>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="26" t="str">
+        <f>C226</f>
+        <v>ROLE_SEQ</v>
+      </c>
+      <c r="G232" s="26"/>
+      <c r="H232" s="26"/>
+      <c r="I232" s="26"/>
+      <c r="J232" t="str">
+        <f>_xlfn.CONCAT(IF(B232=1,"",", "),F232)</f>
         <v>, ROLE_SEQ</v>
       </c>
-    </row>
-    <row r="232" spans="2:11">
-      <c r="J232" t="str">
+      <c r="K232" t="str">
+        <f>_xlfn.CONCAT(IF(B232=1,"",", "),F232)</f>
+        <v>, ROLE_SEQ</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J233" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K232" t="str">
+      <c r="K233" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="233" spans="2:11">
-      <c r="B233" s="22" t="s">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B234" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C233" s="23"/>
-      <c r="D233" s="23"/>
-      <c r="E233" s="23"/>
-      <c r="F233" s="23"/>
-      <c r="G233" s="23"/>
-      <c r="H233" s="23"/>
-      <c r="I233" s="24"/>
-    </row>
-    <row r="234" spans="2:11">
-      <c r="B234" s="6" t="s">
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="23"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B235" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C235" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D234" s="6" t="s">
+      <c r="D235" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E234" s="4" t="s">
+      <c r="E235" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="F235" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G234" s="4" t="s">
+      <c r="G235" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H234" s="6" t="s">
+      <c r="H235" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I234" s="7">
+      <c r="I235" s="7">
         <v>44945</v>
       </c>
-      <c r="J234" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C234,";")</f>
+      <c r="J235" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C235,";")</f>
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
-      <c r="K234" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C234,";")</f>
+      <c r="K235" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C235,";")</f>
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
     </row>
-    <row r="235" spans="2:11">
-      <c r="B235" s="6" t="s">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B236" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C235" s="25" t="s">
+      <c r="C236" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D235" s="25"/>
-      <c r="E235" s="25"/>
-      <c r="F235" s="25"/>
-      <c r="G235" s="25"/>
-      <c r="H235" s="25"/>
-      <c r="I235" s="25"/>
-      <c r="J235" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C234)</f>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
+      <c r="J236" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C235)</f>
         <v>CREATE TABLE TB_AUTH</v>
       </c>
-      <c r="K235" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C234)</f>
+      <c r="K236" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C235)</f>
         <v>CREATE TABLE TB_AUTH</v>
       </c>
     </row>
-    <row r="236" spans="2:11">
-      <c r="B236" s="6" t="s">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B237" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C237" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D236" s="6" t="s">
+      <c r="D237" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E237" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F236" s="6" t="s">
+      <c r="F237" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G236" s="6" t="s">
+      <c r="G237" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H236" s="6" t="s">
+      <c r="H237" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I236" s="6" t="s">
+      <c r="I237" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J236" t="str">
+      <c r="J237" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-      <c r="K236" t="str">
+      <c r="K237" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="237" spans="2:11">
-      <c r="B237" s="4">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B238" s="4">
         <v>1</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F237" s="4">
-        <v>1</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J237" t="str">
-        <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
-        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
-      </c>
-      <c r="K237" t="str">
-        <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
-        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11">
-      <c r="B238" s="4">
-        <v>2</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>104</v>
       </c>
       <c r="F238" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H238" s="1"/>
       <c r="I238" s="1" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="J238" t="str">
         <f>_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
       <c r="K238" t="str">
         <f>_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
-        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11">
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B239" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F239" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="F239" s="4">
+        <v>2</v>
+      </c>
       <c r="G239" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="J239" t="str">
-        <f t="shared" ref="J239" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
-        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+        <f>_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
       <c r="K239" t="str">
-        <f t="shared" ref="K239" si="35">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
-        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11">
+        <f>_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
+        <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B240" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="1" t="s">
@@ -9079,391 +9137,397 @@
         <v>91</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J240" t="str">
         <f t="shared" ref="J240" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
-        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
       <c r="K240" t="str">
         <f t="shared" ref="K240" si="37">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
-        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
-      </c>
-    </row>
-    <row r="241" spans="2:11">
+        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B241" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="J241" t="str">
-        <f t="shared" ref="J241:J244" si="38">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f t="shared" ref="J241" si="38">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
+        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
       <c r="K241" t="str">
-        <f t="shared" ref="K241:K244" si="39">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="242" spans="2:11">
+        <f t="shared" ref="K241" si="39">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
+        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B242" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I242" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J242" t="str">
+        <f t="shared" ref="J242:J245" si="40">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K242" t="str">
+        <f t="shared" ref="K242:K245" si="41">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B243" s="4">
+        <v>6</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J242" t="str">
-        <f t="shared" si="38"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-      <c r="K242" t="str">
-        <f t="shared" si="39"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="243" spans="2:11">
-      <c r="B243" s="4">
-        <v>7</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E243" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I243" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J243" t="str">
+        <f t="shared" si="40"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K243" t="str">
+        <f t="shared" si="41"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B244" s="4">
+        <v>7</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J243" t="str">
-        <f t="shared" ref="J243" si="40">_xlfn.CONCAT(IF(B243=1,"",", "),C243," ",E243," ",G243,IF(H243="",""," DEFAULT "),H243, " COMMENT '",I243,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-      <c r="K243" t="str">
-        <f t="shared" ref="K243" si="41">_xlfn.CONCAT(IF(B243=1,"",", "),C243," ",E243," ",G243,IF(H243="",""," DEFAULT "),H243, " COMMENT '",I243,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="244" spans="2:11">
-      <c r="B244" s="4">
-        <v>8</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E244" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H244" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J244" t="str">
+        <f t="shared" ref="J244" si="42">_xlfn.CONCAT(IF(B244=1,"",", "),C244," ",E244," ",G244,IF(H244="",""," DEFAULT "),H244, " COMMENT '",I244,"'")</f>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K244" t="str">
+        <f t="shared" ref="K244" si="43">_xlfn.CONCAT(IF(B244=1,"",", "),C244," ",E244," ",G244,IF(H244="",""," DEFAULT "),H244, " COMMENT '",I244,"'")</f>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B245" s="4">
+        <v>8</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F245" s="4"/>
+      <c r="G245" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H245" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I244" s="1" t="s">
+      <c r="I245" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J244" t="str">
-        <f t="shared" si="38"/>
+      <c r="J245" t="str">
+        <f t="shared" si="40"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K244" t="str">
-        <f t="shared" si="39"/>
+      <c r="K245" t="str">
+        <f t="shared" si="41"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="245" spans="2:11">
-      <c r="J245" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E234,"';")</f>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J246" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E235,"';")</f>
         <v>) COMMENT '권한';</v>
       </c>
-      <c r="K245" t="str">
+      <c r="K246" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="246" spans="2:11">
-      <c r="B246" s="6" t="s">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B247" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C246" s="26" t="s">
+      <c r="C247" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-      <c r="F246" s="26" t="s">
+      <c r="D247" s="25"/>
+      <c r="E247" s="25"/>
+      <c r="F247" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G246" s="26"/>
-      <c r="H246" s="26"/>
-      <c r="I246" s="26"/>
-      <c r="J246" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C234," ADD CONSTRAINT ",C248," PRIMARY KEY (")</f>
+      <c r="G247" s="25"/>
+      <c r="H247" s="25"/>
+      <c r="I247" s="25"/>
+      <c r="J247" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C235," ADD CONSTRAINT ",C249," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
-      <c r="K246" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C234," ADD CONSTRAINT ",C248," PRIMARY KEY (")</f>
+      <c r="K247" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C235," ADD CONSTRAINT ",C249," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="247" spans="2:11">
-      <c r="B247" s="4">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B248" s="4">
         <v>1</v>
       </c>
-      <c r="C247" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C234)</f>
+      <c r="C248" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C235)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21" t="str">
-        <f>C237</f>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="26" t="str">
+        <f>C238</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
-      <c r="J247" t="str">
-        <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
-        <v>MNU_SEQ</v>
-      </c>
-      <c r="K247" t="str">
-        <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
-        <v>MNU_SEQ</v>
-      </c>
-    </row>
-    <row r="248" spans="2:11">
-      <c r="B248" s="4">
-        <v>2</v>
-      </c>
-      <c r="C248" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C234)</f>
-        <v>PK_TB_AUTH</v>
-      </c>
-      <c r="D248" s="21"/>
-      <c r="E248" s="21"/>
-      <c r="F248" s="21" t="str">
-        <f>C238</f>
-        <v>ROLE_SEQ</v>
-      </c>
-      <c r="G248" s="21"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="21"/>
+      <c r="G248" s="26"/>
+      <c r="H248" s="26"/>
+      <c r="I248" s="26"/>
       <c r="J248" t="str">
         <f>_xlfn.CONCAT(IF(B248=1,"",", "),F248)</f>
-        <v>, ROLE_SEQ</v>
+        <v>MNU_SEQ</v>
       </c>
       <c r="K248" t="str">
         <f>_xlfn.CONCAT(IF(B248=1,"",", "),F248)</f>
+        <v>MNU_SEQ</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B249" s="4">
+        <v>2</v>
+      </c>
+      <c r="C249" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C235)</f>
+        <v>PK_TB_AUTH</v>
+      </c>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+      <c r="F249" s="26" t="str">
+        <f>C239</f>
+        <v>ROLE_SEQ</v>
+      </c>
+      <c r="G249" s="26"/>
+      <c r="H249" s="26"/>
+      <c r="I249" s="26"/>
+      <c r="J249" t="str">
+        <f>_xlfn.CONCAT(IF(B249=1,"",", "),F249)</f>
         <v>, ROLE_SEQ</v>
       </c>
-    </row>
-    <row r="249" spans="2:11">
-      <c r="J249" t="str">
+      <c r="K249" t="str">
+        <f>_xlfn.CONCAT(IF(B249=1,"",", "),F249)</f>
+        <v>, ROLE_SEQ</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J250" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K249" t="str">
+      <c r="K250" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="250" spans="2:11">
-      <c r="B250" s="22" t="s">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B251" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C250" s="23"/>
-      <c r="D250" s="23"/>
-      <c r="E250" s="23"/>
-      <c r="F250" s="23"/>
-      <c r="G250" s="23"/>
-      <c r="H250" s="23"/>
-      <c r="I250" s="24"/>
-    </row>
-    <row r="251" spans="2:11">
-      <c r="B251" s="6" t="s">
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="22"/>
+      <c r="I251" s="23"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B252" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C252" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="F252" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I252" s="7">
+        <v>45259</v>
+      </c>
+      <c r="J252" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C252,";")</f>
+        <v>DROP TABLE IF EXISTS TB_PLAY;</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B253" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D253" s="24"/>
+      <c r="E253" s="24"/>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="24"/>
+      <c r="I253" s="24"/>
+      <c r="J253" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C252)</f>
+        <v>CREATE TABLE TB_PLAY</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B254" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E251" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H251" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I251" s="7">
-        <v>45259</v>
-      </c>
-      <c r="J251" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C251,";")</f>
-        <v>DROP TABLE IF EXISTS TB_PLAY;</v>
-      </c>
-    </row>
-    <row r="252" spans="2:11">
-      <c r="B252" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D252" s="25"/>
-      <c r="E252" s="25"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="25"/>
-      <c r="H252" s="25"/>
-      <c r="I252" s="25"/>
-      <c r="J252" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C251)</f>
-        <v>CREATE TABLE TB_PLAY</v>
-      </c>
-    </row>
-    <row r="253" spans="2:11">
-      <c r="B253" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D253" s="6" t="s">
+      <c r="D254" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="E254" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F253" s="6" t="s">
+      <c r="F254" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G253" s="6" t="s">
+      <c r="G254" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H253" s="6" t="s">
+      <c r="H254" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I253" s="6" t="s">
+      <c r="I254" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J253" t="str">
+      <c r="J254" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
     </row>
-    <row r="254" spans="2:11">
-      <c r="B254" s="4">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B255" s="4">
         <v>1</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C255" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E254" s="4" t="s">
+      <c r="E255" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F254" s="4">
+      <c r="F255" s="4">
         <v>1</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J254" t="str">
-        <f>_xlfn.CONCAT(IF(B254=1,"",", "),C254," ",E254," ",G254,IF(H254="",""," DEFAULT "),H254, " COMMENT '",I254,"'")</f>
-        <v>PLAY_SEQ VARCHAR(10) NOT NULL COMMENT '놀이일련번호'</v>
-      </c>
-    </row>
-    <row r="255" spans="2:11">
-      <c r="B255" s="4">
-        <v>2</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F255" s="4"/>
-      <c r="G255" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J255" t="str">
-        <f t="shared" ref="J255" si="42">_xlfn.CONCAT(IF(B255=1,"",", "),C255," ",E255," ",G255,IF(H255="",""," DEFAULT "),H255, " COMMENT '",I255,"'")</f>
-        <v>, TITLE VARCHAR(300) NULL COMMENT '제목'</v>
-      </c>
-    </row>
-    <row r="256" spans="2:11">
+        <f>_xlfn.CONCAT(IF(B255=1,"",", "),C255," ",E255," ",G255,IF(H255="",""," DEFAULT "),H255, " COMMENT '",I255,"'")</f>
+        <v>PLAY_SEQ VARCHAR(10) NOT NULL COMMENT '놀이일련번호'</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B256" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>507</v>
@@ -9480,22 +9544,22 @@
         <v>507</v>
       </c>
       <c r="J256" t="str">
-        <f t="shared" ref="J256:J262" si="43">_xlfn.CONCAT(IF(B256=1,"",", "),C256," ",E256," ",G256,IF(H256="",""," DEFAULT "),H256, " COMMENT '",I256,"'")</f>
-        <v>, INTRO VARCHAR(300) NULL COMMENT '소개'</v>
-      </c>
-    </row>
-    <row r="257" spans="2:10">
+        <f t="shared" ref="J256" si="44">_xlfn.CONCAT(IF(B256=1,"",", "),C256," ",E256," ",G256,IF(H256="",""," DEFAULT "),H256, " COMMENT '",I256,"'")</f>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '제목'</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B257" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="1" t="s">
@@ -9503,269 +9567,257 @@
       </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J257" t="str">
+        <f t="shared" ref="J257:J263" si="45">_xlfn.CONCAT(IF(B257=1,"",", "),C257," ",E257," ",G257,IF(H257="",""," DEFAULT "),H257, " COMMENT '",I257,"'")</f>
+        <v>, INTRO VARCHAR(300) NULL COMMENT '소개'</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B258" s="4">
+        <v>4</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J257" t="str">
-        <f t="shared" si="43"/>
-        <v>, CN LONGTEXT NULL COMMENT '상세내용'</v>
-      </c>
-    </row>
-    <row r="258" spans="2:10">
-      <c r="B258" s="4">
-        <v>6</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="D258" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>512</v>
+        <v>249</v>
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H258" s="8" t="s">
-        <v>514</v>
-      </c>
+      <c r="H258" s="1"/>
       <c r="I258" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J258" t="str">
+        <f t="shared" si="45"/>
+        <v>, CN LONGTEXT NULL COMMENT '상세내용'</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B259" s="4">
+        <v>6</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E259" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="J258" t="str">
-        <f>_xlfn.CONCAT(IF(B258=1,"",", "),C258," ",E258," ",G258,IF(H258="",""," DEFAULT "),H258, " COMMENT '",I258,"'")</f>
-        <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
-      </c>
-    </row>
-    <row r="259" spans="2:10">
-      <c r="B259" s="4">
-        <v>7</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>513</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>295</v>
+        <v>510</v>
       </c>
       <c r="J259" t="str">
-        <f t="shared" si="43"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="260" spans="2:10">
+        <f>_xlfn.CONCAT(IF(B259=1,"",", "),C259," ",E259," ",G259,IF(H259="",""," DEFAULT "),H259, " COMMENT '",I259,"'")</f>
+        <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B260" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I260" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J260" t="str">
+        <f t="shared" si="45"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B261" s="4">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J260" t="str">
-        <f t="shared" si="43"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="261" spans="2:10">
-      <c r="B261" s="4">
-        <v>9</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E261" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I261" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J261" t="str">
+        <f t="shared" si="45"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B262" s="4">
+        <v>9</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J261" t="str">
-        <f t="shared" si="43"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="262" spans="2:10">
-      <c r="B262" s="4">
-        <v>10</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E262" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H262" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J262" t="str">
+        <f t="shared" si="45"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B263" s="4">
+        <v>10</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F263" s="4"/>
+      <c r="G263" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I262" s="1" t="s">
+      <c r="I263" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J262" t="str">
-        <f t="shared" si="43"/>
+      <c r="J263" t="str">
+        <f t="shared" si="45"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="263" spans="2:10">
-      <c r="J263" t="str">
-        <f>_xlfn.CONCAT(") COMMENT '",E251,"';")</f>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J264" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",E252,"';")</f>
         <v>) COMMENT '놀이';</v>
       </c>
     </row>
-    <row r="264" spans="2:10">
-      <c r="B264" s="6" t="s">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B265" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C264" s="26" t="s">
+      <c r="C265" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
-      <c r="F264" s="26" t="s">
+      <c r="D265" s="25"/>
+      <c r="E265" s="25"/>
+      <c r="F265" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G264" s="26"/>
-      <c r="H264" s="26"/>
-      <c r="I264" s="26"/>
-      <c r="J264" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C251," ADD CONSTRAINT ",C265," PRIMARY KEY (")</f>
+      <c r="G265" s="25"/>
+      <c r="H265" s="25"/>
+      <c r="I265" s="25"/>
+      <c r="J265" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C252," ADD CONSTRAINT ",C266," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_PLAY ADD CONSTRAINT PK_PLAY_SEQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="265" spans="2:10">
-      <c r="B265" s="4">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B266" s="4">
         <v>1</v>
       </c>
-      <c r="C265" s="21" t="str">
-        <f>_xlfn.CONCAT("PK_",C254)</f>
+      <c r="C266" s="26" t="str">
+        <f>_xlfn.CONCAT("PK_",C255)</f>
         <v>PK_PLAY_SEQ</v>
       </c>
-      <c r="D265" s="21"/>
-      <c r="E265" s="21"/>
-      <c r="F265" s="21" t="str">
-        <f>C254</f>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="26" t="str">
+        <f>C255</f>
         <v>PLAY_SEQ</v>
       </c>
-      <c r="G265" s="21"/>
-      <c r="H265" s="21"/>
-      <c r="I265" s="21"/>
-      <c r="J265" t="str">
-        <f>_xlfn.CONCAT(IF(B265=1,"",", "),F265)</f>
+      <c r="G266" s="26"/>
+      <c r="H266" s="26"/>
+      <c r="I266" s="26"/>
+      <c r="J266" t="str">
+        <f>_xlfn.CONCAT(IF(B266=1,"",", "),F266)</f>
         <v>PLAY_SEQ</v>
       </c>
     </row>
-    <row r="266" spans="2:10">
-      <c r="J266" t="str">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J267" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B250:I250"/>
-    <mergeCell ref="C252:I252"/>
-    <mergeCell ref="C264:E264"/>
-    <mergeCell ref="F264:I264"/>
-    <mergeCell ref="C265:E265"/>
-    <mergeCell ref="F265:I265"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="C183:I183"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="C156:I156"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="B133:I133"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="C249:E249"/>
+    <mergeCell ref="F249:I249"/>
+    <mergeCell ref="B234:I234"/>
+    <mergeCell ref="C236:I236"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="C248:E248"/>
+    <mergeCell ref="F248:I248"/>
+    <mergeCell ref="B221:I221"/>
+    <mergeCell ref="C223:I223"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="F232:I232"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="F231:I231"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="C207:I207"/>
+    <mergeCell ref="C218:E218"/>
+    <mergeCell ref="F218:I218"/>
+    <mergeCell ref="C219:E219"/>
+    <mergeCell ref="F219:I219"/>
     <mergeCell ref="C178:E178"/>
     <mergeCell ref="F178:I178"/>
     <mergeCell ref="C179:E179"/>
@@ -9782,28 +9834,66 @@
     <mergeCell ref="F162:I162"/>
     <mergeCell ref="B164:I164"/>
     <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="C206:I206"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="C218:E218"/>
-    <mergeCell ref="F218:I218"/>
-    <mergeCell ref="B220:I220"/>
-    <mergeCell ref="C222:I222"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="F231:I231"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C248:E248"/>
-    <mergeCell ref="F248:I248"/>
-    <mergeCell ref="B233:I233"/>
-    <mergeCell ref="C235:I235"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="B133:I133"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="C183:I183"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="B251:I251"/>
+    <mergeCell ref="C253:I253"/>
+    <mergeCell ref="C265:E265"/>
+    <mergeCell ref="F265:I265"/>
+    <mergeCell ref="C266:E266"/>
+    <mergeCell ref="F266:I266"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9814,11 +9904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA145"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="Z124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA146" sqref="AA146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
@@ -9832,21 +9922,21 @@
     <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.59765625" customWidth="1"/>
-    <col min="15" max="26" width="12.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="145.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="16.59765625" customWidth="1"/>
+    <col min="16" max="26" width="12.5" customWidth="1"/>
+    <col min="27" max="27" width="196.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:27">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -9880,7 +9970,7 @@
         <v>TRUNCATE TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -9912,7 +10002,7 @@
         <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9928,7 +10018,7 @@
         <v>("POLI_SEQ",0)</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -9944,7 +10034,7 @@
         <v>,("LOGIN_SEQ",0)</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -9960,7 +10050,7 @@
         <v>,("BOARD_SEQ",0)</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -9976,7 +10066,7 @@
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -9992,7 +10082,7 @@
         <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -10008,26 +10098,26 @@
         <v>,("ROLE_SEQ",0)</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:27">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -10074,7 +10164,7 @@
         <v>TRUNCATE TB_POLI;</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -10114,7 +10204,7 @@
         <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -10161,7 +10251,7 @@
         <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -10208,7 +10298,7 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -10255,23 +10345,23 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -10307,7 +10397,7 @@
         <v>TRUNCATE TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -10346,7 +10436,7 @@
         <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -10368,7 +10458,7 @@
         <v>("LOGIN_CODE","로그인 유형","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -10390,7 +10480,7 @@
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -10412,15 +10502,15 @@
         <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>203</v>
@@ -10434,26 +10524,26 @@
         <v>,("BOARD_FREE_CODE","자유게시판 분류 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>1</v>
       </c>
@@ -10492,7 +10582,7 @@
         <v>TRUNCATE TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
@@ -10538,7 +10628,7 @@
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -10569,7 +10659,7 @@
         <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>2</v>
       </c>
@@ -10600,7 +10690,7 @@
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>3</v>
       </c>
@@ -10631,7 +10721,7 @@
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="33" spans="2:27">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>4</v>
       </c>
@@ -10662,7 +10752,7 @@
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="34" spans="2:27">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>5</v>
       </c>
@@ -10693,7 +10783,7 @@
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="35" spans="2:27">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>6</v>
       </c>
@@ -10724,7 +10814,7 @@
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="36" spans="2:27">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>7</v>
       </c>
@@ -10755,7 +10845,7 @@
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="37" spans="2:27">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>8</v>
       </c>
@@ -10786,7 +10876,7 @@
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="38" spans="2:27">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>9</v>
       </c>
@@ -10817,7 +10907,7 @@
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="39" spans="2:27">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>10</v>
       </c>
@@ -10848,7 +10938,7 @@
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="40" spans="2:27">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>11</v>
       </c>
@@ -10879,7 +10969,7 @@
         <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="41" spans="2:27">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>12</v>
       </c>
@@ -10910,7 +11000,7 @@
         <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="42" spans="2:27">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>13</v>
       </c>
@@ -10941,7 +11031,7 @@
         <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="43" spans="2:27">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>14</v>
       </c>
@@ -10972,7 +11062,7 @@
         <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="44" spans="2:27">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>15</v>
       </c>
@@ -11003,7 +11093,7 @@
         <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>16</v>
       </c>
@@ -11034,7 +11124,7 @@
         <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="46" spans="2:27">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>17</v>
       </c>
@@ -11065,7 +11155,7 @@
         <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="47" spans="2:27">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>18</v>
       </c>
@@ -11096,18 +11186,18 @@
         <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>200</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>227</v>
@@ -11127,12 +11217,12 @@
         <v>,("BOARD_FREE_CODE","01","잡담","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="49" spans="2:27">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>217</v>
@@ -11158,18 +11248,18 @@
         <v>,("BOARD_FREE_CODE","02","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>227</v>
@@ -11189,24 +11279,24 @@
         <v>,("BOARD_FREE_CODE","03","질문","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="51" spans="2:27">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="2:27">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="2:27">
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
@@ -11246,7 +11336,7 @@
         <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
-    <row r="54" spans="2:27">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>3</v>
       </c>
@@ -11285,7 +11375,7 @@
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="55" spans="2:27">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -11310,7 +11400,7 @@
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="56" spans="2:27">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>2</v>
       </c>
@@ -11335,7 +11425,7 @@
         <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="57" spans="2:27">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>3</v>
       </c>
@@ -11360,7 +11450,7 @@
         <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="58" spans="2:27">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>4</v>
       </c>
@@ -11385,7 +11475,7 @@
         <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="59" spans="2:27">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>5</v>
       </c>
@@ -11410,7 +11500,7 @@
         <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="60" spans="2:27">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>6</v>
       </c>
@@ -11435,7 +11525,7 @@
         <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="61" spans="2:27">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>7</v>
       </c>
@@ -11460,7 +11550,7 @@
         <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>8</v>
       </c>
@@ -11485,7 +11575,7 @@
         <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="63" spans="2:27">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>9</v>
       </c>
@@ -11510,7 +11600,7 @@
         <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="64" spans="2:27">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>10</v>
       </c>
@@ -11535,7 +11625,7 @@
         <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="65" spans="2:27">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>11</v>
       </c>
@@ -11560,7 +11650,7 @@
         <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="66" spans="2:27">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>12</v>
       </c>
@@ -11585,7 +11675,7 @@
         <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="67" spans="2:27">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>13</v>
       </c>
@@ -11610,7 +11700,7 @@
         <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="68" spans="2:27">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>14</v>
       </c>
@@ -11635,7 +11725,7 @@
         <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>15</v>
       </c>
@@ -11660,7 +11750,7 @@
         <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>16</v>
       </c>
@@ -11685,7 +11775,7 @@
         <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="71" spans="2:27">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>17</v>
       </c>
@@ -11710,7 +11800,7 @@
         <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="72" spans="2:27">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>18</v>
       </c>
@@ -11735,7 +11825,7 @@
         <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="73" spans="2:27">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>19</v>
       </c>
@@ -11760,7 +11850,7 @@
         <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="74" spans="2:27">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>20</v>
       </c>
@@ -11785,7 +11875,7 @@
         <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="75" spans="2:27">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>20</v>
       </c>
@@ -11810,31 +11900,32 @@
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="76" spans="2:27">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA76" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="2:27">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B77" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-    </row>
-    <row r="78" spans="2:27">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B78" s="10" t="s">
         <v>1</v>
       </c>
@@ -11869,9 +11960,12 @@
         <v>408</v>
       </c>
       <c r="M78" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="N78" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="O78" s="5" t="s">
         <v>294</v>
       </c>
       <c r="R78" s="13"/>
@@ -11888,7 +11982,7 @@
         <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
-    <row r="79" spans="2:27">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -11923,9 +12017,12 @@
         <v>268</v>
       </c>
       <c r="M79" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="N79" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="O79" s="5" t="s">
         <v>296</v>
       </c>
       <c r="R79" s="13"/>
@@ -11939,10 +12036,10 @@
       <c r="Z79" s="13"/>
       <c r="AA79" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C77, "(", _xlfn.TEXTJOIN(",",TRUE,C78:Z78),") VALUES")</f>
-        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="80" spans="2:27">
+        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,MNU_ICON,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>1</v>
       </c>
@@ -11977,17 +12074,20 @@
         <v>1</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>203</v>
+        <v>517</v>
       </c>
       <c r="N80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ref="AA80:AA101" si="12">_xlfn.CONCAT(IF(B80=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
-        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="81" spans="2:27">
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"fa-gear","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -12022,17 +12122,20 @@
         <v>1</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA81" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="82" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>3</v>
       </c>
@@ -12067,17 +12170,20 @@
         <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O82" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA82" t="str">
         <f t="shared" ref="AA82:AA85" si="13">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -12112,17 +12218,20 @@
         <v>3</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA83" t="str">
         <f>_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -12157,17 +12266,20 @@
         <v>4</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="14">_xlfn.CONCAT(IF(B84=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C84:Z84),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="85" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>5</v>
       </c>
@@ -12202,17 +12314,20 @@
         <v>5</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA85" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>6</v>
       </c>
@@ -12247,17 +12362,20 @@
         <v>6</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA86" t="str">
         <f t="shared" ref="AA86" si="15">_xlfn.CONCAT(IF(B86=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="87" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>7</v>
       </c>
@@ -12292,17 +12410,20 @@
         <v>2</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>203</v>
+        <v>518</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA87" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="88" spans="2:27" s="20" customFormat="1">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"fa-comment","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>8</v>
       </c>
@@ -12336,18 +12457,21 @@
       <c r="L88" s="18">
         <v>1</v>
       </c>
-      <c r="M88" s="18" t="s">
-        <v>203</v>
+      <c r="M88" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="N88" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="O88" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AA88" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" s="20" customFormat="1">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>9</v>
       </c>
@@ -12381,18 +12505,21 @@
       <c r="L89" s="18">
         <v>2</v>
       </c>
-      <c r="M89" s="18" t="s">
-        <v>203</v>
+      <c r="M89" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="N89" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="O89" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AA89" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" s="20" customFormat="1">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>10</v>
       </c>
@@ -12426,18 +12553,21 @@
       <c r="L90" s="18">
         <v>3</v>
       </c>
-      <c r="M90" s="18" t="s">
-        <v>203</v>
+      <c r="M90" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="N90" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="O90" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AA90" s="20" t="str">
         <f t="shared" ref="AA90:AA92" si="16">_xlfn.CONCAT(IF(B90=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C90:Z90),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="91" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>11</v>
       </c>
@@ -12472,17 +12602,20 @@
         <v>3</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>203</v>
+        <v>519</v>
       </c>
       <c r="N91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA91" t="str">
         <f t="shared" si="16"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="92" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"fa-store","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>12</v>
       </c>
@@ -12517,17 +12650,20 @@
         <v>1</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA92" t="str">
         <f t="shared" si="16"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="93" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>13</v>
       </c>
@@ -12562,17 +12698,20 @@
         <v>2</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O93" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="94" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
         <v>14</v>
       </c>
@@ -12586,7 +12725,7 @@
         <v>312</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>306</v>
+        <v>469</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>484</v>
@@ -12607,17 +12746,20 @@
         <v>4</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
       <c r="N94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA94" t="str">
         <f t="shared" ref="AA94:AA96" si="17">_xlfn.CONCAT(IF(B94=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C94:Z94),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","#","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="95" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active/play","#","Y","Y",1,"활동 관련 대메뉴",4,"fa-ice-cream","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
         <v>15</v>
       </c>
@@ -12652,17 +12794,20 @@
         <v>1</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA95" t="str">
         <f t="shared" ref="AA95" si="18">_xlfn.CONCAT(IF(B95=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C95:Z95),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="96" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
         <v>16</v>
       </c>
@@ -12697,17 +12842,20 @@
         <v>2</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA96" t="str">
         <f t="shared" si="17"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="97" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
         <v>17</v>
       </c>
@@ -12742,17 +12890,20 @@
         <v>3</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA97" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="98" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <v>18</v>
       </c>
@@ -12787,17 +12938,20 @@
         <v>5</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>203</v>
+        <v>521</v>
       </c>
       <c r="N98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O98" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA98" t="str">
         <f t="shared" ref="AA98:AA99" si="19">_xlfn.CONCAT(IF(B98=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C98:Z98),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="99" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"fa-baby-carriage","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <v>19</v>
       </c>
@@ -12832,17 +12986,20 @@
         <v>1</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O99" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA99" t="str">
         <f t="shared" si="19"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="100" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
         <v>20</v>
       </c>
@@ -12877,17 +13034,20 @@
         <v>2</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O100" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA100" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="101" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B101" s="1">
         <v>21</v>
       </c>
@@ -12922,17 +13082,20 @@
         <v>6</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>203</v>
+        <v>522</v>
       </c>
       <c r="N101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O101" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA101" t="str">
         <f t="shared" si="12"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="102" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"fa-circle-info","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
         <v>22</v>
       </c>
@@ -12967,17 +13130,20 @@
         <v>1</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O102" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA102" t="str">
         <f t="shared" ref="AA102:AA104" si="20">_xlfn.CONCAT(IF(B102=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C102:Z102),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="103" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
         <v>23</v>
       </c>
@@ -13012,17 +13178,20 @@
         <v>7</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O103" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA103" t="str">
         <f t="shared" si="20"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
         <v>24</v>
       </c>
@@ -13057,35 +13226,38 @@
         <v>1</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="N104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O104" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA104" t="str">
         <f t="shared" si="20"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA105" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="2:27">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="2:27">
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B107" s="10" t="s">
         <v>1</v>
       </c>
@@ -13111,6 +13283,7 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
@@ -13125,7 +13298,7 @@
         <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
-    <row r="108" spans="2:27">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>3</v>
       </c>
@@ -13151,6 +13324,7 @@
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
       <c r="T108" s="13"/>
@@ -13165,7 +13339,7 @@
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="109" spans="2:27">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
         <v>1</v>
       </c>
@@ -13192,7 +13366,7 @@
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="110" spans="2:27">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B110" s="1">
         <v>2</v>
       </c>
@@ -13219,7 +13393,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="111" spans="2:27">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B111" s="1">
         <v>2</v>
       </c>
@@ -13246,7 +13420,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="112" spans="2:27">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B112" s="1">
         <v>3</v>
       </c>
@@ -13273,7 +13447,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="113" spans="2:27">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B113" s="1">
         <v>4</v>
       </c>
@@ -13300,22 +13474,22 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="114" spans="2:27">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA114" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="2:27">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B115" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-    </row>
-    <row r="116" spans="2:27">
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B116" s="10" t="s">
         <v>1</v>
       </c>
@@ -13333,6 +13507,7 @@
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
       <c r="T116" s="13"/>
@@ -13347,7 +13522,7 @@
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="117" spans="2:27">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B117" s="10" t="s">
         <v>3</v>
       </c>
@@ -13365,6 +13540,7 @@
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
       <c r="T117" s="13"/>
@@ -13379,7 +13555,7 @@
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
-    <row r="118" spans="2:27">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
         <v>1</v>
       </c>
@@ -13397,7 +13573,7 @@
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="119" spans="2:27">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -13415,7 +13591,7 @@
         <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="120" spans="2:27">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
         <v>3</v>
       </c>
@@ -13433,7 +13609,7 @@
         <v>,("user2",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="121" spans="2:27">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
         <v>4</v>
       </c>
@@ -13451,7 +13627,7 @@
         <v>,("user3",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="122" spans="2:27">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
         <v>5</v>
       </c>
@@ -13469,7 +13645,7 @@
         <v>,("user4",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="123" spans="2:27">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
         <v>6</v>
       </c>
@@ -13487,7 +13663,7 @@
         <v>,("user5",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="124" spans="2:27">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
         <v>7</v>
       </c>
@@ -13505,7 +13681,7 @@
         <v>,("user6",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="125" spans="2:27">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
         <v>8</v>
       </c>
@@ -13523,7 +13699,7 @@
         <v>,("user7",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="126" spans="2:27">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
         <v>9</v>
       </c>
@@ -13541,7 +13717,7 @@
         <v>,("user8",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="127" spans="2:27">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
         <v>10</v>
       </c>
@@ -13559,7 +13735,7 @@
         <v>,("user9",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="128" spans="2:27">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
         <v>11</v>
       </c>
@@ -13577,7 +13753,7 @@
         <v>,("user10",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="129" spans="2:27">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
         <v>12</v>
       </c>
@@ -13595,7 +13771,7 @@
         <v>,("user11",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="130" spans="2:27">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
         <v>13</v>
       </c>
@@ -13613,7 +13789,7 @@
         <v>,("user12",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="131" spans="2:27">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
         <v>14</v>
       </c>
@@ -13631,7 +13807,7 @@
         <v>,("user13",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="132" spans="2:27">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
         <v>15</v>
       </c>
@@ -13649,7 +13825,7 @@
         <v>,("user14",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="133" spans="2:27">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
         <v>16</v>
       </c>
@@ -13667,7 +13843,7 @@
         <v>,("user15",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="134" spans="2:27">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B134" s="1">
         <v>17</v>
       </c>
@@ -13685,7 +13861,7 @@
         <v>,("user16",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="135" spans="2:27">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B135" s="1">
         <v>18</v>
       </c>
@@ -13703,7 +13879,7 @@
         <v>,("user17",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="136" spans="2:27">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B136" s="1">
         <v>19</v>
       </c>
@@ -13721,7 +13897,7 @@
         <v>,("user18",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="137" spans="2:27">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B137" s="1">
         <v>20</v>
       </c>
@@ -13739,7 +13915,7 @@
         <v>,("user19",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="138" spans="2:27">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B138" s="1">
         <v>21</v>
       </c>
@@ -13757,12 +13933,12 @@
         <v>,("user20",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="139" spans="2:27">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA139" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="2:27">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B140" s="17" t="s">
         <v>198</v>
       </c>
@@ -13775,7 +13951,7 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
     </row>
-    <row r="141" spans="2:27">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B141" s="17" t="s">
         <v>1</v>
       </c>
@@ -13801,6 +13977,7 @@
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
       <c r="T141" s="13"/>
@@ -13815,7 +13992,7 @@
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="142" spans="2:27">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B142" s="17" t="s">
         <v>3</v>
       </c>
@@ -13841,6 +14018,7 @@
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
       <c r="T142" s="13"/>
@@ -13855,7 +14033,7 @@
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
       </c>
     </row>
-    <row r="143" spans="2:27">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B143" s="1">
         <v>1</v>
       </c>
@@ -13882,7 +14060,7 @@
         <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="144" spans="2:27">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B144" s="1">
         <v>2</v>
       </c>
@@ -13909,49 +14087,59 @@
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="145" spans="2:27">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B145" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
       <c r="AA145" t="s">
-        <v>493</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C77:N77"/>
-    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="C145:H145"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C106:H106"/>
     <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C77:O77"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B80:N104">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="B80:L104 N80:N104">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J80 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:F138">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$J118 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H113">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$J109 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80:O104">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$J80 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M80:M104">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J80 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13967,7 +14155,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
@@ -13978,7 +14166,7 @@
     <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -13998,7 +14186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -14016,7 +14204,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -14036,7 +14224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -14054,7 +14242,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -14072,7 +14260,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -14090,7 +14278,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -14108,7 +14296,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14126,7 +14314,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -14144,7 +14332,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6FA22-E311-4256-B6F2-C5F55EEEEC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744E037-9E5E-42CE-AA0F-816B2898E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -2010,7 +2010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2639,11 +2639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+    <sheetView topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J113" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
@@ -2658,7 +2658,7 @@
     <col min="11" max="11" width="120.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>DROP TABLE IF EXISTS TB_USER;</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>CREATE TABLE TB_USER</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>8</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>10</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>, ACCOUNT_NUM VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>14</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>16</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>18</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
         <v>19</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
         <v>20</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <v>22</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>23</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>24</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>25</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J31" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E3,"';")</f>
         <v>) COMMENT '사용자';</v>
@@ -3550,7 +3550,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>1</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J34" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -3610,7 +3610,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <v>2</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
         <v>4</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>5</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
         <v>6</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
         <v>7</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J46" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E36,"';")</f>
         <v>) COMMENT '코드그룹';</v>
@@ -3944,7 +3944,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
         <v>1</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J49" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4004,7 +4004,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B54" s="4">
         <v>1</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" s="4">
         <v>3</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" s="4">
         <v>4</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" s="4">
         <v>5</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B59" s="4">
         <v>6</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B60" s="4">
         <v>7</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B61" s="4">
         <v>8</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B62" s="4">
         <v>9</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J63" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E51,"';")</f>
         <v>) COMMENT '코드상세';</v>
@@ -4402,7 +4402,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B65" s="4">
         <v>1</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>CODE_GROUP</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B66" s="4">
         <v>2</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>, CODE_DETAIL</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J67" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4488,7 +4488,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B68" s="21" t="s">
         <v>28</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>CREATE TABLE TB_LOG_LOGIN</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B71" s="6" t="s">
         <v>32</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B72" s="4">
         <v>1</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B73" s="4">
         <v>2</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B74" s="4">
         <v>3</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B75" s="4">
         <v>4</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B76" s="4">
         <v>5</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J77" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E69,"';")</f>
         <v>) COMMENT '로그인로그';</v>
@@ -4760,7 +4760,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B79" s="4">
         <v>1</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>LOGIN_SEQ</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J80" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -4820,7 +4820,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B81" s="21" t="s">
         <v>28</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="H81" s="22"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>CREATE TABLE TB_LOG_REQ</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B85" s="4">
         <v>1</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B86" s="4">
         <v>2</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B87" s="4">
         <v>3</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B88" s="4">
         <v>4</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B89" s="4">
         <v>5</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B90" s="4">
         <v>6</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B91" s="4">
         <v>7</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J92" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E82,"';")</f>
         <v>) COMMENT '요청로그';</v>
@@ -5156,7 +5156,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B94" s="4">
         <v>1</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>REQ_SEQ</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J95" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5216,7 +5216,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B96" s="21" t="s">
         <v>28</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="H96" s="22"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>CREATE TABLE TB_BOARD_FREE</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
         <v>32</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B100" s="4">
         <v>1</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B101" s="4">
         <v>2</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B102" s="4">
         <v>3</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B103" s="4">
         <v>4</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>, BOARD_FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B104" s="4">
         <v>5</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '자유게시판사용여부'</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B105" s="4">
         <v>6</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B106" s="4">
         <v>7</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B107" s="4">
         <v>8</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B108" s="4">
         <v>9</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B109" s="4">
         <v>10</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J110" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E97,"';")</f>
         <v>) COMMENT '자유게시판';</v>
@@ -5644,7 +5644,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B111" s="6" t="s">
         <v>32</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B112" s="4">
         <v>1</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J113" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -5704,7 +5704,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="21" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B115" s="6" t="s">
         <v>3</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B116" s="6" t="s">
         <v>31</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B117" s="6" t="s">
         <v>32</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B118" s="4">
         <v>1</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B119" s="4">
         <v>2</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B120" s="4">
         <v>3</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B121" s="4">
         <v>4</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B122" s="4">
         <v>5</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B123" s="4">
         <v>6</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B124" s="4">
         <v>7</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B125" s="4">
         <v>8</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B126" s="4">
         <v>9</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B127" s="4">
         <v>10</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B128" s="4">
         <v>11</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J129" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E115,"';")</f>
         <v>) COMMENT '공지사항';</v>
@@ -6160,7 +6160,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B130" s="6" t="s">
         <v>32</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B131" s="4">
         <v>1</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J132" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6220,7 +6220,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="21" t="s">
         <v>28</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="H133" s="22"/>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>CREATE TABLE TB_ATCFILE</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B136" s="6" t="s">
         <v>32</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B137" s="4">
         <v>1</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B138" s="4">
         <v>2</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B139" s="4">
         <v>3</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판,05:놀이)'</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B140" s="4">
         <v>4</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B141" s="4">
         <v>5</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B142" s="4">
         <v>6</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B143" s="4">
         <v>7</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B144" s="4">
         <v>8</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B145" s="4">
         <v>9</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B146" s="4">
         <v>10</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B147" s="4">
         <v>11</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B148" s="4">
         <v>12</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J149" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E134,"';")</f>
         <v>) COMMENT '첨부파일';</v>
@@ -6720,7 +6720,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B150" s="6" t="s">
         <v>32</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B151" s="4">
         <v>1</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B152" s="4">
         <v>2</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>, ATCFILE_NUM</v>
       </c>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J153" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -6806,7 +6806,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="21" t="s">
         <v>28</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="H154" s="22"/>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B155" s="6" t="s">
         <v>3</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>CREATE TABLE TB_SEQUENCE</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B157" s="6" t="s">
         <v>32</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B158" s="4">
         <v>1</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B159" s="4">
         <v>2</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J160" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E155,"';")</f>
         <v>) COMMENT '시퀀스';</v>
@@ -6984,7 +6984,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B161" s="6" t="s">
         <v>32</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B162" s="4">
         <v>1</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>SEQ_NM</v>
       </c>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J163" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7044,7 +7044,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="164" spans="2:11">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="21" t="s">
         <v>28</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="H164" s="22"/>
       <c r="I164" s="23"/>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B165" s="6" t="s">
         <v>3</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>DROP TABLE IF EXISTS TB_POLI;</v>
       </c>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B166" s="6" t="s">
         <v>31</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>CREATE TABLE TB_POLI</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B167" s="6" t="s">
         <v>32</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B168" s="4">
         <v>1</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B169" s="4">
         <v>2</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B170" s="4">
         <v>3</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B171" s="4">
         <v>4</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B172" s="4">
         <v>5</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B173" s="4">
         <v>9</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B174" s="4">
         <v>10</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B175" s="4">
         <v>11</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="176" spans="2:11">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B176" s="4">
         <v>12</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J177" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E165,"';")</f>
         <v>) COMMENT '정책';</v>
@@ -7443,7 +7443,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="179" spans="2:11">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B179" s="4">
         <v>1</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>POLI_SEQ</v>
       </c>
     </row>
-    <row r="180" spans="2:11">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J180" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -7503,7 +7503,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="181" spans="2:11">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="21" t="s">
         <v>28</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="H181" s="22"/>
       <c r="I181" s="23"/>
     </row>
-    <row r="182" spans="2:11">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B182" s="6" t="s">
         <v>3</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>DROP TABLE IF EXISTS TB_MNU;</v>
       </c>
     </row>
-    <row r="183" spans="2:11">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B183" s="6" t="s">
         <v>31</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>CREATE TABLE TB_MNU</v>
       </c>
     </row>
-    <row r="184" spans="2:11">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B184" s="6" t="s">
         <v>32</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="185" spans="2:11">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B185" s="4">
         <v>1</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="186" spans="2:11">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B186" s="4">
         <v>2</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
     </row>
-    <row r="187" spans="2:11">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B187" s="4">
         <v>3</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
     </row>
-    <row r="188" spans="2:11">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B188" s="4">
         <v>4</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
       </c>
     </row>
-    <row r="189" spans="2:11">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B189" s="4">
         <v>5</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
     </row>
-    <row r="190" spans="2:11">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B190" s="4">
         <v>6</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
     </row>
-    <row r="191" spans="2:11">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B191" s="4">
         <v>7</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
     </row>
-    <row r="192" spans="2:11">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B192" s="4">
         <v>8</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
-    <row r="193" spans="2:11">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B193" s="4">
         <v>9</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
     </row>
-    <row r="194" spans="2:11">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B194" s="4">
         <v>10</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
     </row>
-    <row r="195" spans="2:11">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B195" s="4">
         <v>11</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
     </row>
-    <row r="196" spans="2:11">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B196" s="4">
         <v>12</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>, MNU_ICON VARCHAR(50) NULL COMMENT '메뉴아이콘'</v>
       </c>
     </row>
-    <row r="197" spans="2:11">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B197" s="4">
         <v>13</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="198" spans="2:11">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B198" s="4">
         <v>14</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="199" spans="2:11">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B199" s="4">
         <v>15</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="200" spans="2:11">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B200" s="4">
         <v>16</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="201" spans="2:11">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E182,"';")</f>
         <v>) COMMENT '메뉴';</v>
@@ -8126,7 +8126,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="202" spans="2:11">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B202" s="6" t="s">
         <v>32</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="203" spans="2:11">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B203" s="4">
         <v>1</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="204" spans="2:11">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J204" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8186,7 +8186,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="205" spans="2:11">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B205" s="21" t="s">
         <v>28</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="H205" s="22"/>
       <c r="I205" s="23"/>
     </row>
-    <row r="206" spans="2:11">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B206" s="6" t="s">
         <v>3</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>DROP TABLE IF EXISTS TB_ROLE;</v>
       </c>
     </row>
-    <row r="207" spans="2:11">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B207" s="6" t="s">
         <v>31</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>CREATE TABLE TB_ROLE</v>
       </c>
     </row>
-    <row r="208" spans="2:11">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B208" s="6" t="s">
         <v>32</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="209" spans="2:11">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B209" s="4">
         <v>1</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="210" spans="2:11">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B210" s="4">
         <v>2</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
       </c>
     </row>
-    <row r="211" spans="2:11">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B211" s="4">
         <v>3</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
     </row>
-    <row r="212" spans="2:11">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B212" s="4">
         <v>4</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
       </c>
     </row>
-    <row r="213" spans="2:11">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B213" s="4">
         <v>5</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="214" spans="2:11">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B214" s="4">
         <v>6</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="215" spans="2:11">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B215" s="4">
         <v>7</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="216" spans="2:11">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B216" s="4">
         <v>8</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="217" spans="2:11">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E206,"';")</f>
         <v>) COMMENT '권한그룹';</v>
@@ -8553,7 +8553,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="218" spans="2:11">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B218" s="6" t="s">
         <v>32</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="219" spans="2:11">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B219" s="4">
         <v>1</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>ROLE_SEQ</v>
       </c>
     </row>
-    <row r="220" spans="2:11">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J220" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8613,7 +8613,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="221" spans="2:11">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B221" s="21" t="s">
         <v>28</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="H221" s="22"/>
       <c r="I221" s="23"/>
     </row>
-    <row r="222" spans="2:11">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B222" s="6" t="s">
         <v>3</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>DROP TABLE IF EXISTS TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="223" spans="2:11">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B223" s="6" t="s">
         <v>31</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
       </c>
     </row>
-    <row r="224" spans="2:11">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B224" s="6" t="s">
         <v>32</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="225" spans="2:11">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B225" s="4">
         <v>1</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
-    <row r="226" spans="2:11">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B226" s="4">
         <v>2</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="227" spans="2:11">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B227" s="4">
         <v>3</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B228" s="4">
         <v>4</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="229" spans="2:11">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E222,"';")</f>
         <v>) COMMENT '사용자_권한그룹_매핑';</v>
@@ -8855,7 +8855,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="230" spans="2:11">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B230" s="6" t="s">
         <v>32</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="231" spans="2:11">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B231" s="4">
         <v>1</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>USER_ID</v>
       </c>
     </row>
-    <row r="232" spans="2:11">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B232" s="4">
         <v>2</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="233" spans="2:11">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J233" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -8941,7 +8941,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="234" spans="2:11">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B234" s="21" t="s">
         <v>28</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="H234" s="22"/>
       <c r="I234" s="23"/>
     </row>
-    <row r="235" spans="2:11">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B235" s="6" t="s">
         <v>3</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>DROP TABLE IF EXISTS TB_AUTH;</v>
       </c>
     </row>
-    <row r="236" spans="2:11">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B236" s="6" t="s">
         <v>31</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>CREATE TABLE TB_AUTH</v>
       </c>
     </row>
-    <row r="237" spans="2:11">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B237" s="6" t="s">
         <v>32</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="238" spans="2:11">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B238" s="4">
         <v>1</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
       </c>
     </row>
-    <row r="239" spans="2:11">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B239" s="4">
         <v>2</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
-    <row r="240" spans="2:11">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B240" s="4">
         <v>3</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
-    <row r="241" spans="2:11">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B241" s="4">
         <v>4</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
-    <row r="242" spans="2:11">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B242" s="4">
         <v>5</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="243" spans="2:11">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B243" s="4">
         <v>6</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="244" spans="2:11">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B244" s="4">
         <v>7</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="245" spans="2:11">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B245" s="4">
         <v>8</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="246" spans="2:11">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E235,"';")</f>
         <v>) COMMENT '권한';</v>
@@ -9311,7 +9311,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="247" spans="2:11">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B247" s="6" t="s">
         <v>32</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="248" spans="2:11">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B248" s="4">
         <v>1</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>MNU_SEQ</v>
       </c>
     </row>
-    <row r="249" spans="2:11">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B249" s="4">
         <v>2</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="250" spans="2:11">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J250" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -9397,7 +9397,7 @@
         <v>);</v>
       </c>
     </row>
-    <row r="251" spans="2:11">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B251" s="21" t="s">
         <v>28</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="H251" s="22"/>
       <c r="I251" s="23"/>
     </row>
-    <row r="252" spans="2:11">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B252" s="6" t="s">
         <v>3</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>DROP TABLE IF EXISTS TB_PLAY;</v>
       </c>
     </row>
-    <row r="253" spans="2:11">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B253" s="6" t="s">
         <v>31</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>CREATE TABLE TB_PLAY</v>
       </c>
     </row>
-    <row r="254" spans="2:11">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B254" s="6" t="s">
         <v>32</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="255" spans="2:11">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B255" s="4">
         <v>1</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
-    <row r="256" spans="2:11">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B256" s="4">
         <v>2</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>, TITLE VARCHAR(300) NULL COMMENT '제목'</v>
       </c>
     </row>
-    <row r="257" spans="2:10">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B257" s="4">
         <v>3</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>, INTRO VARCHAR(300) NULL COMMENT '소개'</v>
       </c>
     </row>
-    <row r="258" spans="2:10">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B258" s="4">
         <v>4</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>, CN LONGTEXT NULL COMMENT '상세내용'</v>
       </c>
     </row>
-    <row r="259" spans="2:10">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B259" s="4">
         <v>5</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
-    <row r="260" spans="2:10">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B260" s="4">
         <v>6</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
-    <row r="261" spans="2:10">
+    <row r="261" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B261" s="4">
         <v>7</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
-    <row r="262" spans="2:10">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B262" s="4">
         <v>8</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
-    <row r="263" spans="2:10">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B263" s="4">
         <v>9</v>
       </c>
@@ -9735,13 +9735,13 @@
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="264" spans="2:10">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J264" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E252,"';")</f>
         <v>) COMMENT '놀이';</v>
       </c>
     </row>
-    <row r="265" spans="2:10">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B265" s="6" t="s">
         <v>32</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>ALTER TABLE TB_PLAY ADD CONSTRAINT PK_BOARD_SEQ PRIMARY KEY (</v>
       </c>
     </row>
-    <row r="266" spans="2:10">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B266" s="4">
         <v>1</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>BOARD_SEQ</v>
       </c>
     </row>
-    <row r="267" spans="2:10">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J267" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
@@ -9899,11 +9899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA150"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="D82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
@@ -9922,7 +9922,7 @@
     <col min="27" max="27" width="196.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>194</v>
       </c>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>TRUNCATE TB_SEQUENCE;</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>("POLI_SEQ",0)</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>,("LOGIN_SEQ",0)</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>,("BOARD_SEQ",0)</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -10093,12 +10093,12 @@
         <v>,("ROLE_SEQ",0)</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>194</v>
       </c>
@@ -10112,7 +10112,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>TRUNCATE TB_POLI;</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -10340,12 +10340,12 @@
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>194</v>
       </c>
@@ -10356,7 +10356,7 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>TRUNCATE TB_CODE_GROUP;</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>("LOGIN_CODE","로그인 유형 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>,("BOARD_FREE_CODE","자유게시판 분류 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -10541,12 +10541,12 @@
         <v>,("PLAY_ORDER_CODE","놀이 정렬 코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>1</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>TRUNCATE TB_CODE_DETAIL;</v>
       </c>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="33" spans="2:27">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="34" spans="2:27">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="35" spans="2:27">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>5</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="36" spans="2:27">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>6</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="37" spans="2:27">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>7</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="38" spans="2:27">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>8</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="39" spans="2:27">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>9</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="40" spans="2:27">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>10</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="41" spans="2:27">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>10</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>,("BOARD_CODE","05","놀이","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="42" spans="2:27">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>11</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="43" spans="2:27">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>12</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="44" spans="2:27">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>13</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>14</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="46" spans="2:27">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>15</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="47" spans="2:27">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>16</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>17</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="49" spans="2:27">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>18</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>18</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>,("BOARD_FREE_CODE","01","잡담","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="51" spans="2:27">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>18</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>,("BOARD_FREE_CODE","02","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="52" spans="2:27">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>18</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>,("BOARD_FREE_CODE","03","질문","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="53" spans="2:27">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>18</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>,("PLAY_ORDER_CODE","01","등록일","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="54" spans="2:27">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>18</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>,("PLAY_ORDER_CODE","02","좋아요","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="55" spans="2:27">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>18</v>
       </c>
@@ -11420,12 +11420,12 @@
         <v>,("PLAY_ORDER_CODE","03","제목","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="56" spans="2:27">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="2:27">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>194</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:27">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
-    <row r="59" spans="2:27">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B59" s="10" t="s">
         <v>3</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NAME,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="60" spans="2:27">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>1</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","관리자","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="61" spans="2:27">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>2</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>,("user1","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자1","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>3</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>,("user2","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자2","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="63" spans="2:27">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>4</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>,("user3","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자3","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="64" spans="2:27">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>5</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>,("user4","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자4","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="65" spans="2:27">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>6</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>,("user5","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자5","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="66" spans="2:27">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>7</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>,("user6","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자6","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="67" spans="2:27">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>8</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>,("user7","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자7","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="68" spans="2:27">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>9</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>,("user8","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자8","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>10</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>,("user9","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자9","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>11</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>,("user10","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자10","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="71" spans="2:27">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>12</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>,("user11","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자11","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="72" spans="2:27">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>13</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>,("user12","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자12","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="73" spans="2:27">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>14</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>,("user13","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자13","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="74" spans="2:27">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>15</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>,("user14","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자14","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="75" spans="2:27">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>16</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>,("user15","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자15","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="76" spans="2:27">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>17</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>,("user16","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자16","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="77" spans="2:27">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>18</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>,("user17","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자17","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="78" spans="2:27">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>19</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>,("user18","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자18","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="79" spans="2:27">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>20</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>,("user19","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자19","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="80" spans="2:27">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>20</v>
       </c>
@@ -12041,12 +12041,12 @@
         <v>,("user20","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","사용자20","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="81" spans="2:27">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA81" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="2:27">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B82" s="10" t="s">
         <v>194</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="2:27">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B83" s="10" t="s">
         <v>1</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
-    <row r="84" spans="2:27">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B84" s="10" t="s">
         <v>3</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,INFO,MNU_ORDER,MNU_ICON,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="85" spans="2:27">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>1</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,"fa-gear","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="86" spans="2:27">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>2</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="87" spans="2:27">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>3</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="88" spans="2:27">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>4</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="89" spans="2:27">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>5</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageRole","권한그룹 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="90" spans="2:27">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>5</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageAuth","권한 관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="91" spans="2:27">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>6</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/manageMnu","메뉴 관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="92" spans="2:27">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>7</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board/freeBoard","#","Y","Y",1,"게시판 관련 대메뉴",2,"fa-comment","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="93" spans="2:27" s="20" customFormat="1">
+    <row r="93" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>8</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>259</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="J93" s="18">
         <v>2</v>
@@ -12609,10 +12609,10 @@
       </c>
       <c r="AA93" s="20" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","Y",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="94" spans="2:27" s="20" customFormat="1">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/freeBoard","자유게시판","board/freeBoard","board","Y","N",2,"자유롭운 주제로 이야기를 나눌 수 있는 게시판입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
         <v>9</v>
       </c>
@@ -12632,10 +12632,10 @@
         <v>298</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="J94" s="18">
         <v>2</v>
@@ -12657,10 +12657,10 @@
       </c>
       <c r="AA94" s="20" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","Y","Y",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="95" spans="2:27" s="20" customFormat="1">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/qnaBoard","질문게시판","board/freeBoard","board","N","N",2,"육아 관련 질문 혹은 팁을 나눌 수 있는 게시판입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
         <v>10</v>
       </c>
@@ -12680,10 +12680,10 @@
         <v>298</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="J95" s="18">
         <v>2</v>
@@ -12705,10 +12705,10 @@
       </c>
       <c r="AA95" s="20" t="str">
         <f t="shared" ref="AA95:AA97" si="17">_xlfn.CONCAT(IF(B95=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C95:Z95),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","Y","Y",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="96" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board/villageBoard","지역게시판","board/freeBoard","board","N","N",2,"지역 주민들 끼리 교류할 수 있는 게시판입니다.",3,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
         <v>11</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>478</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>259</v>
@@ -12753,10 +12753,10 @@
       </c>
       <c r="AA96" t="str">
         <f t="shared" si="17"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","Y","Y",1,"장터 관련 대메뉴",3,"fa-store","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="97" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","#","N","Y",1,"장터 관련 대메뉴",3,"fa-store","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
         <v>12</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>299</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>259</v>
@@ -12801,10 +12801,10 @@
       </c>
       <c r="AA97" t="str">
         <f t="shared" si="17"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","Y","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="98" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/used","중고장터","market/used","market","N","Y",2,"중고 물품을 사고 팔 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <v>13</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>299</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>259</v>
@@ -12849,10 +12849,10 @@
       </c>
       <c r="AA98" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","Y","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="99" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market/company","기업장터","market/used","market","N","Y",2,"기업에서 생산한 물품을 사고 팔 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <v>14</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>259</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -12897,10 +12897,10 @@
       </c>
       <c r="AA99" t="str">
         <f t="shared" ref="AA99:AA101" si="18">_xlfn.CONCAT(IF(B99=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C99:Z99),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active/play","#","Y","Y",1,"활동 관련 대메뉴",4,"fa-ice-cream","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="100" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active/play","#","Y","N",1,"활동 관련 대메뉴",4,"fa-ice-cream","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
         <v>15</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/play","놀이","active/play","active","Y","Y",2,"아이와 함께할 수 있는 놀이 정보를 나누는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="101" spans="2:27">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B101" s="1">
         <v>16</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>300</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>259</v>
@@ -12993,10 +12993,10 @@
       </c>
       <c r="AA101" t="str">
         <f t="shared" si="18"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","Y","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="102" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/cook","요리","active/play","active","N","Y",2,"아이와 함께할 수 있는 요리 정보를 나누는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
         <v>17</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>300</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>259</v>
@@ -13041,10 +13041,10 @@
       </c>
       <c r="AA102" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","Y","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="103" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active/picnic","소풍","active/play","active","N","Y",2,"아이와 함께할 수 있는 관광 정보를 나누는 메뉴입니다.",3,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
         <v>18</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>478</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>259</v>
@@ -13089,10 +13089,10 @@
       </c>
       <c r="AA103" t="str">
         <f t="shared" ref="AA103:AA104" si="20">_xlfn.CONCAT(IF(B103=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C103:Z103),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","Y","Y",1,"베이비시터 관련 대메뉴",5,"fa-baby-carriage","SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","#","N","Y",1,"베이비시터 관련 대메뉴",5,"fa-baby-carriage","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
         <v>19</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>301</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>259</v>
@@ -13137,10 +13137,10 @@
       </c>
       <c r="AA104" t="str">
         <f t="shared" si="20"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/customer","돌봐주세요","sitter/customer","sitter","N","Y",2,"돌봄 서비스를 요청할 수 있는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
         <v>20</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>301</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>259</v>
@@ -13185,10 +13185,10 @@
       </c>
       <c r="AA105" t="str">
         <f t="shared" si="13"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","Y","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="106" spans="2:27">
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter/service","돌봐줄게요","sitter/customer","sitter","N","Y",2,"돌봄 서비스를 제공할 수 있는 메뉴입니다.",2,null,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
         <v>21</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,"fa-circle-info","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="107" spans="2:27">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
         <v>22</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="108" spans="2:27">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
         <v>23</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","#","N","Y",1,"사용자 관련 대메뉴",7,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="109" spans="2:27">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
         <v>24</v>
       </c>
@@ -13380,12 +13380,12 @@
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,null,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="110" spans="2:27">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="2:27">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B111" s="10" t="s">
         <v>194</v>
       </c>
@@ -13398,7 +13398,7 @@
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
     </row>
-    <row r="112" spans="2:27">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B112" s="10" t="s">
         <v>1</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>TRUNCATE TB_ROLE;</v>
       </c>
     </row>
-    <row r="113" spans="2:27">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B113" s="10" t="s">
         <v>3</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="114" spans="2:27">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
         <v>1</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"시스템 사용자의 기본 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="115" spans="2:27">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
         <v>2</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"프로젝트 열람을 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="116" spans="2:27">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
         <v>2</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"시스템 관리자 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="117" spans="2:27">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
         <v>3</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"사용자 중 시터로 활동하기 위한 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="118" spans="2:27">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
         <v>4</v>
       </c>
@@ -13615,12 +13615,12 @@
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"중고 장터 기업 권한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="119" spans="2:27">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA119" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="2:27">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B120" s="10" t="s">
         <v>194</v>
       </c>
@@ -13630,7 +13630,7 @@
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="2:27">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B121" s="10" t="s">
         <v>1</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
-    <row r="122" spans="2:27">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B122" s="10" t="s">
         <v>3</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
-    <row r="123" spans="2:27">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
         <v>1</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="124" spans="2:27">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>,("user1",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="125" spans="2:27">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>,("user2",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="126" spans="2:27">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>,("user3",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="127" spans="2:27">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>,("user4",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="128" spans="2:27">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>,("user5",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="129" spans="2:27">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>,("user6",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="130" spans="2:27">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>,("user7",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="131" spans="2:27">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>,("user8",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="132" spans="2:27">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>,("user9",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="133" spans="2:27">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
         <v>11</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>,("user10",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="134" spans="2:27">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B134" s="1">
         <v>12</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>,("user11",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="135" spans="2:27">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B135" s="1">
         <v>13</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>,("user12",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="136" spans="2:27">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B136" s="1">
         <v>14</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>,("user13",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="137" spans="2:27">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B137" s="1">
         <v>15</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>,("user14",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="138" spans="2:27">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B138" s="1">
         <v>16</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>,("user15",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="139" spans="2:27">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B139" s="1">
         <v>17</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>,("user16",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="140" spans="2:27">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B140" s="1">
         <v>18</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>,("user17",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="141" spans="2:27">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B141" s="1">
         <v>19</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>,("user18",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="142" spans="2:27">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B142" s="1">
         <v>20</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>,("user19",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="143" spans="2:27">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B143" s="1">
         <v>21</v>
       </c>
@@ -14074,12 +14074,12 @@
         <v>,("user20",1,"SYSTEM")</v>
       </c>
     </row>
-    <row r="144" spans="2:27">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA144" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="2:27">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B145" s="17" t="s">
         <v>194</v>
       </c>
@@ -14092,7 +14092,7 @@
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
     </row>
-    <row r="146" spans="2:27">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B146" s="17" t="s">
         <v>1</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="147" spans="2:27">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B147" s="17" t="s">
         <v>3</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
       </c>
     </row>
-    <row r="148" spans="2:27">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B148" s="1">
         <v>1</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="149" spans="2:27">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B149" s="1">
         <v>2</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
       </c>
     </row>
-    <row r="150" spans="2:27">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B150" s="17" t="s">
         <v>344</v>
       </c>
@@ -14286,7 +14286,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
@@ -14297,7 +14297,7 @@
     <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>

--- a/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744E037-9E5E-42CE-AA0F-816B2898E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923B9A78-BB97-4817-8DC0-DCACEF53C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="551">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1576,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"중고 장터 기업 권한"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"user1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1738,10 +1734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"market/company"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"중고 물품을 사고 팔 수 있는 메뉴입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2003,6 +1995,110 @@
   </si>
   <si>
     <t>SAVE_ATC_FILE_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"장터 기업 권한"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_ENT_MARKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 장터 관련 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENT_MARKET_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업장터일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConvers